--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6C1B3C-0C98-4C6D-BB13-66FB38AD8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BE1F1C-61EC-4080-9E87-D01C81FBA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4541,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>10.06</v>
+        <v>10.32</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4591,7 +4591,7 @@
       <c r="H6" s="153"/>
       <c r="I6" s="412">
         <f>I4*I5/1000000</f>
-        <v>81096.297299419995</v>
+        <v>83192.225460240006</v>
       </c>
       <c r="J6" s="413"/>
       <c r="K6" s="171"/>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C7" s="165">
         <f>(Data!C39)/I4</f>
-        <v>3.7655073063635913E-2</v>
+        <v>3.6706398742265244E-2</v>
       </c>
       <c r="D7" s="165">
         <f>(Data!C40)/I4</f>
@@ -4633,11 +4633,11 @@
       </c>
       <c r="I9" s="141">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>14.139616043847713</v>
+        <v>14.505053436631053</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.0723278262927791E-2</v>
+        <v>6.8941490244675732E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,11 +4656,11 @@
       </c>
       <c r="I10" s="158">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.51252643873590054</v>
+        <v>0.52577264888215636</v>
       </c>
       <c r="J10" s="150">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>3.7673376422889944</v>
+        <v>4.1595857957298987</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4759,14 +4759,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="151">
         <f>I4</f>
-        <v>10.06</v>
+        <v>10.32</v>
       </c>
       <c r="C16" s="433">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-1.2005629667145273E-2</v>
+        <v>-3.9416340547624357E-2</v>
       </c>
       <c r="E16" s="430">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="F16" s="181">
         <f>E16/B16</f>
-        <v>5.5666003976143144E-2</v>
+        <v>5.4263565891472874E-2</v>
       </c>
       <c r="G16" s="417" t="s">
         <v>25</v>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="J16" s="226">
         <f>B16-$H$16</f>
-        <v>4.076555764884052</v>
+        <v>4.3365557648840518</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10820,7 +10820,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="455">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>20130289.936419986</v>
+        <v>22226218.097239994</v>
       </c>
       <c r="E60" s="456"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BE1F1C-61EC-4080-9E87-D01C81FBA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3E01D-5F5E-4386-AD27-716F10ADBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="356">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1232,6 +1232,9 @@
   </si>
   <si>
     <t>Debt to CE Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2942,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3861,20 +3864,167 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3891,7 +4041,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3906,152 +4055,6 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4104,6 +4107,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4471,7 +4477,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4515,33 +4521,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="398" t="s">
+      <c r="C3" s="389" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="399"/>
+      <c r="D3" s="390"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="410" t="s">
+      <c r="I3" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="411"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="400" t="s">
+      <c r="C4" s="391" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="401"/>
+      <c r="D4" s="392"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>10.32</v>
+        <v>10.18</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4552,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="402">
+      <c r="C5" s="393">
         <v>44956</v>
       </c>
-      <c r="D5" s="401"/>
+      <c r="D5" s="392"/>
       <c r="E5" s="142" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4563,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="393">
+      <c r="I5" s="401">
         <v>8061262157</v>
       </c>
-      <c r="J5" s="394"/>
+      <c r="J5" s="402"/>
       <c r="K5" s="171"/>
       <c r="L5" s="106"/>
     </row>
@@ -4589,11 +4595,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="153"/>
-      <c r="I6" s="412">
+      <c r="I6" s="403">
         <f>I4*I5/1000000</f>
-        <v>83192.225460240006</v>
-      </c>
-      <c r="J6" s="413"/>
+        <v>82063.648758259995</v>
+      </c>
+      <c r="J6" s="404"/>
       <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4602,7 +4608,7 @@
       </c>
       <c r="C7" s="165">
         <f>(Data!C39)/I4</f>
-        <v>3.6706398742265244E-2</v>
+        <v>3.7211201868386772E-2</v>
       </c>
       <c r="D7" s="165">
         <f>(Data!C40)/I4</f>
@@ -4633,11 +4639,11 @@
       </c>
       <c r="I9" s="141">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>14.505053436631053</v>
+        <v>14.308279455901562</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>6.8941490244675732E-2</v>
+        <v>6.9889605041753788E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,41 +4662,41 @@
       </c>
       <c r="I10" s="158">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.52577264888215636</v>
+        <v>0.5186400741880185</v>
       </c>
       <c r="J10" s="150">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>4.1595857957298987</v>
+        <v>3.9483752515694106</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="332" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="424">
+      <c r="C11" s="413">
         <f ca="1">C12-D10</f>
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="D11" s="425"/>
+      <c r="D11" s="414"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="422" t="s">
+      <c r="I11" s="411" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="423"/>
+      <c r="J11" s="412"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="426">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="427"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="154" t="s">
         <v>16</v>
       </c>
@@ -4759,36 +4765,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="151">
         <f>I4</f>
-        <v>10.32</v>
-      </c>
-      <c r="C16" s="433">
+        <v>10.18</v>
+      </c>
+      <c r="C16" s="377">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-3.9416340547624357E-2</v>
-      </c>
-      <c r="E16" s="430">
+        <v>-2.4830710653387295E-2</v>
+      </c>
+      <c r="E16" s="372">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="181">
         <f>E16/B16</f>
-        <v>5.4263565891472874E-2</v>
-      </c>
-      <c r="G16" s="417" t="s">
+        <v>5.5009823182711207E-2</v>
+      </c>
+      <c r="G16" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="414">
+      <c r="H16" s="405">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9834442351159485</v>
       </c>
-      <c r="I16" s="417" t="s">
+      <c r="I16" s="380" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="226">
         <f>B16-$H$16</f>
-        <v>4.3365557648840518</v>
+        <v>4.1965557648840512</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4796,19 +4802,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>9.9502030595895619</v>
       </c>
-      <c r="C17" s="434"/>
+      <c r="C17" s="378"/>
       <c r="D17" s="309">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="431"/>
+      <c r="E17" s="373"/>
       <c r="F17" s="182">
         <f ca="1">E16/B17</f>
         <v>5.6280258467720119E-2</v>
       </c>
-      <c r="G17" s="418"/>
-      <c r="H17" s="415"/>
-      <c r="I17" s="418"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="406"/>
+      <c r="I17" s="381"/>
       <c r="J17" s="225">
         <f ca="1">B17-$H$16</f>
         <v>3.9667588244736134</v>
@@ -4819,19 +4825,19 @@
         <f>C35</f>
         <v>9.6</v>
       </c>
-      <c r="C18" s="435"/>
+      <c r="C18" s="379"/>
       <c r="D18" s="180">
         <f ca="1">H14/B18-1-C16</f>
         <v>4.0127433911304106E-2</v>
       </c>
-      <c r="E18" s="432"/>
+      <c r="E18" s="374"/>
       <c r="F18" s="183">
         <f>E16/B18</f>
         <v>5.8333333333333341E-2</v>
       </c>
-      <c r="G18" s="419"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="419"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="407"/>
+      <c r="I18" s="382"/>
       <c r="J18" s="227">
         <f>B18-$H$16</f>
         <v>3.6165557648840512</v>
@@ -4865,52 +4871,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="405" t="s">
+      <c r="C21" s="396" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="406"/>
-      <c r="E21" s="406"/>
-      <c r="F21" s="406"/>
-      <c r="G21" s="406"/>
-      <c r="H21" s="406"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="407"/>
+      <c r="D21" s="397"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="398"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="421" t="s">
+      <c r="C22" s="409" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
-      <c r="G22" s="421" t="s">
+      <c r="D22" s="410"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="410"/>
+      <c r="G22" s="409" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="421"/>
-      <c r="I22" s="372"/>
-      <c r="J22" s="372"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="410"/>
+      <c r="J22" s="410"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="408" t="s">
+      <c r="C23" s="375" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="408" t="s">
+      <c r="D23" s="376"/>
+      <c r="E23" s="376"/>
+      <c r="F23" s="376"/>
+      <c r="G23" s="375" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="408"/>
-      <c r="I23" s="409"/>
-      <c r="J23" s="409"/>
+      <c r="H23" s="375"/>
+      <c r="I23" s="376"/>
+      <c r="J23" s="376"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4954,202 +4960,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="403">
+      <c r="C26" s="394">
         <v>44970</v>
       </c>
-      <c r="D26" s="404"/>
-      <c r="E26" s="439" t="str">
+      <c r="D26" s="395"/>
+      <c r="E26" s="386" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="440"/>
-      <c r="G26" s="440"/>
-      <c r="H26" s="441"/>
-      <c r="I26" s="420" t="s">
+      <c r="F26" s="387"/>
+      <c r="G26" s="387"/>
+      <c r="H26" s="388"/>
+      <c r="I26" s="408" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="420"/>
+      <c r="J26" s="408"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="429">
+      <c r="C27" s="371">
         <f>C31/D25</f>
         <v>6.8733333333333327E-2</v>
       </c>
-      <c r="D27" s="392"/>
-      <c r="E27" s="428">
+      <c r="D27" s="370"/>
+      <c r="E27" s="369">
         <f>E31/D25</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F27" s="392"/>
-      <c r="G27" s="437">
+      <c r="F27" s="370"/>
+      <c r="G27" s="384">
         <f>G31/D25</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H27" s="438"/>
-      <c r="I27" s="436">
+      <c r="H27" s="385"/>
+      <c r="I27" s="383">
         <f>C27+E27+G27</f>
         <v>0.43140000000000001</v>
       </c>
-      <c r="J27" s="436"/>
+      <c r="J27" s="383"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="367">
+      <c r="C28" s="419">
         <v>4000</v>
       </c>
-      <c r="D28" s="372"/>
-      <c r="E28" s="367">
+      <c r="D28" s="410"/>
+      <c r="E28" s="419">
         <v>6000</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="393">
+      <c r="F28" s="410"/>
+      <c r="G28" s="401">
         <v>20000</v>
       </c>
-      <c r="H28" s="394"/>
-      <c r="I28" s="397">
+      <c r="H28" s="402"/>
+      <c r="I28" s="418">
         <f>C28+E28+G28</f>
         <v>30000</v>
       </c>
-      <c r="J28" s="397"/>
+      <c r="J28" s="418"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="371">
+      <c r="C29" s="420">
         <v>10.31</v>
       </c>
-      <c r="D29" s="372"/>
-      <c r="E29" s="371">
+      <c r="D29" s="410"/>
+      <c r="E29" s="420">
         <v>9.6</v>
       </c>
-      <c r="F29" s="372"/>
-      <c r="G29" s="373">
+      <c r="F29" s="410"/>
+      <c r="G29" s="430">
         <v>8</v>
       </c>
-      <c r="H29" s="374"/>
-      <c r="I29" s="395"/>
-      <c r="J29" s="395"/>
+      <c r="H29" s="431"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="415"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="369">
+      <c r="C30" s="421">
         <f>C29*$I$5/1000000</f>
         <v>83111.61283867</v>
       </c>
-      <c r="D30" s="379"/>
-      <c r="E30" s="369">
+      <c r="D30" s="422"/>
+      <c r="E30" s="421">
         <f>E29*$I$5/1000000</f>
         <v>77388.116707199995</v>
       </c>
-      <c r="F30" s="379"/>
-      <c r="G30" s="382">
+      <c r="F30" s="422"/>
+      <c r="G30" s="438">
         <f>G29*$I$5/1000000</f>
         <v>64490.097256000001</v>
       </c>
-      <c r="H30" s="383"/>
-      <c r="I30" s="396"/>
-      <c r="J30" s="396"/>
+      <c r="H30" s="439"/>
+      <c r="I30" s="416"/>
+      <c r="J30" s="416"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="388">
+      <c r="C31" s="425">
         <f>C28*C29</f>
         <v>41240</v>
       </c>
-      <c r="D31" s="389"/>
-      <c r="E31" s="390">
+      <c r="D31" s="426"/>
+      <c r="E31" s="417">
         <f>E28*E29</f>
         <v>57600</v>
       </c>
-      <c r="F31" s="391"/>
-      <c r="G31" s="384">
+      <c r="F31" s="427"/>
+      <c r="G31" s="440">
         <f>G28*G29</f>
         <v>160000</v>
       </c>
-      <c r="H31" s="385"/>
-      <c r="I31" s="390">
+      <c r="H31" s="441"/>
+      <c r="I31" s="417">
         <f>C31+E31+G31</f>
         <v>258840</v>
       </c>
-      <c r="J31" s="390"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="386"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="370">
+      <c r="C32" s="423"/>
+      <c r="D32" s="424"/>
+      <c r="E32" s="428">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.8840000000000003</v>
       </c>
-      <c r="F32" s="392"/>
+      <c r="F32" s="370"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
-      <c r="I32" s="370">
+      <c r="I32" s="428">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>8.6280000000000001</v>
       </c>
-      <c r="J32" s="370"/>
+      <c r="J32" s="428"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="380"/>
-      <c r="D33" s="381"/>
-      <c r="E33" s="369">
+      <c r="C33" s="436"/>
+      <c r="D33" s="437"/>
+      <c r="E33" s="421">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>79677.515159788003</v>
       </c>
-      <c r="F33" s="379"/>
+      <c r="F33" s="422"/>
       <c r="G33" s="138"/>
       <c r="H33" s="138"/>
-      <c r="I33" s="369">
+      <c r="I33" s="421">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>69552.569890596002</v>
       </c>
-      <c r="J33" s="369"/>
+      <c r="J33" s="421"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="375">
+      <c r="C35" s="432">
         <f>E29</f>
         <v>9.6</v>
       </c>
-      <c r="D35" s="376"/>
-      <c r="G35" s="377" t="s">
+      <c r="D35" s="433"/>
+      <c r="G35" s="434" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="378"/>
-      <c r="I35" s="375">
+      <c r="H35" s="435"/>
+      <c r="I35" s="432">
         <f ca="1">'FCFF Model'!C33*0.9</f>
         <v>12.347246296726411</v>
       </c>
-      <c r="J35" s="376"/>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="367">
+      <c r="C36" s="419">
         <f>E28</f>
         <v>6000</v>
       </c>
-      <c r="D36" s="368"/>
+      <c r="D36" s="429"/>
+      <c r="G36" s="464" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" s="464"/>
+      <c r="I36" s="453">
+        <f ca="1">IF(C26="",0,I35/C29-1)</f>
+        <v>0.1975990588483425</v>
+      </c>
+      <c r="J36" s="454"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6082,17 +6097,35 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="54">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6109,76 +6142,65 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -7925,7 +7947,7 @@
       <c r="D49" s="442" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="372"/>
+      <c r="E49" s="410"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10723,7 +10745,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="389"/>
+      <c r="E53" s="426"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10742,7 +10764,7 @@
       <c r="D54" s="457">
         <v>0</v>
       </c>
-      <c r="E54" s="372"/>
+      <c r="E54" s="410"/>
       <c r="F54" s="6" t="s">
         <v>161</v>
       </c>
@@ -10756,7 +10778,7 @@
       <c r="D55" s="457">
         <v>0</v>
       </c>
-      <c r="E55" s="372"/>
+      <c r="E55" s="410"/>
       <c r="F55" s="5" t="s">
         <v>162</v>
       </c>
@@ -10820,7 +10842,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="455">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>22226218.097239994</v>
+        <v>21097641.395259984</v>
       </c>
       <c r="E60" s="456"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3E01D-5F5E-4386-AD27-716F10ADBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F1BC6A-F8D4-4754-9F39-2583B46BB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4055,6 +4055,13 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4078,10 +4085,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4107,9 +4110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4118,17 +4118,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4137,16 +4127,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4168,6 +4154,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4208,8 +4201,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4234,20 +4228,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4476,8 +4469,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:J36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5156,15 +5149,15 @@
         <v>6000</v>
       </c>
       <c r="D36" s="429"/>
-      <c r="G36" s="464" t="s">
+      <c r="G36" s="442" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="464"/>
-      <c r="I36" s="453">
+      <c r="H36" s="442"/>
+      <c r="I36" s="443">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.1975990588483425</v>
       </c>
-      <c r="J36" s="454"/>
+      <c r="J36" s="444"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6153,12 +6146,17 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -6168,9 +6166,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
-      <formula>$B$16</formula>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
@@ -6178,29 +6176,19 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(I35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
+  <conditionalFormatting sqref="I35:J36">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
+      <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -7944,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="442" t="s">
+      <c r="D49" s="445" t="s">
         <v>79</v>
       </c>
       <c r="E49" s="410"/>
@@ -7962,10 +7950,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="443">
+      <c r="D51" s="446">
         <v>5</v>
       </c>
-      <c r="E51" s="444"/>
+      <c r="E51" s="447"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7976,10 +7964,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="445" t="s">
+      <c r="D52" s="448" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="446"/>
+      <c r="E52" s="449"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9699,23 +9687,23 @@
     <mergeCell ref="D52:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:F73">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$D$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
-      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
     <cfRule type="containsBlanks" dxfId="7" priority="4">
       <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9743,7 +9731,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9848,7 +9836,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="82">
-        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>13.719162551918235</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10728,11 +10716,11 @@
         <v>291</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="447">
+      <c r="D52" s="450">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="448"/>
+      <c r="E52" s="451"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10741,7 +10729,7 @@
         <v>261</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="450">
+      <c r="D53" s="453">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -10761,7 +10749,7 @@
         <v>160</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="457">
+      <c r="D54" s="458">
         <v>0</v>
       </c>
       <c r="E54" s="410"/>
@@ -10775,7 +10763,7 @@
         <v>159</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="457">
+      <c r="D55" s="458">
         <v>0</v>
       </c>
       <c r="E55" s="410"/>
@@ -10793,8 +10781,8 @@
         <v>163</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="449"/>
-      <c r="E57" s="449"/>
+      <c r="D57" s="452"/>
+      <c r="E57" s="452"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10840,11 +10828,11 @@
         <v>164</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="455">
+      <c r="D60" s="456">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>21097641.395259984</v>
       </c>
-      <c r="E60" s="456"/>
+      <c r="E60" s="457"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10861,20 +10849,20 @@
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="453">
+      <c r="D63" s="443">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="454"/>
+      <c r="E63" s="444"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="451">
+      <c r="D64" s="454">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="452"/>
+      <c r="E64" s="455"/>
       <c r="F64" s="286" t="s">
         <v>277</v>
       </c>
@@ -10883,10 +10871,10 @@
       <c r="B65" s="312" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="451">
+      <c r="D65" s="454">
         <v>0.15</v>
       </c>
-      <c r="E65" s="452"/>
+      <c r="E65" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12348,38 +12336,30 @@
     <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G9:H13 I12 I14:I17 G15:H17 H14 I9:I10">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+  <conditionalFormatting sqref="E18:E20 G20 I20">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H13 G15:H17 H14">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I13 I11">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G9:J20">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:J17">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20 G20 I20">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:J20">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12395,8 +12375,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12800,7 +12780,7 @@
         <v>264</v>
       </c>
       <c r="G19" s="217">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>5.9834442351159485</v>
       </c>
     </row>
@@ -12816,7 +12796,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.83603761045629021</v>
       </c>
-      <c r="E20" s="460" t="str">
+      <c r="E20" s="461" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12839,7 +12819,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.5228960930564099E-2</v>
       </c>
-      <c r="E21" s="460"/>
+      <c r="E21" s="461"/>
       <c r="F21" s="168">
         <f>D18</f>
         <v>5.4136679995904018</v>
@@ -12861,11 +12841,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="463" t="s">
+      <c r="E23" s="464" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="463"/>
-      <c r="G23" s="463"/>
+      <c r="F23" s="464"/>
+      <c r="G23" s="464"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="147" t="str">
@@ -12906,7 +12886,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.402332814848648</v>
       </c>
-      <c r="F25" s="461">
+      <c r="F25" s="462">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.84283344852308595</v>
       </c>
@@ -12931,7 +12911,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>3.6034992222729718</v>
       </c>
-      <c r="F26" s="462"/>
+      <c r="F26" s="463"/>
       <c r="G26" s="227">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>10.429776905912007</v>
@@ -12995,10 +12975,10 @@
       <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="458" t="s">
+      <c r="C31" s="459" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="459"/>
+      <c r="D31" s="460"/>
       <c r="E31" s="30" t="s">
         <v>244</v>
       </c>
@@ -13953,14 +13933,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F1BC6A-F8D4-4754-9F39-2583B46BB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EF84F8-BF19-4BA5-9C09-2CD6AF1A6FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="370">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1236,12 +1236,72 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1267,6 +1327,7 @@
     <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="185" formatCode="&quot;Next Action Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2942,7 +3003,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3864,66 +3925,103 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,16 +4048,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3977,13 +4073,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3996,72 +4100,54 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4118,7 +4204,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4224,6 +4310,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4469,8 +4565,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4514,33 +4610,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="389" t="s">
+      <c r="C3" s="412" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="390"/>
+      <c r="D3" s="413"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="399" t="s">
+      <c r="I3" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="400"/>
+      <c r="J3" s="425"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="391" t="s">
+      <c r="C4" s="414" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="392"/>
+      <c r="D4" s="415"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>10.18</v>
+        <v>10.56</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4551,10 +4647,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="393">
+      <c r="C5" s="416">
         <v>44956</v>
       </c>
-      <c r="D5" s="392"/>
+      <c r="D5" s="415"/>
       <c r="E5" s="142" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4562,10 +4658,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="401">
+      <c r="I5" s="407">
         <v>8061262157</v>
       </c>
-      <c r="J5" s="402"/>
+      <c r="J5" s="408"/>
       <c r="K5" s="171"/>
       <c r="L5" s="106"/>
     </row>
@@ -4588,11 +4684,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="153"/>
-      <c r="I6" s="403">
+      <c r="I6" s="426">
         <f>I4*I5/1000000</f>
-        <v>82063.648758259995</v>
-      </c>
-      <c r="J6" s="404"/>
+        <v>85126.928377920005</v>
+      </c>
+      <c r="J6" s="427"/>
       <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4601,7 +4697,7 @@
       </c>
       <c r="C7" s="165">
         <f>(Data!C39)/I4</f>
-        <v>3.7211201868386772E-2</v>
+        <v>3.5872162407213755E-2</v>
       </c>
       <c r="D7" s="165">
         <f>(Data!C40)/I4</f>
@@ -4632,11 +4728,11 @@
       </c>
       <c r="I9" s="141">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>14.308279455901562</v>
+        <v>14.842380260738754</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>6.9889605041753788E-2</v>
+        <v>6.7374638193660366E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4655,41 +4751,41 @@
       </c>
       <c r="I10" s="158">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.5186400741880185</v>
+        <v>0.53799991978639261</v>
       </c>
       <c r="J10" s="150">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>3.9483752515694106</v>
+        <v>4.5216610142907312</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="332" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="413">
+      <c r="C11" s="438">
         <f ca="1">C12-D10</f>
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="D11" s="414"/>
+      <c r="D11" s="439"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="411" t="s">
+      <c r="I11" s="436" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="412"/>
+      <c r="J11" s="437"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="440">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="441"/>
       <c r="G12" s="154" t="s">
         <v>16</v>
       </c>
@@ -4712,21 +4808,21 @@
         <v>242</v>
       </c>
       <c r="D14" s="204">
-        <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
         <v>10.429776905912007</v>
       </c>
       <c r="E14" s="147" t="s">
         <v>259</v>
       </c>
       <c r="F14" s="204">
-        <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
         <v>11.339169963600042</v>
       </c>
       <c r="G14" s="205" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="213">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
         <v>10.945223365548518</v>
       </c>
       <c r="I14" s="153"/>
@@ -4758,36 +4854,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="151">
         <f>I4</f>
-        <v>10.18</v>
-      </c>
-      <c r="C16" s="377">
+        <v>10.56</v>
+      </c>
+      <c r="C16" s="447">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-2.4830710653387295E-2</v>
-      </c>
-      <c r="E16" s="372">
+        <v>-6.352051462608746E-2</v>
+      </c>
+      <c r="E16" s="444">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="181">
         <f>E16/B16</f>
-        <v>5.5009823182711207E-2</v>
-      </c>
-      <c r="G16" s="380" t="s">
+        <v>5.3030303030303032E-2</v>
+      </c>
+      <c r="G16" s="431" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="405">
+      <c r="H16" s="428">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9834442351159485</v>
       </c>
-      <c r="I16" s="380" t="s">
+      <c r="I16" s="431" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="226">
         <f>B16-$H$16</f>
-        <v>4.1965557648840512</v>
+        <v>4.576555764884052</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4795,19 +4891,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>9.9502030595895619</v>
       </c>
-      <c r="C17" s="378"/>
+      <c r="C17" s="448"/>
       <c r="D17" s="309">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="373"/>
+      <c r="E17" s="445"/>
       <c r="F17" s="182">
         <f ca="1">E16/B17</f>
         <v>5.6280258467720119E-2</v>
       </c>
-      <c r="G17" s="381"/>
-      <c r="H17" s="406"/>
-      <c r="I17" s="381"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="429"/>
+      <c r="I17" s="432"/>
       <c r="J17" s="225">
         <f ca="1">B17-$H$16</f>
         <v>3.9667588244736134</v>
@@ -4816,24 +4912,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="365">
         <f>C35</f>
-        <v>9.6</v>
-      </c>
-      <c r="C18" s="379"/>
+        <v>9.9</v>
+      </c>
+      <c r="C18" s="449"/>
       <c r="D18" s="180">
         <f ca="1">H14/B18-1-C16</f>
-        <v>4.0127433911304106E-2</v>
-      </c>
-      <c r="E18" s="374"/>
+        <v>5.5781177321735098E-3</v>
+      </c>
+      <c r="E18" s="446"/>
       <c r="F18" s="183">
         <f>E16/B18</f>
-        <v>5.8333333333333341E-2</v>
-      </c>
-      <c r="G18" s="382"/>
-      <c r="H18" s="407"/>
-      <c r="I18" s="382"/>
+        <v>5.6565656565656569E-2</v>
+      </c>
+      <c r="G18" s="433"/>
+      <c r="H18" s="430"/>
+      <c r="I18" s="433"/>
       <c r="J18" s="227">
         <f>B18-$H$16</f>
-        <v>3.6165557648840512</v>
+        <v>3.9165557648840519</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4864,52 +4960,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="396" t="s">
+      <c r="C21" s="419" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="397"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="397"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="397"/>
-      <c r="I21" s="397"/>
-      <c r="J21" s="398"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="420"/>
+      <c r="F21" s="420"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="421"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="409" t="s">
+      <c r="C22" s="435" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="410"/>
-      <c r="E22" s="410"/>
-      <c r="F22" s="410"/>
-      <c r="G22" s="409" t="s">
+      <c r="D22" s="383"/>
+      <c r="E22" s="383"/>
+      <c r="F22" s="383"/>
+      <c r="G22" s="435" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="409"/>
-      <c r="I22" s="410"/>
-      <c r="J22" s="410"/>
+      <c r="H22" s="435"/>
+      <c r="I22" s="383"/>
+      <c r="J22" s="383"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="375" t="s">
+      <c r="C23" s="422" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="376"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="376"/>
-      <c r="G23" s="375" t="s">
+      <c r="D23" s="423"/>
+      <c r="E23" s="423"/>
+      <c r="F23" s="423"/>
+      <c r="G23" s="422" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="375"/>
-      <c r="I23" s="376"/>
-      <c r="J23" s="376"/>
+      <c r="H23" s="422"/>
+      <c r="I23" s="423"/>
+      <c r="J23" s="423"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4953,240 +5049,374 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="394">
+      <c r="C26" s="417">
         <v>44970</v>
       </c>
-      <c r="D26" s="395"/>
-      <c r="E26" s="386" t="str">
+      <c r="D26" s="418"/>
+      <c r="E26" s="453" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="387"/>
-      <c r="G26" s="387"/>
-      <c r="H26" s="388"/>
-      <c r="I26" s="408" t="s">
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="455"/>
+      <c r="I26" s="434" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="408"/>
+      <c r="J26" s="434"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="371">
+      <c r="C27" s="443">
         <f>C31/D25</f>
         <v>6.8733333333333327E-2</v>
       </c>
-      <c r="D27" s="370"/>
-      <c r="E27" s="369">
+      <c r="D27" s="406"/>
+      <c r="E27" s="442">
         <f>E31/D25</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F27" s="370"/>
-      <c r="G27" s="384">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F27" s="406"/>
+      <c r="G27" s="451">
         <f>G31/D25</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H27" s="385"/>
-      <c r="I27" s="383">
+      <c r="H27" s="452"/>
+      <c r="I27" s="450">
         <f>C27+E27+G27</f>
-        <v>0.43140000000000001</v>
-      </c>
-      <c r="J27" s="383"/>
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="J27" s="450"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="419">
+      <c r="C28" s="378">
         <v>4000</v>
       </c>
-      <c r="D28" s="410"/>
-      <c r="E28" s="419">
-        <v>6000</v>
-      </c>
-      <c r="F28" s="410"/>
-      <c r="G28" s="401">
+      <c r="D28" s="383"/>
+      <c r="E28" s="378">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="383"/>
+      <c r="G28" s="407">
         <v>20000</v>
       </c>
-      <c r="H28" s="402"/>
-      <c r="I28" s="418">
+      <c r="H28" s="408"/>
+      <c r="I28" s="411">
         <f>C28+E28+G28</f>
-        <v>30000</v>
-      </c>
-      <c r="J28" s="418"/>
+        <v>29000</v>
+      </c>
+      <c r="J28" s="411"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="420">
+      <c r="C29" s="382">
         <v>10.31</v>
       </c>
-      <c r="D29" s="410"/>
-      <c r="E29" s="420">
-        <v>9.6</v>
-      </c>
-      <c r="F29" s="410"/>
-      <c r="G29" s="430">
+      <c r="D29" s="383"/>
+      <c r="E29" s="382">
+        <v>9.9</v>
+      </c>
+      <c r="F29" s="383"/>
+      <c r="G29" s="384">
         <v>8</v>
       </c>
-      <c r="H29" s="431"/>
-      <c r="I29" s="415"/>
-      <c r="J29" s="415"/>
+      <c r="H29" s="385"/>
+      <c r="I29" s="409"/>
+      <c r="J29" s="409"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="421">
+      <c r="C30" s="380">
         <f>C29*$I$5/1000000</f>
         <v>83111.61283867</v>
       </c>
-      <c r="D30" s="422"/>
-      <c r="E30" s="421">
+      <c r="D30" s="390"/>
+      <c r="E30" s="380">
         <f>E29*$I$5/1000000</f>
-        <v>77388.116707199995</v>
-      </c>
-      <c r="F30" s="422"/>
-      <c r="G30" s="438">
+        <v>79806.495354300001</v>
+      </c>
+      <c r="F30" s="390"/>
+      <c r="G30" s="393">
         <f>G29*$I$5/1000000</f>
         <v>64490.097256000001</v>
       </c>
-      <c r="H30" s="439"/>
-      <c r="I30" s="416"/>
-      <c r="J30" s="416"/>
+      <c r="H30" s="394"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="410"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="425">
+      <c r="C31" s="402">
         <f>C28*C29</f>
         <v>41240</v>
       </c>
-      <c r="D31" s="426"/>
-      <c r="E31" s="417">
+      <c r="D31" s="403"/>
+      <c r="E31" s="404">
         <f>E28*E29</f>
-        <v>57600</v>
-      </c>
-      <c r="F31" s="427"/>
-      <c r="G31" s="440">
+        <v>49500</v>
+      </c>
+      <c r="F31" s="405"/>
+      <c r="G31" s="395">
         <f>G28*G29</f>
         <v>160000</v>
       </c>
-      <c r="H31" s="441"/>
-      <c r="I31" s="417">
+      <c r="H31" s="396"/>
+      <c r="I31" s="404">
         <f>C31+E31+G31</f>
-        <v>258840</v>
-      </c>
-      <c r="J31" s="417"/>
+        <v>250740</v>
+      </c>
+      <c r="J31" s="404"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="423"/>
-      <c r="D32" s="424"/>
-      <c r="E32" s="428">
+      <c r="C32" s="400"/>
+      <c r="D32" s="401"/>
+      <c r="E32" s="381">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.8840000000000003</v>
-      </c>
-      <c r="F32" s="370"/>
+        <v>10.082222222222223</v>
+      </c>
+      <c r="F32" s="406"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
-      <c r="I32" s="428">
+      <c r="I32" s="381">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>8.6280000000000001</v>
-      </c>
-      <c r="J32" s="428"/>
+        <v>8.6462068965517247</v>
+      </c>
+      <c r="J32" s="381"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="421">
+      <c r="C33" s="391"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="380">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>79677.515159788003</v>
-      </c>
-      <c r="F33" s="422"/>
+        <v>81275.43645846445</v>
+      </c>
+      <c r="F33" s="390"/>
       <c r="G33" s="138"/>
       <c r="H33" s="138"/>
-      <c r="I33" s="421">
+      <c r="I33" s="380">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>69552.569890596002</v>
-      </c>
-      <c r="J33" s="421"/>
+        <v>69699.340456764825</v>
+      </c>
+      <c r="J33" s="380"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="432">
+      <c r="C35" s="386">
         <f>E29</f>
-        <v>9.6</v>
-      </c>
-      <c r="D35" s="433"/>
-      <c r="G35" s="434" t="s">
+        <v>9.9</v>
+      </c>
+      <c r="D35" s="387"/>
+      <c r="G35" s="388" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="435"/>
-      <c r="I35" s="432">
-        <f ca="1">'FCFF Model'!C33*0.9</f>
+      <c r="H35" s="389"/>
+      <c r="I35" s="386">
+        <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>12.347246296726411</v>
       </c>
-      <c r="J35" s="433"/>
+      <c r="J35" s="387"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="419">
+      <c r="C36" s="378">
         <f>E28</f>
-        <v>6000</v>
-      </c>
-      <c r="D36" s="429"/>
-      <c r="G36" s="442" t="s">
+        <v>5000</v>
+      </c>
+      <c r="D36" s="379"/>
+      <c r="G36" s="397" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="442"/>
-      <c r="I36" s="443">
+      <c r="H36" s="397"/>
+      <c r="I36" s="398">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.1975990588483425</v>
       </c>
-      <c r="J36" s="444"/>
+      <c r="J36" s="399"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="369" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="234">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="G39" s="370"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="234">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E41" s="371"/>
+      <c r="F41" s="372">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.56680272108843543</v>
+      </c>
+      <c r="G41" s="370" t="s">
+        <v>360</v>
+      </c>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42" s="371">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="359" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>So-so</v>
+      </c>
+      <c r="G42" s="95" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F45" s="372">
+        <f ca="1">I35/C29-1</f>
+        <v>0.1975990588483425</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F46" s="372">
+        <f ca="1">D14/C29-1</f>
+        <v>1.1617546645199539E-2</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="234">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.52736054421768708</v>
+      </c>
+      <c r="G48" s="95"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="374">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>17.008673593748124</v>
+      </c>
+      <c r="F49" s="375">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>100</v>
+      </c>
+      <c r="G49" s="95"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="127">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.26131707482993199</v>
+      </c>
+      <c r="F50" s="376">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.26131707482993199</v>
+      </c>
+      <c r="G50" s="377" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6091,34 +6321,16 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6135,63 +6347,86 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6203,6 +6438,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{AD811624-A40D-4FBE-B9ED-B47D34B44E3A}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7932,10 +8170,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="445" t="s">
+      <c r="D49" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="410"/>
+      <c r="E49" s="383"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7950,10 +8188,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="446">
+      <c r="D51" s="457">
         <v>5</v>
       </c>
-      <c r="E51" s="447"/>
+      <c r="E51" s="458"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7964,10 +8202,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="448" t="s">
+      <c r="D52" s="459" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="449"/>
+      <c r="E52" s="460"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -10716,11 +10954,11 @@
         <v>291</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="450">
+      <c r="D52" s="461">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="451"/>
+      <c r="E52" s="462"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10729,11 +10967,11 @@
         <v>261</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="453">
+      <c r="D53" s="464">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="426"/>
+      <c r="E53" s="403"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10749,10 +10987,10 @@
         <v>160</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="458">
+      <c r="D54" s="469">
         <v>0</v>
       </c>
-      <c r="E54" s="410"/>
+      <c r="E54" s="383"/>
       <c r="F54" s="6" t="s">
         <v>161</v>
       </c>
@@ -10763,10 +11001,10 @@
         <v>159</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="458">
+      <c r="D55" s="469">
         <v>0</v>
       </c>
-      <c r="E55" s="410"/>
+      <c r="E55" s="383"/>
       <c r="F55" s="5" t="s">
         <v>162</v>
       </c>
@@ -10781,8 +11019,8 @@
         <v>163</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="452"/>
-      <c r="E57" s="452"/>
+      <c r="D57" s="463"/>
+      <c r="E57" s="463"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10828,11 +11066,11 @@
         <v>164</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="456">
+      <c r="D60" s="467">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>21097641.395259984</v>
-      </c>
-      <c r="E60" s="457"/>
+        <v>24160921.014919989</v>
+      </c>
+      <c r="E60" s="468"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10849,20 +11087,20 @@
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="443">
+      <c r="D63" s="398">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="444"/>
+      <c r="E63" s="399"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="454">
+      <c r="D64" s="465">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="455"/>
+      <c r="E64" s="466"/>
       <c r="F64" s="286" t="s">
         <v>277</v>
       </c>
@@ -10871,10 +11109,10 @@
       <c r="B65" s="312" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="454">
+      <c r="D65" s="465">
         <v>0.15</v>
       </c>
-      <c r="E65" s="455"/>
+      <c r="E65" s="466"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12373,10 +12611,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12796,7 +13034,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.83603761045629021</v>
       </c>
-      <c r="E20" s="461" t="str">
+      <c r="E20" s="472" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12819,7 +13057,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.5228960930564099E-2</v>
       </c>
-      <c r="E21" s="461"/>
+      <c r="E21" s="472"/>
       <c r="F21" s="168">
         <f>D18</f>
         <v>5.4136679995904018</v>
@@ -12841,11 +13079,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="464" t="s">
+      <c r="E23" s="475" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="464"/>
-      <c r="G23" s="464"/>
+      <c r="F23" s="475"/>
+      <c r="G23" s="475"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="147" t="str">
@@ -12886,7 +13124,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.402332814848648</v>
       </c>
-      <c r="F25" s="462">
+      <c r="F25" s="473">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.84283344852308595</v>
       </c>
@@ -12911,7 +13149,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>3.6034992222729718</v>
       </c>
-      <c r="F26" s="463"/>
+      <c r="F26" s="474"/>
       <c r="G26" s="227">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>10.429776905912007</v>
@@ -12921,137 +13159,145 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="367"/>
+      <c r="D27" s="368"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="143"/>
+      <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="270" t="str">
+      <c r="C29" s="270" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="111"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="92" t="s">
+      <c r="D29" s="147"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="111"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="272">
+      <c r="C30" s="272">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
         <v>11.339169963600042</v>
       </c>
-      <c r="D29" s="23" t="str">
-        <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
+      <c r="D30" s="23" t="str">
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&gt;</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E30" s="271">
         <f ca="1">G26*Exchange_Rate</f>
         <v>10.429776905912007</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
+      <c r="F30" s="30"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="109"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="459" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="109"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="470" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="460"/>
-      <c r="E31" s="30" t="s">
+      <c r="D32" s="471"/>
+      <c r="E32" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="276" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="276" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="273">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
+      <c r="C33" s="273">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
         <v>10.945223365548518</v>
       </c>
-      <c r="D32" s="139" t="str">
+      <c r="D33" s="139" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="140">
-        <f ca="1">(C32-G19)/C9</f>
-        <v>10.254208122728047</v>
-      </c>
-      <c r="F32" s="178">
-        <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.55762587999140645</v>
-      </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="95"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="275" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="274">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>13.719162551918235</v>
-      </c>
-      <c r="D33" s="228" t="str">
-        <f>D32</f>
-        <v>HKD</v>
-      </c>
       <c r="E33" s="140">
         <f ca="1">(C33-G19)/C9</f>
-        <v>15.986940070098338</v>
+        <v>10.254208122728047</v>
       </c>
       <c r="F33" s="178">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.55762587999140645</v>
+      </c>
+      <c r="G33" s="108"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="95"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="275" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="274">
+        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <v>13.719162551918235</v>
+      </c>
+      <c r="D34" s="228" t="str">
+        <f>D33</f>
+        <v>HKD</v>
+      </c>
+      <c r="E34" s="140">
+        <f ca="1">(C34-G19)/C9</f>
+        <v>15.986940070098338</v>
+      </c>
+      <c r="F34" s="178">
+        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.69894965458981917</v>
       </c>
-      <c r="G33" s="301">
+      <c r="G34" s="301">
         <f>Dashboard!D10+4.5%</f>
         <v>8.3159999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13926,16 +14172,17 @@
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
+  <conditionalFormatting sqref="E25:E27 G25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$29</formula>
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F9 E13:F15">

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EF84F8-BF19-4BA5-9C09-2CD6AF1A6FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98578DDE-2E37-4DD6-A81B-8D4ED6F58F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1252,13 +1252,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1295,6 +1289,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4565,8 +4565,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E42" s="371">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5322,7 +5322,7 @@
         <v>So-so</v>
       </c>
       <c r="G42" s="95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F43" s="373">
         <v>0.7</v>
@@ -5343,7 +5343,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F45" s="372">
         <f ca="1">I35/C29-1</f>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F46" s="372">
         <f ca="1">D14/C29-1</f>
@@ -5362,7 +5362,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F48" s="234">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E49" s="374">
         <f ca="1">F45/ABS(F46)</f>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E50" s="127">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5397,7 +5397,7 @@
         <v>0.26131707482993199</v>
       </c>
       <c r="G50" s="377" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H50" s="99">
         <v>0.3</v>
@@ -9969,7 +9969,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="80">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>110593765.90551001</v>
       </c>
       <c r="E6" s="14">
@@ -10074,7 +10074,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="82">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>13.719162551918235</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -12613,8 +12613,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98578DDE-2E37-4DD6-A81B-8D4ED6F58F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C188FF-39B4-4E6E-A5B7-BA83C28AEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3950,20 +3950,167 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3980,7 +4127,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4002,152 +4148,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4610,33 +4610,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="400" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="413"/>
+      <c r="D3" s="401"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="424" t="s">
+      <c r="I3" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="425"/>
+      <c r="J3" s="411"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="414" t="s">
+      <c r="C4" s="402" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="403"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>10.56</v>
+        <v>10.64</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4647,10 +4647,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="416">
+      <c r="C5" s="404">
         <v>44956</v>
       </c>
-      <c r="D5" s="415"/>
+      <c r="D5" s="403"/>
       <c r="E5" s="142" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4658,10 +4658,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="407">
+      <c r="I5" s="412">
         <v>8061262157</v>
       </c>
-      <c r="J5" s="408"/>
+      <c r="J5" s="413"/>
       <c r="K5" s="171"/>
       <c r="L5" s="106"/>
     </row>
@@ -4684,11 +4684,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="153"/>
-      <c r="I6" s="426">
+      <c r="I6" s="414">
         <f>I4*I5/1000000</f>
-        <v>85126.928377920005</v>
-      </c>
-      <c r="J6" s="427"/>
+        <v>85771.829350480009</v>
+      </c>
+      <c r="J6" s="415"/>
       <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C7" s="165">
         <f>(Data!C39)/I4</f>
-        <v>3.5872162407213755E-2</v>
+        <v>3.5602446900392604E-2</v>
       </c>
       <c r="D7" s="165">
         <f>(Data!C40)/I4</f>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="I9" s="141">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>14.842380260738754</v>
+        <v>14.95482253544132</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>6.7374638193660366E-2</v>
+        <v>6.6868061966640371E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4751,41 +4751,41 @@
       </c>
       <c r="I10" s="158">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.53799991978639261</v>
+        <v>0.54207567675447133</v>
       </c>
       <c r="J10" s="150">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>4.5216610142907312</v>
+        <v>4.642352753811009</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="332" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="438">
+      <c r="C11" s="424">
         <f ca="1">C12-D10</f>
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="D11" s="439"/>
+      <c r="D11" s="425"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="436" t="s">
+      <c r="I11" s="422" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="437"/>
+      <c r="J11" s="423"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="440">
+      <c r="C12" s="378">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="441"/>
+      <c r="D12" s="379"/>
       <c r="G12" s="154" t="s">
         <v>16</v>
       </c>
@@ -4854,36 +4854,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="151">
         <f>I4</f>
-        <v>10.56</v>
-      </c>
-      <c r="C16" s="447">
+        <v>10.64</v>
+      </c>
+      <c r="C16" s="388">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-6.352051462608746E-2</v>
-      </c>
-      <c r="E16" s="444">
+        <v>-7.131359346348512E-2</v>
+      </c>
+      <c r="E16" s="383">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="181">
         <f>E16/B16</f>
-        <v>5.3030303030303032E-2</v>
-      </c>
-      <c r="G16" s="431" t="s">
+        <v>5.2631578947368425E-2</v>
+      </c>
+      <c r="G16" s="391" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="428">
+      <c r="H16" s="416">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9834442351159485</v>
       </c>
-      <c r="I16" s="431" t="s">
+      <c r="I16" s="391" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="226">
         <f>B16-$H$16</f>
-        <v>4.576555764884052</v>
+        <v>4.6565557648840521</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4891,19 +4891,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>9.9502030595895619</v>
       </c>
-      <c r="C17" s="448"/>
+      <c r="C17" s="389"/>
       <c r="D17" s="309">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="445"/>
+      <c r="E17" s="384"/>
       <c r="F17" s="182">
         <f ca="1">E16/B17</f>
         <v>5.6280258467720119E-2</v>
       </c>
-      <c r="G17" s="432"/>
-      <c r="H17" s="429"/>
-      <c r="I17" s="432"/>
+      <c r="G17" s="392"/>
+      <c r="H17" s="417"/>
+      <c r="I17" s="392"/>
       <c r="J17" s="225">
         <f ca="1">B17-$H$16</f>
         <v>3.9667588244736134</v>
@@ -4914,19 +4914,19 @@
         <f>C35</f>
         <v>9.9</v>
       </c>
-      <c r="C18" s="449"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="180">
         <f ca="1">H14/B18-1-C16</f>
         <v>5.5781177321735098E-3</v>
       </c>
-      <c r="E18" s="446"/>
+      <c r="E18" s="385"/>
       <c r="F18" s="183">
         <f>E16/B18</f>
         <v>5.6565656565656569E-2</v>
       </c>
-      <c r="G18" s="433"/>
-      <c r="H18" s="430"/>
-      <c r="I18" s="433"/>
+      <c r="G18" s="393"/>
+      <c r="H18" s="418"/>
+      <c r="I18" s="393"/>
       <c r="J18" s="227">
         <f>B18-$H$16</f>
         <v>3.9165557648840519</v>
@@ -4960,52 +4960,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="419" t="s">
+      <c r="C21" s="407" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="420"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
-      <c r="G21" s="420"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="420"/>
-      <c r="J21" s="421"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="408"/>
+      <c r="G21" s="408"/>
+      <c r="H21" s="408"/>
+      <c r="I21" s="408"/>
+      <c r="J21" s="409"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="435" t="s">
+      <c r="C22" s="420" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="383"/>
-      <c r="E22" s="383"/>
-      <c r="F22" s="383"/>
-      <c r="G22" s="435" t="s">
+      <c r="D22" s="421"/>
+      <c r="E22" s="421"/>
+      <c r="F22" s="421"/>
+      <c r="G22" s="420" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="435"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="383"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="421"/>
+      <c r="J22" s="421"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="422" t="s">
+      <c r="C23" s="386" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="423"/>
-      <c r="E23" s="423"/>
-      <c r="F23" s="423"/>
-      <c r="G23" s="422" t="s">
+      <c r="D23" s="387"/>
+      <c r="E23" s="387"/>
+      <c r="F23" s="387"/>
+      <c r="G23" s="386" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="422"/>
-      <c r="I23" s="423"/>
-      <c r="J23" s="423"/>
+      <c r="H23" s="386"/>
+      <c r="I23" s="387"/>
+      <c r="J23" s="387"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5049,211 +5049,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="417">
+      <c r="C26" s="405">
         <v>44970</v>
       </c>
-      <c r="D26" s="418"/>
-      <c r="E26" s="453" t="str">
+      <c r="D26" s="406"/>
+      <c r="E26" s="397" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="454"/>
-      <c r="G26" s="454"/>
-      <c r="H26" s="455"/>
-      <c r="I26" s="434" t="s">
+      <c r="F26" s="398"/>
+      <c r="G26" s="398"/>
+      <c r="H26" s="399"/>
+      <c r="I26" s="419" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="434"/>
+      <c r="J26" s="419"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="443">
+      <c r="C27" s="382">
         <f>C31/D25</f>
         <v>6.8733333333333327E-2</v>
       </c>
-      <c r="D27" s="406"/>
-      <c r="E27" s="442">
+      <c r="D27" s="381"/>
+      <c r="E27" s="380">
         <f>E31/D25</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F27" s="406"/>
-      <c r="G27" s="451">
+      <c r="F27" s="381"/>
+      <c r="G27" s="395">
         <f>G31/D25</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H27" s="452"/>
-      <c r="I27" s="450">
+      <c r="H27" s="396"/>
+      <c r="I27" s="394">
         <f>C27+E27+G27</f>
         <v>0.41789999999999999</v>
       </c>
-      <c r="J27" s="450"/>
+      <c r="J27" s="394"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="378">
+      <c r="C28" s="430">
         <v>4000</v>
       </c>
-      <c r="D28" s="383"/>
-      <c r="E28" s="378">
+      <c r="D28" s="421"/>
+      <c r="E28" s="430">
         <v>5000</v>
       </c>
-      <c r="F28" s="383"/>
-      <c r="G28" s="407">
+      <c r="F28" s="421"/>
+      <c r="G28" s="412">
         <v>20000</v>
       </c>
-      <c r="H28" s="408"/>
-      <c r="I28" s="411">
+      <c r="H28" s="413"/>
+      <c r="I28" s="429">
         <f>C28+E28+G28</f>
         <v>29000</v>
       </c>
-      <c r="J28" s="411"/>
+      <c r="J28" s="429"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="382">
+      <c r="C29" s="431">
         <v>10.31</v>
       </c>
-      <c r="D29" s="383"/>
-      <c r="E29" s="382">
+      <c r="D29" s="421"/>
+      <c r="E29" s="431">
         <v>9.9</v>
       </c>
-      <c r="F29" s="383"/>
-      <c r="G29" s="384">
+      <c r="F29" s="421"/>
+      <c r="G29" s="441">
         <v>8</v>
       </c>
-      <c r="H29" s="385"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="409"/>
+      <c r="H29" s="442"/>
+      <c r="I29" s="426"/>
+      <c r="J29" s="426"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="380">
+      <c r="C30" s="432">
         <f>C29*$I$5/1000000</f>
         <v>83111.61283867</v>
       </c>
-      <c r="D30" s="390"/>
-      <c r="E30" s="380">
+      <c r="D30" s="433"/>
+      <c r="E30" s="432">
         <f>E29*$I$5/1000000</f>
         <v>79806.495354300001</v>
       </c>
-      <c r="F30" s="390"/>
-      <c r="G30" s="393">
+      <c r="F30" s="433"/>
+      <c r="G30" s="449">
         <f>G29*$I$5/1000000</f>
         <v>64490.097256000001</v>
       </c>
-      <c r="H30" s="394"/>
-      <c r="I30" s="410"/>
-      <c r="J30" s="410"/>
+      <c r="H30" s="450"/>
+      <c r="I30" s="427"/>
+      <c r="J30" s="427"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="402">
+      <c r="C31" s="436">
         <f>C28*C29</f>
         <v>41240</v>
       </c>
-      <c r="D31" s="403"/>
-      <c r="E31" s="404">
+      <c r="D31" s="437"/>
+      <c r="E31" s="428">
         <f>E28*E29</f>
         <v>49500</v>
       </c>
-      <c r="F31" s="405"/>
-      <c r="G31" s="395">
+      <c r="F31" s="438"/>
+      <c r="G31" s="451">
         <f>G28*G29</f>
         <v>160000</v>
       </c>
-      <c r="H31" s="396"/>
-      <c r="I31" s="404">
+      <c r="H31" s="452"/>
+      <c r="I31" s="428">
         <f>C31+E31+G31</f>
         <v>250740</v>
       </c>
-      <c r="J31" s="404"/>
+      <c r="J31" s="428"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="400"/>
-      <c r="D32" s="401"/>
-      <c r="E32" s="381">
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="439">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>10.082222222222223</v>
       </c>
-      <c r="F32" s="406"/>
+      <c r="F32" s="381"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
-      <c r="I32" s="381">
+      <c r="I32" s="439">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>8.6462068965517247</v>
       </c>
-      <c r="J32" s="381"/>
+      <c r="J32" s="439"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="391"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="380">
+      <c r="C33" s="447"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="432">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>81275.43645846445</v>
       </c>
-      <c r="F33" s="390"/>
+      <c r="F33" s="433"/>
       <c r="G33" s="138"/>
       <c r="H33" s="138"/>
-      <c r="I33" s="380">
+      <c r="I33" s="432">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>69699.340456764825</v>
       </c>
-      <c r="J33" s="380"/>
+      <c r="J33" s="432"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="386">
+      <c r="C35" s="443">
         <f>E29</f>
         <v>9.9</v>
       </c>
-      <c r="D35" s="387"/>
-      <c r="G35" s="388" t="s">
+      <c r="D35" s="444"/>
+      <c r="G35" s="445" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="389"/>
-      <c r="I35" s="386">
+      <c r="H35" s="446"/>
+      <c r="I35" s="443">
         <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>12.347246296726411</v>
       </c>
-      <c r="J35" s="387"/>
+      <c r="J35" s="444"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="378">
+      <c r="C36" s="430">
         <f>E28</f>
         <v>5000</v>
       </c>
-      <c r="D36" s="379"/>
-      <c r="G36" s="397" t="s">
+      <c r="D36" s="440"/>
+      <c r="G36" s="453" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="397"/>
-      <c r="I36" s="398">
+      <c r="H36" s="453"/>
+      <c r="I36" s="454">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.1975990588483425</v>
       </c>
-      <c r="J36" s="399"/>
+      <c r="J36" s="455"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6321,16 +6321,34 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6347,34 +6365,16 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -8173,7 +8173,7 @@
       <c r="D49" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="383"/>
+      <c r="E49" s="421"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10971,7 +10971,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="403"/>
+      <c r="E53" s="437"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10990,7 +10990,7 @@
       <c r="D54" s="469">
         <v>0</v>
       </c>
-      <c r="E54" s="383"/>
+      <c r="E54" s="421"/>
       <c r="F54" s="6" t="s">
         <v>161</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="D55" s="469">
         <v>0</v>
       </c>
-      <c r="E55" s="383"/>
+      <c r="E55" s="421"/>
       <c r="F55" s="5" t="s">
         <v>162</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="467">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>24160921.014919989</v>
+        <v>24805821.987479992</v>
       </c>
       <c r="E60" s="468"/>
       <c r="F60" s="6"/>
@@ -11087,11 +11087,11 @@
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="398">
+      <c r="D63" s="454">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="399"/>
+      <c r="E63" s="455"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C188FF-39B4-4E6E-A5B7-BA83C28AEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A661DF5-9A40-4C8A-9BB0-CAA62DD6328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="371">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3006,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3699,9 +3702,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="183" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3926,9 +3926,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3950,66 +3947,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4036,16 +4045,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4063,13 +4070,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4082,72 +4097,54 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4196,6 +4193,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4565,8 +4565,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4594,7 +4594,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="327" t="str">
+      <c r="C2" s="326" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0083.HK : SINO LAND</v>
       </c>
@@ -4610,27 +4610,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="410" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="411"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="410" t="s">
+      <c r="I3" s="422" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="411"/>
+      <c r="J3" s="423"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="412" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="403"/>
+      <c r="D4" s="413"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4647,10 +4647,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="404">
+      <c r="C5" s="414">
         <v>44956</v>
       </c>
-      <c r="D5" s="403"/>
+      <c r="D5" s="413"/>
       <c r="E5" s="142" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4658,10 +4658,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="412">
+      <c r="I5" s="405">
         <v>8061262157</v>
       </c>
-      <c r="J5" s="413"/>
+      <c r="J5" s="406"/>
       <c r="K5" s="171"/>
       <c r="L5" s="106"/>
     </row>
@@ -4669,26 +4669,26 @@
       <c r="B6" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="290">
+      <c r="C6" s="289">
         <v>8</v>
       </c>
-      <c r="D6" s="291">
+      <c r="D6" s="290">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="363">
-        <f>Data!C3</f>
+      <c r="E6" s="362">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44742</v>
       </c>
       <c r="G6" s="154" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="153"/>
-      <c r="I6" s="414">
+      <c r="I6" s="424">
         <f>I4*I5/1000000</f>
         <v>85771.829350480009</v>
       </c>
-      <c r="J6" s="415"/>
+      <c r="J6" s="425"/>
       <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4720,8 +4720,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="320"/>
-      <c r="D9" s="318"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="317"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4739,10 +4739,10 @@
       <c r="B10" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="319" t="s">
+      <c r="C10" s="318" t="s">
         <v>346</v>
       </c>
-      <c r="D10" s="319">
+      <c r="D10" s="318">
         <v>3.8159999999999999E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4759,33 +4759,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="332" t="s">
+      <c r="B11" s="331" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="424">
+      <c r="C11" s="436">
         <f ca="1">C12-D10</f>
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="D11" s="425"/>
+      <c r="D11" s="437"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="422" t="s">
+      <c r="I11" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="423"/>
+      <c r="J11" s="435"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="378">
+      <c r="C12" s="438">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="379"/>
+      <c r="D12" s="439"/>
       <c r="G12" s="154" t="s">
         <v>16</v>
       </c>
@@ -4856,14 +4856,14 @@
         <f>I4</f>
         <v>10.64</v>
       </c>
-      <c r="C16" s="388">
+      <c r="C16" s="445">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
         <v>-7.131359346348512E-2</v>
       </c>
-      <c r="E16" s="383">
+      <c r="E16" s="442">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.56000000000000005</v>
       </c>
@@ -4871,14 +4871,14 @@
         <f>E16/B16</f>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="G16" s="391" t="s">
+      <c r="G16" s="429" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="416">
+      <c r="H16" s="426">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9834442351159485</v>
       </c>
-      <c r="I16" s="391" t="s">
+      <c r="I16" s="429" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="226">
@@ -4887,46 +4887,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="310">
+      <c r="B17" s="309">
         <f ca="1">H14/(1+C16)</f>
         <v>9.9502030595895619</v>
       </c>
-      <c r="C17" s="389"/>
-      <c r="D17" s="309">
+      <c r="C17" s="446"/>
+      <c r="D17" s="308">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="384"/>
+      <c r="E17" s="443"/>
       <c r="F17" s="182">
         <f ca="1">E16/B17</f>
         <v>5.6280258467720119E-2</v>
       </c>
-      <c r="G17" s="392"/>
-      <c r="H17" s="417"/>
-      <c r="I17" s="392"/>
+      <c r="G17" s="430"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="430"/>
       <c r="J17" s="225">
         <f ca="1">B17-$H$16</f>
         <v>3.9667588244736134</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="365">
+      <c r="B18" s="364">
         <f>C35</f>
         <v>9.9</v>
       </c>
-      <c r="C18" s="390"/>
+      <c r="C18" s="447"/>
       <c r="D18" s="180">
         <f ca="1">H14/B18-1-C16</f>
         <v>5.5781177321735098E-3</v>
       </c>
-      <c r="E18" s="385"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="183">
         <f>E16/B18</f>
         <v>5.6565656565656569E-2</v>
       </c>
-      <c r="G18" s="393"/>
-      <c r="H18" s="418"/>
-      <c r="I18" s="393"/>
+      <c r="G18" s="431"/>
+      <c r="H18" s="428"/>
+      <c r="I18" s="431"/>
       <c r="J18" s="227">
         <f>B18-$H$16</f>
         <v>3.9165557648840519</v>
@@ -4944,7 +4944,7 @@
       <c r="C20" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="311" t="s">
+      <c r="D20" s="310" t="s">
         <v>306</v>
       </c>
       <c r="E20" s="286" t="s">
@@ -4960,52 +4960,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="407" t="s">
+      <c r="C21" s="417" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="408"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="408"/>
-      <c r="G21" s="408"/>
-      <c r="H21" s="408"/>
-      <c r="I21" s="408"/>
-      <c r="J21" s="409"/>
+      <c r="D21" s="418"/>
+      <c r="E21" s="418"/>
+      <c r="F21" s="418"/>
+      <c r="G21" s="418"/>
+      <c r="H21" s="418"/>
+      <c r="I21" s="418"/>
+      <c r="J21" s="419"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="420" t="s">
+      <c r="C22" s="433" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="421"/>
-      <c r="E22" s="421"/>
-      <c r="F22" s="421"/>
-      <c r="G22" s="420" t="s">
+      <c r="D22" s="381"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="381"/>
+      <c r="G22" s="433" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="420"/>
-      <c r="I22" s="421"/>
-      <c r="J22" s="421"/>
+      <c r="H22" s="433"/>
+      <c r="I22" s="381"/>
+      <c r="J22" s="381"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="386" t="s">
+      <c r="C23" s="420" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="386" t="s">
+      <c r="D23" s="421"/>
+      <c r="E23" s="421"/>
+      <c r="F23" s="421"/>
+      <c r="G23" s="420" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="386"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
+      <c r="H23" s="420"/>
+      <c r="I23" s="421"/>
+      <c r="J23" s="421"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5034,13 +5034,13 @@
         <v>341</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="364">
+      <c r="H25" s="363">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="J25" s="366">
+      <c r="J25" s="365">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>8.7561786924388141</v>
       </c>
@@ -5049,218 +5049,218 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="405">
+      <c r="C26" s="415">
         <v>44970</v>
       </c>
-      <c r="D26" s="406"/>
-      <c r="E26" s="397" t="str">
+      <c r="D26" s="416"/>
+      <c r="E26" s="451" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="398"/>
-      <c r="G26" s="398"/>
-      <c r="H26" s="399"/>
-      <c r="I26" s="419" t="s">
+      <c r="F26" s="452"/>
+      <c r="G26" s="452"/>
+      <c r="H26" s="453"/>
+      <c r="I26" s="432" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="419"/>
+      <c r="J26" s="432"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="382">
+      <c r="C27" s="441">
         <f>C31/D25</f>
         <v>6.8733333333333327E-2</v>
       </c>
-      <c r="D27" s="381"/>
-      <c r="E27" s="380">
+      <c r="D27" s="404"/>
+      <c r="E27" s="440">
         <f>E31/D25</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F27" s="381"/>
-      <c r="G27" s="395">
+      <c r="F27" s="404"/>
+      <c r="G27" s="449">
         <f>G31/D25</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H27" s="396"/>
-      <c r="I27" s="394">
+      <c r="H27" s="450"/>
+      <c r="I27" s="448">
         <f>C27+E27+G27</f>
         <v>0.41789999999999999</v>
       </c>
-      <c r="J27" s="394"/>
+      <c r="J27" s="448"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="430">
+      <c r="C28" s="376">
         <v>4000</v>
       </c>
-      <c r="D28" s="421"/>
-      <c r="E28" s="430">
+      <c r="D28" s="381"/>
+      <c r="E28" s="376">
         <v>5000</v>
       </c>
-      <c r="F28" s="421"/>
-      <c r="G28" s="412">
+      <c r="F28" s="381"/>
+      <c r="G28" s="405">
         <v>20000</v>
       </c>
-      <c r="H28" s="413"/>
-      <c r="I28" s="429">
+      <c r="H28" s="406"/>
+      <c r="I28" s="409">
         <f>C28+E28+G28</f>
         <v>29000</v>
       </c>
-      <c r="J28" s="429"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="431">
+      <c r="C29" s="380">
         <v>10.31</v>
       </c>
-      <c r="D29" s="421"/>
-      <c r="E29" s="431">
+      <c r="D29" s="381"/>
+      <c r="E29" s="380">
         <v>9.9</v>
       </c>
-      <c r="F29" s="421"/>
-      <c r="G29" s="441">
+      <c r="F29" s="381"/>
+      <c r="G29" s="382">
         <v>8</v>
       </c>
-      <c r="H29" s="442"/>
-      <c r="I29" s="426"/>
-      <c r="J29" s="426"/>
+      <c r="H29" s="383"/>
+      <c r="I29" s="407"/>
+      <c r="J29" s="407"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="432">
+      <c r="C30" s="378">
         <f>C29*$I$5/1000000</f>
         <v>83111.61283867</v>
       </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="432">
+      <c r="D30" s="388"/>
+      <c r="E30" s="378">
         <f>E29*$I$5/1000000</f>
         <v>79806.495354300001</v>
       </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="449">
+      <c r="F30" s="388"/>
+      <c r="G30" s="391">
         <f>G29*$I$5/1000000</f>
         <v>64490.097256000001</v>
       </c>
-      <c r="H30" s="450"/>
-      <c r="I30" s="427"/>
-      <c r="J30" s="427"/>
+      <c r="H30" s="392"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="436">
+      <c r="C31" s="400">
         <f>C28*C29</f>
         <v>41240</v>
       </c>
-      <c r="D31" s="437"/>
-      <c r="E31" s="428">
+      <c r="D31" s="401"/>
+      <c r="E31" s="402">
         <f>E28*E29</f>
         <v>49500</v>
       </c>
-      <c r="F31" s="438"/>
-      <c r="G31" s="451">
+      <c r="F31" s="403"/>
+      <c r="G31" s="393">
         <f>G28*G29</f>
         <v>160000</v>
       </c>
-      <c r="H31" s="452"/>
-      <c r="I31" s="428">
+      <c r="H31" s="394"/>
+      <c r="I31" s="402">
         <f>C31+E31+G31</f>
         <v>250740</v>
       </c>
-      <c r="J31" s="428"/>
+      <c r="J31" s="402"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="439">
+      <c r="C32" s="398"/>
+      <c r="D32" s="399"/>
+      <c r="E32" s="379">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>10.082222222222223</v>
       </c>
-      <c r="F32" s="381"/>
+      <c r="F32" s="404"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
-      <c r="I32" s="439">
+      <c r="I32" s="379">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>8.6462068965517247</v>
       </c>
-      <c r="J32" s="439"/>
+      <c r="J32" s="379"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="447"/>
-      <c r="D33" s="448"/>
-      <c r="E33" s="432">
+      <c r="C33" s="389"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="378">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>81275.43645846445</v>
       </c>
-      <c r="F33" s="433"/>
+      <c r="F33" s="388"/>
       <c r="G33" s="138"/>
       <c r="H33" s="138"/>
-      <c r="I33" s="432">
+      <c r="I33" s="378">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>69699.340456764825</v>
       </c>
-      <c r="J33" s="432"/>
+      <c r="J33" s="378"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="443">
+      <c r="C35" s="384">
         <f>E29</f>
         <v>9.9</v>
       </c>
-      <c r="D35" s="444"/>
-      <c r="G35" s="445" t="s">
+      <c r="D35" s="385"/>
+      <c r="G35" s="386" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="446"/>
-      <c r="I35" s="443">
+      <c r="H35" s="387"/>
+      <c r="I35" s="384">
         <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>12.347246296726411</v>
       </c>
-      <c r="J35" s="444"/>
+      <c r="J35" s="385"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="430">
+      <c r="C36" s="376">
         <f>E28</f>
         <v>5000</v>
       </c>
-      <c r="D36" s="440"/>
-      <c r="G36" s="453" t="s">
+      <c r="D36" s="377"/>
+      <c r="G36" s="395" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="453"/>
-      <c r="I36" s="454">
+      <c r="H36" s="395"/>
+      <c r="I36" s="396">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.1975990588483425</v>
       </c>
-      <c r="J36" s="455"/>
+      <c r="J36" s="397"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="369" t="s">
+      <c r="G38" s="367" t="s">
         <v>165</v>
       </c>
       <c r="H38" s="153"/>
@@ -5275,7 +5275,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.47000000000000003</v>
       </c>
-      <c r="G39" s="370"/>
+      <c r="G39" s="368"/>
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="136"/>
@@ -5297,12 +5297,12 @@
       <c r="B41" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E41" s="371"/>
-      <c r="F41" s="372">
+      <c r="E41" s="369"/>
+      <c r="F41" s="370">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.56680272108843543</v>
       </c>
-      <c r="G41" s="370" t="s">
+      <c r="G41" s="368" t="s">
         <v>360</v>
       </c>
       <c r="H41" s="136"/>
@@ -5313,11 +5313,11 @@
       <c r="B42" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E42" s="371">
+      <c r="E42" s="369">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.5</v>
       </c>
-      <c r="F42" s="359" t="str">
+      <c r="F42" s="358" t="str">
         <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
         <v>So-so</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="B43" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F43" s="373">
+      <c r="F43" s="371">
         <v>0.7</v>
       </c>
       <c r="G43" s="136"/>
@@ -5345,7 +5345,7 @@
       <c r="B45" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F45" s="372">
+      <c r="F45" s="370">
         <f ca="1">I35/C29-1</f>
         <v>0.1975990588483425</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="B46" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F46" s="372">
+      <c r="F46" s="370">
         <f ca="1">D14/C29-1</f>
         <v>1.1617546645199539E-2</v>
       </c>
@@ -5374,11 +5374,11 @@
       <c r="B49" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E49" s="374">
+      <c r="E49" s="372">
         <f ca="1">F45/ABS(F46)</f>
         <v>17.008673593748124</v>
       </c>
-      <c r="F49" s="375">
+      <c r="F49" s="373">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>100</v>
       </c>
@@ -5392,11 +5392,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.26131707482993199</v>
       </c>
-      <c r="F50" s="376">
+      <c r="F50" s="374">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.26131707482993199</v>
       </c>
-      <c r="G50" s="377" t="s">
+      <c r="G50" s="375" t="s">
         <v>367</v>
       </c>
       <c r="H50" s="99">
@@ -6321,34 +6321,16 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6365,16 +6347,34 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6550,47 +6550,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="299">
+      <c r="C6" s="298">
         <f>C3</f>
         <v>44742</v>
       </c>
-      <c r="D6" s="300">
+      <c r="D6" s="299">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44377</v>
       </c>
-      <c r="E6" s="300">
+      <c r="E6" s="299">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44012</v>
       </c>
-      <c r="F6" s="300">
+      <c r="F6" s="299">
         <f t="shared" si="0"/>
         <v>43646</v>
       </c>
-      <c r="G6" s="300">
+      <c r="G6" s="299">
         <f t="shared" si="0"/>
         <v>43281</v>
       </c>
-      <c r="H6" s="300">
+      <c r="H6" s="299">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-      <c r="I6" s="300">
+      <c r="I6" s="299">
         <f t="shared" si="0"/>
         <v>42551</v>
       </c>
-      <c r="J6" s="300">
+      <c r="J6" s="299">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="K6" s="300">
+      <c r="K6" s="299">
         <f t="shared" si="0"/>
         <v>41820</v>
       </c>
-      <c r="L6" s="300">
+      <c r="L6" s="299">
         <f t="shared" si="0"/>
         <v>41455</v>
       </c>
-      <c r="M6" s="300">
+      <c r="M6" s="299">
         <f t="shared" si="0"/>
         <v>41090</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="B24" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="293">
+      <c r="C24" s="292">
         <v>31180</v>
       </c>
       <c r="D24" s="160">
@@ -8170,10 +8170,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="456" t="s">
+      <c r="D49" s="454" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="421"/>
+      <c r="E49" s="381"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8188,10 +8188,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="457">
+      <c r="D51" s="455">
         <v>5</v>
       </c>
-      <c r="E51" s="458"/>
+      <c r="E51" s="456"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8202,10 +8202,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="459" t="s">
+      <c r="D52" s="457" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="460"/>
+      <c r="E52" s="458"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9969,7 +9969,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10002,7 +10002,7 @@
         <v>284</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="294">
+      <c r="D3" s="293">
         <v>160090995.734</v>
       </c>
       <c r="E3" s="176" t="str">
@@ -10011,10 +10011,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="295" t="s">
+      <c r="H3" s="294" t="s">
         <v>285</v>
       </c>
-      <c r="I3" s="296">
+      <c r="I3" s="295">
         <v>159323330.11500001</v>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
         <v>251</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="297">
+      <c r="D4" s="296">
         <f>D3-I3</f>
         <v>767665.61899998784</v>
       </c>
@@ -10106,12 +10106,11 @@
         <v>280</v>
       </c>
       <c r="C9" s="275"/>
-      <c r="D9" s="292">
+      <c r="D9" s="291">
         <v>44926</v>
       </c>
-      <c r="E9" s="289" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="310" t="s">
+        <v>370</v>
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10954,11 +10953,11 @@
         <v>291</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="461">
+      <c r="D52" s="459">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="462"/>
+      <c r="E52" s="460"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10967,11 +10966,11 @@
         <v>261</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="464">
+      <c r="D53" s="462">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="437"/>
+      <c r="E53" s="401"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10987,10 +10986,10 @@
         <v>160</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="469">
+      <c r="D54" s="467">
         <v>0</v>
       </c>
-      <c r="E54" s="421"/>
+      <c r="E54" s="381"/>
       <c r="F54" s="6" t="s">
         <v>161</v>
       </c>
@@ -11001,10 +11000,10 @@
         <v>159</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="469">
+      <c r="D55" s="467">
         <v>0</v>
       </c>
-      <c r="E55" s="421"/>
+      <c r="E55" s="381"/>
       <c r="F55" s="5" t="s">
         <v>162</v>
       </c>
@@ -11019,8 +11018,8 @@
         <v>163</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="463"/>
-      <c r="E57" s="463"/>
+      <c r="D57" s="461"/>
+      <c r="E57" s="461"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11066,11 +11065,11 @@
         <v>164</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="467">
+      <c r="D60" s="465">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>24805821.987479992</v>
       </c>
-      <c r="E60" s="468"/>
+      <c r="E60" s="466"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11079,7 +11078,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="312" t="s">
+      <c r="B62" s="311" t="s">
         <v>290</v>
       </c>
     </row>
@@ -11087,32 +11086,32 @@
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="454">
+      <c r="D63" s="396">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="455"/>
+      <c r="E63" s="397"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="465">
+      <c r="D64" s="463">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="466"/>
+      <c r="E64" s="464"/>
       <c r="F64" s="286" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="312" t="s">
+      <c r="B65" s="311" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="465">
+      <c r="D65" s="463">
         <v>0.15</v>
       </c>
-      <c r="E65" s="466"/>
+      <c r="E65" s="464"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11126,10 +11125,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{FC2045A1-FAF4-4B57-8467-004F9BBABF79}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -11148,7 +11150,7 @@
   <dimension ref="A1:M903"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11181,22 +11183,22 @@
       <c r="B2" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="306" t="s">
+      <c r="C2" s="305" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306">
+      <c r="D2" s="305"/>
+      <c r="E2" s="305">
         <v>1</v>
       </c>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306">
+      <c r="F2" s="305"/>
+      <c r="G2" s="305">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="306">
+      <c r="I2" s="305">
         <v>3</v>
       </c>
-      <c r="J2" s="306"/>
+      <c r="J2" s="305"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -11205,39 +11207,39 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="298">
-        <f>Data!C3</f>
+      <c r="C3" s="297">
+        <f>Dashboard!E6</f>
         <v>44742</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="298">
+      <c r="E3" s="297">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="298">
+      <c r="G3" s="297">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45473</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="298" t="str">
+      <c r="I3" s="297" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="316"/>
+      <c r="J3" s="315"/>
       <c r="L3" s="93" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="313" t="s">
+      <c r="B4" s="312" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="358">
+      <c r="C4" s="357">
         <v>11129690.461999999</v>
       </c>
       <c r="D4" s="280">
@@ -11261,16 +11263,16 @@
         <v>0.63096006033519247</v>
       </c>
       <c r="I4" s="242"/>
-      <c r="J4" s="307"/>
+      <c r="J4" s="306"/>
       <c r="K4" s="6"/>
       <c r="L4" s="95"/>
       <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="313" t="s">
+      <c r="B5" s="312" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="358">
+      <c r="C5" s="357">
         <v>1147617.763</v>
       </c>
       <c r="D5" s="280">
@@ -11294,16 +11296,16 @@
         <v>8.9668847772527399E-2</v>
       </c>
       <c r="I5" s="242"/>
-      <c r="J5" s="307"/>
+      <c r="J5" s="306"/>
       <c r="K5" s="6"/>
       <c r="L5" s="95"/>
       <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="313" t="s">
+      <c r="B6" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="358">
+      <c r="C6" s="357">
         <v>451993.272</v>
       </c>
       <c r="D6" s="280">
@@ -11327,16 +11329,16 @@
         <v>7.3710406701806244E-2</v>
       </c>
       <c r="I6" s="242"/>
-      <c r="J6" s="307"/>
+      <c r="J6" s="306"/>
       <c r="K6" s="6"/>
       <c r="L6" s="95"/>
       <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="313" t="s">
+      <c r="B7" s="312" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="358">
+      <c r="C7" s="357">
         <v>2738482.4139999999</v>
       </c>
       <c r="D7" s="280">
@@ -11360,7 +11362,7 @@
         <v>0.20566068519047398</v>
       </c>
       <c r="I7" s="242"/>
-      <c r="J7" s="307"/>
+      <c r="J7" s="306"/>
       <c r="K7" s="6"/>
       <c r="L7" s="95"/>
       <c r="M7" s="78"/>
@@ -11374,18 +11376,18 @@
         <v>15467783.910999998</v>
       </c>
       <c r="D8" s="279"/>
-      <c r="E8" s="357">
+      <c r="E8" s="356">
         <f>SUM(E4:E7)</f>
         <v>10444481.390000001</v>
       </c>
       <c r="F8" s="279"/>
-      <c r="G8" s="357">
+      <c r="G8" s="356">
         <f>SUM(G4:G7)</f>
         <v>13584683.287</v>
       </c>
       <c r="H8" s="279"/>
       <c r="I8" s="248"/>
-      <c r="J8" s="308"/>
+      <c r="J8" s="307"/>
       <c r="K8" s="6"/>
       <c r="L8" s="95" t="s">
         <v>295</v>
@@ -11409,7 +11411,7 @@
       </c>
       <c r="H9" s="281"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="347"/>
+      <c r="J9" s="346"/>
       <c r="K9" s="6"/>
       <c r="L9" s="95"/>
       <c r="M9" s="78"/>
@@ -11428,16 +11430,16 @@
         <v>6266688.8339999998</v>
       </c>
       <c r="F10" s="282"/>
-      <c r="G10" s="302">
+      <c r="G10" s="301">
         <f>IF(G8="","",G8*(1-G11))</f>
         <v>6792341.6435000002</v>
       </c>
       <c r="H10" s="282"/>
-      <c r="I10" s="302" t="str">
+      <c r="I10" s="301" t="str">
         <f>IF(I8="","",I8*(1-I11))</f>
         <v/>
       </c>
-      <c r="J10" s="348"/>
+      <c r="J10" s="347"/>
       <c r="K10" s="6"/>
       <c r="L10" s="136"/>
       <c r="M10" s="1"/>
@@ -11460,7 +11462,7 @@
       </c>
       <c r="H11" s="206"/>
       <c r="I11" s="94"/>
-      <c r="J11" s="349"/>
+      <c r="J11" s="348"/>
       <c r="K11" s="6"/>
       <c r="L11" s="95"/>
     </row>
@@ -11510,7 +11512,7 @@
       </c>
       <c r="H13" s="209"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="350"/>
+      <c r="J13" s="349"/>
       <c r="K13" s="6"/>
       <c r="L13" s="95"/>
     </row>
@@ -11534,7 +11536,7 @@
       </c>
       <c r="H14" s="283"/>
       <c r="I14" s="97"/>
-      <c r="J14" s="351"/>
+      <c r="J14" s="350"/>
       <c r="K14" s="6"/>
       <c r="L14" s="95"/>
     </row>
@@ -11586,7 +11588,7 @@
         <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
         <v/>
       </c>
-      <c r="J16" s="352"/>
+      <c r="J16" s="351"/>
       <c r="K16" s="6"/>
       <c r="L16" s="98"/>
       <c r="M16" s="99"/>
@@ -11595,100 +11597,100 @@
       <c r="B17" s="154" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="339">
+      <c r="C17" s="338">
         <f>C12-C14</f>
         <v>7124497.2259999989</v>
       </c>
-      <c r="D17" s="340"/>
-      <c r="E17" s="339">
+      <c r="D17" s="339"/>
+      <c r="E17" s="338">
         <f>E12-E14</f>
         <v>3094712.9636000008</v>
       </c>
-      <c r="F17" s="340"/>
-      <c r="G17" s="339">
+      <c r="F17" s="339"/>
+      <c r="G17" s="338">
         <f>IF(G9="","",G12-G14)</f>
         <v>5569720.1476700008</v>
       </c>
-      <c r="H17" s="340"/>
-      <c r="I17" s="339" t="str">
+      <c r="H17" s="339"/>
+      <c r="I17" s="338" t="str">
         <f>IF(I9="","",I12-I14)</f>
         <v/>
       </c>
-      <c r="J17" s="353"/>
+      <c r="J17" s="352"/>
       <c r="K17" s="6"/>
       <c r="L17" s="100"/>
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="335" t="s">
+      <c r="B18" s="334" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="336">
+      <c r="C18" s="335">
         <v>0.25</v>
       </c>
-      <c r="D18" s="337"/>
-      <c r="E18" s="338">
+      <c r="D18" s="336"/>
+      <c r="E18" s="337">
         <f>IF(E17="","",C18)</f>
         <v>0.25</v>
       </c>
-      <c r="F18" s="338"/>
-      <c r="G18" s="338">
+      <c r="F18" s="337"/>
+      <c r="G18" s="337">
         <f>IF(G17="","",E18)</f>
         <v>0.25</v>
       </c>
-      <c r="H18" s="338"/>
-      <c r="I18" s="338" t="str">
+      <c r="H18" s="337"/>
+      <c r="I18" s="337" t="str">
         <f>IF(I17="","",G18)</f>
         <v/>
       </c>
-      <c r="J18" s="354"/>
+      <c r="J18" s="353"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="344" t="s">
+      <c r="B19" s="343" t="s">
         <v>302</v>
       </c>
       <c r="C19" s="208"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="345">
+      <c r="D19" s="345"/>
+      <c r="E19" s="344">
         <f>E20/C20-1</f>
         <v>-0.56562366923153307</v>
       </c>
-      <c r="F19" s="345"/>
-      <c r="G19" s="345">
+      <c r="F19" s="344"/>
+      <c r="G19" s="344">
         <f>IF(G20="","",G20/E20-1)</f>
         <v>0.79975339011437319</v>
       </c>
-      <c r="H19" s="345"/>
-      <c r="I19" s="345" t="str">
+      <c r="H19" s="344"/>
+      <c r="I19" s="344" t="str">
         <f>IF(I20="","",I20/G20-1)</f>
         <v/>
       </c>
-      <c r="J19" s="355"/>
+      <c r="J19" s="354"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="340" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="342">
+      <c r="C20" s="341">
         <f>IF(C17&lt;=0,C17,C17*(1-C18))</f>
         <v>5343372.9194999989</v>
       </c>
-      <c r="D20" s="342"/>
-      <c r="E20" s="343">
+      <c r="D20" s="341"/>
+      <c r="E20" s="342">
         <f>IF(E17="","",IF(E17&lt;=0,E17,E17*(1-E18)))</f>
         <v>2321034.7227000007</v>
       </c>
-      <c r="F20" s="342"/>
-      <c r="G20" s="343">
+      <c r="F20" s="341"/>
+      <c r="G20" s="342">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
         <v>4177290.1107525006</v>
       </c>
-      <c r="H20" s="342"/>
-      <c r="I20" s="343" t="str">
+      <c r="H20" s="341"/>
+      <c r="I20" s="342" t="str">
         <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
         <v/>
       </c>
-      <c r="J20" s="356"/>
+      <c r="J20" s="355"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12613,8 +12615,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12637,19 +12639,19 @@
       <c r="B2" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="306" t="s">
+      <c r="C2" s="305" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="306">
+      <c r="D2" s="305">
         <v>1</v>
       </c>
-      <c r="E2" s="306">
+      <c r="E2" s="305">
         <v>2</v>
       </c>
-      <c r="F2" s="306">
+      <c r="F2" s="305">
         <v>3</v>
       </c>
-      <c r="G2" s="306" t="str">
+      <c r="G2" s="305" t="str">
         <f>B24</f>
         <v>Exit after Year 2</v>
       </c>
@@ -12661,19 +12663,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="298">
+      <c r="C3" s="297">
         <f>Operation!C3</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="298">
+      <c r="D3" s="297">
         <f>Operation!E3</f>
         <v>45107</v>
       </c>
-      <c r="E3" s="298">
+      <c r="E3" s="297">
         <f>Operation!G3</f>
         <v>45473</v>
       </c>
-      <c r="F3" s="298" t="str">
+      <c r="F3" s="297" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12704,7 +12706,7 @@
         <f>Operation!I20</f>
         <v/>
       </c>
-      <c r="G4" s="323">
+      <c r="G4" s="322">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12747,7 +12749,7 @@
       <c r="E6" s="86">
         <v>0.27</v>
       </c>
-      <c r="F6" s="328"/>
+      <c r="F6" s="327"/>
       <c r="G6" s="219"/>
       <c r="H6" s="6"/>
       <c r="I6" s="98"/>
@@ -12756,19 +12758,19 @@
       <c r="B7" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="329">
+      <c r="C7" s="328">
         <f>C4*C6</f>
         <v>1442710.6882649998</v>
       </c>
-      <c r="D7" s="329">
+      <c r="D7" s="328">
         <f>D4*D6</f>
         <v>626679.37512900028</v>
       </c>
-      <c r="E7" s="330">
+      <c r="E7" s="329">
         <f>E4*E6</f>
         <v>1127868.3299031751</v>
       </c>
-      <c r="F7" s="330"/>
+      <c r="F7" s="329"/>
       <c r="G7" s="220"/>
       <c r="H7" s="103"/>
       <c r="I7" s="77"/>
@@ -12810,19 +12812,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.48387735757332467</v>
       </c>
-      <c r="D9" s="325">
+      <c r="D9" s="324">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.21018487112464224</v>
       </c>
-      <c r="E9" s="325">
+      <c r="E9" s="324">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.37828093435732751</v>
       </c>
-      <c r="F9" s="325" t="str">
+      <c r="F9" s="324" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="326">
+      <c r="G9" s="325">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.37828093435732757</v>
       </c>
@@ -12834,16 +12836,16 @@
       <c r="B10" s="254" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="331">
+      <c r="C10" s="330">
         <f>C11/C9</f>
         <v>1.1779844439479163</v>
       </c>
-      <c r="D10" s="331">
+      <c r="D10" s="330">
         <f>D11/D9</f>
         <v>2.6643211616687346</v>
       </c>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
       <c r="G10" s="255"/>
       <c r="H10" s="103"/>
       <c r="I10" s="77"/>
@@ -12853,16 +12855,16 @@
       <c r="B11" s="254" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="304">
+      <c r="C11" s="303">
         <f>0.42+0.15</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" s="305">
+      <c r="D11" s="304">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
-      <c r="G11" s="303"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="302"/>
       <c r="H11" s="103"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
@@ -12878,8 +12880,8 @@
         <f>D11</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E12" s="362"/>
-      <c r="F12" s="362"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
       <c r="G12" s="250">
         <f>G9*D26</f>
         <v>4.5393712122879304</v>
@@ -13034,7 +13036,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.83603761045629021</v>
       </c>
-      <c r="E20" s="472" t="str">
+      <c r="E20" s="470" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13057,7 +13059,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.5228960930564099E-2</v>
       </c>
-      <c r="E21" s="472"/>
+      <c r="E21" s="470"/>
       <c r="F21" s="168">
         <f>D18</f>
         <v>5.4136679995904018</v>
@@ -13079,11 +13081,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="475" t="s">
+      <c r="E23" s="473" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="475"/>
-      <c r="G23" s="475"/>
+      <c r="F23" s="473"/>
+      <c r="G23" s="473"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="147" t="str">
@@ -13096,7 +13098,7 @@
       <c r="D24" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="324" t="s">
+      <c r="E24" s="323" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="285" t="s">
@@ -13117,14 +13119,14 @@
         <f>1/D25</f>
         <v>0.125</v>
       </c>
-      <c r="D25" s="317">
+      <c r="D25" s="316">
         <v>8</v>
       </c>
       <c r="E25" s="226">
         <f ca="1">G9*D25/G14</f>
         <v>2.402332814848648</v>
       </c>
-      <c r="F25" s="473">
+      <c r="F25" s="471">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.84283344852308595</v>
       </c>
@@ -13135,21 +13137,21 @@
       <c r="I25" s="95"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="321" t="s">
+      <c r="B26" s="320" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="322">
+      <c r="C26" s="321">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="334">
+      <c r="D26" s="333">
         <v>12</v>
       </c>
       <c r="E26" s="227">
         <f ca="1">G9*D26/G14</f>
         <v>3.6034992222729718</v>
       </c>
-      <c r="F26" s="474"/>
+      <c r="F26" s="472"/>
       <c r="G26" s="227">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>10.429776905912007</v>
@@ -13160,8 +13162,8 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="367"/>
-      <c r="D27" s="368"/>
+      <c r="C27" s="366"/>
+      <c r="D27" s="474"/>
       <c r="E27" s="143"/>
       <c r="F27" s="144"/>
       <c r="G27" s="143"/>
@@ -13222,10 +13224,10 @@
       <c r="I31" s="109"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="470" t="s">
+      <c r="C32" s="468" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="471"/>
+      <c r="D32" s="469"/>
       <c r="E32" s="30" t="s">
         <v>244</v>
       </c>
@@ -13279,7 +13281,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.69894965458981917</v>
       </c>
-      <c r="G34" s="301">
+      <c r="G34" s="300">
         <f>Dashboard!D10+4.5%</f>
         <v>8.3159999999999998E-2</v>
       </c>
@@ -14269,7 +14271,7 @@
         <f>AVERAGE(D12:D16)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E5" s="359" t="str">
+      <c r="E5" s="358" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
@@ -14284,7 +14286,7 @@
         <f>AVERAGE(D24:D28)</f>
         <v>3.2</v>
       </c>
-      <c r="E6" s="359" t="str">
+      <c r="E6" s="358" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
@@ -14334,7 +14336,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="314"/>
+      <c r="G10" s="313"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="120" t="s">
@@ -14342,7 +14344,7 @@
       </c>
       <c r="C11" s="114"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="314"/>
+      <c r="G11" s="313"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14356,7 +14358,7 @@
         <v>187</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="314" t="s">
+      <c r="G12" s="313" t="s">
         <v>330</v>
       </c>
     </row>
@@ -14372,7 +14374,7 @@
         <v>179</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="314"/>
+      <c r="G13" s="313"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14386,7 +14388,7 @@
         <v>179</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="314"/>
+      <c r="G14" s="313"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14400,7 +14402,7 @@
         <v>179</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="314"/>
+      <c r="G15" s="313"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14414,7 +14416,7 @@
         <v>189</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="314"/>
+      <c r="G16" s="313"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120" t="s">
@@ -14422,7 +14424,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="314"/>
+      <c r="G17" s="313"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14439,7 +14441,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="314"/>
+      <c r="G18" s="313"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14453,7 +14455,7 @@
         <v>187</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="314"/>
+      <c r="G19" s="313"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14467,7 +14469,7 @@
         <v>203</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="314"/>
+      <c r="G20" s="313"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14481,7 +14483,7 @@
         <v>179</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="314"/>
+      <c r="G21" s="313"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14495,7 +14497,7 @@
         <v>187</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="314"/>
+      <c r="G22" s="313"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120" t="s">
@@ -14503,7 +14505,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="314"/>
+      <c r="G23" s="313"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14517,7 +14519,7 @@
         <v>189</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="314"/>
+      <c r="G24" s="313"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14531,7 +14533,7 @@
         <v>180</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="314"/>
+      <c r="G25" s="313"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14545,7 +14547,7 @@
         <v>180</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="314"/>
+      <c r="G26" s="313"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14559,7 +14561,7 @@
         <v>180</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="314"/>
+      <c r="G27" s="313"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14573,7 +14575,7 @@
         <v>180</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="314"/>
+      <c r="G28" s="313"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="120" t="s">
@@ -14581,7 +14583,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="314"/>
+      <c r="G29" s="313"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14596,7 +14598,7 @@
         <v>Medium</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="314"/>
+      <c r="G30" s="313"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14610,7 +14612,7 @@
         <v>179</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="314"/>
+      <c r="G31" s="313"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14624,7 +14626,7 @@
         <v>189</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="314"/>
+      <c r="G32" s="313"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14638,7 +14640,7 @@
         <v>203</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="314"/>
+      <c r="G33" s="313"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14652,7 +14654,7 @@
         <v>179</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="314"/>
+      <c r="G34" s="313"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14665,7 +14667,7 @@
       <c r="E35" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="314"/>
+      <c r="G35" s="313"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14680,7 +14682,7 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="314"/>
+      <c r="G36" s="313"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14694,7 +14696,7 @@
         <v>203</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="314"/>
+      <c r="G37" s="313"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14708,7 +14710,7 @@
         <v>203</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="314"/>
+      <c r="G38" s="313"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14722,7 +14724,7 @@
         <v>203</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="314"/>
+      <c r="G39" s="313"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14736,7 +14738,7 @@
         <v>189</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="314"/>
+      <c r="G40" s="313"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14749,7 +14751,7 @@
       <c r="E41" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G41" s="314"/>
+      <c r="G41" s="313"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14764,7 +14766,7 @@
         <v>Medium</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="314"/>
+      <c r="G42" s="313"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14778,7 +14780,7 @@
         <v>187</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="314"/>
+      <c r="G43" s="313"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14792,7 +14794,7 @@
         <v>180</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="314"/>
+      <c r="G44" s="313"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14806,7 +14808,7 @@
         <v>189</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="314"/>
+      <c r="G45" s="313"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14820,7 +14822,7 @@
         <v>203</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="314"/>
+      <c r="G46" s="313"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14834,7 +14836,7 @@
         <v>189</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="314"/>
+      <c r="G47" s="313"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14848,7 +14850,7 @@
         <v>203</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="314"/>
+      <c r="G48" s="313"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14863,7 +14865,7 @@
         <v>Medium</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="314"/>
+      <c r="G49" s="313"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14876,7 +14878,7 @@
       <c r="E50" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G50" s="314"/>
+      <c r="G50" s="313"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14890,7 +14892,7 @@
         <v>180</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="314"/>
+      <c r="G51" s="313"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14903,7 +14905,7 @@
       <c r="E52" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G52" s="314"/>
+      <c r="G52" s="313"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14917,7 +14919,7 @@
         <v>179</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="314"/>
+      <c r="G53" s="313"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14932,7 +14934,7 @@
         <v>316</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="314"/>
+      <c r="G54" s="313"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14948,7 +14950,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="314"/>
+      <c r="G55" s="313"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14963,7 +14965,7 @@
         <v>180</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="314"/>
+      <c r="G56" s="313"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14978,7 +14980,7 @@
         <v>180</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="314"/>
+      <c r="G57" s="313"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14993,7 +14995,7 @@
         <v>180</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="314"/>
+      <c r="G58" s="313"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15008,7 +15010,7 @@
         <v>189</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="314"/>
+      <c r="G59" s="313"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15023,7 +15025,7 @@
         <v>180</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="314"/>
+      <c r="G60" s="313"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15038,7 +15040,7 @@
         <v>203</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="314"/>
+      <c r="G61" s="313"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15054,12 +15056,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="314"/>
+      <c r="G62" s="313"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="314"/>
+      <c r="G63" s="313"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="118" t="s">
@@ -15073,10 +15075,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.56680272108843543</v>
       </c>
-      <c r="G64" s="314"/>
+      <c r="G64" s="313"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="315"/>
+      <c r="G65" s="314"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C47839-1709-484A-9362-FF3C27B1BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A0E94-BC85-4CC2-873F-A3D40D41D48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3940,66 +3940,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4026,16 +4038,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4053,13 +4063,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4072,72 +4090,54 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4555,8 +4555,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4600,27 +4600,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="401" t="s">
+      <c r="C3" s="413" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="402"/>
+      <c r="D3" s="414"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="425" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="412"/>
+      <c r="J3" s="426"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="415" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="404"/>
+      <c r="D4" s="416"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4637,10 +4637,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="405">
+      <c r="C5" s="417">
         <v>44956</v>
       </c>
-      <c r="D5" s="404"/>
+      <c r="D5" s="416"/>
       <c r="E5" s="142" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4648,10 +4648,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="413">
+      <c r="I5" s="408">
         <v>8061262157</v>
       </c>
-      <c r="J5" s="414"/>
+      <c r="J5" s="409"/>
       <c r="K5" s="171"/>
       <c r="L5" s="106"/>
     </row>
@@ -4674,11 +4674,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="153"/>
-      <c r="I6" s="415">
+      <c r="I6" s="427">
         <f>I4*I5/1000000</f>
         <v>86255.505079899987</v>
       </c>
-      <c r="J6" s="416"/>
+      <c r="J6" s="428"/>
       <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4752,30 +4752,30 @@
       <c r="B11" s="331" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="439">
         <f ca="1">C12-D10</f>
         <v>4.8410000000000002E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="440"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="437" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="438"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="379">
+      <c r="C12" s="441">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="380"/>
+      <c r="D12" s="442"/>
       <c r="G12" s="154" t="s">
         <v>16</v>
       </c>
@@ -4846,14 +4846,14 @@
         <f>I4</f>
         <v>10.7</v>
       </c>
-      <c r="C16" s="389">
+      <c r="C16" s="448">
         <v>0.1</v>
       </c>
       <c r="D16" s="179">
         <f ca="1">H14/B16-1-C16</f>
         <v>-7.708192845340936E-2</v>
       </c>
-      <c r="E16" s="384">
+      <c r="E16" s="445">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.56000000000000005</v>
       </c>
@@ -4861,14 +4861,14 @@
         <f>E16/B16</f>
         <v>5.2336448598130851E-2</v>
       </c>
-      <c r="G16" s="392" t="s">
+      <c r="G16" s="432" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="417">
+      <c r="H16" s="429">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9834442351159485</v>
       </c>
-      <c r="I16" s="392" t="s">
+      <c r="I16" s="432" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="226">
@@ -4881,19 +4881,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>9.9502030595895619</v>
       </c>
-      <c r="C17" s="390"/>
+      <c r="C17" s="449"/>
       <c r="D17" s="308">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="385"/>
+      <c r="E17" s="446"/>
       <c r="F17" s="182">
         <f ca="1">E16/B17</f>
         <v>5.6280258467720119E-2</v>
       </c>
-      <c r="G17" s="393"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="393"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="430"/>
+      <c r="I17" s="433"/>
       <c r="J17" s="225">
         <f ca="1">B17-$H$16</f>
         <v>3.9667588244736134</v>
@@ -4902,24 +4902,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="364">
         <f>C35</f>
-        <v>9.9</v>
-      </c>
-      <c r="C18" s="391"/>
+        <v>9.6</v>
+      </c>
+      <c r="C18" s="450"/>
       <c r="D18" s="180">
         <f ca="1">H14/B18-1-C16</f>
-        <v>5.5781177321735098E-3</v>
-      </c>
-      <c r="E18" s="386"/>
+        <v>4.0127433911304106E-2</v>
+      </c>
+      <c r="E18" s="447"/>
       <c r="F18" s="183">
         <f>E16/B18</f>
-        <v>5.6565656565656569E-2</v>
-      </c>
-      <c r="G18" s="394"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="394"/>
+        <v>5.8333333333333341E-2</v>
+      </c>
+      <c r="G18" s="434"/>
+      <c r="H18" s="431"/>
+      <c r="I18" s="434"/>
       <c r="J18" s="227">
         <f>B18-$H$16</f>
-        <v>3.9165557648840519</v>
+        <v>3.6165557648840512</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4950,52 +4950,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="408" t="s">
+      <c r="C21" s="420" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
-      <c r="I21" s="409"/>
-      <c r="J21" s="410"/>
+      <c r="D21" s="421"/>
+      <c r="E21" s="421"/>
+      <c r="F21" s="421"/>
+      <c r="G21" s="421"/>
+      <c r="H21" s="421"/>
+      <c r="I21" s="421"/>
+      <c r="J21" s="422"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="421" t="s">
+      <c r="C22" s="436" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="421" t="s">
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="436" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="421"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
+      <c r="H22" s="436"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="384"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="387" t="s">
+      <c r="C23" s="423" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="387" t="s">
+      <c r="D23" s="424"/>
+      <c r="E23" s="424"/>
+      <c r="F23" s="424"/>
+      <c r="G23" s="423" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="387"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="388"/>
+      <c r="H23" s="423"/>
+      <c r="I23" s="424"/>
+      <c r="J23" s="424"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5039,211 +5039,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="406">
+      <c r="C26" s="418">
         <v>44970</v>
       </c>
-      <c r="D26" s="407"/>
-      <c r="E26" s="398" t="str">
+      <c r="D26" s="419"/>
+      <c r="E26" s="454" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="399"/>
-      <c r="G26" s="399"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="420" t="s">
+      <c r="F26" s="455"/>
+      <c r="G26" s="455"/>
+      <c r="H26" s="456"/>
+      <c r="I26" s="435" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="420"/>
+      <c r="J26" s="435"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="383">
+      <c r="C27" s="444">
         <f>C31/D25</f>
         <v>6.8733333333333327E-2</v>
       </c>
-      <c r="D27" s="382"/>
-      <c r="E27" s="381">
+      <c r="D27" s="407"/>
+      <c r="E27" s="443">
         <f>E31/D25</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="396">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F27" s="407"/>
+      <c r="G27" s="452">
         <f>G31/D25</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="H27" s="397"/>
-      <c r="I27" s="395">
+        <v>0</v>
+      </c>
+      <c r="H27" s="453"/>
+      <c r="I27" s="451">
         <f>C27+E27+G27</f>
-        <v>0.40139999999999998</v>
-      </c>
-      <c r="J27" s="395"/>
+        <v>0.16473333333333334</v>
+      </c>
+      <c r="J27" s="451"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="431">
+      <c r="C28" s="379">
         <v>4000</v>
       </c>
-      <c r="D28" s="422"/>
-      <c r="E28" s="431">
-        <v>4000</v>
-      </c>
-      <c r="F28" s="422"/>
-      <c r="G28" s="413">
-        <v>20000</v>
-      </c>
-      <c r="H28" s="414"/>
-      <c r="I28" s="430">
+      <c r="D28" s="384"/>
+      <c r="E28" s="379">
+        <v>6000</v>
+      </c>
+      <c r="F28" s="384"/>
+      <c r="G28" s="408"/>
+      <c r="H28" s="409"/>
+      <c r="I28" s="412">
         <f>C28+E28+G28</f>
-        <v>28000</v>
-      </c>
-      <c r="J28" s="430"/>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="412"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="432">
+      <c r="C29" s="383">
         <v>10.31</v>
       </c>
-      <c r="D29" s="422"/>
-      <c r="E29" s="432">
-        <v>9.9</v>
-      </c>
-      <c r="F29" s="422"/>
-      <c r="G29" s="442">
-        <v>8</v>
-      </c>
-      <c r="H29" s="443"/>
-      <c r="I29" s="427"/>
-      <c r="J29" s="427"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="383">
+        <v>9.6</v>
+      </c>
+      <c r="F29" s="384"/>
+      <c r="G29" s="385"/>
+      <c r="H29" s="386"/>
+      <c r="I29" s="410"/>
+      <c r="J29" s="410"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="433">
+      <c r="C30" s="381">
         <f>C29*$I$5/1000000</f>
         <v>83111.61283867</v>
       </c>
-      <c r="D30" s="434"/>
-      <c r="E30" s="433">
+      <c r="D30" s="391"/>
+      <c r="E30" s="381">
         <f>E29*$I$5/1000000</f>
-        <v>79806.495354300001</v>
-      </c>
-      <c r="F30" s="434"/>
-      <c r="G30" s="450">
+        <v>77388.116707199995</v>
+      </c>
+      <c r="F30" s="391"/>
+      <c r="G30" s="394">
         <f>G29*$I$5/1000000</f>
-        <v>64490.097256000001</v>
-      </c>
-      <c r="H30" s="451"/>
-      <c r="I30" s="428"/>
-      <c r="J30" s="428"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="395"/>
+      <c r="I30" s="411"/>
+      <c r="J30" s="411"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="437">
+      <c r="C31" s="403">
         <f>C28*C29</f>
         <v>41240</v>
       </c>
-      <c r="D31" s="438"/>
-      <c r="E31" s="429">
+      <c r="D31" s="404"/>
+      <c r="E31" s="405">
         <f>E28*E29</f>
-        <v>39600</v>
-      </c>
-      <c r="F31" s="439"/>
-      <c r="G31" s="452">
+        <v>57600</v>
+      </c>
+      <c r="F31" s="406"/>
+      <c r="G31" s="396">
         <f>G28*G29</f>
-        <v>160000</v>
-      </c>
-      <c r="H31" s="453"/>
-      <c r="I31" s="429">
+        <v>0</v>
+      </c>
+      <c r="H31" s="397"/>
+      <c r="I31" s="405">
         <f>C31+E31+G31</f>
-        <v>240840</v>
-      </c>
-      <c r="J31" s="429"/>
+        <v>98840</v>
+      </c>
+      <c r="J31" s="405"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="435"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="440">
+      <c r="C32" s="401"/>
+      <c r="D32" s="402"/>
+      <c r="E32" s="382">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>10.105</v>
-      </c>
-      <c r="F32" s="382"/>
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="F32" s="407"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
-      <c r="I32" s="440">
+      <c r="I32" s="382">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>8.6014285714285723</v>
-      </c>
-      <c r="J32" s="440"/>
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="J32" s="382"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="448"/>
-      <c r="D33" s="449"/>
-      <c r="E33" s="433">
+      <c r="C33" s="392"/>
+      <c r="D33" s="393"/>
+      <c r="E33" s="381">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>81459.054096484993</v>
-      </c>
-      <c r="F33" s="434"/>
+        <v>79677.515159788003</v>
+      </c>
+      <c r="F33" s="391"/>
       <c r="G33" s="138"/>
       <c r="H33" s="138"/>
-      <c r="I33" s="433">
+      <c r="I33" s="381">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>69338.370638995722</v>
-      </c>
-      <c r="J33" s="433"/>
+        <v>79677.515159788003</v>
+      </c>
+      <c r="J33" s="381"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1">
       <c r="B35" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C35" s="444">
+      <c r="C35" s="387">
         <f>E29</f>
-        <v>9.9</v>
-      </c>
-      <c r="D35" s="445"/>
-      <c r="G35" s="446" t="s">
+        <v>9.6</v>
+      </c>
+      <c r="D35" s="388"/>
+      <c r="G35" s="389" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="447"/>
-      <c r="I35" s="444">
+      <c r="H35" s="390"/>
+      <c r="I35" s="387">
         <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>12.347246296726411</v>
       </c>
-      <c r="J35" s="445"/>
+      <c r="J35" s="388"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1">
       <c r="B36" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="431">
+      <c r="C36" s="379">
         <f>E28</f>
-        <v>4000</v>
-      </c>
-      <c r="D36" s="441"/>
-      <c r="G36" s="454" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D36" s="380"/>
+      <c r="G36" s="398" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="454"/>
-      <c r="I36" s="455">
+      <c r="H36" s="398"/>
+      <c r="I36" s="399">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.1975990588483425</v>
       </c>
-      <c r="J36" s="456"/>
+      <c r="J36" s="400"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1">
@@ -5305,11 +5301,11 @@
       </c>
       <c r="E42" s="369">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F42" s="358" t="str">
         <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>So-so</v>
+        <v>Agree</v>
       </c>
       <c r="G42" s="95" t="s">
         <v>361</v>
@@ -5336,8 +5332,8 @@
         <v>362</v>
       </c>
       <c r="F45" s="370">
-        <f ca="1">I35/C29-1</f>
-        <v>0.1975990588483425</v>
+        <f ca="1">I35/E29-1</f>
+        <v>0.2861714892423346</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1">
@@ -5356,7 +5352,7 @@
       </c>
       <c r="F48" s="234">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0.52736054421768708</v>
+        <v>0.57736054421768712</v>
       </c>
       <c r="G48" s="95"/>
     </row>
@@ -5366,11 +5362,11 @@
       </c>
       <c r="D49" s="377">
         <f ca="1">IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="372">
         <f ca="1">F45/ABS(F46)</f>
-        <v>17.008673593748124</v>
+        <v>24.632695523592574</v>
       </c>
       <c r="F49" s="373">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
@@ -5381,19 +5377,19 @@
     <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="378" t="str">
         <f ca="1">IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/4 Kelly %</v>
+        <v>⇒ 1/3 Kelly %</v>
       </c>
       <c r="C50" s="106" t="str">
         <f ca="1">" [W – (1 – W)/R] /"&amp;D49</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
+        <v xml:space="preserve"> [W – (1 – W)/R] /3</v>
       </c>
       <c r="E50" s="127">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/D49</f>
-        <v>0.130658537414966</v>
+        <v>0.191044716553288</v>
       </c>
       <c r="F50" s="374">
         <f ca="1">MIN(E50,H50)</f>
-        <v>0.130658537414966</v>
+        <v>0.191044716553288</v>
       </c>
       <c r="G50" s="375" t="s">
         <v>366</v>
@@ -6320,34 +6316,16 @@
     <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6364,16 +6342,34 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="C35:D36">
@@ -8176,7 +8172,7 @@
       <c r="D49" s="457" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="422"/>
+      <c r="E49" s="384"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
@@ -9972,8 +9968,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10974,7 +10970,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="438"/>
+      <c r="E53" s="404"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10993,7 +10989,7 @@
       <c r="D54" s="470">
         <v>0</v>
       </c>
-      <c r="E54" s="422"/>
+      <c r="E54" s="384"/>
       <c r="F54" s="6" t="s">
         <v>161</v>
       </c>
@@ -11007,7 +11003,7 @@
       <c r="D55" s="470">
         <v>0</v>
       </c>
-      <c r="E55" s="422"/>
+      <c r="E55" s="384"/>
       <c r="F55" s="5" t="s">
         <v>162</v>
       </c>
@@ -11090,11 +11086,11 @@
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="455">
+      <c r="D63" s="399">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="456"/>
+      <c r="E63" s="400"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
@@ -12622,7 +12618,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457F43DB-ED94-419D-95E1-07160D512A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF0CC09-08BB-47EC-AB14-FADEB5A47780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="350">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1113,9 +1113,6 @@
     <t>2. Growth Trap</t>
   </si>
   <si>
-    <t>a) High growth company with unproven product and No margin of saftey</t>
-  </si>
-  <si>
     <t>0083.HK</t>
   </si>
   <si>
@@ -1180,9 +1177,6 @@
     <t>Valuation Ouput</t>
   </si>
   <si>
-    <t>⇒ 1/2 Kelly %</t>
-  </si>
-  <si>
     <t>Expected Exit Price =</t>
   </si>
   <si>
@@ -1198,15 +1192,9 @@
     <t>Ex-post</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>Best Guess Market Exit Price</t>
   </si>
   <si>
-    <t>Is the upside very attractive? (20%+ is attractive)</t>
-  </si>
-  <si>
     <t>A bottleneck in HK property market</t>
   </si>
   <si>
@@ -1214,13 +1202,28 @@
   </si>
   <si>
     <t>Consumer Staples, 15.1y</t>
+  </si>
+  <si>
+    <t>4. The probability of an ex-post recession affecting the company</t>
+  </si>
+  <si>
+    <t>a) High growth company with unproven product or product you don't trust</t>
+  </si>
+  <si>
+    <t>Kelly's Formula: [W – (1 – W)/R] / K, Where K =</t>
+  </si>
+  <si>
+    <t>% Allocation</t>
+  </si>
+  <si>
+    <t>Performance Target =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1245,8 +1248,7 @@
     <numFmt numFmtId="182" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="183" formatCode="&quot;Next Buy Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="0.0%"/>
-    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
-    <numFmt numFmtId="186" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3001,7 +3003,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3805,9 +3807,6 @@
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3828,12 +3827,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3841,13 +3838,10 @@
     <xf numFmtId="4" fontId="4" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3914,6 +3908,15 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4532,7 +4535,7 @@
   <dimension ref="A1:L967"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4576,33 +4579,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="376" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="377"/>
+      <c r="C3" s="375" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="376"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="388" t="s">
+      <c r="I3" s="387" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="389"/>
+      <c r="J3" s="388"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="378" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="379"/>
+      <c r="C4" s="377" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="378"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>9.56</v>
+        <v>9.52</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4613,10 +4616,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="380">
+      <c r="C5" s="379">
         <v>44956</v>
       </c>
-      <c r="D5" s="379"/>
+      <c r="D5" s="378"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4624,10 +4627,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="390">
+      <c r="I5" s="389">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="391"/>
+      <c r="J5" s="390"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4650,11 +4653,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="392">
+      <c r="I6" s="391">
         <f>I4*I5/1000000</f>
-        <v>78123.17218816001</v>
-      </c>
-      <c r="J6" s="393"/>
+        <v>77796.296990720002</v>
+      </c>
+      <c r="J6" s="392"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4663,7 +4666,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.9088108105047009E-2</v>
+        <v>3.9252343853387543E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.621234207395618</v>
+        <v>13.564241595649191</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.3414786411722679E-2</v>
+        <v>7.3723251900847581E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4706,10 +4709,10 @@
         <v>256</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="279">
-        <v>3.1600000000000003E-2</v>
+        <v>3.4660000000000003E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -4717,41 +4720,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.49373636722913061</v>
+        <v>0.49167052468842287</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>3.0387294220193319</v>
+        <v>2.9808360993222913</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="407">
+      <c r="C11" s="406">
         <f ca="1">C12-D10</f>
-        <v>2.8399999999999995E-2</v>
-      </c>
-      <c r="D11" s="408"/>
+        <v>2.5339999999999994E-2</v>
+      </c>
+      <c r="D11" s="407"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="405" t="s">
+      <c r="I11" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="406"/>
+      <c r="J11" s="405"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="403">
+      <c r="C12" s="402">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="404"/>
+      <c r="D12" s="403"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4770,13 +4773,13 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="353" t="s">
-        <v>333</v>
+      <c r="C14" s="349" t="s">
+        <v>332</v>
       </c>
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>10.967019141422004</v>
+        <v>10.38118789234521</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4800,11 +4803,11 @@
       <c r="F15" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="358" t="s">
+      <c r="H15" s="354" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>20</v>
@@ -4813,81 +4816,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>9.56</v>
-      </c>
-      <c r="C16" s="363"/>
+        <v>9.52</v>
+      </c>
+      <c r="C16" s="359"/>
       <c r="D16" s="156">
         <f ca="1">I36/B16-1</f>
-        <v>0.20334953518862231</v>
-      </c>
-      <c r="E16" s="397" t="s">
+        <v>8.9046645096271249E-3</v>
+      </c>
+      <c r="E16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="394">
+      <c r="F16" s="393">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="397" t="s">
+      <c r="G16" s="396" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="359">
+      <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>3.6575500180109355</v>
-      </c>
-      <c r="I16" s="415">
+        <v>3.6175500180109346</v>
+      </c>
+      <c r="I16" s="414">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>4.3933054393305436E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">E14/(1+C17)</f>
-        <v>9.9700174012927292</v>
-      </c>
-      <c r="C17" s="364">
+        <v>9.4374435384956445</v>
+      </c>
+      <c r="C17" s="360">
         <v>0.1</v>
       </c>
       <c r="D17" s="268">
         <f ca="1">I36/B17-1</f>
-        <v>0.15386173297065664</v>
-      </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="395"/>
-      <c r="G17" s="398"/>
-      <c r="H17" s="360">
+        <v>1.7730317214981417E-2</v>
+      </c>
+      <c r="E17" s="397"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="397"/>
+      <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>4.0675674193036642</v>
-      </c>
-      <c r="I17" s="416"/>
+        <v>3.5349935565065795</v>
+      </c>
+      <c r="I17" s="415"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>4.2126305611617294E-2</v>
+        <v>4.4503577508761362E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B18" s="324">
+      <c r="B18" s="323">
         <f>C35</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C18" s="362"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="358"/>
       <c r="D18" s="157">
         <f ca="1">I36/B18-1</f>
-        <v>0.23965749530207248</v>
-      </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="396"/>
-      <c r="G18" s="399"/>
-      <c r="H18" s="361">
+        <v>6.7196934014627674E-2</v>
+      </c>
+      <c r="E18" s="398"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="398"/>
+      <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>3.3775500180109344</v>
-      </c>
-      <c r="I18" s="417"/>
+        <v>3.097550018010935</v>
+      </c>
+      <c r="I18" s="416"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>4.5258620689655173E-2</v>
+        <v>4.6666666666666662E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4910,59 +4913,59 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="326"/>
+      <c r="I20" s="325"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="383" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="384"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="384"/>
-      <c r="G21" s="384"/>
-      <c r="H21" s="384"/>
-      <c r="I21" s="384"/>
-      <c r="J21" s="385"/>
+      <c r="C21" s="382" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="384"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="401" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="402"/>
-      <c r="E22" s="402"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="401" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22" s="401"/>
-      <c r="I22" s="402"/>
-      <c r="J22" s="402"/>
+      <c r="C22" s="400" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="401"/>
+      <c r="E22" s="401"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="400" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="400"/>
+      <c r="I22" s="401"/>
+      <c r="J22" s="401"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="386" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="386" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="386"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
+      <c r="C23" s="385" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="386"/>
+      <c r="E23" s="386"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="385" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" s="385"/>
+      <c r="I23" s="386"/>
+      <c r="J23" s="386"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4989,217 +4992,221 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="339"/>
+      <c r="H25" s="362" t="s">
+        <v>349</v>
+      </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="323"/>
+      <c r="J25" s="363">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="381">
+      <c r="C26" s="380">
         <v>44970</v>
       </c>
-      <c r="D26" s="382"/>
-      <c r="E26" s="421" t="str">
+      <c r="D26" s="381"/>
+      <c r="E26" s="420" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="422"/>
-      <c r="G26" s="422"/>
-      <c r="H26" s="423"/>
-      <c r="I26" s="400" t="s">
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="422"/>
+      <c r="I26" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="400"/>
+      <c r="J26" s="399"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="414">
+      <c r="C27" s="413">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="413"/>
-      <c r="E27" s="412">
+      <c r="D27" s="412"/>
+      <c r="E27" s="411">
         <f>E31/D25</f>
-        <v>0.1406060606060606</v>
-      </c>
-      <c r="F27" s="413"/>
-      <c r="G27" s="419">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="F27" s="412"/>
+      <c r="G27" s="418">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="420"/>
-      <c r="I27" s="418">
+      <c r="H27" s="419"/>
+      <c r="I27" s="417">
         <f>C27+E27+G27</f>
-        <v>0.29036363636363638</v>
-      </c>
-      <c r="J27" s="418"/>
+        <v>0.20430303030303029</v>
+      </c>
+      <c r="J27" s="417"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="437">
+      <c r="C28" s="436">
         <v>10000</v>
       </c>
-      <c r="D28" s="402"/>
-      <c r="E28" s="437">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="391"/>
-      <c r="I28" s="427">
+      <c r="D28" s="401"/>
+      <c r="E28" s="436">
+        <v>4000</v>
+      </c>
+      <c r="F28" s="401"/>
+      <c r="G28" s="389"/>
+      <c r="H28" s="390"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
-        <v>20000</v>
-      </c>
-      <c r="J28" s="427"/>
+        <v>14000</v>
+      </c>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="438">
+      <c r="C29" s="437">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="402"/>
-      <c r="E29" s="438">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F29" s="402"/>
-      <c r="G29" s="410">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H29" s="411"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="409"/>
+      <c r="D29" s="401"/>
+      <c r="E29" s="437">
+        <v>9</v>
+      </c>
+      <c r="F29" s="401"/>
+      <c r="G29" s="409">
+        <v>8.6</v>
+      </c>
+      <c r="H29" s="410"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="425">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="425">
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>75835.045806080001</v>
-      </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="372">
+        <v>73546.919424000007</v>
+      </c>
+      <c r="F30" s="432"/>
+      <c r="G30" s="371">
         <f>G29*$I$5/1000000</f>
-        <v>71912.543436799999</v>
-      </c>
-      <c r="H30" s="373"/>
-      <c r="I30" s="424"/>
-      <c r="J30" s="424"/>
+        <v>70278.167449599991</v>
+      </c>
+      <c r="H30" s="372"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="434">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="435"/>
-      <c r="E31" s="426">
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
-        <v>92800</v>
-      </c>
-      <c r="F31" s="436"/>
-      <c r="G31" s="374">
+        <v>36000</v>
+      </c>
+      <c r="F31" s="435"/>
+      <c r="G31" s="373">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="375"/>
-      <c r="I31" s="426">
+      <c r="H31" s="374"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>191640</v>
-      </c>
-      <c r="J31" s="426"/>
+        <v>134840</v>
+      </c>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="429"/>
-      <c r="D32" s="430"/>
-      <c r="E32" s="428">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.5820000000000007</v>
-      </c>
-      <c r="F32" s="413"/>
+        <v>9.6314285714285717</v>
+      </c>
+      <c r="F32" s="412"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="428">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.5820000000000007</v>
-      </c>
-      <c r="J32" s="428"/>
+        <v>9.6314285714285717</v>
+      </c>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="431"/>
-      <c r="D33" s="432"/>
-      <c r="E33" s="425">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>78302.953546752004</v>
-      </c>
-      <c r="F33" s="433"/>
+        <v>78706.877897874278</v>
+      </c>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="425">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>78302.953546752004</v>
-      </c>
-      <c r="J33" s="425"/>
+        <v>78706.877897874278</v>
+      </c>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="368">
+      <c r="C35" s="367">
         <f>E29</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D35" s="369"/>
-      <c r="G35" s="365" t="s">
-        <v>335</v>
-      </c>
-      <c r="H35" s="365"/>
-      <c r="I35" s="366">
-        <f ca="1">'FCFF Model'!C32</f>
-        <v>9.9445545305961911</v>
-      </c>
-      <c r="J35" s="367"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="368"/>
+      <c r="G35" s="364" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" s="364"/>
+      <c r="I35" s="365">
+        <f ca="1">'FCFF Model'!C31</f>
+        <v>11.257972431790977</v>
+      </c>
+      <c r="J35" s="366"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
-        <v>339</v>
-      </c>
-      <c r="C36" s="368">
+        <v>337</v>
+      </c>
+      <c r="C36" s="367">
         <f>E32</f>
-        <v>9.5820000000000007</v>
-      </c>
-      <c r="D36" s="369"/>
-      <c r="G36" s="370" t="s">
-        <v>338</v>
-      </c>
-      <c r="H36" s="371"/>
-      <c r="I36" s="366">
-        <f ca="1">'FCFF Model'!C31</f>
-        <v>11.504021556403231</v>
-      </c>
-      <c r="J36" s="367"/>
+        <v>9.6314285714285717</v>
+      </c>
+      <c r="D36" s="368"/>
+      <c r="G36" s="369" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="370"/>
+      <c r="I36" s="365">
+        <f ca="1">'FCFF Model'!C32</f>
+        <v>9.6047724061316497</v>
+      </c>
+      <c r="J36" s="366"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5212,7 +5219,7 @@
       <c r="H38" s="130"/>
       <c r="I38" s="130"/>
       <c r="J38" s="130"/>
-      <c r="K38" s="325"/>
+      <c r="K38" s="324"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="3" t="s">
@@ -5222,7 +5229,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="G39" s="333"/>
+      <c r="G39" s="331"/>
       <c r="H39" s="114"/>
       <c r="I39" s="114"/>
       <c r="J39" s="114"/>
@@ -5244,11 +5251,11 @@
       <c r="B41" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="330">
+      <c r="F41" s="329">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.48680272108843536</v>
       </c>
-      <c r="G41" s="333" t="s">
+      <c r="G41" s="331" t="s">
         <v>299</v>
       </c>
       <c r="H41" s="114"/>
@@ -5257,9 +5264,9 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42" s="334">
+        <v>345</v>
+      </c>
+      <c r="F42" s="332">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5278,111 +5285,101 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="E44" s="258" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F44" s="258" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E45" s="330">
-        <f ca="1">I36/C29-1</f>
-        <v>0.16390343549203057</v>
-      </c>
-      <c r="F45" s="334">
-        <f ca="1">I36/C36-1</f>
-        <v>0.20058667881478076</v>
+      <c r="E45" s="329">
+        <f ca="1">I35/C29-1</f>
+        <v>0.13900975635279011</v>
+      </c>
+      <c r="F45" s="332">
+        <f ca="1">I35/C36-1</f>
+        <v>0.168878775178535</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="327">
-        <f ca="1">IF(E47="Strongly disagree",0,IF(E47="disagree",1,IF(E47="So-so",2,IF(E47="agree",3,4))))/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="330">
+      <c r="E46" s="329">
         <f ca="1">'FCFF Model'!C32/C29-1</f>
-        <v>6.1265206997360711E-3</v>
-      </c>
-      <c r="F46" s="334">
+        <v>-2.8250464778262874E-2</v>
+      </c>
+      <c r="F46" s="332">
         <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>3.7837041389708892E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B47" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D47" s="327">
-        <f ca="1">IF(F47="Strongly disagree",0,IF(F47="disagree",1,IF(F47="So-so",2,IF(F47="agree",3,4))))/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="E47" s="100" t="str">
-        <f ca="1">IF(E45&lt;D10,"Strongly Disagree",IF(E45&lt;10%,"Disagree",IF(E45&gt;=30%,"Strongly Agree",IF(E45&gt;=20%,"Agree","So-so"))))</f>
-        <v>So-so</v>
-      </c>
-      <c r="F47" s="100" t="str">
-        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>Agree</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1"/>
+        <v>-2.7676232138601486E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="353">
+        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
+        <v>0.58456834929991919</v>
+      </c>
+      <c r="F48" s="329">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
+        <v>0.60846356436051507</v>
+      </c>
+      <c r="G48" s="73"/>
+    </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="357">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,D46))</f>
-        <v>0.57336054421768712</v>
-      </c>
-      <c r="F49" s="330">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,D47))</f>
-        <v>0.62336054421768705</v>
+        <v>305</v>
+      </c>
+      <c r="D49" s="326"/>
+      <c r="E49" s="328">
+        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
+        <v>4.9206183842946976</v>
+      </c>
+      <c r="F49" s="328">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>61.019424296196355</v>
       </c>
       <c r="G49" s="73"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" s="332"/>
-      <c r="E50" s="329">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>100</v>
-      </c>
-      <c r="F50" s="329">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>100</v>
-      </c>
-      <c r="G50" s="73"/>
+        <v>347</v>
+      </c>
+      <c r="E50" s="361">
+        <f ca="1">MAX(J25*2/E45,1)</f>
+        <v>3.5968698393446563</v>
+      </c>
+      <c r="F50" s="361">
+        <f ca="1">MAX(J25*2/F45,1)</f>
+        <v>2.9607036140060274</v>
+      </c>
+      <c r="G50" s="330"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B51" s="335" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="328">
-        <f ca="1">MIN(MAX(E49-ABS((1-E49)/E50),0)/2,H51)</f>
-        <v>0.28454707482993197</v>
-      </c>
-      <c r="F51" s="328">
-        <f ca="1">MIN(MAX(F49-ABS((1-F49)/F50),0)/2,H51)</f>
-        <v>0.30979707482993196</v>
-      </c>
-      <c r="G51" s="331" t="s">
+      <c r="B51" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E51" s="327">
+        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+        <v>0.13904913318371245</v>
+      </c>
+      <c r="F51" s="327">
+        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+        <v>0.20334591232324317</v>
+      </c>
+      <c r="G51" s="330" t="s">
         <v>308</v>
       </c>
       <c r="H51" s="77">
         <v>0.4</v>
-      </c>
-      <c r="I51" s="84" t="str">
-        <f>"Kelly's Formula: [W – (1 – W)/R] /"&amp;2</f>
-        <v>Kelly's Formula: [W – (1 – W)/R] /2</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6379,57 +6376,62 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="25">
+    <cfRule type="containsBlanks" priority="27">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(E50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="9">
+    <cfRule type="containsBlanks" dxfId="13" priority="11">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsBlanks" priority="10">
+    <cfRule type="containsBlanks" priority="12">
       <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9640,8 +9642,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9732,11 +9734,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>110593765.90551001</v>
+        <v>100759509.80375999</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.3091818474958602</v>
+        <v>0.37061101193237955</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9756,7 +9758,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>13.533454574914353</v>
+        <v>12.330028168901379</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9793,7 +9795,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="270" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
@@ -10003,11 +10005,11 @@
         <v>13046.883</v>
       </c>
       <c r="D18" s="65">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>9132.8180999999986</v>
+        <v>7828.1297999999997</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -10019,11 +10021,11 @@
         <v>8609555.8550000004</v>
       </c>
       <c r="D19" s="65">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="0"/>
-        <v>6887644.6840000004</v>
+        <v>5596211.3057500003</v>
       </c>
       <c r="F19" s="201" t="s">
         <v>228</v>
@@ -10043,11 +10045,11 @@
         <v>7527029.5259999996</v>
       </c>
       <c r="D20" s="65">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="0"/>
-        <v>5268920.6681999993</v>
+        <v>3387163.2867000001</v>
       </c>
       <c r="F20" s="201" t="s">
         <v>228</v>
@@ -10170,11 +10172,11 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.88822325736923358</v>
+        <v>0.84121951076510693</v>
       </c>
       <c r="E26" s="27">
         <f>SUM(E11:E22)</f>
-        <v>59987998.640159994</v>
+        <v>56813503.192109995</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>56</v>
@@ -10353,11 +10355,11 @@
         <v>66597606.537</v>
       </c>
       <c r="D34" s="65">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="E34" s="214">
         <f t="shared" si="3"/>
-        <v>49948204.90275</v>
+        <v>43288444.249049999</v>
       </c>
       <c r="F34" s="201" t="s">
         <v>228</v>
@@ -10375,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="65">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E35" s="27">
         <f t="shared" si="3"/>
@@ -10490,11 +10492,11 @@
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.63183655608043676</v>
+        <v>0.57229670105271435</v>
       </c>
       <c r="E42" s="27">
         <f>SUM(E28:E40)</f>
-        <v>70673336.940350011</v>
+        <v>64013576.286649995</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -10582,11 +10584,11 @@
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.72836100233326107</v>
+        <v>0.67354074047347734</v>
       </c>
       <c r="E46" s="27">
         <f>E26+E42</f>
-        <v>130661335.58051001</v>
+        <v>120827079.47875999</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -10651,11 +10653,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="439">
+      <c r="D52" s="438">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="440"/>
+      <c r="E52" s="439"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10664,11 +10666,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="442">
+      <c r="D53" s="441">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="435"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10684,10 +10686,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="449">
+      <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="402"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10698,10 +10700,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="449">
+      <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10716,8 +10718,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="441"/>
-      <c r="E57" s="441"/>
+      <c r="D57" s="440"/>
+      <c r="E57" s="440"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10763,11 +10765,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="447">
+      <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>17157164.825159989</v>
-      </c>
-      <c r="E60" s="448"/>
+        <v>16830289.627719991</v>
+      </c>
+      <c r="E60" s="447"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10784,20 +10786,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="445">
+      <c r="D63" s="444">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="446"/>
+      <c r="E63" s="445"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="443">
+      <c r="D64" s="442">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="444"/>
+      <c r="E64" s="443"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -10806,10 +10808,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="443">
+      <c r="D65" s="442">
         <v>0.15</v>
       </c>
-      <c r="E65" s="444"/>
+      <c r="E65" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10936,7 +10938,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="273">
         <v>11129690.461999999</v>
@@ -10969,7 +10971,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="272" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="273">
         <v>1147617.763</v>
@@ -11002,7 +11004,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="273">
         <v>451993.272</v>
@@ -11035,7 +11037,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="B7" s="272" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="273">
         <v>2738482.4139999999</v>
@@ -11344,7 +11346,7 @@
       </c>
       <c r="J18" s="310"/>
       <c r="L18" s="73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
@@ -12326,8 +12328,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12531,7 +12533,7 @@
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="341">
+      <c r="G9" s="337">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
         <v>0.39430612951565358</v>
       </c>
@@ -12593,7 +12595,7 @@
       <c r="B12" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="340"/>
+      <c r="C12" s="336"/>
       <c r="D12" s="192">
         <f ca="1">IF(D9="","",D9/D11)</f>
         <v>0.20668771437278388</v>
@@ -12606,7 +12608,7 @@
         <f>IF(F9="","",F9/F11)</f>
         <v/>
       </c>
-      <c r="G12" s="342"/>
+      <c r="G12" s="338"/>
       <c r="H12" s="79"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
@@ -12616,7 +12618,7 @@
       <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="351" t="s">
         <v>212</v>
       </c>
       <c r="C14" s="191" t="str">
@@ -12679,7 +12681,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="452" t="str">
+      <c r="E17" s="451" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12702,7 +12704,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="452"/>
+      <c r="E18" s="451"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
@@ -12724,10 +12726,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="453" t="s">
+      <c r="E20" s="452" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="453"/>
+      <c r="F20" s="452"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -12748,7 +12750,7 @@
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="G21" s="348" t="str">
+      <c r="G21" s="344" t="str">
         <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
@@ -12771,51 +12773,51 @@
         <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
         <v>1.9864021785550496</v>
       </c>
-      <c r="F22" s="346">
+      <c r="F22" s="342">
         <f ca="1">E22+$G$16</f>
         <v>7.8888521605441149</v>
       </c>
-      <c r="G22" s="349">
+      <c r="G22" s="345">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
         <v>7.89</v>
       </c>
       <c r="I22" s="73"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="343" t="s">
+      <c r="B23" s="339" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="344">
+      <c r="C23" s="340">
         <f>1/D23</f>
         <v>0.1</v>
       </c>
       <c r="D23" s="290">
         <v>10</v>
       </c>
-      <c r="E23" s="345">
+      <c r="E23" s="341">
         <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
         <v>3.3106702975917495</v>
       </c>
-      <c r="F23" s="347">
+      <c r="F23" s="343">
         <f ca="1">E23+$G$16</f>
         <v>9.2131202795808136</v>
       </c>
-      <c r="G23" s="352">
+      <c r="G23" s="348">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
         <v>9.2100000000000009</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" thickTop="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="350" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="351">
+      <c r="F24" s="346" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
         <v>8.5325795918367344</v>
       </c>
@@ -12832,12 +12834,12 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="450" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="449" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="451"/>
+      <c r="D26" s="450"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -12849,11 +12851,11 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="240" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
-        <v>10.967019141422004</v>
+        <v>10.38118789234521</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12861,11 +12863,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>10.041258105086719</v>
+        <v>8.879760928757495</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.56640336717761908</v>
+        <v>0.5361474892771505</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12873,7 +12875,7 @@
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="355" t="s">
+      <c r="B29" s="351" t="s">
         <v>311</v>
       </c>
       <c r="E29" s="30" t="s">
@@ -12887,14 +12889,14 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="336" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="338">
+      <c r="B30" s="333" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.61</f>
         <v>11.892885374148257</v>
       </c>
-      <c r="D30" s="337" t="str">
+      <c r="D30" s="334" t="str">
         <f>D27</f>
         <v>HKD</v>
       </c>
@@ -12907,50 +12909,50 @@
         <v>0.61</v>
       </c>
       <c r="I30" s="73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="356" t="s">
+      <c r="B31" s="352" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="354">
+      <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
-        <v>11.504021556403231</v>
-      </c>
-      <c r="D31" s="337" t="str">
+        <v>11.257972431790977</v>
+      </c>
+      <c r="D31" s="334" t="str">
         <f>D30</f>
         <v>HKD</v>
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>11.105944889319543</v>
+        <v>10.618116075261268</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59005471999754688</v>
+        <v>0.57743457263282683</v>
       </c>
       <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="336" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="354">
+      <c r="B32" s="333" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="350">
         <f ca="1">MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8</f>
-        <v>9.9445545305961911</v>
-      </c>
-      <c r="D32" s="337" t="str">
+        <v>9.6047724061316497</v>
+      </c>
+      <c r="D32" s="334" t="str">
         <f>D30</f>
         <v>HKD</v>
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>8.0140706509482573</v>
+        <v>7.3404022886773053</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.51006783239076858</v>
+        <v>0.49264000983948847</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -14049,7 +14051,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="274" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -14065,7 +14067,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="274" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -14593,7 +14595,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="274"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF0CC09-08BB-47EC-AB14-FADEB5A47780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E7D1CB-BBAC-40F4-8BDC-2C8D4B7DCA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4534,7 +4534,7 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -9642,7 +9642,7 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -12328,8 +12328,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12939,7 +12939,7 @@
         <v>334</v>
       </c>
       <c r="C32" s="350">
-        <f ca="1">MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8</f>
+        <f ca="1">MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
         <v>9.6047724061316497</v>
       </c>
       <c r="D32" s="334" t="str">

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E7D1CB-BBAC-40F4-8BDC-2C8D4B7DCA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4864DD3-35F1-40B5-B788-3630CB00C22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3902,13 +3902,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4076,6 +4069,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4534,8 +4536,8 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4579,27 +4581,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="372" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="376"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="387" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="388"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="374" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="378"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4616,10 +4618,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="379">
+      <c r="C5" s="376">
         <v>44956</v>
       </c>
-      <c r="D5" s="378"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4627,10 +4629,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="389">
+      <c r="I5" s="386">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="390"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4653,11 +4655,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="391">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
         <v>77796.296990720002</v>
       </c>
-      <c r="J6" s="392"/>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4731,30 +4733,30 @@
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="406">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>2.5339999999999994E-2</v>
       </c>
-      <c r="D11" s="407"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="404" t="s">
+      <c r="I11" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="405"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="402">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="403"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4818,26 +4820,28 @@
         <f>I4</f>
         <v>9.52</v>
       </c>
-      <c r="C16" s="359"/>
+      <c r="C16" s="420">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="156">
-        <f ca="1">I36/B16-1</f>
-        <v>8.9046645096271249E-3</v>
-      </c>
-      <c r="E16" s="396" t="s">
+        <f ca="1">I35/B16-(1+C16)</f>
+        <v>8.256012938980839E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="393">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>3.6175500180109346</v>
       </c>
-      <c r="I16" s="414">
+      <c r="I16" s="411">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
@@ -4847,27 +4851,25 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">E14/(1+C17)</f>
-        <v>9.4374435384956445</v>
-      </c>
-      <c r="C17" s="360">
-        <v>0.1</v>
-      </c>
+        <f ca="1">I35/(1+C16)</f>
+        <v>10.234520392537251</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f ca="1">I36/B17-1</f>
-        <v>1.7730317214981417E-2</v>
-      </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="397"/>
+        <f ca="1">I35/B17-(1+C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>3.5349935565065795</v>
-      </c>
-      <c r="I17" s="415"/>
+        <v>4.3320704105481855</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>4.4503577508761362E-2</v>
+        <v>4.1037584946946142E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4875,19 +4877,19 @@
         <f>C35</f>
         <v>9</v>
       </c>
-      <c r="C18" s="358"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f ca="1">I36/B18-1</f>
-        <v>6.7196934014627674E-2</v>
-      </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="398"/>
+        <f ca="1">I35/B18-(1+C16)</f>
+        <v>0.15088582575455289</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>3.097550018010935</v>
       </c>
-      <c r="I18" s="416"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>4.6666666666666662E-2</v>
@@ -4920,52 +4922,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="384"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="400" t="s">
+      <c r="C22" s="397" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="401"/>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="400" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="400"/>
-      <c r="I22" s="401"/>
-      <c r="J22" s="401"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="385" t="s">
+      <c r="C23" s="382" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="385" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="385"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4992,11 +4994,11 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="362" t="s">
+      <c r="H25" s="359" t="s">
         <v>349</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="363">
+      <c r="J25" s="360">
         <v>0.25</v>
       </c>
     </row>
@@ -5004,46 +5006,46 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="380">
+      <c r="C26" s="377">
         <v>44970</v>
       </c>
-      <c r="D26" s="381"/>
-      <c r="E26" s="420" t="str">
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="422"/>
-      <c r="I26" s="399" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="399"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="413">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="411">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="F27" s="412"/>
-      <c r="G27" s="418">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="419"/>
-      <c r="I27" s="417">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.20430303030303029</v>
       </c>
-      <c r="J27" s="417"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
@@ -5052,13 +5054,13 @@
       <c r="C28" s="436">
         <v>10000</v>
       </c>
-      <c r="D28" s="401"/>
+      <c r="D28" s="398"/>
       <c r="E28" s="436">
         <v>4000</v>
       </c>
-      <c r="F28" s="401"/>
-      <c r="G28" s="389"/>
-      <c r="H28" s="390"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>14000</v>
@@ -5072,17 +5074,17 @@
       <c r="C29" s="437">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="401"/>
+      <c r="D29" s="398"/>
       <c r="E29" s="437">
         <v>9</v>
       </c>
-      <c r="F29" s="401"/>
-      <c r="G29" s="409">
+      <c r="F29" s="398"/>
+      <c r="G29" s="406">
         <v>8.6</v>
       </c>
-      <c r="H29" s="410"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="408"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
@@ -5098,11 +5100,11 @@
         <v>73546.919424000007</v>
       </c>
       <c r="F30" s="432"/>
-      <c r="G30" s="371">
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="372"/>
+      <c r="H30" s="369"/>
       <c r="I30" s="423"/>
       <c r="J30" s="423"/>
     </row>
@@ -5120,11 +5122,11 @@
         <v>36000</v>
       </c>
       <c r="F31" s="435"/>
-      <c r="G31" s="373">
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="374"/>
+      <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>134840</v>
@@ -5141,7 +5143,7 @@
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.6314285714285717</v>
       </c>
-      <c r="F32" s="412"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
@@ -5174,39 +5176,39 @@
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="367">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>9</v>
       </c>
-      <c r="D35" s="368"/>
-      <c r="G35" s="364" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="361" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="364"/>
-      <c r="I35" s="365">
+      <c r="H35" s="361"/>
+      <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.257972431790977</v>
       </c>
-      <c r="J35" s="366"/>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="367">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>9.6314285714285717</v>
       </c>
-      <c r="D36" s="368"/>
-      <c r="G36" s="369" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="366" t="s">
         <v>334</v>
       </c>
-      <c r="H36" s="370"/>
-      <c r="I36" s="365">
+      <c r="H36" s="367"/>
+      <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.6047724061316497</v>
       </c>
-      <c r="J36" s="366"/>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5351,11 +5353,11 @@
       <c r="B50" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E50" s="361">
+      <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
         <v>3.5968698393446563</v>
       </c>
-      <c r="F50" s="361">
+      <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
         <v>2.9607036140060274</v>
       </c>
@@ -6319,7 +6321,7 @@
     <row r="966" ht="15.75" customHeight="1"/>
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E29:F29"/>
@@ -6351,6 +6353,7 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -10689,7 +10692,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10703,7 +10706,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12329,7 +12332,7 @@
   <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4864DD3-35F1-40B5-B788-3630CB00C22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FD4BD8-A8D6-4DB8-92FE-2DC140FD4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4537,7 +4537,7 @@
   <dimension ref="A1:L967"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4607,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>9.52</v>
+        <v>9.5</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4657,7 +4657,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>77796.296990720002</v>
+        <v>77632.859391999998</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.9252343853387543E-2</v>
+        <v>3.9334980366763098E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.564241595649191</v>
+        <v>13.53574528977598</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.3723251900847581E-2</v>
+        <v>7.3878458746954617E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4722,11 +4722,11 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.49167052468842287</v>
+        <v>0.49063760341806911</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>2.9808360993222913</v>
+        <v>2.951889437973771</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4781,7 +4781,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>10.38118789234521</v>
+        <v>10.735099766534228</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4818,14 +4818,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>9.52</v>
+        <v>9.5</v>
       </c>
       <c r="C16" s="420">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+C16)</f>
-        <v>8.256012938980839E-2</v>
+        <f ca="1">I35/B16-(1+J25)</f>
+        <v>-1.0661794657077506E-2</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
@@ -4839,60 +4839,60 @@
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>3.6175500180109346</v>
+        <v>3.597550018010935</v>
       </c>
       <c r="I16" s="411">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>4.4117647058823532E-2</v>
+        <v>4.4210526315789471E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">I35/(1+C16)</f>
-        <v>10.234520392537251</v>
+        <f ca="1">(I35+I36)/2</f>
+        <v>10.581367742939435</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+C16)</f>
-        <v>0</v>
+        <f ca="1">I35/B17-(1+J25)</f>
+        <v>-0.13220675953758554</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>4.3320704105481855</v>
+        <v>4.6789177609503696</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>4.1037584946946142E-2</v>
+        <v>3.9692411246197434E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>9</v>
+        <v>9.26</v>
       </c>
       <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+C16)</f>
-        <v>0.15088582575455289</v>
+        <f ca="1">I35/B18-(1+J25)</f>
+        <v>2.0163385610989737E-2</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>3.097550018010935</v>
+        <v>3.3575500180109348</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>4.6666666666666662E-2</v>
+        <v>4.5356371490280774E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="360">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -5033,7 +5033,7 @@
       <c r="D27" s="409"/>
       <c r="E27" s="408">
         <f>E31/D25</f>
-        <v>5.4545454545454543E-2</v>
+        <v>0.14030303030303029</v>
       </c>
       <c r="F27" s="409"/>
       <c r="G27" s="415">
@@ -5043,7 +5043,7 @@
       <c r="H27" s="416"/>
       <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>0.20430303030303029</v>
+        <v>0.29006060606060602</v>
       </c>
       <c r="J27" s="414"/>
     </row>
@@ -5056,14 +5056,14 @@
       </c>
       <c r="D28" s="398"/>
       <c r="E28" s="436">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="398"/>
       <c r="G28" s="386"/>
       <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="J28" s="426"/>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D29" s="398"/>
       <c r="E29" s="437">
-        <v>9</v>
+        <v>9.26</v>
       </c>
       <c r="F29" s="398"/>
       <c r="G29" s="406">
@@ -5097,7 +5097,7 @@
       <c r="D30" s="432"/>
       <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>73546.919424000007</v>
+        <v>75671.608207359997</v>
       </c>
       <c r="F30" s="432"/>
       <c r="G30" s="368">
@@ -5119,7 +5119,7 @@
       <c r="D31" s="434"/>
       <c r="E31" s="425">
         <f>E28*E29</f>
-        <v>36000</v>
+        <v>92600</v>
       </c>
       <c r="F31" s="435"/>
       <c r="G31" s="370">
@@ -5129,7 +5129,7 @@
       <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>134840</v>
+        <v>191440</v>
       </c>
       <c r="J31" s="425"/>
     </row>
@@ -5141,14 +5141,14 @@
       <c r="D32" s="429"/>
       <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.6314285714285717</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.6314285714285717</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="J32" s="427"/>
     </row>
@@ -5160,14 +5160,14 @@
       <c r="D33" s="431"/>
       <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>78706.877897874278</v>
+        <v>78221.234747391994</v>
       </c>
       <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
       <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>78706.877897874278</v>
+        <v>78221.234747391994</v>
       </c>
       <c r="J33" s="424"/>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C35" s="364">
         <f>E29</f>
-        <v>9</v>
+        <v>9.26</v>
       </c>
       <c r="D35" s="365"/>
       <c r="G35" s="361" t="s">
@@ -5187,7 +5187,7 @@
       <c r="H35" s="361"/>
       <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>11.257972431790977</v>
+        <v>11.298712950757764</v>
       </c>
       <c r="J35" s="363"/>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C36" s="364">
         <f>E32</f>
-        <v>9.6314285714285717</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="D36" s="365"/>
       <c r="G36" s="366" t="s">
@@ -5206,7 +5206,7 @@
       <c r="H36" s="367"/>
       <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>9.6047724061316497</v>
+        <v>9.8640225351211033</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5299,11 +5299,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.13900975635279011</v>
+        <v>0.14313162188969697</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.168878775178535</v>
+        <v>0.18039207592538298</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5312,11 +5312,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">'FCFF Model'!C32/C29-1</f>
-        <v>-2.8250464778262874E-2</v>
+        <v>-2.0211923187876124E-3</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>-2.7676232138601486E-3</v>
+        <v>3.0507995729325499E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5326,11 +5326,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.58456834929991919</v>
+        <v>0.61649216610738411</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.60846356436051507</v>
+        <v>0.65375262014307012</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5341,11 +5341,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>4.9206183842946976</v>
+        <v>70.815439262876637</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>61.019424296196355</v>
+        <v>100</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5355,11 +5355,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>3.5968698393446563</v>
+        <v>2.7946305276150385</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>2.9607036140060274</v>
+        <v>2.217392299235224</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.13904913318371245</v>
+        <v>0.21866095132295929</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.20334591232324317</v>
+        <v>0.29326797363226392</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>308</v>
@@ -10770,7 +10770,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>16830289.627719991</v>
+        <v>16666852.028999992</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12331,8 +12331,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12857,8 +12857,8 @@
         <v>332</v>
       </c>
       <c r="C27" s="238">
-        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
-        <v>10.38118789234521</v>
+        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
+        <v>10.735099766534228</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12866,11 +12866,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>8.879760928757495</v>
+        <v>9.5814436115910357</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.5361474892771505</v>
+        <v>0.5544256444111817</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12920,8 +12920,8 @@
         <v>311</v>
       </c>
       <c r="C31" s="350">
-        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
-        <v>11.257972431790977</v>
+        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
+        <v>11.298712950757764</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12929,11 +12929,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>10.618116075261268</v>
+        <v>10.698890185240348</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.57743457263282683</v>
+        <v>0.57952420149814499</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12942,8 +12942,8 @@
         <v>334</v>
       </c>
       <c r="C32" s="350">
-        <f ca="1">MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
-        <v>9.6047724061316497</v>
+        <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
+        <v>9.8640225351211033</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12951,11 +12951,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>7.3404022886773053</v>
+        <v>7.8544040481579875</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.49264000983948847</v>
+        <v>0.50593725215776753</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FD4BD8-A8D6-4DB8-92FE-2DC140FD4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5777705E-C984-4596-A979-262AD30070EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3003,7 +3003,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3911,201 +3911,202 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4536,8 +4537,8 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4581,33 +4582,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="412" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="413"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="422" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="423"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="414" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="415"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>9.5</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4618,10 +4619,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="416">
         <v>44956</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="415"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4629,10 +4630,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="384">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="385"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4655,11 +4656,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="424">
         <f>I4*I5/1000000</f>
-        <v>77632.859391999998</v>
-      </c>
-      <c r="J6" s="389"/>
+        <v>78695.203783680001</v>
+      </c>
+      <c r="J6" s="425"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4668,7 +4669,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.9334980366763098E-2</v>
+        <v>3.8803978554958402E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4699,11 +4700,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.53574528977598</v>
+        <v>13.720971277951863</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.3878458746954617E-2</v>
+        <v>7.2881137912364363E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4722,41 +4723,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.49063760341806911</v>
+        <v>0.49735159167536902</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>2.951889437973771</v>
+        <v>3.1400427367391543</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="382">
         <f ca="1">C12-D10</f>
         <v>2.5339999999999994E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="383"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="379" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="380"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="430">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="431"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4818,35 +4819,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>9.5</v>
-      </c>
-      <c r="C16" s="420">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C16" s="405">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-1.0661794657077506E-2</v>
-      </c>
-      <c r="E16" s="393" t="s">
+        <v>-2.6717242911966421E-2</v>
+      </c>
+      <c r="E16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="426">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="396" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>3.597550018010935</v>
-      </c>
-      <c r="I16" s="411">
+        <v>3.7275500180109358</v>
+      </c>
+      <c r="I16" s="391">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>4.4210526315789471E-2</v>
+        <v>4.3613707165109032E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -4854,19 +4855,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="406"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="397"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="392"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -4877,19 +4878,19 @@
         <f>C35</f>
         <v>9.26</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="407"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
         <v>2.0163385610989737E-2</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="428"/>
+      <c r="G18" s="398"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>3.3575500180109348</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="393"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>4.5356371490280774E-2</v>
@@ -4922,52 +4923,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="419" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="420"/>
+      <c r="F21" s="420"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="421"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="365"/>
+      <c r="E22" s="365"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="381" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="381"/>
+      <c r="I22" s="365"/>
+      <c r="J22" s="365"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="394" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="394" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5006,209 +5007,209 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377">
+      <c r="C26" s="417">
         <v>44970</v>
       </c>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="D26" s="418"/>
+      <c r="E26" s="402" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="403"/>
+      <c r="G26" s="403"/>
+      <c r="H26" s="404"/>
+      <c r="I26" s="429" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="429"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="390">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="376"/>
+      <c r="E27" s="389">
         <f>E31/D25</f>
         <v>0.14030303030303029</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+      <c r="F27" s="376"/>
+      <c r="G27" s="400">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="401"/>
+      <c r="I27" s="399">
         <f>C27+E27+G27</f>
         <v>0.29006060606060602</v>
       </c>
-      <c r="J27" s="414"/>
+      <c r="J27" s="399"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="364">
         <v>10000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
+      <c r="D28" s="365"/>
+      <c r="E28" s="364">
         <v>10000</v>
       </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="F28" s="365"/>
+      <c r="G28" s="384"/>
+      <c r="H28" s="385"/>
+      <c r="I28" s="378">
         <f>C28+E28+G28</f>
         <v>20000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="378"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="366">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
+      <c r="D29" s="365"/>
+      <c r="E29" s="366">
         <v>9.26</v>
       </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406">
+      <c r="F29" s="365"/>
+      <c r="G29" s="387">
         <v>8.6</v>
       </c>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="386"/>
+      <c r="J29" s="386"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="362">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="363"/>
+      <c r="E30" s="362">
         <f>E29*$I$5/1000000</f>
         <v>75671.608207359997</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+      <c r="F30" s="363"/>
+      <c r="G30" s="408">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="409"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="371">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="372"/>
+      <c r="E31" s="373">
         <f>E28*E29</f>
         <v>92600</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+      <c r="F31" s="374"/>
+      <c r="G31" s="410">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="411"/>
+      <c r="I31" s="373">
         <f>C31+E31+G31</f>
         <v>191440</v>
       </c>
-      <c r="J31" s="425"/>
+      <c r="J31" s="373"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="367"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="375">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="376"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="375">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="375"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="369"/>
+      <c r="D33" s="370"/>
+      <c r="E33" s="362">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="363"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="362">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="J33" s="424"/>
+      <c r="J33" s="362"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="435">
         <f>E29</f>
         <v>9.26</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="361" t="s">
+      <c r="D35" s="436"/>
+      <c r="G35" s="432" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="361"/>
-      <c r="I35" s="362">
+      <c r="H35" s="432"/>
+      <c r="I35" s="433">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="363"/>
+      <c r="J35" s="434"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="435">
         <f>E32</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="366" t="s">
+      <c r="D36" s="436"/>
+      <c r="G36" s="437" t="s">
         <v>334</v>
       </c>
-      <c r="H36" s="367"/>
-      <c r="I36" s="362">
+      <c r="H36" s="438"/>
+      <c r="I36" s="433">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="363"/>
+      <c r="J36" s="434"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5305,6 +5306,7 @@
         <f ca="1">I35/C36-1</f>
         <v>0.18039207592538298</v>
       </c>
+      <c r="J45" s="361"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="3" t="s">
@@ -6322,38 +6324,12 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6370,12 +6346,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9645,8 +9647,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10656,11 +10658,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="439">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="440"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10669,11 +10671,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="442">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="372"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10689,10 +10691,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="449">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="365"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10703,10 +10705,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="449">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="365"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10721,8 +10723,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="441"/>
+      <c r="E57" s="441"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10768,11 +10770,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="447">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>16666852.028999992</v>
-      </c>
-      <c r="E60" s="447"/>
+        <v>17729196.420679994</v>
+      </c>
+      <c r="E60" s="448"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10789,20 +10791,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="444">
+      <c r="D63" s="445">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="445"/>
+      <c r="E63" s="446"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="443">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="444"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -10811,10 +10813,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="443">
         <v>0.15</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12684,7 +12686,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="451" t="str">
+      <c r="E17" s="452" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12707,7 +12709,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="451"/>
+      <c r="E18" s="452"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
@@ -12729,10 +12731,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="452" t="s">
+      <c r="E20" s="453" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="452"/>
+      <c r="F20" s="453"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -12839,10 +12841,10 @@
       <c r="B26" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="450"/>
+      <c r="D26" s="451"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5777705E-C984-4596-A979-262AD30070EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E093D9-95C1-4F77-A7C5-571A430182DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3912,201 +3912,201 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4582,27 +4582,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="373" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="413"/>
+      <c r="D3" s="374"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="422" t="s">
+      <c r="I3" s="385" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="423"/>
+      <c r="J3" s="386"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="414" t="s">
+      <c r="C4" s="375" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="376"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4619,10 +4619,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="416">
+      <c r="C5" s="377">
         <v>44956</v>
       </c>
-      <c r="D5" s="415"/>
+      <c r="D5" s="376"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4630,10 +4630,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="387">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="385"/>
+      <c r="J5" s="388"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4656,11 +4656,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="424">
+      <c r="I6" s="389">
         <f>I4*I5/1000000</f>
         <v>78695.203783680001</v>
       </c>
-      <c r="J6" s="425"/>
+      <c r="J6" s="390"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4734,30 +4734,30 @@
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="382">
+      <c r="C11" s="404">
         <f ca="1">C12-D10</f>
         <v>2.5339999999999994E-2</v>
       </c>
-      <c r="D11" s="383"/>
+      <c r="D11" s="405"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="379" t="s">
+      <c r="I11" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="380"/>
+      <c r="J11" s="403"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="430">
+      <c r="C12" s="400">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="431"/>
+      <c r="D12" s="401"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4821,28 +4821,28 @@
         <f>I4</f>
         <v>9.6300000000000008</v>
       </c>
-      <c r="C16" s="405">
+      <c r="C16" s="421">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
         <v>-2.6717242911966421E-2</v>
       </c>
-      <c r="E16" s="396" t="s">
+      <c r="E16" s="394" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="426">
+      <c r="F16" s="391">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="394" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>3.7275500180109358</v>
       </c>
-      <c r="I16" s="391">
+      <c r="I16" s="412">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
@@ -4855,19 +4855,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="406"/>
+      <c r="C17" s="422"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="397"/>
+      <c r="E17" s="395"/>
+      <c r="F17" s="392"/>
+      <c r="G17" s="395"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="392"/>
+      <c r="I17" s="413"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -4878,19 +4878,19 @@
         <f>C35</f>
         <v>9.26</v>
       </c>
-      <c r="C18" s="407"/>
+      <c r="C18" s="423"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
         <v>2.0163385610989737E-2</v>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="428"/>
-      <c r="G18" s="398"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="393"/>
+      <c r="G18" s="396"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>3.3575500180109348</v>
       </c>
-      <c r="I18" s="393"/>
+      <c r="I18" s="414"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>4.5356371490280774E-2</v>
@@ -4923,52 +4923,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="419" t="s">
+      <c r="C21" s="380" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="420"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
-      <c r="G21" s="420"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="420"/>
-      <c r="J21" s="421"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="382"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="381" t="s">
+      <c r="C22" s="398" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="381" t="s">
+      <c r="D22" s="399"/>
+      <c r="E22" s="399"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="398" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="381"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="H22" s="398"/>
+      <c r="I22" s="399"/>
+      <c r="J22" s="399"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="394" t="s">
+      <c r="C23" s="383" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394" t="s">
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="383" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5007,209 +5007,209 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="417">
+      <c r="C26" s="378">
         <v>44970</v>
       </c>
-      <c r="D26" s="418"/>
-      <c r="E26" s="402" t="str">
+      <c r="D26" s="379"/>
+      <c r="E26" s="418" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="403"/>
-      <c r="G26" s="403"/>
-      <c r="H26" s="404"/>
-      <c r="I26" s="429" t="s">
+      <c r="F26" s="419"/>
+      <c r="G26" s="419"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="429"/>
+      <c r="J26" s="397"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="390">
+      <c r="C27" s="411">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="376"/>
-      <c r="E27" s="389">
+      <c r="D27" s="410"/>
+      <c r="E27" s="409">
         <f>E31/D25</f>
         <v>0.14030303030303029</v>
       </c>
-      <c r="F27" s="376"/>
-      <c r="G27" s="400">
+      <c r="F27" s="410"/>
+      <c r="G27" s="416">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="401"/>
-      <c r="I27" s="399">
+      <c r="H27" s="417"/>
+      <c r="I27" s="415">
         <f>C27+E27+G27</f>
         <v>0.29006060606060602</v>
       </c>
-      <c r="J27" s="399"/>
+      <c r="J27" s="415"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="364">
+      <c r="C28" s="437">
         <v>10000</v>
       </c>
-      <c r="D28" s="365"/>
-      <c r="E28" s="364">
+      <c r="D28" s="399"/>
+      <c r="E28" s="437">
         <v>10000</v>
       </c>
-      <c r="F28" s="365"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="378">
+      <c r="F28" s="399"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="427">
         <f>C28+E28+G28</f>
         <v>20000</v>
       </c>
-      <c r="J28" s="378"/>
+      <c r="J28" s="427"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="438">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="366">
+      <c r="D29" s="399"/>
+      <c r="E29" s="438">
         <v>9.26</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="387">
+      <c r="F29" s="399"/>
+      <c r="G29" s="407">
         <v>8.6</v>
       </c>
-      <c r="H29" s="388"/>
-      <c r="I29" s="386"/>
-      <c r="J29" s="386"/>
+      <c r="H29" s="408"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="406"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="362">
+      <c r="C30" s="425">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="363"/>
-      <c r="E30" s="362">
+      <c r="D30" s="433"/>
+      <c r="E30" s="425">
         <f>E29*$I$5/1000000</f>
         <v>75671.608207359997</v>
       </c>
-      <c r="F30" s="363"/>
-      <c r="G30" s="408">
+      <c r="F30" s="433"/>
+      <c r="G30" s="369">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="409"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
+      <c r="H30" s="370"/>
+      <c r="I30" s="424"/>
+      <c r="J30" s="424"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="371">
+      <c r="C31" s="434">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="372"/>
-      <c r="E31" s="373">
+      <c r="D31" s="435"/>
+      <c r="E31" s="426">
         <f>E28*E29</f>
         <v>92600</v>
       </c>
-      <c r="F31" s="374"/>
-      <c r="G31" s="410">
+      <c r="F31" s="436"/>
+      <c r="G31" s="371">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="411"/>
-      <c r="I31" s="373">
+      <c r="H31" s="372"/>
+      <c r="I31" s="426">
         <f>C31+E31+G31</f>
         <v>191440</v>
       </c>
-      <c r="J31" s="373"/>
+      <c r="J31" s="426"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="367"/>
-      <c r="D32" s="368"/>
-      <c r="E32" s="375">
+      <c r="C32" s="429"/>
+      <c r="D32" s="430"/>
+      <c r="E32" s="428">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="F32" s="376"/>
+      <c r="F32" s="410"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="375">
+      <c r="I32" s="428">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="J32" s="375"/>
+      <c r="J32" s="428"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="362">
+      <c r="C33" s="431"/>
+      <c r="D33" s="432"/>
+      <c r="E33" s="425">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="F33" s="363"/>
+      <c r="F33" s="433"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="362">
+      <c r="I33" s="425">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="J33" s="362"/>
+      <c r="J33" s="425"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="435">
+      <c r="C35" s="365">
         <f>E29</f>
         <v>9.26</v>
       </c>
-      <c r="D35" s="436"/>
-      <c r="G35" s="432" t="s">
+      <c r="D35" s="366"/>
+      <c r="G35" s="362" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="432"/>
-      <c r="I35" s="433">
+      <c r="H35" s="362"/>
+      <c r="I35" s="363">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="434"/>
+      <c r="J35" s="364"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="435">
+      <c r="C36" s="365">
         <f>E32</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="D36" s="436"/>
-      <c r="G36" s="437" t="s">
+      <c r="D36" s="366"/>
+      <c r="G36" s="367" t="s">
         <v>334</v>
       </c>
-      <c r="H36" s="438"/>
-      <c r="I36" s="433">
+      <c r="H36" s="368"/>
+      <c r="I36" s="363">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="434"/>
+      <c r="J36" s="364"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6324,12 +6324,38 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6346,38 +6372,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10675,7 +10675,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="372"/>
+      <c r="E53" s="435"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10694,7 +10694,7 @@
       <c r="D54" s="449">
         <v>0</v>
       </c>
-      <c r="E54" s="365"/>
+      <c r="E54" s="399"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="D55" s="449">
         <v>0</v>
       </c>
-      <c r="E55" s="365"/>
+      <c r="E55" s="399"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E093D9-95C1-4F77-A7C5-571A430182DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9C9AE8-DAE4-452C-94F5-E71E75D8E754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3912,201 +3912,201 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4582,33 +4582,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="373" t="s">
+      <c r="C3" s="412" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="374"/>
+      <c r="D3" s="413"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="385" t="s">
+      <c r="I3" s="422" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="386"/>
+      <c r="J3" s="423"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="375" t="s">
+      <c r="C4" s="414" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="376"/>
+      <c r="D4" s="415"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>9.6300000000000008</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4619,10 +4619,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="377">
+      <c r="C5" s="416">
         <v>44956</v>
       </c>
-      <c r="D5" s="376"/>
+      <c r="D5" s="415"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4630,10 +4630,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="387">
+      <c r="I5" s="384">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="388"/>
+      <c r="J5" s="385"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4656,11 +4656,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="389">
+      <c r="I6" s="424">
         <f>I4*I5/1000000</f>
-        <v>78695.203783680001</v>
-      </c>
-      <c r="J6" s="390"/>
+        <v>76652.233799680005</v>
+      </c>
+      <c r="J6" s="425"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.8803978554958402E-2</v>
+        <v>3.9838199731796309E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4700,11 +4700,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.720971277951863</v>
+        <v>13.364767454536706</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.2881137912364363E-2</v>
+        <v>7.4823598944143796E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>324</v>
       </c>
       <c r="D10" s="279">
-        <v>3.4660000000000003E-2</v>
+        <v>3.6810000000000002E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -4723,41 +4723,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.49735159167536902</v>
+        <v>0.48444007579594617</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>3.1400427367391543</v>
+        <v>2.7782094698826492</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="404">
+      <c r="C11" s="382">
         <f ca="1">C12-D10</f>
-        <v>2.5339999999999994E-2</v>
-      </c>
-      <c r="D11" s="405"/>
+        <v>2.3189999999999995E-2</v>
+      </c>
+      <c r="D11" s="383"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="402" t="s">
+      <c r="I11" s="379" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="403"/>
+      <c r="J11" s="380"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="400">
+      <c r="C12" s="430">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="401"/>
+      <c r="D12" s="431"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4819,35 +4819,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="C16" s="421">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C16" s="405">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-2.6717242911966421E-2</v>
-      </c>
-      <c r="E16" s="394" t="s">
+        <v>4.5536194837700883E-3</v>
+      </c>
+      <c r="E16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="391">
+      <c r="F16" s="426">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="394" t="s">
+      <c r="G16" s="396" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>3.7275500180109358</v>
-      </c>
-      <c r="I16" s="412">
+        <v>3.4775500180109358</v>
+      </c>
+      <c r="I16" s="391">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>4.3613707165109032E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -4855,19 +4855,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="422"/>
+      <c r="C17" s="406"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="395"/>
-      <c r="F17" s="392"/>
-      <c r="G17" s="395"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="397"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="413"/>
+      <c r="I17" s="392"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -4878,19 +4878,19 @@
         <f>C35</f>
         <v>9.26</v>
       </c>
-      <c r="C18" s="423"/>
+      <c r="C18" s="407"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
         <v>2.0163385610989737E-2</v>
       </c>
-      <c r="E18" s="396"/>
-      <c r="F18" s="393"/>
-      <c r="G18" s="396"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="428"/>
+      <c r="G18" s="398"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>3.3575500180109348</v>
       </c>
-      <c r="I18" s="414"/>
+      <c r="I18" s="393"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>4.5356371490280774E-2</v>
@@ -4923,52 +4923,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="380" t="s">
+      <c r="C21" s="419" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="381"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="381"/>
-      <c r="J21" s="382"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="420"/>
+      <c r="F21" s="420"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="421"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="398" t="s">
+      <c r="C22" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="399"/>
-      <c r="E22" s="399"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="398" t="s">
+      <c r="D22" s="365"/>
+      <c r="E22" s="365"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="381" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="398"/>
-      <c r="I22" s="399"/>
-      <c r="J22" s="399"/>
+      <c r="H22" s="381"/>
+      <c r="I22" s="365"/>
+      <c r="J22" s="365"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="383" t="s">
+      <c r="C23" s="394" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383" t="s">
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="394" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="383"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="384"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5007,209 +5007,209 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="378">
+      <c r="C26" s="417">
         <v>44970</v>
       </c>
-      <c r="D26" s="379"/>
-      <c r="E26" s="418" t="str">
+      <c r="D26" s="418"/>
+      <c r="E26" s="402" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="419"/>
-      <c r="G26" s="419"/>
-      <c r="H26" s="420"/>
-      <c r="I26" s="397" t="s">
+      <c r="F26" s="403"/>
+      <c r="G26" s="403"/>
+      <c r="H26" s="404"/>
+      <c r="I26" s="429" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="397"/>
+      <c r="J26" s="429"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="411">
+      <c r="C27" s="390">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="410"/>
-      <c r="E27" s="409">
+      <c r="D27" s="376"/>
+      <c r="E27" s="389">
         <f>E31/D25</f>
         <v>0.14030303030303029</v>
       </c>
-      <c r="F27" s="410"/>
-      <c r="G27" s="416">
+      <c r="F27" s="376"/>
+      <c r="G27" s="400">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="417"/>
-      <c r="I27" s="415">
+      <c r="H27" s="401"/>
+      <c r="I27" s="399">
         <f>C27+E27+G27</f>
         <v>0.29006060606060602</v>
       </c>
-      <c r="J27" s="415"/>
+      <c r="J27" s="399"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="437">
+      <c r="C28" s="364">
         <v>10000</v>
       </c>
-      <c r="D28" s="399"/>
-      <c r="E28" s="437">
+      <c r="D28" s="365"/>
+      <c r="E28" s="364">
         <v>10000</v>
       </c>
-      <c r="F28" s="399"/>
-      <c r="G28" s="387"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="427">
+      <c r="F28" s="365"/>
+      <c r="G28" s="384"/>
+      <c r="H28" s="385"/>
+      <c r="I28" s="378">
         <f>C28+E28+G28</f>
         <v>20000</v>
       </c>
-      <c r="J28" s="427"/>
+      <c r="J28" s="378"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="438">
+      <c r="C29" s="366">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="399"/>
-      <c r="E29" s="438">
+      <c r="D29" s="365"/>
+      <c r="E29" s="366">
         <v>9.26</v>
       </c>
-      <c r="F29" s="399"/>
-      <c r="G29" s="407">
+      <c r="F29" s="365"/>
+      <c r="G29" s="387">
         <v>8.6</v>
       </c>
-      <c r="H29" s="408"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="386"/>
+      <c r="J29" s="386"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="425">
+      <c r="C30" s="362">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="425">
+      <c r="D30" s="363"/>
+      <c r="E30" s="362">
         <f>E29*$I$5/1000000</f>
         <v>75671.608207359997</v>
       </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="369">
+      <c r="F30" s="363"/>
+      <c r="G30" s="408">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="370"/>
-      <c r="I30" s="424"/>
-      <c r="J30" s="424"/>
+      <c r="H30" s="409"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="434">
+      <c r="C31" s="371">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="435"/>
-      <c r="E31" s="426">
+      <c r="D31" s="372"/>
+      <c r="E31" s="373">
         <f>E28*E29</f>
         <v>92600</v>
       </c>
-      <c r="F31" s="436"/>
-      <c r="G31" s="371">
+      <c r="F31" s="374"/>
+      <c r="G31" s="410">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="372"/>
-      <c r="I31" s="426">
+      <c r="H31" s="411"/>
+      <c r="I31" s="373">
         <f>C31+E31+G31</f>
         <v>191440</v>
       </c>
-      <c r="J31" s="426"/>
+      <c r="J31" s="373"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="429"/>
-      <c r="D32" s="430"/>
-      <c r="E32" s="428">
+      <c r="C32" s="367"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="375">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="F32" s="410"/>
+      <c r="F32" s="376"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="428">
+      <c r="I32" s="375">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="J32" s="428"/>
+      <c r="J32" s="375"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="431"/>
-      <c r="D33" s="432"/>
-      <c r="E33" s="425">
+      <c r="C33" s="369"/>
+      <c r="D33" s="370"/>
+      <c r="E33" s="362">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="F33" s="433"/>
+      <c r="F33" s="363"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="425">
+      <c r="I33" s="362">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>78221.234747391994</v>
       </c>
-      <c r="J33" s="425"/>
+      <c r="J33" s="362"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="365">
+      <c r="C35" s="435">
         <f>E29</f>
         <v>9.26</v>
       </c>
-      <c r="D35" s="366"/>
-      <c r="G35" s="362" t="s">
+      <c r="D35" s="436"/>
+      <c r="G35" s="432" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="362"/>
-      <c r="I35" s="363">
+      <c r="H35" s="432"/>
+      <c r="I35" s="433">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="364"/>
+      <c r="J35" s="434"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="365">
+      <c r="C36" s="435">
         <f>E32</f>
         <v>9.5719999999999992</v>
       </c>
-      <c r="D36" s="366"/>
-      <c r="G36" s="367" t="s">
+      <c r="D36" s="436"/>
+      <c r="G36" s="437" t="s">
         <v>334</v>
       </c>
-      <c r="H36" s="368"/>
-      <c r="I36" s="363">
+      <c r="H36" s="438"/>
+      <c r="I36" s="433">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="364"/>
+      <c r="J36" s="434"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6324,38 +6324,12 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6372,12 +6346,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10675,7 +10675,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="435"/>
+      <c r="E53" s="372"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10694,7 +10694,7 @@
       <c r="D54" s="449">
         <v>0</v>
       </c>
-      <c r="E54" s="399"/>
+      <c r="E54" s="365"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="D55" s="449">
         <v>0</v>
       </c>
-      <c r="E55" s="399"/>
+      <c r="E55" s="365"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10772,7 +10772,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="447">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>17729196.420679994</v>
+        <v>15686226.436679997</v>
       </c>
       <c r="E60" s="448"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9C9AE8-DAE4-452C-94F5-E71E75D8E754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235F71C-7F8F-43AA-AC8C-2DD8D12F0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3912,201 +3912,201 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4582,27 +4582,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="373" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="413"/>
+      <c r="D3" s="374"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="422" t="s">
+      <c r="I3" s="385" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="423"/>
+      <c r="J3" s="386"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="414" t="s">
+      <c r="C4" s="375" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="376"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4619,10 +4619,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="416">
+      <c r="C5" s="377">
         <v>44956</v>
       </c>
-      <c r="D5" s="415"/>
+      <c r="D5" s="376"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4630,10 +4630,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="387">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="385"/>
+      <c r="J5" s="388"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4656,11 +4656,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="424">
+      <c r="I6" s="389">
         <f>I4*I5/1000000</f>
         <v>76652.233799680005</v>
       </c>
-      <c r="J6" s="425"/>
+      <c r="J6" s="390"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4734,30 +4734,30 @@
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="382">
+      <c r="C11" s="404">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="383"/>
+      <c r="D11" s="405"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="379" t="s">
+      <c r="I11" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="380"/>
+      <c r="J11" s="403"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="430">
+      <c r="C12" s="400">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="431"/>
+      <c r="D12" s="401"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4821,28 +4821,28 @@
         <f>I4</f>
         <v>9.3800000000000008</v>
       </c>
-      <c r="C16" s="405">
+      <c r="C16" s="421">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
         <v>4.5536194837700883E-3</v>
       </c>
-      <c r="E16" s="396" t="s">
+      <c r="E16" s="394" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="426">
+      <c r="F16" s="391">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="394" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>3.4775500180109358</v>
       </c>
-      <c r="I16" s="391">
+      <c r="I16" s="412">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
@@ -4855,19 +4855,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="406"/>
+      <c r="C17" s="422"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="397"/>
+      <c r="E17" s="395"/>
+      <c r="F17" s="392"/>
+      <c r="G17" s="395"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="392"/>
+      <c r="I17" s="413"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -4876,24 +4876,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>9.26</v>
-      </c>
-      <c r="C18" s="407"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C18" s="423"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>2.0163385610989737E-2</v>
-      </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="428"/>
-      <c r="G18" s="398"/>
+        <v>5.1241744269962863E-2</v>
+      </c>
+      <c r="E18" s="396"/>
+      <c r="F18" s="393"/>
+      <c r="G18" s="396"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>3.3575500180109348</v>
-      </c>
-      <c r="I18" s="393"/>
+        <v>3.1275500180109344</v>
+      </c>
+      <c r="I18" s="414"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>4.5356371490280774E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4923,52 +4923,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="419" t="s">
+      <c r="C21" s="380" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="420"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
-      <c r="G21" s="420"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="420"/>
-      <c r="J21" s="421"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="382"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="381" t="s">
+      <c r="C22" s="398" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="381" t="s">
+      <c r="D22" s="399"/>
+      <c r="E22" s="399"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="398" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="381"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="H22" s="398"/>
+      <c r="I22" s="399"/>
+      <c r="J22" s="399"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="394" t="s">
+      <c r="C23" s="383" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394" t="s">
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="383" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5007,209 +5007,209 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="417">
+      <c r="C26" s="378">
         <v>44970</v>
       </c>
-      <c r="D26" s="418"/>
-      <c r="E26" s="402" t="str">
+      <c r="D26" s="379"/>
+      <c r="E26" s="418" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="403"/>
-      <c r="G26" s="403"/>
-      <c r="H26" s="404"/>
-      <c r="I26" s="429" t="s">
+      <c r="F26" s="419"/>
+      <c r="G26" s="419"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="429"/>
+      <c r="J26" s="397"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="390">
+      <c r="C27" s="411">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="376"/>
-      <c r="E27" s="389">
+      <c r="D27" s="410"/>
+      <c r="E27" s="409">
         <f>E31/D25</f>
-        <v>0.14030303030303029</v>
-      </c>
-      <c r="F27" s="376"/>
-      <c r="G27" s="400">
+        <v>0.16418181818181815</v>
+      </c>
+      <c r="F27" s="410"/>
+      <c r="G27" s="416">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="401"/>
-      <c r="I27" s="399">
+      <c r="H27" s="417"/>
+      <c r="I27" s="415">
         <f>C27+E27+G27</f>
-        <v>0.29006060606060602</v>
-      </c>
-      <c r="J27" s="399"/>
+        <v>0.31393939393939391</v>
+      </c>
+      <c r="J27" s="415"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="364">
+      <c r="C28" s="437">
         <v>10000</v>
       </c>
-      <c r="D28" s="365"/>
-      <c r="E28" s="364">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="365"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="378">
+      <c r="D28" s="399"/>
+      <c r="E28" s="437">
+        <v>12000</v>
+      </c>
+      <c r="F28" s="399"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="427">
         <f>C28+E28+G28</f>
-        <v>20000</v>
-      </c>
-      <c r="J28" s="378"/>
+        <v>22000</v>
+      </c>
+      <c r="J28" s="427"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="438">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="366">
-        <v>9.26</v>
-      </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="387">
+      <c r="D29" s="399"/>
+      <c r="E29" s="438">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F29" s="399"/>
+      <c r="G29" s="407">
         <v>8.6</v>
       </c>
-      <c r="H29" s="388"/>
-      <c r="I29" s="386"/>
-      <c r="J29" s="386"/>
+      <c r="H29" s="408"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="406"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="362">
+      <c r="C30" s="425">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="363"/>
-      <c r="E30" s="362">
+      <c r="D30" s="433"/>
+      <c r="E30" s="425">
         <f>E29*$I$5/1000000</f>
-        <v>75671.608207359997</v>
-      </c>
-      <c r="F30" s="363"/>
-      <c r="G30" s="408">
+        <v>73792.075822080005</v>
+      </c>
+      <c r="F30" s="433"/>
+      <c r="G30" s="369">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="409"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
+      <c r="H30" s="370"/>
+      <c r="I30" s="424"/>
+      <c r="J30" s="424"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="371">
+      <c r="C31" s="434">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="372"/>
-      <c r="E31" s="373">
+      <c r="D31" s="435"/>
+      <c r="E31" s="426">
         <f>E28*E29</f>
-        <v>92600</v>
-      </c>
-      <c r="F31" s="374"/>
-      <c r="G31" s="410">
+        <v>108359.99999999999</v>
+      </c>
+      <c r="F31" s="436"/>
+      <c r="G31" s="371">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="411"/>
-      <c r="I31" s="373">
+      <c r="H31" s="372"/>
+      <c r="I31" s="426">
         <f>C31+E31+G31</f>
-        <v>191440</v>
-      </c>
-      <c r="J31" s="373"/>
+        <v>207200</v>
+      </c>
+      <c r="J31" s="426"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="367"/>
-      <c r="D32" s="368"/>
-      <c r="E32" s="375">
+      <c r="C32" s="429"/>
+      <c r="D32" s="430"/>
+      <c r="E32" s="428">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.5719999999999992</v>
-      </c>
-      <c r="F32" s="376"/>
+        <v>9.418181818181818</v>
+      </c>
+      <c r="F32" s="410"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="375">
+      <c r="I32" s="428">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.5719999999999992</v>
-      </c>
-      <c r="J32" s="375"/>
+        <v>9.418181818181818</v>
+      </c>
+      <c r="J32" s="428"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="362">
+      <c r="C33" s="431"/>
+      <c r="D33" s="432"/>
+      <c r="E33" s="425">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>78221.234747391994</v>
-      </c>
-      <c r="F33" s="363"/>
+        <v>76964.251033599998</v>
+      </c>
+      <c r="F33" s="433"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="362">
+      <c r="I33" s="425">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>78221.234747391994</v>
-      </c>
-      <c r="J33" s="362"/>
+        <v>76964.251033599998</v>
+      </c>
+      <c r="J33" s="425"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="435">
+      <c r="C35" s="365">
         <f>E29</f>
-        <v>9.26</v>
-      </c>
-      <c r="D35" s="436"/>
-      <c r="G35" s="432" t="s">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D35" s="366"/>
+      <c r="G35" s="362" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="432"/>
-      <c r="I35" s="433">
+      <c r="H35" s="362"/>
+      <c r="I35" s="363">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="434"/>
+      <c r="J35" s="364"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="435">
+      <c r="C36" s="365">
         <f>E32</f>
-        <v>9.5719999999999992</v>
-      </c>
-      <c r="D36" s="436"/>
-      <c r="G36" s="437" t="s">
+        <v>9.418181818181818</v>
+      </c>
+      <c r="D36" s="366"/>
+      <c r="G36" s="367" t="s">
         <v>334</v>
       </c>
-      <c r="H36" s="438"/>
-      <c r="I36" s="433">
+      <c r="H36" s="368"/>
+      <c r="I36" s="363">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="434"/>
+      <c r="J36" s="364"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.18039207592538298</v>
+        <v>0.19967029399937664</v>
       </c>
       <c r="J45" s="361"/>
     </row>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="F46" s="332">
         <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>3.0507995729325499E-2</v>
+        <v>4.7338300061120941E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.65375262014307012</v>
+        <v>0.67303083821706378</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>2.217392299235224</v>
+        <v>2.0033025042836305</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.29326797363226392</v>
+        <v>0.33432851262707181</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>308</v>
@@ -6324,12 +6324,38 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6346,38 +6372,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10675,7 +10675,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="372"/>
+      <c r="E53" s="435"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10694,7 +10694,7 @@
       <c r="D54" s="449">
         <v>0</v>
       </c>
-      <c r="E54" s="365"/>
+      <c r="E54" s="399"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="D55" s="449">
         <v>0</v>
       </c>
-      <c r="E55" s="365"/>
+      <c r="E55" s="399"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12333,7 +12333,7 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235F71C-7F8F-43AA-AC8C-2DD8D12F0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEEC5C6-35A6-4ACC-A20F-CB263B2BD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="352">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1107,9 +1107,6 @@
     <t>1. Value Trap</t>
   </si>
   <si>
-    <t>a) a company with mediocre dividend and low trading volume</t>
-  </si>
-  <si>
     <t>2. Growth Trap</t>
   </si>
   <si>
@@ -1207,9 +1204,6 @@
     <t>4. The probability of an ex-post recession affecting the company</t>
   </si>
   <si>
-    <t>a) High growth company with unproven product or product you don't trust</t>
-  </si>
-  <si>
     <t>Kelly's Formula: [W – (1 – W)/R] / K, Where K =</t>
   </si>
   <si>
@@ -1217,6 +1211,18 @@
   </si>
   <si>
     <t>Performance Target =</t>
+  </si>
+  <si>
+    <t>b) It's far better to buy a wonderful company at a fair price than a fair company at a wonderful price, but it takes more efforts on research</t>
+  </si>
+  <si>
+    <t>a) Don't buy a mediocre value stock with low trading volume and mediocre dividend</t>
+  </si>
+  <si>
+    <t>a) Don't buy a High growth company with unproven products or products you don't trust</t>
+  </si>
+  <si>
+    <t>b) Don't buy into unsustainable PE ratios</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3009,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3912,6 +3918,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4537,8 +4544,8 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:J33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4582,33 +4589,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="373" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="374"/>
+      <c r="C3" s="374" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="375"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="385" t="s">
+      <c r="I3" s="386" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="386"/>
+      <c r="J3" s="387"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="375" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="376"/>
+      <c r="C4" s="376" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="377"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>9.3800000000000008</v>
+        <v>9.26</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4619,10 +4626,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="377">
+      <c r="C5" s="378">
         <v>44956</v>
       </c>
-      <c r="D5" s="376"/>
+      <c r="D5" s="377"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4630,10 +4637,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="387">
+      <c r="I5" s="388">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="388"/>
+      <c r="J5" s="389"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4656,11 +4663,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="389">
+      <c r="I6" s="390">
         <f>I4*I5/1000000</f>
-        <v>76652.233799680005</v>
-      </c>
-      <c r="J6" s="390"/>
+        <v>75671.608207359997</v>
+      </c>
+      <c r="J6" s="391"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4669,7 +4676,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.9838199731796309E-2</v>
+        <v>4.0354461499378984E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4700,11 +4707,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.364767454536706</v>
+        <v>13.193789619297428</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.4823598944143796E-2</v>
+        <v>7.5793235215558197E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4712,7 +4719,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="279">
         <v>3.6810000000000002E-2</v>
@@ -4723,41 +4730,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.48444007579594617</v>
+        <v>0.47824254817382311</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>2.7782094698826492</v>
+        <v>2.6045295017915251</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="404">
+      <c r="C11" s="405">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="405"/>
+      <c r="D11" s="406"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="402" t="s">
+      <c r="I11" s="403" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="403"/>
+      <c r="J11" s="404"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="400">
+      <c r="C12" s="401">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="401"/>
+      <c r="D12" s="402"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4777,7 +4784,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="349" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D14" s="239"/>
       <c r="E14" s="190">
@@ -4810,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>20</v>
@@ -4819,35 +4826,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="C16" s="421">
+        <v>9.26</v>
+      </c>
+      <c r="C16" s="422">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>4.5536194837700883E-3</v>
-      </c>
-      <c r="E16" s="394" t="s">
+        <v>2.0163385610989737E-2</v>
+      </c>
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="391">
+      <c r="F16" s="392">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="394" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>3.4775500180109358</v>
-      </c>
-      <c r="I16" s="412">
+        <v>3.3575500180109348</v>
+      </c>
+      <c r="I16" s="413">
         <v>0.42</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>4.4776119402985072E-2</v>
+        <v>4.5356371490280774E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -4855,19 +4862,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="422"/>
+      <c r="C17" s="423"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="395"/>
-      <c r="F17" s="392"/>
-      <c r="G17" s="395"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="393"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="413"/>
+      <c r="I17" s="414"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -4876,24 +4883,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="C18" s="423"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C18" s="424"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>5.1241744269962863E-2</v>
-      </c>
-      <c r="E18" s="396"/>
-      <c r="F18" s="393"/>
-      <c r="G18" s="396"/>
+        <v>2.8120972908452835E-2</v>
+      </c>
+      <c r="E18" s="397"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>3.1275500180109344</v>
-      </c>
-      <c r="I18" s="414"/>
+        <v>3.2975500180109343</v>
+      </c>
+      <c r="I18" s="415"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>4.6511627906976744E-2</v>
+        <v>4.5652173913043478E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4923,52 +4930,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="380" t="s">
-        <v>319</v>
-      </c>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="381"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="381"/>
-      <c r="J21" s="382"/>
+      <c r="C21" s="381" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="382"/>
+      <c r="E21" s="382"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="382"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="382"/>
+      <c r="J21" s="383"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="398" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="399"/>
-      <c r="E22" s="399"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="398" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="398"/>
-      <c r="I22" s="399"/>
-      <c r="J22" s="399"/>
+      <c r="C22" s="399" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="400"/>
+      <c r="E22" s="400"/>
+      <c r="F22" s="400"/>
+      <c r="G22" s="399" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="399"/>
+      <c r="I22" s="400"/>
+      <c r="J22" s="400"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="383" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" s="383"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="384"/>
+      <c r="C23" s="384" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="385"/>
+      <c r="E23" s="385"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="384" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="384"/>
+      <c r="I23" s="385"/>
+      <c r="J23" s="385"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4996,7 +5003,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
       <c r="H25" s="359" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="360">
@@ -5007,209 +5014,209 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="378">
+      <c r="C26" s="379">
         <v>44970</v>
       </c>
-      <c r="D26" s="379"/>
-      <c r="E26" s="418" t="str">
+      <c r="D26" s="380"/>
+      <c r="E26" s="419" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="419"/>
-      <c r="G26" s="419"/>
-      <c r="H26" s="420"/>
-      <c r="I26" s="397" t="s">
+      <c r="F26" s="420"/>
+      <c r="G26" s="420"/>
+      <c r="H26" s="421"/>
+      <c r="I26" s="398" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="397"/>
+      <c r="J26" s="398"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="411">
+      <c r="C27" s="412">
         <f>C31/D25</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D27" s="410"/>
-      <c r="E27" s="409">
+      <c r="D27" s="411"/>
+      <c r="E27" s="410">
         <f>E31/D25</f>
-        <v>0.16418181818181815</v>
-      </c>
-      <c r="F27" s="410"/>
-      <c r="G27" s="416">
+        <v>0.1393939393939394</v>
+      </c>
+      <c r="F27" s="411"/>
+      <c r="G27" s="417">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="417"/>
-      <c r="I27" s="415">
+      <c r="H27" s="418"/>
+      <c r="I27" s="416">
         <f>C27+E27+G27</f>
-        <v>0.31393939393939391</v>
-      </c>
-      <c r="J27" s="415"/>
+        <v>0.28915151515151516</v>
+      </c>
+      <c r="J27" s="416"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="437">
+      <c r="C28" s="438">
         <v>10000</v>
       </c>
-      <c r="D28" s="399"/>
-      <c r="E28" s="437">
-        <v>12000</v>
-      </c>
-      <c r="F28" s="399"/>
-      <c r="G28" s="387"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="427">
+      <c r="D28" s="400"/>
+      <c r="E28" s="438">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="400"/>
+      <c r="G28" s="388"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="428">
         <f>C28+E28+G28</f>
-        <v>22000</v>
-      </c>
-      <c r="J28" s="427"/>
+        <v>20000</v>
+      </c>
+      <c r="J28" s="428"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="438">
+      <c r="C29" s="439">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D29" s="399"/>
-      <c r="E29" s="438">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="F29" s="399"/>
-      <c r="G29" s="407">
+      <c r="D29" s="400"/>
+      <c r="E29" s="439">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F29" s="400"/>
+      <c r="G29" s="408">
         <v>8.6</v>
       </c>
-      <c r="H29" s="408"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="409"/>
+      <c r="I29" s="407"/>
+      <c r="J29" s="407"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="425">
+      <c r="C30" s="426">
         <f>C29*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="425">
+      <c r="D30" s="434"/>
+      <c r="E30" s="426">
         <f>E29*$I$5/1000000</f>
-        <v>73792.075822080005</v>
-      </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="369">
+        <v>75181.295411200001</v>
+      </c>
+      <c r="F30" s="434"/>
+      <c r="G30" s="370">
         <f>G29*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="370"/>
-      <c r="I30" s="424"/>
-      <c r="J30" s="424"/>
+      <c r="H30" s="371"/>
+      <c r="I30" s="425"/>
+      <c r="J30" s="425"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="434">
+      <c r="C31" s="435">
         <f>C28*C29</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="435"/>
-      <c r="E31" s="426">
+      <c r="D31" s="436"/>
+      <c r="E31" s="427">
         <f>E28*E29</f>
-        <v>108359.99999999999</v>
-      </c>
-      <c r="F31" s="436"/>
-      <c r="G31" s="371">
+        <v>92000</v>
+      </c>
+      <c r="F31" s="437"/>
+      <c r="G31" s="372">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="372"/>
-      <c r="I31" s="426">
+      <c r="H31" s="373"/>
+      <c r="I31" s="427">
         <f>C31+E31+G31</f>
-        <v>207200</v>
-      </c>
-      <c r="J31" s="426"/>
+        <v>190840</v>
+      </c>
+      <c r="J31" s="427"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="429"/>
-      <c r="D32" s="430"/>
-      <c r="E32" s="428">
+      <c r="C32" s="430"/>
+      <c r="D32" s="431"/>
+      <c r="E32" s="429">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.418181818181818</v>
-      </c>
-      <c r="F32" s="410"/>
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="F32" s="411"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="428">
+      <c r="I32" s="429">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.418181818181818</v>
-      </c>
-      <c r="J32" s="428"/>
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="J32" s="429"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="431"/>
-      <c r="D33" s="432"/>
-      <c r="E33" s="425">
+      <c r="C33" s="432"/>
+      <c r="D33" s="433"/>
+      <c r="E33" s="426">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>76964.251033599998</v>
-      </c>
-      <c r="F33" s="433"/>
+        <v>77976.078349311996</v>
+      </c>
+      <c r="F33" s="434"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="425">
+      <c r="I33" s="426">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>76964.251033599998</v>
-      </c>
-      <c r="J33" s="425"/>
+        <v>77976.078349311996</v>
+      </c>
+      <c r="J33" s="426"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="365">
+      <c r="C35" s="366">
         <f>E29</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="D35" s="366"/>
-      <c r="G35" s="362" t="s">
-        <v>336</v>
-      </c>
-      <c r="H35" s="362"/>
-      <c r="I35" s="363">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D35" s="367"/>
+      <c r="G35" s="363" t="s">
+        <v>335</v>
+      </c>
+      <c r="H35" s="363"/>
+      <c r="I35" s="364">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="364"/>
+      <c r="J35" s="365"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" s="365">
+        <v>336</v>
+      </c>
+      <c r="C36" s="366">
         <f>E32</f>
-        <v>9.418181818181818</v>
-      </c>
-      <c r="D36" s="366"/>
-      <c r="G36" s="367" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="368"/>
-      <c r="I36" s="363">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="D36" s="367"/>
+      <c r="G36" s="368" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="369"/>
+      <c r="I36" s="364">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="364"/>
+      <c r="J36" s="365"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5267,7 +5274,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F42" s="332">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5288,10 +5295,10 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="E44" s="258" t="s">
+        <v>338</v>
+      </c>
+      <c r="F44" s="258" t="s">
         <v>339</v>
-      </c>
-      <c r="F44" s="258" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
@@ -5304,7 +5311,7 @@
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.19967029399937664</v>
+        <v>0.18410322267425738</v>
       </c>
       <c r="J45" s="361"/>
     </row>
@@ -5318,7 +5325,7 @@
       </c>
       <c r="F46" s="332">
         <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>4.7338300061120941E-2</v>
+        <v>3.3747907684039458E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5332,7 +5339,7 @@
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.67303083821706378</v>
+        <v>0.65746376689194452</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5353,7 +5360,7 @@
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
@@ -5361,7 +5368,7 @@
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>2.0033025042836305</v>
+        <v>2.1726941776991002</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5369,7 +5376,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
@@ -5377,7 +5384,7 @@
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.33432851262707181</v>
+        <v>0.30102644508096194</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>308</v>
@@ -5393,28 +5400,36 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="362" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="362" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B57" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6440,7 +6455,7 @@
       <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -9800,7 +9815,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="270" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
@@ -10658,11 +10673,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="439">
+      <c r="D52" s="440">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="440"/>
+      <c r="E52" s="441"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10671,11 +10686,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="442">
+      <c r="D53" s="443">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="435"/>
+      <c r="E53" s="436"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10691,10 +10706,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="449">
+      <c r="D54" s="450">
         <v>0</v>
       </c>
-      <c r="E54" s="399"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10705,10 +10720,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="449">
+      <c r="D55" s="450">
         <v>0</v>
       </c>
-      <c r="E55" s="399"/>
+      <c r="E55" s="400"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10723,8 +10738,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="441"/>
-      <c r="E57" s="441"/>
+      <c r="D57" s="442"/>
+      <c r="E57" s="442"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10770,11 +10785,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="447">
+      <c r="D60" s="448">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>15686226.436679997</v>
-      </c>
-      <c r="E60" s="448"/>
+        <v>14705600.844359986</v>
+      </c>
+      <c r="E60" s="449"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10791,20 +10806,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="445">
+      <c r="D63" s="446">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="446"/>
+      <c r="E63" s="447"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="443">
+      <c r="D64" s="444">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="444"/>
+      <c r="E64" s="445"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -10813,10 +10828,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="443">
+      <c r="D65" s="444">
         <v>0.15</v>
       </c>
-      <c r="E65" s="444"/>
+      <c r="E65" s="445"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10943,7 +10958,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="272" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="273">
         <v>11129690.461999999</v>
@@ -10976,7 +10991,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="273">
         <v>1147617.763</v>
@@ -11009,7 +11024,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="272" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="273">
         <v>451993.272</v>
@@ -11042,7 +11057,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="B7" s="272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="273">
         <v>2738482.4139999999</v>
@@ -11351,7 +11366,7 @@
       </c>
       <c r="J18" s="310"/>
       <c r="L18" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
@@ -12686,7 +12701,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="452" t="str">
+      <c r="E17" s="453" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12709,7 +12724,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="452"/>
+      <c r="E18" s="453"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
@@ -12731,10 +12746,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="453" t="s">
+      <c r="E20" s="454" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="453"/>
+      <c r="F20" s="454"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -12812,7 +12827,7 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" thickTop="1">
@@ -12820,7 +12835,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="346" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
@@ -12839,12 +12854,12 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C26" s="450" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="451" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="451"/>
+      <c r="D26" s="452"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -12856,7 +12871,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="240" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
@@ -12895,7 +12910,7 @@
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="333" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.61</f>
@@ -12914,7 +12929,7 @@
         <v>0.61</v>
       </c>
       <c r="I30" s="73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
@@ -12941,7 +12956,7 @@
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
@@ -14056,7 +14071,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="274" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -14072,7 +14087,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="274" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -14600,7 +14615,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="274"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEEC5C6-35A6-4ACC-A20F-CB263B2BD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32C5B5-052A-4DB0-A8EB-1603D0A6504D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="364">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1130,10 +1130,6 @@
 2. Property value is likely to exceed inflation in the long run especially after a debt crisis and the future monetary easing</t>
   </si>
   <si>
-    <t>1. 72%收入来自物业销售，22年楼市差，实质比例更高
-2. 物业销售业绩波动较大，难以预测</t>
-  </si>
-  <si>
     <t>1. The room for profitable reinvestment is small
 2. Organic growth rate will be low</t>
   </si>
@@ -1223,6 +1219,50 @@
   </si>
   <si>
     <t>b) Don't buy into unsustainable PE ratios</t>
+  </si>
+  <si>
+    <t>1. 72%收入来自物业销售，22年楼市差，实质比例更高
+2. 物业销售(特别内地)业绩波动较大，难以预测</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
+  </si>
+  <si>
+    <t>b = Reinvestment/NOPAT</t>
+  </si>
+  <si>
+    <t>Expect the coming FY to be report terrible P&amp;L result</t>
+  </si>
+  <si>
+    <t>1. 香港大众住宅楼市场基本饱和、商业物业市场低迷、办公楼(特别九龙)供应量过大
+2. 内地市场低迷
+3. 上半年业绩很差，预计23年6月止年报的P&amp;L数字将很难看。</t>
+  </si>
+  <si>
+    <t>1. Yes. 关键是香港人口及GDP增长可持续性强，预计楼市经历调整及经济恢复后，将会有上涨空间
+2. Yes. 信和在国内物业相对(地理及品质)优质，相信中国经济会恢复。另外信和在这方面的敞口可控
+3. Yes. 我认为是短期影响，而且开关后正在恢复</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -2666,43 +2706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -3003,13 +3006,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3053,9 +3208,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3425,9 +3577,6 @@
     <xf numFmtId="10" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3680,7 +3829,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,7 +3866,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3735,10 +3884,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3775,7 +3924,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3791,16 +3940,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3838,10 +3987,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3865,38 +4014,38 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3919,6 +4068,48 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3948,153 +4139,11 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4104,18 +4153,161 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4152,6 +4344,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4542,10 +4737,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L967"/>
+  <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4573,7 +4768,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="284" t="str">
+      <c r="C2" s="282" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0083.HK : SINO LAND</v>
       </c>
@@ -4589,109 +4784,109 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="374" t="s">
+      <c r="C3" s="394" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="375"/>
+      <c r="D3" s="395"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="386" t="s">
+      <c r="I3" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="387"/>
+      <c r="J3" s="407"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="376" t="s">
+      <c r="C4" s="396" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="377"/>
+      <c r="D4" s="397"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>9.26</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="149"/>
+      <c r="K4" s="148"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="378">
+      <c r="C5" s="398">
         <v>44956</v>
       </c>
-      <c r="D5" s="377"/>
-      <c r="E5" s="120" t="str">
+      <c r="D5" s="397"/>
+      <c r="E5" s="119" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="388">
+      <c r="I5" s="408">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="389"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="84"/>
+      <c r="J5" s="409"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="253">
+      <c r="C6" s="251">
         <v>8</v>
       </c>
-      <c r="D6" s="254">
+      <c r="D6" s="252">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="322">
+      <c r="E6" s="320">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44742</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="390">
+      <c r="H6" s="129"/>
+      <c r="I6" s="410">
         <f>I4*I5/1000000</f>
         <v>75671.608207359997</v>
       </c>
-      <c r="J6" s="391"/>
-      <c r="K6" s="148"/>
+      <c r="J6" s="411"/>
+      <c r="K6" s="147"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="141">
         <f>(Data!C39*Exchange_Rate)/I4</f>
         <v>4.0354461499378984E-2</v>
       </c>
-      <c r="D7" s="142">
+      <c r="D7" s="141">
         <f>(Data!C40*Exchange_Rate)/I4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="94"/>
+      <c r="C8" s="93"/>
       <c r="E8" s="6"/>
       <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="128"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4699,17 +4894,17 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="280"/>
-      <c r="D9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="276"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="118">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
         <v>13.193789619297428</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="47">
         <f>IF(I9="NNI","NNI",1/I9)</f>
         <v>7.5793235215558197E-2</v>
       </c>
@@ -4718,61 +4913,61 @@
       <c r="B10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="279" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="279">
+      <c r="C10" s="277" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="277">
         <v>3.6810000000000002E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="135">
+      <c r="I10" s="134">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.47824254817382311</v>
       </c>
-      <c r="J10" s="127">
+      <c r="J10" s="126">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
         <v>2.6045295017915251</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="286" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="405">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="406"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="403" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="404"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B12" s="289" t="s">
+      <c r="B12" s="287" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="401">
+      <c r="C12" s="421">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="402"/>
-      <c r="G12" s="131" t="s">
+      <c r="D12" s="422"/>
+      <c r="G12" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="132">
+      <c r="H12" s="129"/>
+      <c r="I12" s="131">
         <v>1</v>
       </c>
-      <c r="J12" s="133" t="str">
+      <c r="J12" s="132" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4783,122 +4978,122 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="349" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="239"/>
-      <c r="E14" s="190">
+      <c r="C14" s="347" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="237"/>
+      <c r="E14" s="188">
         <f ca="1">'FCFF Model'!C27</f>
         <v>10.735099766534228</v>
       </c>
-      <c r="F14" s="181"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="225" t="str">
+      <c r="B15" s="223" t="str">
         <f>"(in "&amp;J4&amp;")"</f>
         <v>(in HKD)</v>
       </c>
-      <c r="C15" s="226" t="s">
+      <c r="C15" s="224" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="60" t="s">
+      <c r="E15" s="135"/>
+      <c r="F15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="354" t="s">
+      <c r="H15" s="352" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="J15" s="88" t="s">
+      <c r="I15" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B16" s="128">
+      <c r="B16" s="127">
         <f>I4</f>
         <v>9.26</v>
       </c>
-      <c r="C16" s="422">
+      <c r="C16" s="442">
         <v>0.25</v>
       </c>
-      <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+J25)</f>
+      <c r="D16" s="155">
+        <f ca="1">I37/B16-(1+J27)</f>
         <v>2.0163385610989737E-2</v>
       </c>
-      <c r="E16" s="395" t="s">
+      <c r="E16" s="415" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="392">
+      <c r="F16" s="412">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="395" t="s">
+      <c r="G16" s="415" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="355">
+      <c r="H16" s="353">
         <f>B16-$F$16</f>
         <v>3.3575500180109348</v>
       </c>
-      <c r="I16" s="413">
+      <c r="I16" s="433">
         <v>0.42</v>
       </c>
-      <c r="J16" s="158">
+      <c r="J16" s="157">
         <f>I16/B16</f>
         <v>4.5356371490280774E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B17" s="269">
-        <f ca="1">(I35+I36)/2</f>
+      <c r="B17" s="267">
+        <f ca="1">(I37+I38)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="423"/>
-      <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+J25)</f>
+      <c r="C17" s="443"/>
+      <c r="D17" s="266">
+        <f ca="1">I37/B17-(1+J27)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="393"/>
-      <c r="G17" s="396"/>
-      <c r="H17" s="356">
+      <c r="E17" s="416"/>
+      <c r="F17" s="413"/>
+      <c r="G17" s="416"/>
+      <c r="H17" s="354">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="414"/>
-      <c r="J17" s="159">
+      <c r="I17" s="434"/>
+      <c r="J17" s="158">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B18" s="323">
-        <f>C35</f>
+      <c r="B18" s="321">
+        <f>C37</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="C18" s="424"/>
-      <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+J25)</f>
+      <c r="C18" s="444"/>
+      <c r="D18" s="156">
+        <f ca="1">I37/B18-(1+J27)</f>
         <v>2.8120972908452835E-2</v>
       </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="394"/>
-      <c r="G18" s="397"/>
-      <c r="H18" s="357">
+      <c r="E18" s="417"/>
+      <c r="F18" s="414"/>
+      <c r="G18" s="417"/>
+      <c r="H18" s="355">
         <f>B18-$F$16</f>
         <v>3.2975500180109343</v>
       </c>
-      <c r="I18" s="415"/>
-      <c r="J18" s="160">
+      <c r="I18" s="435"/>
+      <c r="J18" s="159">
         <f>I16/B18</f>
         <v>4.5652173913043478E-2</v>
       </c>
@@ -4915,523 +5110,553 @@
       <c r="C20" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="270" t="s">
+      <c r="D20" s="268" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="250" t="s">
+      <c r="E20" s="248" t="s">
         <v>247</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="325"/>
+      <c r="I20" s="323"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="381" t="s">
+      <c r="C21" s="401" t="s">
         <v>318</v>
       </c>
-      <c r="D21" s="382"/>
-      <c r="E21" s="382"/>
-      <c r="F21" s="382"/>
-      <c r="G21" s="382"/>
-      <c r="H21" s="382"/>
-      <c r="I21" s="382"/>
-      <c r="J21" s="383"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
+      <c r="F21" s="402"/>
+      <c r="G21" s="402"/>
+      <c r="H21" s="402"/>
+      <c r="I21" s="402"/>
+      <c r="J21" s="403"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="399" t="s">
+      <c r="C22" s="419" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="400"/>
-      <c r="E22" s="400"/>
-      <c r="F22" s="400"/>
-      <c r="G22" s="399" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="399"/>
-      <c r="I22" s="400"/>
-      <c r="J22" s="400"/>
+      <c r="D22" s="420"/>
+      <c r="E22" s="420"/>
+      <c r="F22" s="420"/>
+      <c r="G22" s="419" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" s="419"/>
+      <c r="I22" s="420"/>
+      <c r="J22" s="420"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="384" t="s">
+      <c r="C23" s="404" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="385"/>
-      <c r="E23" s="385"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="384" t="s">
-        <v>322</v>
-      </c>
-      <c r="H23" s="384"/>
-      <c r="I23" s="385"/>
-      <c r="J23" s="385"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="D23" s="405"/>
+      <c r="E23" s="405"/>
+      <c r="F23" s="405"/>
+      <c r="G23" s="404" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="404"/>
+      <c r="I23" s="405"/>
+      <c r="J23" s="405"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="369" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="370"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="370"/>
+      <c r="H24" s="370"/>
+      <c r="I24" s="370"/>
+      <c r="J24" s="371"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="361" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="372" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="373"/>
+      <c r="H25" s="373"/>
+      <c r="I25" s="373"/>
+      <c r="J25" s="374"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="33">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="359" t="s">
-        <v>347</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="360">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="357" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="358">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="379">
-        <v>44970</v>
-      </c>
-      <c r="D26" s="380"/>
-      <c r="E26" s="419" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v>Action_Planning</v>
-      </c>
-      <c r="F26" s="420"/>
-      <c r="G26" s="420"/>
-      <c r="H26" s="421"/>
-      <c r="I26" s="398" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="398"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="412">
-        <f>C31/D25</f>
-        <v>0.14975757575757576</v>
-      </c>
-      <c r="D27" s="411"/>
-      <c r="E27" s="410">
-        <f>E31/D25</f>
-        <v>0.1393939393939394</v>
-      </c>
-      <c r="F27" s="411"/>
-      <c r="G27" s="417">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="418"/>
-      <c r="I27" s="416">
-        <f>C27+E27+G27</f>
-        <v>0.28915151515151516</v>
-      </c>
-      <c r="J27" s="416"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="438">
-        <v>10000</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="399">
+        <v>44970</v>
       </c>
       <c r="D28" s="400"/>
-      <c r="E28" s="438">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="400"/>
-      <c r="G28" s="388"/>
-      <c r="H28" s="389"/>
-      <c r="I28" s="428">
-        <f>C28+E28+G28</f>
-        <v>20000</v>
-      </c>
-      <c r="J28" s="428"/>
+      <c r="E28" s="439" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v>Action_Planning</v>
+      </c>
+      <c r="F28" s="440"/>
+      <c r="G28" s="440"/>
+      <c r="H28" s="441"/>
+      <c r="I28" s="418" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="418"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="439">
-        <v>9.8840000000000003</v>
-      </c>
-      <c r="D29" s="400"/>
-      <c r="E29" s="439">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F29" s="400"/>
-      <c r="G29" s="408">
-        <v>8.6</v>
-      </c>
-      <c r="H29" s="409"/>
-      <c r="I29" s="407"/>
-      <c r="J29" s="407"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="432">
+        <f>C33/D27</f>
+        <v>0.14975757575757576</v>
+      </c>
+      <c r="D29" s="431"/>
+      <c r="E29" s="430">
+        <f>E33/D27</f>
+        <v>0.1393939393939394</v>
+      </c>
+      <c r="F29" s="431"/>
+      <c r="G29" s="437">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="438"/>
+      <c r="I29" s="436">
+        <f>C29+E29+G29</f>
+        <v>0.28915151515151516</v>
+      </c>
+      <c r="J29" s="436"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="446">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="447"/>
+      <c r="E30" s="446">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="447"/>
+      <c r="G30" s="408"/>
+      <c r="H30" s="409"/>
+      <c r="I30" s="445">
+        <f>C30+E30+G30</f>
+        <v>20000</v>
+      </c>
+      <c r="J30" s="445"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="448">
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="D31" s="447"/>
+      <c r="E31" s="448">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F31" s="447"/>
+      <c r="G31" s="428">
+        <v>8.6</v>
+      </c>
+      <c r="H31" s="429"/>
+      <c r="I31" s="427"/>
+      <c r="J31" s="427"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="426">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="387">
+        <f>C31*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D30" s="434"/>
-      <c r="E30" s="426">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="449"/>
+      <c r="E32" s="387">
+        <f>E31*$I$5/1000000</f>
         <v>75181.295411200001</v>
       </c>
-      <c r="F30" s="434"/>
-      <c r="G30" s="370">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="449"/>
+      <c r="G32" s="382">
+        <f>G31*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H30" s="371"/>
-      <c r="I30" s="425"/>
-      <c r="J30" s="425"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="383"/>
+      <c r="I32" s="386"/>
+      <c r="J32" s="386"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="435">
-        <f>C28*C29</f>
+      <c r="C33" s="450">
+        <f>C30*C31</f>
         <v>98840</v>
       </c>
-      <c r="D31" s="436"/>
-      <c r="E31" s="427">
-        <f>E28*E29</f>
+      <c r="D33" s="451"/>
+      <c r="E33" s="388">
+        <f>E30*E31</f>
         <v>92000</v>
       </c>
-      <c r="F31" s="437"/>
-      <c r="G31" s="372">
-        <f>G28*G29</f>
+      <c r="F33" s="452"/>
+      <c r="G33" s="384">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="373"/>
-      <c r="I31" s="427">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="385"/>
+      <c r="I33" s="388">
+        <f>C33+E33+G33</f>
         <v>190840</v>
       </c>
-      <c r="J31" s="427"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="388"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="430"/>
-      <c r="D32" s="431"/>
-      <c r="E32" s="429">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="390"/>
+      <c r="D34" s="391"/>
+      <c r="E34" s="389">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="F32" s="411"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="429">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="431"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="389">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="J32" s="429"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="389"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="432"/>
-      <c r="D33" s="433"/>
-      <c r="E33" s="426">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="392"/>
+      <c r="D35" s="393"/>
+      <c r="E35" s="387">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="F33" s="434"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="426">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="449"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="387">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="J33" s="426"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="387"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="142" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="366">
-        <f>E29</f>
+      <c r="C37" s="378">
+        <f>E31</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="D35" s="367"/>
-      <c r="G35" s="363" t="s">
-        <v>335</v>
-      </c>
-      <c r="H35" s="363"/>
-      <c r="I35" s="364">
+      <c r="D37" s="379"/>
+      <c r="G37" s="375" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" s="375"/>
+      <c r="I37" s="376">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J35" s="365"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="366">
-        <f>E32</f>
+      <c r="J37" s="377"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="142" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="378">
+        <f>E34</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="D36" s="367"/>
-      <c r="G36" s="368" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="369"/>
-      <c r="I36" s="364">
+      <c r="D38" s="379"/>
+      <c r="G38" s="380" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="381"/>
+      <c r="I38" s="376">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J36" s="365"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="377"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="317" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="322"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="206">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
+      <c r="G41" s="329"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B42" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+      <c r="F42" s="206">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",2,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
         <v>0.8</v>
       </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B43" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="329">
+      <c r="F43" s="327">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.48680272108843536</v>
       </c>
-      <c r="G41" s="331" t="s">
+      <c r="G43" s="329" t="s">
         <v>299</v>
       </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F42" s="332">
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F44" s="330">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
-      <c r="G42" s="73" t="s">
+      <c r="G44" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="256" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="256" t="s">
         <v>338</v>
       </c>
-      <c r="F44" s="258" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E45" s="329">
-        <f ca="1">I35/C29-1</f>
+      <c r="E47" s="327">
+        <f ca="1">I37/C31-1</f>
         <v>0.14313162188969697</v>
       </c>
-      <c r="F45" s="332">
-        <f ca="1">I35/C36-1</f>
+      <c r="F47" s="330">
+        <f ca="1">I37/C38-1</f>
         <v>0.18410322267425738</v>
       </c>
-      <c r="J45" s="361"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" s="329">
-        <f ca="1">'FCFF Model'!C32/C29-1</f>
-        <v>-2.0211923187876124E-3</v>
-      </c>
-      <c r="F46" s="332">
-        <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>3.3747907684039458E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
+      <c r="J47" s="359"/>
+    </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" s="353">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.61649216610738411</v>
-      </c>
-      <c r="F48" s="329">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.65746376689194452</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>70.815439262876637</v>
-      </c>
-      <c r="F49" s="328">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>100</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>304</v>
+      </c>
+      <c r="E48" s="327">
+        <f ca="1">'FCFF Model'!C32/C31-1</f>
+        <v>-2.0211923187876124E-3</v>
+      </c>
+      <c r="F48" s="330">
+        <f ca="1">'FCFF Model'!C32/C38-1</f>
+        <v>3.3747907684039458E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E50" s="358">
-        <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>2.7946305276150385</v>
-      </c>
-      <c r="F50" s="358">
-        <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>2.1726941776991002</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>306</v>
+      </c>
+      <c r="E50" s="351">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.61649216610738411</v>
+      </c>
+      <c r="F50" s="327">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.65746376689194452</v>
+      </c>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E51" s="327">
-        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+        <v>305</v>
+      </c>
+      <c r="D51" s="324"/>
+      <c r="E51" s="326">
+        <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>70.815439262876637</v>
+      </c>
+      <c r="F51" s="326">
+        <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>100</v>
+      </c>
+      <c r="G51" s="72"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="356">
+        <f ca="1">MAX(J27*2/E47,1)</f>
+        <v>2.7946305276150385</v>
+      </c>
+      <c r="F52" s="356">
+        <f ca="1">MAX(J27*2/F47,1)</f>
+        <v>2.1726941776991002</v>
+      </c>
+      <c r="G52" s="328"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="325">
+        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0.21866095132295929</v>
       </c>
-      <c r="F51" s="327">
-        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="325">
+        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.30102644508096194</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="328" t="s">
         <v>308</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="76">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="362" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="360" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="360" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="362" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="3" t="s">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -6337,46 +6562,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
     <row r="966" ht="15.75" customHeight="1"/>
     <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
+  <mergeCells count="56">
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6384,15 +6601,27 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -6400,14 +6629,14 @@
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
+  <conditionalFormatting sqref="C37:D38">
     <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="27">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
@@ -6420,19 +6649,19 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
+  <conditionalFormatting sqref="E28:H28">
     <cfRule type="containsBlanks" dxfId="13" priority="11">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
@@ -6445,17 +6674,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J36">
+  <conditionalFormatting sqref="I37:J38">
     <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(I35))=0</formula>
+      <formula>LEN(TRIM(I37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="12">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6468,10 +6697,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F47" xr:uid="{93A0A854-6906-47E5-9CB9-89F531648935}">
-      <formula1>"Strongly Agree,Agree,So-so,Disagree,Strongly Disagree"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51" xr:uid="{5650037A-2134-4900-ABF2-A28ECB840AD9}">
+    <dataValidation allowBlank="1" sqref="F49" xr:uid="{93A0A854-6906-47E5-9CB9-89F531648935}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53" xr:uid="{5650037A-2134-4900-ABF2-A28ECB840AD9}">
       <formula1>"⇒ 1/2 Kelly %, ⇒ 1/3 Kelly %, ⇒ 1/4 Kelly %"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6488,10 +6715,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -6503,22 +6730,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -6532,21 +6759,21 @@
       <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="145">
         <v>44742</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="176">
+      <c r="E3" s="175">
         <v>1</v>
       </c>
-      <c r="F3" s="174">
+      <c r="F3" s="173">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>5735396</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="171"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6556,21 +6783,21 @@
       <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>1000</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="175">
+      <c r="F4" s="174">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>7384827</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="86"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
@@ -6581,81 +6808,81 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="262">
+      <c r="B6" s="41"/>
+      <c r="C6" s="260">
         <f>C3</f>
         <v>44742</v>
       </c>
-      <c r="D6" s="263">
+      <c r="D6" s="261">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44377</v>
       </c>
-      <c r="E6" s="263">
+      <c r="E6" s="261">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44012</v>
       </c>
-      <c r="F6" s="263">
+      <c r="F6" s="261">
         <f t="shared" si="0"/>
         <v>43646</v>
       </c>
-      <c r="G6" s="263">
+      <c r="G6" s="261">
         <f t="shared" si="0"/>
         <v>43281</v>
       </c>
-      <c r="H6" s="263">
+      <c r="H6" s="261">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-      <c r="I6" s="263">
+      <c r="I6" s="261">
         <f t="shared" si="0"/>
         <v>42551</v>
       </c>
-      <c r="J6" s="263">
+      <c r="J6" s="261">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="K6" s="263">
+      <c r="K6" s="261">
         <f t="shared" si="0"/>
         <v>41820</v>
       </c>
-      <c r="L6" s="263">
+      <c r="L6" s="261">
         <f t="shared" si="0"/>
         <v>41455</v>
       </c>
-      <c r="M6" s="263">
+      <c r="M6" s="261">
         <f t="shared" si="0"/>
         <v>41090</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>15554174</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>24545345</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>5886888</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>8009912</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="229"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="227"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="14">
@@ -6698,38 +6925,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="204"/>
+      <c r="M8" s="202"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>7301864</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>11010749</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>2437232</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>3519324</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="229"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="227"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="14">
@@ -6772,7 +6999,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="204" t="str">
+      <c r="M10" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6780,33 +7007,33 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>867483</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>823281</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>843993</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>932270</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="229"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="227"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="14">
@@ -6849,7 +7076,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="204" t="str">
+      <c r="M12" s="202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6857,7 +7084,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="14">
@@ -6900,7 +7127,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="204" t="str">
+      <c r="M13" s="202" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6908,50 +7135,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
         <v>7384827</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <f t="shared" si="5"/>
         <v>12711315</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="5"/>
         <v>2605663</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <f t="shared" si="5"/>
         <v>3558318</v>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="27" t="str">
+      <c r="L14" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6959,7 +7186,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="14">
@@ -7002,7 +7229,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="204" t="str">
+      <c r="M15" s="202" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7010,50 +7237,50 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="140">
+      <c r="C16" s="139">
         <f>IF(C14="","",C14*(1-Operation!$D$18))</f>
         <v>7384827</v>
       </c>
-      <c r="D16" s="140">
+      <c r="D16" s="139">
         <f>IF(D14="","",D14*(1-Operation!$D$18))</f>
         <v>12711315</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="139">
         <f>IF(E14="","",E14*(1-Operation!$D$18))</f>
         <v>2605663</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="139">
         <f>IF(F14="","",F14*(1-Operation!$D$18))</f>
         <v>3558318</v>
       </c>
-      <c r="G16" s="140" t="str">
+      <c r="G16" s="139" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="H16" s="140" t="str">
+      <c r="H16" s="139" t="str">
         <f>IF(H14="","",H14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="I16" s="140" t="str">
+      <c r="I16" s="139" t="str">
         <f>IF(I14="","",I14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="J16" s="140" t="str">
+      <c r="J16" s="139" t="str">
         <f>IF(J14="","",J14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="K16" s="140" t="str">
+      <c r="K16" s="139" t="str">
         <f>IF(K14="","",K14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="L16" s="140" t="str">
+      <c r="L16" s="139" t="str">
         <f>IF(L14="","",L14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="M16" s="231" t="str">
+      <c r="M16" s="229" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$18))</f>
         <v/>
       </c>
@@ -7061,50 +7288,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="125">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>0.47478104591089182</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="125">
         <f t="shared" si="7"/>
         <v>0.51787070012664316</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="125">
         <f t="shared" si="7"/>
         <v>0.44262146655414542</v>
       </c>
-      <c r="F17" s="126">
+      <c r="F17" s="125">
         <f t="shared" si="7"/>
         <v>0.44423933746088595</v>
       </c>
-      <c r="G17" s="126" t="str">
+      <c r="G17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="126" t="str">
+      <c r="H17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="126" t="str">
+      <c r="I17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="126" t="str">
+      <c r="J17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="126" t="str">
+      <c r="K17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="126" t="str">
+      <c r="L17" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="232" t="str">
+      <c r="M17" s="230" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7112,59 +7339,59 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="140">
         <v>27282</v>
       </c>
-      <c r="D18" s="141">
+      <c r="D18" s="140">
         <v>39885</v>
       </c>
-      <c r="E18" s="141">
+      <c r="E18" s="140">
         <v>31747</v>
       </c>
-      <c r="F18" s="141">
+      <c r="F18" s="140">
         <v>60128</v>
       </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="233"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="231"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>5735396</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>9646036</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>1688050</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <v>6914903</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="229"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="227"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>255</v>
       </c>
       <c r="C20" s="14">
@@ -7207,7 +7434,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="204" t="str">
+      <c r="M20" s="202" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7215,206 +7442,206 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="173">
+      <c r="C21" s="172">
         <v>71424985</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>74808371</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>80391448</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>74544144</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="229"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="227"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="172">
         <v>15104618</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>17965728</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>32319376</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>25385564</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="229"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="227"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="173">
+      <c r="C23" s="172">
         <v>2284708</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>2894189</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <v>864027</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <v>0</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="229"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="227"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="256">
+      <c r="C24" s="254">
         <v>31180</v>
       </c>
-      <c r="D24" s="137">
+      <c r="D24" s="136">
         <v>49241</v>
       </c>
-      <c r="E24" s="137">
+      <c r="E24" s="136">
         <v>32031</v>
       </c>
-      <c r="F24" s="137">
+      <c r="F24" s="136">
         <v>0</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="234"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="232"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="173">
+      <c r="C25" s="172">
         <v>2814396</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>4131550</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <v>6139127</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>6755357</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="229"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="227"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <v>13550</v>
       </c>
-      <c r="D26" s="137">
+      <c r="D26" s="136">
         <v>19736</v>
       </c>
-      <c r="E26" s="137">
+      <c r="E26" s="136">
         <v>7537</v>
       </c>
-      <c r="F26" s="137">
+      <c r="F26" s="136">
         <v>0</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="234"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="232"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
         <v>5099104</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <f t="shared" si="9"/>
         <v>7025739</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f t="shared" si="9"/>
         <v>7003154</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <f t="shared" si="9"/>
         <v>6755357</v>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H27" s="27" t="str">
+      <c r="H27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I27" s="27" t="str">
+      <c r="I27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J27" s="27" t="str">
+      <c r="J27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K27" s="27" t="str">
+      <c r="K27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L27" s="27" t="str">
+      <c r="L27" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="230" t="str">
+      <c r="M27" s="228" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7422,111 +7649,111 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="173">
+      <c r="C28" s="172">
         <v>158228515</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34">
         <v>156808599</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="34">
         <v>145759189</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="34">
         <v>146162104</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="229"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="227"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="172">
+      <c r="C29" s="171">
         <v>157397300</v>
       </c>
-      <c r="D29" s="137">
+      <c r="D29" s="136">
         <v>155159697</v>
       </c>
-      <c r="E29" s="137">
+      <c r="E29" s="136">
         <v>144915881</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="136">
         <v>145294012</v>
       </c>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="234"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="232"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="173">
+      <c r="C30" s="172">
         <v>1285288</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="34">
         <v>1376283</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>1367290</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="34">
         <v>219236</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="229"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="227"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="173">
+      <c r="C31" s="172">
         <v>17617776</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <v>28578786</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="34">
         <v>23080979</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="34">
         <v>16439823</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="229"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="227"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="14">
@@ -7569,7 +7796,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="204" t="str">
+      <c r="M32" s="202" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7577,50 +7804,50 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="236">
+      <c r="C33" s="234">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
         <v>-1348675.65</v>
       </c>
-      <c r="D33" s="236">
+      <c r="D33" s="234">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>2798768.55</v>
       </c>
-      <c r="E33" s="236">
+      <c r="E33" s="234">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v>-318453.59999999998</v>
       </c>
-      <c r="F33" s="236" t="str">
+      <c r="F33" s="234" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="236" t="str">
+      <c r="G33" s="234" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="236" t="str">
+      <c r="H33" s="234" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="236" t="str">
+      <c r="I33" s="234" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="236" t="str">
+      <c r="J33" s="234" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="236" t="str">
+      <c r="K33" s="234" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="236" t="str">
+      <c r="L33" s="234" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="237" t="str">
+      <c r="M33" s="235" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7628,109 +7855,109 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+      <c r="C34" s="139">
+        <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>-1439670.65</v>
       </c>
-      <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+      <c r="D34" s="139">
+        <f t="shared" si="11"/>
         <v>2807761.55</v>
       </c>
-      <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+      <c r="E34" s="139">
+        <f t="shared" si="11"/>
         <v>829600.4</v>
       </c>
-      <c r="F34" s="140" t="str">
+      <c r="F34" s="139" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
-        <v/>
-      </c>
-      <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
-        <v/>
-      </c>
-      <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
-        <v/>
-      </c>
-      <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
-        <v/>
-      </c>
-      <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
-        <v/>
-      </c>
-      <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
-        <v/>
-      </c>
-      <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+      <c r="G34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L34" s="139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M34" s="316" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="235" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="227">
-        <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
+      <c r="B35" s="233" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="225">
+        <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
         <v>-0.19494981399022615</v>
       </c>
-      <c r="D35" s="227">
-        <f t="shared" si="19"/>
+      <c r="D35" s="225">
+        <f t="shared" si="12"/>
         <v>0.22088678866033923</v>
       </c>
-      <c r="E35" s="227">
-        <f t="shared" si="19"/>
+      <c r="E35" s="225">
+        <f t="shared" si="12"/>
         <v>0.31838361292308331</v>
       </c>
-      <c r="F35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L35" s="227" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M35" s="228" t="str">
-        <f t="shared" si="19"/>
+      <c r="F35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L35" s="225" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M35" s="226" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="6"/>
@@ -7748,161 +7975,161 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="162">
+      <c r="C37" s="161">
         <v>3053687</v>
       </c>
-      <c r="D37" s="162">
+      <c r="D37" s="161">
         <v>508443</v>
       </c>
-      <c r="E37" s="162">
+      <c r="E37" s="161">
         <v>1287845</v>
       </c>
-      <c r="F37" s="162">
+      <c r="F37" s="161">
         <v>822878</v>
       </c>
-      <c r="G37" s="162"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="162"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="163"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="162"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="161">
+      <c r="C38" s="160">
         <v>0</v>
       </c>
-      <c r="D38" s="161">
+      <c r="D38" s="160">
         <v>0</v>
       </c>
-      <c r="E38" s="161">
+      <c r="E38" s="160">
         <v>0</v>
       </c>
-      <c r="F38" s="161">
+      <c r="F38" s="160">
         <v>0</v>
       </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="164"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="163"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="167">
-        <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
+      <c r="C39" s="166">
+        <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>0.37368231348424941</v>
       </c>
-      <c r="D39" s="167">
-        <f t="shared" si="20"/>
+      <c r="D39" s="166">
+        <f t="shared" si="13"/>
         <v>6.2218608690043288E-2</v>
       </c>
-      <c r="E39" s="167">
-        <f t="shared" si="20"/>
+      <c r="E39" s="166">
+        <f t="shared" si="13"/>
         <v>0.15759470404436446</v>
       </c>
-      <c r="F39" s="167">
-        <f t="shared" si="20"/>
+      <c r="F39" s="166">
+        <f t="shared" si="13"/>
         <v>0.1006962909935734</v>
       </c>
-      <c r="G39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L39" s="167" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M39" s="168" t="str">
-        <f t="shared" si="20"/>
+      <c r="G39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L39" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M39" s="167" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="169">
-        <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
+      <c r="C40" s="168">
+        <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="169">
-        <f t="shared" si="21"/>
+      <c r="D40" s="168">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E40" s="169">
-        <f t="shared" si="21"/>
+      <c r="E40" s="168">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F40" s="169">
-        <f t="shared" si="21"/>
+      <c r="F40" s="168">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L40" s="169" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M40" s="170" t="str">
-        <f t="shared" si="21"/>
+      <c r="G40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L40" s="168" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M40" s="169" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="87" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="6"/>
@@ -7919,436 +8146,691 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="47">
         <f>IF(C29="","",C25/C28)</f>
         <v>1.7786907751741209E-2</v>
       </c>
-      <c r="D42" s="48">
-        <f t="shared" ref="D42:M42" si="22">IF(D29="","",D25/D29)</f>
+      <c r="D42" s="47">
+        <f t="shared" ref="D42:M42" si="15">IF(D29="","",D25/D29)</f>
         <v>2.6627726657651309E-2</v>
       </c>
-      <c r="E42" s="48">
-        <f t="shared" si="22"/>
+      <c r="E42" s="47">
+        <f t="shared" si="15"/>
         <v>4.236338320987746E-2</v>
       </c>
-      <c r="F42" s="48">
-        <f t="shared" si="22"/>
+      <c r="F42" s="47">
+        <f t="shared" si="15"/>
         <v>4.6494393726287907E-2</v>
       </c>
-      <c r="G42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M42" s="203" t="str">
-        <f t="shared" si="22"/>
+      <c r="G42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L42" s="47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M42" s="201" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>237</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
+        <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
         <v>3.2396387993949068E-2</v>
       </c>
       <c r="D43" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>4.5280695540414723E-2</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>4.8325649001850941E-2</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>4.6494393726287907E-2</v>
       </c>
       <c r="G43" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J43" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K43" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L43" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M43" s="204" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M43" s="202" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="50">
-        <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
+      <c r="C44" s="49">
+        <f t="shared" ref="C44:M44" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
         <v>1.4482597334747438</v>
       </c>
-      <c r="D44" s="50">
-        <f t="shared" si="24"/>
+      <c r="D44" s="49">
+        <f t="shared" si="17"/>
         <v>1.8092495323267772</v>
       </c>
-      <c r="E44" s="50">
-        <f t="shared" si="24"/>
+      <c r="E44" s="49">
+        <f t="shared" si="17"/>
         <v>0.37206992734987693</v>
       </c>
-      <c r="F44" s="50">
-        <f t="shared" si="24"/>
+      <c r="F44" s="49">
+        <f t="shared" si="17"/>
         <v>0.52674018560381042</v>
       </c>
-      <c r="G44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="J44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M44" s="205" t="str">
-        <f t="shared" si="24"/>
+      <c r="G44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="K44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L44" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M44" s="203" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <f t="shared" ref="C45:M45" si="18">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
         <v>3.6943316343091043E-3</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>3.1377556137976285E-3</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>1.2183847258835851E-2</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>1.6897871410031368E-2</v>
       </c>
       <c r="G45" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J45" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K45" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L45" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M45" s="204" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M45" s="202" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="51">
-        <f t="shared" ref="C46:M46" si="26">IF(C21="","",C21/C22)</f>
+      <c r="C46" s="50">
+        <f t="shared" ref="C46:M46" si="19">IF(C21="","",C21/C22)</f>
         <v>4.7286852934645554</v>
       </c>
-      <c r="D46" s="51">
-        <f t="shared" si="26"/>
+      <c r="D46" s="50">
+        <f t="shared" si="19"/>
         <v>4.1639487695683695</v>
       </c>
-      <c r="E46" s="51">
-        <f t="shared" si="26"/>
+      <c r="E46" s="50">
+        <f t="shared" si="19"/>
         <v>2.4874071826139219</v>
       </c>
-      <c r="F46" s="51">
-        <f t="shared" si="26"/>
+      <c r="F46" s="50">
+        <f t="shared" si="19"/>
         <v>2.9364777556252051</v>
       </c>
-      <c r="G46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M46" s="206" t="str">
-        <f t="shared" si="26"/>
+      <c r="G46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L46" s="50" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M46" s="204" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="468" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="362"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="362"/>
+      <c r="F47" s="362"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="362"/>
+      <c r="L47" s="362"/>
+      <c r="M47" s="362"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="164" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="365">
+        <f>C13</f>
+        <v>0.47478104591089182</v>
+      </c>
+      <c r="D48" s="365">
+        <f>D13</f>
+        <v>0.51787070012664316</v>
+      </c>
+      <c r="E48" s="365">
+        <f t="shared" ref="E48:M48" si="20">E13</f>
+        <v>0.44262146655414542</v>
+      </c>
+      <c r="F48" s="365">
+        <f t="shared" si="20"/>
+        <v>0.44423933746088595</v>
+      </c>
+      <c r="G48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M48" s="365" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="138" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" s="363">
+        <f>C7/(C29+C21+C22)</f>
+        <v>6.3765717551868398E-2</v>
+      </c>
+      <c r="D49" s="363">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>9.8999593423721874E-2</v>
+      </c>
+      <c r="E49" s="363">
+        <f t="shared" ref="E49:M49" si="21">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>2.2850457214829496E-2</v>
+      </c>
+      <c r="F49" s="363">
+        <f t="shared" si="21"/>
+        <v>3.2663691750537023E-2</v>
+      </c>
+      <c r="G49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="K49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="M49" s="363" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" s="364">
+        <f>(C29+C21+C22)/C29</f>
+        <v>1.5497527784784111</v>
+      </c>
+      <c r="D50" s="364">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>1.5979265285623754</v>
+      </c>
+      <c r="E50" s="364">
+        <f t="shared" ref="E50:M50" si="22">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>1.7777672344965421</v>
+      </c>
+      <c r="F50" s="364">
+        <f t="shared" si="22"/>
+        <v>1.6877758183179634</v>
+      </c>
+      <c r="G50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M50" s="364" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" s="368">
+        <f>C48*C49*C50</f>
+        <v>4.6918384241661074E-2</v>
+      </c>
+      <c r="D51" s="368">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>8.1924077229926534E-2</v>
+      </c>
+      <c r="E51" s="368">
+        <f t="shared" ref="E51:M51" si="23">IF(E48="","",E48*E49*E50)</f>
+        <v>1.7980520713254334E-2</v>
+      </c>
+      <c r="F51" s="368">
+        <f t="shared" si="23"/>
+        <v>2.4490465580921533E-2</v>
+      </c>
+      <c r="G51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="H51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M51" s="368" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="366" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="367">
+        <f>C35*C51</f>
+        <v>-9.1467302806337841E-3</v>
+      </c>
+      <c r="D52" s="367">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>1.8095946333280093E-2</v>
+      </c>
+      <c r="E52" s="367">
+        <f t="shared" ref="E52:M52" si="24">IF(E35="","",E35*E51)</f>
+        <v>5.7247031469242499E-3</v>
+      </c>
+      <c r="F52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="G52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M52" s="367" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="315" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="312"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="162"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="314" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="318" t="str">
+        <f t="shared" ref="C58:M58" si="25">IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="E58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L58" s="318" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M58" s="319" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="52"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="52"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="52"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="52"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="52"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8932,12 +9414,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9615,14 +10109,20 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
+  <conditionalFormatting sqref="B57:M58">
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:M35 D42:M46">
+  <conditionalFormatting sqref="C7:M35 D42:M46 D48:M52">
     <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
@@ -9638,15 +10138,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9662,8 +10162,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9682,17 +10182,17 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="251"/>
+      <c r="C2" s="249"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="319" t="s">
+      <c r="K2" s="317" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9701,43 +10201,43 @@
         <v>243</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="257">
+      <c r="D3" s="255">
         <v>160090995.734</v>
       </c>
-      <c r="E3" s="153" t="str">
+      <c r="E3" s="152" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="256" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="259">
+      <c r="I3" s="257">
         <v>159323330.11500001</v>
       </c>
-      <c r="K3" s="73"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="260">
+      <c r="D4" s="258">
         <f>D3-I3</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="E4" s="147"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="88">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
         <v>19.496533400243045</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="D5" s="6"/>
@@ -9745,14 +10245,14 @@
         <v>81</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="K5" s="73"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="59">
+      <c r="D6" s="58">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>100759509.80375999</v>
       </c>
@@ -9765,63 +10265,63 @@
       <c r="H6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="68">
         <f>C26/I26</f>
         <v>4.8817709652895234</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="73"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="60">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>12.330028168901379</v>
       </c>
-      <c r="E7" s="49" t="str">
+      <c r="E7" s="48" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="68">
         <f>C25/I26</f>
         <v>3.7089690853896293</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="114"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="68">
         <f>C24/I26</f>
         <v>3.2145491810156961</v>
       </c>
-      <c r="K8" s="73"/>
+      <c r="K8" s="72"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="250" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="255">
+      <c r="C9" s="237"/>
+      <c r="D9" s="253">
         <v>44926</v>
       </c>
-      <c r="E9" s="270" t="s">
+      <c r="E9" s="268" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="K9" s="73"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
@@ -9836,29 +10336,29 @@
       <c r="E10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>227</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>88</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="73"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>3379024.0260000001</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <v>1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
         <v>3379024.0260000001</v>
       </c>
@@ -9867,23 +10367,23 @@
       <c r="H11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="63">
         <v>2230528</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="73"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>41083645.866999999</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <v>0.98</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>40261972.949659996</v>
       </c>
@@ -9892,23 +10392,23 @@
       <c r="H12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="63">
         <v>40711.811999999998</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>0</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <v>1</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9917,23 +10417,23 @@
       <c r="H13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="63">
         <v>1695386.811</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <v>9150.4850000000006</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <v>0.6</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
         <v>5490.2910000000002</v>
       </c>
@@ -9942,23 +10442,23 @@
       <c r="H14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <v>0</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="78"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="63">
         <v>0</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="64">
         <v>0.8</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9966,7 +10466,7 @@
       <c r="H15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="151">
         <f>I26-SUM(I11:I14)</f>
         <v>9867916.8460000008</v>
       </c>
@@ -9976,58 +10476,58 @@
       <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>0</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="64">
         <v>0.5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="201" t="s">
+      <c r="F16" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="91">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="151"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="63">
         <v>6840073.6589999991</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="64">
         <v>0.6</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>4104044.1953999992</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="151"/>
+      <c r="I17" s="150"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <v>13046.883</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="64">
         <v>0.6</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>7828.1297999999997</v>
       </c>
@@ -10037,80 +10537,80 @@
       <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>8609555.8550000004</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="64">
         <v>0.65</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>5596211.3057500003</v>
       </c>
-      <c r="F19" s="201" t="s">
+      <c r="F19" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="91">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="151"/>
+      <c r="I19" s="150"/>
     </row>
     <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="63">
         <v>7527029.5259999996</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <v>0.45</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f t="shared" si="0"/>
         <v>3387163.2867000001</v>
       </c>
-      <c r="F20" s="201" t="s">
+      <c r="F20" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="91">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="151"/>
+      <c r="I20" s="150"/>
     </row>
     <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="63">
         <v>75546.323999999993</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <v>0.95</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>71769.007799999992</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="151"/>
+      <c r="I21" s="150"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>0</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" ref="E22" si="1">C22*D22</f>
         <v>0</v>
       </c>
@@ -10123,27 +10623,27 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="69">
         <f>SUM(C11:C14)</f>
         <v>44471820.377999999</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="67">
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.98144143630000158</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f>SUM(E11:E14)</f>
         <v>43646487.266659997</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="68">
         <f>E24/($I$26-I15)</f>
         <v>11.003427197705268</v>
       </c>
@@ -10153,27 +10653,27 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="69">
         <f>C24+SUM(C15:C17)</f>
         <v>51311894.037</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.93059381958553367</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f>E24+SUM(E15:E17)</f>
         <v>47750531.462059997</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="68">
         <f>E25/$I$26</f>
         <v>3.4515437078973985</v>
       </c>
@@ -10186,7 +10686,7 @@
       <c r="B26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="69">
         <f>SUM(C11:C22)</f>
         <v>67537072.625</v>
       </c>
@@ -10194,17 +10694,17 @@
         <f t="shared" ref="D26" si="2">E26/C26</f>
         <v>0.84121951076510693</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f>SUM(E11:E22)</f>
         <v>56813503.192109995</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="63">
         <v>13834543.469000001</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="104">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
         <v>4</v>
       </c>
@@ -10213,7 +10713,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>227</v>
       </c>
       <c r="G27" s="6"/>
@@ -10224,13 +10724,13 @@
       <c r="B28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <v>0</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <v>0.95</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
@@ -10238,7 +10738,7 @@
       <c r="H28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="63">
         <v>997248.75199999998</v>
       </c>
       <c r="J28" s="6"/>
@@ -10247,13 +10747,13 @@
       <c r="B29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <v>941238.06900000002</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <v>0.6</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f t="shared" ref="E29:E40" si="3">C29*D29</f>
         <v>564742.84140000003</v>
       </c>
@@ -10262,7 +10762,7 @@
       <c r="H29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="63">
         <v>35896.328000000001</v>
       </c>
       <c r="J29" s="6"/>
@@ -10271,13 +10771,13 @@
       <c r="B30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <v>0</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="64">
         <v>0</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10286,7 +10786,7 @@
       <c r="H30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="63">
         <v>1739746.648</v>
       </c>
       <c r="J30" s="6"/>
@@ -10295,27 +10795,27 @@
       <c r="B31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <v>0</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="64">
         <v>0.3</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="201" t="s">
+      <c r="F31" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="91">
         <f>IF(F31="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="63">
         <v>0</v>
       </c>
       <c r="J31" s="6"/>
@@ -10324,13 +10824,13 @@
       <c r="B32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <v>19909711.574000001</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="64">
         <v>0.4</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <f t="shared" si="3"/>
         <v>7963884.6296000006</v>
       </c>
@@ -10338,7 +10838,7 @@
       <c r="H32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="152">
+      <c r="I32" s="151">
         <f>I42-SUM(I28:I31)</f>
         <v>2692468.8590000002</v>
       </c>
@@ -10348,20 +10848,20 @@
       <c r="B33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <v>23060132.886</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="64">
         <v>0.5</v>
       </c>
-      <c r="E33" s="214">
+      <c r="E33" s="212">
         <f t="shared" si="3"/>
         <v>11530066.443</v>
       </c>
-      <c r="F33" s="201" t="s">
+      <c r="F33" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="92">
+      <c r="G33" s="91">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10371,20 +10871,20 @@
       <c r="B34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <v>66597606.537</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="64">
         <v>0.65</v>
       </c>
-      <c r="E34" s="214">
+      <c r="E34" s="212">
         <f t="shared" si="3"/>
         <v>43288444.249049999</v>
       </c>
-      <c r="F34" s="201" t="s">
+      <c r="F34" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G34" s="92">
+      <c r="G34" s="91">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10393,20 +10893,20 @@
       <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="63">
         <v>0</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="64">
         <v>0.45</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="201" t="s">
+      <c r="F35" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="G35" s="92">
+      <c r="G35" s="91">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10415,13 +10915,13 @@
       <c r="B36" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <v>114740.003</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="64">
         <v>0.4</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f t="shared" si="3"/>
         <v>45896.001199999999</v>
       </c>
@@ -10432,13 +10932,13 @@
       <c r="B37" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>1217891.264</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="64">
         <v>0.5</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f t="shared" si="3"/>
         <v>608945.63199999998</v>
       </c>
@@ -10449,13 +10949,13 @@
       <c r="B38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <v>0</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="64">
         <v>0.1</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10466,13 +10966,13 @@
       <c r="B39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <v>12206.832</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="64">
         <v>0.95</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f t="shared" si="3"/>
         <v>11596.490400000001</v>
       </c>
@@ -10483,13 +10983,13 @@
       <c r="B40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="63">
         <v>300</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="64">
         <v>0</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10506,7 +11006,7 @@
       <c r="B42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="66">
         <f>SUM(C28:C40)</f>
         <v>111853827.16500001</v>
       </c>
@@ -10514,7 +11014,7 @@
         <f>E42/C42</f>
         <v>0.57229670105271435</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <f>SUM(E28:E40)</f>
         <v>64013576.286649995</v>
       </c>
@@ -10523,7 +11023,7 @@
       <c r="H42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="63">
         <v>5465360.5870000003</v>
       </c>
       <c r="J42" s="6"/>
@@ -10535,27 +11035,27 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="69">
         <f>C24+SUM(C28:C29)</f>
         <v>45413058.446999997</v>
       </c>
-      <c r="D44" s="68">
+      <c r="D44" s="67">
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.97353562213074429</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="26">
         <f>E24+SUM(E28:E29)</f>
         <v>44211230.108059995</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I44" s="68">
         <f>E44/(I46-I15-I32)</f>
         <v>6.5599984754845266</v>
       </c>
@@ -10565,27 +11065,27 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="69">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
         <v>95222976.566</v>
       </c>
-      <c r="D45" s="68">
+      <c r="D45" s="67">
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.71210991108916599</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
         <v>67809225.376059994</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I45" s="68">
         <f>E45/$I$46</f>
         <v>3.5134488326629425</v>
       </c>
@@ -10598,7 +11098,7 @@
       <c r="B46" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="69">
         <f>C26+C42</f>
         <v>179390899.79000002</v>
       </c>
@@ -10606,7 +11106,7 @@
         <f>E46/C46</f>
         <v>0.67354074047347734</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <f>E26+E42</f>
         <v>120827079.47875999</v>
       </c>
@@ -10615,7 +11115,7 @@
       <c r="H46" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I46" s="152">
+      <c r="I46" s="151">
         <f>I26+I42</f>
         <v>19299904.056000002</v>
       </c>
@@ -10632,14 +11132,14 @@
         <v>127</v>
       </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="52"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49" spans="2:9" ht="14">
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="208" t="s">
         <v>202</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="211" t="str">
+      <c r="D49" s="209" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10649,19 +11149,19 @@
       <c r="B50" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="212">
+      <c r="C50" s="210">
         <f>D4</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="D50" s="208">
+      <c r="D50" s="206">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="212">
+      <c r="E50" s="210">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="I50" s="154"/>
+      <c r="I50" s="153"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1">
       <c r="C51" s="6"/>
@@ -10669,28 +11169,28 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1">
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="73" t="s">
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="440">
+      <c r="D52" s="453">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="441"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="454"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="57" t="s">
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="443">
+      <c r="D53" s="456">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="436"/>
+      <c r="E53" s="451"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10702,28 +11202,28 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="14">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="450">
+      <c r="D54" s="463">
         <v>0</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="57" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="450">
+      <c r="D55" s="463">
         <v>0</v>
       </c>
-      <c r="E55" s="400"/>
+      <c r="E55" s="447"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10734,46 +11234,46 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="14">
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="73" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="442"/>
-      <c r="E57" s="442"/>
+      <c r="D57" s="455"/>
+      <c r="E57" s="455"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="207">
+      <c r="C58" s="205">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>24010521.440000001</v>
       </c>
-      <c r="D58" s="126">
+      <c r="D58" s="125">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.50395821705236565</v>
       </c>
-      <c r="E58" s="215">
+      <c r="E58" s="213">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>12100299.5754</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="14">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="207">
+      <c r="C59" s="205">
         <f>C11+C12+C28</f>
         <v>44462669.892999999</v>
       </c>
-      <c r="D59" s="208">
+      <c r="D59" s="206">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>0.98151993752697786</v>
       </c>
-      <c r="E59" s="209">
+      <c r="E59" s="207">
         <f>E11+E12+E28</f>
         <v>43640996.975659996</v>
       </c>
@@ -10781,15 +11281,15 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:9" ht="14">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="448">
+      <c r="D60" s="461">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>14705600.844359986</v>
       </c>
-      <c r="E60" s="449"/>
+      <c r="E60" s="462"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10798,7 +11298,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1">
-      <c r="B62" s="271" t="s">
+      <c r="B62" s="269" t="s">
         <v>248</v>
       </c>
     </row>
@@ -10806,32 +11306,32 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="446">
+      <c r="D63" s="459">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="447"/>
+      <c r="E63" s="460"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="444">
+      <c r="D64" s="457">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="445"/>
-      <c r="F64" s="250" t="s">
+      <c r="E64" s="458"/>
+      <c r="F64" s="248" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1">
-      <c r="B65" s="271" t="s">
+      <c r="B65" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="444">
+      <c r="D65" s="457">
         <v>0.15</v>
       </c>
-      <c r="E65" s="445"/>
+      <c r="E65" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10870,8 +11370,8 @@
   </sheetPr>
   <dimension ref="A1:M903"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10901,364 +11401,364 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265">
+      <c r="D2" s="263"/>
+      <c r="E2" s="263">
         <v>1</v>
       </c>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="265">
+      <c r="I2" s="263">
         <v>3</v>
       </c>
-      <c r="J2" s="265"/>
+      <c r="J2" s="263"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="28" t="str">
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="261">
+      <c r="C3" s="259">
         <f>Dashboard!E6</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="261">
+      <c r="E3" s="259">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="261">
+      <c r="G3" s="259">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45473</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="261" t="str">
+      <c r="H3" s="27"/>
+      <c r="I3" s="259" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="276"/>
-      <c r="L3" s="71" t="s">
+      <c r="J3" s="274"/>
+      <c r="L3" s="70" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B4" s="272" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="273">
+      <c r="B4" s="270" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="271">
         <v>11129690.461999999</v>
       </c>
-      <c r="D4" s="244">
+      <c r="D4" s="242">
         <f>C4/C8</f>
         <v>0.71954007930541752</v>
       </c>
-      <c r="E4" s="273">
+      <c r="E4" s="271">
         <f>3947351.849/0.7</f>
         <v>5639074.0700000003</v>
       </c>
-      <c r="F4" s="244">
+      <c r="F4" s="242">
         <f>E4/E8</f>
         <v>0.53990943728418095</v>
       </c>
-      <c r="G4" s="216">
+      <c r="G4" s="214">
         <f>E4*1.52</f>
         <v>8571392.5864000004</v>
       </c>
-      <c r="H4" s="244">
+      <c r="H4" s="242">
         <f>G4/G8</f>
         <v>0.63096006033519247</v>
       </c>
-      <c r="I4" s="216"/>
-      <c r="J4" s="266"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="264"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="57"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="272" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="273">
+      <c r="B5" s="270" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="271">
         <v>1147617.763</v>
       </c>
-      <c r="D5" s="244">
+      <c r="D5" s="242">
         <f>C5/C8</f>
         <v>7.4194064877248861E-2</v>
       </c>
-      <c r="E5" s="273">
+      <c r="E5" s="271">
         <f>591321.795*2</f>
         <v>1182643.5900000001</v>
       </c>
-      <c r="F5" s="244">
+      <c r="F5" s="242">
         <f>E5/E8</f>
         <v>0.11323143254698259</v>
       </c>
-      <c r="G5" s="216">
+      <c r="G5" s="214">
         <f>E5*1.03</f>
         <v>1218122.8977000001</v>
       </c>
-      <c r="H5" s="244">
+      <c r="H5" s="242">
         <f>G5/G8</f>
         <v>8.9668847772527399E-2</v>
       </c>
-      <c r="I5" s="216"/>
-      <c r="J5" s="266"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="264"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="57"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="272" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="273">
+      <c r="B6" s="270" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="271">
         <v>451993.272</v>
       </c>
-      <c r="D6" s="244">
+      <c r="D6" s="242">
         <f>C6/C8</f>
         <v>2.9221592091066291E-2</v>
       </c>
-      <c r="E6" s="273">
+      <c r="E6" s="271">
         <f>455151.15*2</f>
         <v>910302.3</v>
       </c>
-      <c r="F6" s="244">
+      <c r="F6" s="242">
         <f>E6/E8</f>
         <v>8.7156294890004107E-2</v>
       </c>
-      <c r="G6" s="216">
+      <c r="G6" s="214">
         <f>E6*1.1</f>
         <v>1001332.5300000001</v>
       </c>
-      <c r="H6" s="244">
+      <c r="H6" s="242">
         <f>G6/G8</f>
         <v>7.3710406701806244E-2</v>
       </c>
-      <c r="I6" s="216"/>
-      <c r="J6" s="266"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="264"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="57"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B7" s="272" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="273">
+      <c r="B7" s="270" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="271">
         <v>2738482.4139999999</v>
       </c>
-      <c r="D7" s="244">
+      <c r="D7" s="242">
         <f>C7/C8</f>
         <v>0.17704426372626741</v>
       </c>
-      <c r="E7" s="273">
+      <c r="E7" s="271">
         <f>1356230.715*2</f>
         <v>2712461.43</v>
       </c>
-      <c r="F7" s="244">
+      <c r="F7" s="242">
         <f>E7/E8</f>
         <v>0.25970283527883237</v>
       </c>
-      <c r="G7" s="216">
+      <c r="G7" s="214">
         <f>E7*1.03</f>
         <v>2793835.2729000002</v>
       </c>
-      <c r="H7" s="244">
+      <c r="H7" s="242">
         <f>G7/G8</f>
         <v>0.20566068519047398</v>
       </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="264"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="57"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="177">
+      <c r="C8" s="176">
         <f>SUM(C4:C7)</f>
         <v>15467783.910999998</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="313">
+      <c r="D8" s="241"/>
+      <c r="E8" s="311">
         <f>SUM(E4:E7)</f>
         <v>10444481.390000001</v>
       </c>
-      <c r="F8" s="243"/>
-      <c r="G8" s="313">
+      <c r="F8" s="241"/>
+      <c r="G8" s="311">
         <f>SUM(G4:G7)</f>
         <v>13584683.287</v>
       </c>
-      <c r="H8" s="243"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="267"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="265"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="73" t="s">
+      <c r="L8" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="245"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="243"/>
       <c r="E9" s="18">
         <f>E8/C8-1</f>
         <v>-0.32475903141028817</v>
       </c>
-      <c r="F9" s="245"/>
-      <c r="G9" s="72">
+      <c r="F9" s="243"/>
+      <c r="G9" s="71">
         <v>0.30065656491154891</v>
       </c>
-      <c r="H9" s="245"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="303"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="301"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="57"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="177">
         <f>Data!C9</f>
         <v>7301864</v>
       </c>
-      <c r="D10" s="246"/>
-      <c r="E10" s="221">
+      <c r="D10" s="244"/>
+      <c r="E10" s="219">
         <f>E8*(1-E11)</f>
         <v>6266688.8339999998</v>
       </c>
-      <c r="F10" s="246"/>
-      <c r="G10" s="264">
+      <c r="F10" s="244"/>
+      <c r="G10" s="262">
         <f>IF(G8="","",G8*(1-G11))</f>
         <v>6792341.6435000002</v>
       </c>
-      <c r="H10" s="246"/>
-      <c r="I10" s="264" t="str">
+      <c r="H10" s="244"/>
+      <c r="I10" s="262" t="str">
         <f>IF(I8="","",I8*(1-I11))</f>
         <v/>
       </c>
-      <c r="J10" s="304"/>
+      <c r="J10" s="302"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="114"/>
+      <c r="L10" s="113"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="183">
+      <c r="C11" s="182">
         <f>(C8-C10)/C8</f>
         <v>0.52793082434987726</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="72">
+      <c r="D11" s="182"/>
+      <c r="E11" s="71">
         <v>0.4</v>
       </c>
-      <c r="F11" s="183"/>
-      <c r="G11" s="72">
+      <c r="F11" s="182"/>
+      <c r="G11" s="71">
         <v>0.5</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="305"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="303"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <f>C8-C10</f>
         <v>8165919.9109999985</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
         <f>E8-E10</f>
         <v>4177792.5560000008</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
         <f>IF(G9="","",G8-G10)</f>
         <v>6792341.6435000002</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="str">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="str">
         <f>IF(I9="","",I8-I10)</f>
         <v/>
       </c>
-      <c r="J12" s="230"/>
+      <c r="J12" s="228"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="73"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="186">
+      <c r="C13" s="184">
         <f>C14/C8</f>
         <v>6.7328499738051453E-2</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="220">
+      <c r="D13" s="184"/>
+      <c r="E13" s="218">
         <f>E14/E8</f>
         <v>0.10369874309288227</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="65">
+      <c r="F13" s="184"/>
+      <c r="G13" s="64">
         <v>0.09</v>
       </c>
-      <c r="H13" s="186"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="306"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="304"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="73"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="180">
+      <c r="C14" s="179">
         <f>867483.279+173939.406</f>
         <v>1041422.6849999999</v>
       </c>
-      <c r="D14" s="247"/>
-      <c r="E14" s="75">
+      <c r="D14" s="245"/>
+      <c r="E14" s="74">
         <f>C14*1.04</f>
         <v>1083079.5924</v>
       </c>
-      <c r="F14" s="247"/>
-      <c r="G14" s="75">
+      <c r="F14" s="245"/>
+      <c r="G14" s="74">
         <f>G8*G13</f>
         <v>1222621.4958299999</v>
       </c>
-      <c r="H14" s="247"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="307"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="305"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="73"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="B15" s="17" t="s">
@@ -11283,141 +11783,146 @@
         <f>IF(I9="","",I17/I8)</f>
         <v/>
       </c>
-      <c r="J15" s="223"/>
+      <c r="J15" s="221"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="57"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="B16" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="248"/>
+      <c r="C16" s="246">
+        <f>Data!C15</f>
+        <v>-0.41903516669990476</v>
+      </c>
+      <c r="D16" s="246"/>
       <c r="E16" s="14">
         <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
         <v>-0.56562366923153307</v>
       </c>
-      <c r="F16" s="248"/>
+      <c r="F16" s="246"/>
       <c r="G16" s="14">
         <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
         <v>0.7997533901143733</v>
       </c>
-      <c r="H16" s="248"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="14" t="str">
         <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
         <v/>
       </c>
-      <c r="J16" s="308"/>
+      <c r="J16" s="306"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="L16" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="295">
+      <c r="C17" s="293">
         <f>C12-C14</f>
         <v>7124497.2259999989</v>
       </c>
-      <c r="D17" s="296"/>
-      <c r="E17" s="295">
+      <c r="D17" s="294"/>
+      <c r="E17" s="293">
         <f>E12-E14</f>
         <v>3094712.9636000008</v>
       </c>
-      <c r="F17" s="296"/>
-      <c r="G17" s="295">
+      <c r="F17" s="294"/>
+      <c r="G17" s="293">
         <f>IF(G9="","",G12-G14)</f>
         <v>5569720.1476700008</v>
       </c>
-      <c r="H17" s="296"/>
-      <c r="I17" s="295" t="str">
+      <c r="H17" s="294"/>
+      <c r="I17" s="293" t="str">
         <f>IF(I9="","",I12-I14)</f>
         <v/>
       </c>
-      <c r="J17" s="309"/>
+      <c r="J17" s="307"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="56"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="291" t="s">
+      <c r="B18" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="292">
+      <c r="C18" s="290">
         <f>(16.5%+25%)/2</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="D18" s="293"/>
-      <c r="E18" s="294">
+      <c r="D18" s="291"/>
+      <c r="E18" s="292">
         <f>IF(E17="","",C18)</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294">
+      <c r="F18" s="292"/>
+      <c r="G18" s="292">
         <f>IF(G17="","",E18)</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294" t="str">
+      <c r="H18" s="292"/>
+      <c r="I18" s="292" t="str">
         <f>IF(I17="","",G18)</f>
         <v/>
       </c>
-      <c r="J18" s="310"/>
-      <c r="L18" s="73" t="s">
-        <v>329</v>
+      <c r="J18" s="308"/>
+      <c r="L18" s="72" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="298" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="248">
+      <c r="C19" s="246">
         <f>C20/C10</f>
         <v>0.77324968687515949</v>
       </c>
-      <c r="D19" s="302"/>
-      <c r="E19" s="301">
+      <c r="D19" s="300"/>
+      <c r="E19" s="299">
         <f>E20/E10</f>
         <v>0.39136457683148479</v>
       </c>
-      <c r="F19" s="301"/>
-      <c r="G19" s="301">
+      <c r="F19" s="299"/>
+      <c r="G19" s="299">
         <f>IF(G10="","",G20/G10)</f>
         <v>0.64985000000000004</v>
       </c>
-      <c r="H19" s="301"/>
-      <c r="I19" s="301" t="str">
+      <c r="H19" s="299"/>
+      <c r="I19" s="299" t="str">
         <f>IF(I10="","",I20/I10)</f>
         <v/>
       </c>
-      <c r="J19" s="311"/>
+      <c r="J19" s="309"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="297" t="s">
+      <c r="B20" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="298">
+      <c r="C20" s="296">
         <f>IF(C17&lt;=0,C17,C17*(1-C18))</f>
         <v>5646164.0516049992</v>
       </c>
-      <c r="D20" s="298"/>
-      <c r="E20" s="299">
+      <c r="D20" s="296"/>
+      <c r="E20" s="297">
         <f>IF(E17="","",IF(E17&lt;=0,E17,E17*(1-E18)))</f>
         <v>2452560.0236530006</v>
       </c>
-      <c r="F20" s="298"/>
-      <c r="G20" s="299">
+      <c r="F20" s="296"/>
+      <c r="G20" s="297">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
         <v>4414003.2170284754</v>
       </c>
-      <c r="H20" s="298"/>
-      <c r="I20" s="299" t="str">
+      <c r="H20" s="296"/>
+      <c r="I20" s="297" t="str">
         <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
         <v/>
       </c>
-      <c r="J20" s="312"/>
+      <c r="J20" s="310"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:13" ht="15.75" customHeight="1"/>
@@ -12348,8 +12853,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12369,22 +12874,22 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="265">
+      <c r="D2" s="263">
         <v>1</v>
       </c>
-      <c r="E2" s="265">
+      <c r="E2" s="263">
         <v>2</v>
       </c>
-      <c r="F2" s="265">
+      <c r="F2" s="263">
         <v>3</v>
       </c>
-      <c r="G2" s="265" t="str">
+      <c r="G2" s="263" t="str">
         <f>B21</f>
         <v>TV after Year 2</v>
       </c>
@@ -12392,30 +12897,30 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="28" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="261">
+      <c r="C3" s="259">
         <f>Operation!C3</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="261">
+      <c r="D3" s="259">
         <f>Operation!E3</f>
         <v>45107</v>
       </c>
-      <c r="E3" s="261">
+      <c r="E3" s="259">
         <f>Operation!G3</f>
         <v>45473</v>
       </c>
-      <c r="F3" s="261" t="str">
+      <c r="F3" s="259" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12423,150 +12928,150 @@
       <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179">
+      <c r="C4" s="178">
         <f>Operation!C20</f>
         <v>5646164.0516049992</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <f>Operation!E20</f>
         <v>2452560.0236530006</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <f>Operation!G20</f>
         <v>4414003.2170284754</v>
       </c>
-      <c r="F4" s="198" t="str">
+      <c r="F4" s="196" t="str">
         <f>Operation!I20</f>
         <v/>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="279">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242">
+      <c r="C5" s="239"/>
+      <c r="D5" s="240">
         <f>D4/C4-1</f>
         <v>-0.56562366923153307</v>
       </c>
-      <c r="E5" s="242">
+      <c r="E5" s="240">
         <f>IF(E4="","",E4/D4-1)</f>
         <v>0.79975339011437319</v>
       </c>
-      <c r="F5" s="242" t="str">
+      <c r="F5" s="240" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
         <v/>
       </c>
-      <c r="G5" s="195"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>0.27</v>
       </c>
-      <c r="D6" s="220">
+      <c r="D6" s="218">
         <v>0.27</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <v>0.27</v>
       </c>
-      <c r="F6" s="285"/>
-      <c r="G6" s="196"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="76"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="286">
+      <c r="C7" s="284">
         <f>C4*C6</f>
         <v>1524464.2939333499</v>
       </c>
-      <c r="D7" s="286">
+      <c r="D7" s="284">
         <f>D4*D6</f>
         <v>662191.20638631016</v>
       </c>
-      <c r="E7" s="287">
+      <c r="E7" s="285">
         <f>E4*E6</f>
         <v>1191780.8685976884</v>
       </c>
-      <c r="F7" s="287"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="189">
+      <c r="C8" s="187">
         <f>IF(C4="","",C4-C7)</f>
         <v>4121699.7576716496</v>
       </c>
-      <c r="D8" s="188">
+      <c r="D8" s="186">
         <f>D4-D7</f>
         <v>1790368.8172666905</v>
       </c>
-      <c r="E8" s="188">
+      <c r="E8" s="186">
         <f>IF(E4="","",E4-E7)</f>
         <v>3222222.3484307872</v>
       </c>
-      <c r="F8" s="188" t="str">
+      <c r="F8" s="186" t="str">
         <f>IF(F4="","",F4-F7)</f>
         <v/>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="190">
+      <c r="C9" s="188">
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.50437595632237753</v>
       </c>
-      <c r="D9" s="283">
+      <c r="D9" s="281">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.21908897723515092</v>
       </c>
-      <c r="E9" s="283">
+      <c r="E9" s="281">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.39430612951565364</v>
       </c>
-      <c r="F9" s="283" t="str">
+      <c r="F9" s="281" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="337">
+      <c r="G9" s="335">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
         <v>0.39430612951565358</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="217">
+      <c r="C10" s="185"/>
+      <c r="D10" s="215">
         <f ca="1">Dashboard!C12</f>
         <v>0.06</v>
       </c>
@@ -12578,158 +13083,158 @@
         <f>IF(F4="","",D10)</f>
         <v/>
       </c>
-      <c r="G10" s="223">
+      <c r="G10" s="221">
         <f ca="1">Dashboard!C12</f>
         <v>0.06</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="218">
+      <c r="C11" s="111"/>
+      <c r="D11" s="216">
         <f ca="1">IF(D4="","",1+D10)</f>
         <v>1.06</v>
       </c>
-      <c r="E11" s="219">
+      <c r="E11" s="217">
         <f ca="1">IF(E4="","",(1+D10)*(1+E10))</f>
         <v>1.1236000000000002</v>
       </c>
-      <c r="F11" s="219" t="str">
+      <c r="F11" s="217" t="str">
         <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
         <v/>
       </c>
-      <c r="G11" s="224">
+      <c r="G11" s="222">
         <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
         <v>1.1910160000000003</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="336"/>
-      <c r="D12" s="192">
+      <c r="C12" s="334"/>
+      <c r="D12" s="190">
         <f ca="1">IF(D9="","",D9/D11)</f>
         <v>0.20668771437278388</v>
       </c>
-      <c r="E12" s="193">
+      <c r="E12" s="191">
         <f ca="1">IF(E9="","",E9/E11)</f>
         <v>0.35093105154472554</v>
       </c>
-      <c r="F12" s="193" t="str">
+      <c r="F12" s="191" t="str">
         <f>IF(F9="","",F9/F11)</f>
         <v/>
       </c>
-      <c r="G12" s="338"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="G12" s="336"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="F13" s="6"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="351" t="s">
+      <c r="B14" s="349" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="191" t="str">
+      <c r="C14" s="189" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="82">
         <f>Asset_Model!E59</f>
         <v>43640996.975659996</v>
       </c>
-      <c r="D15" s="213">
+      <c r="D15" s="211">
         <f>C15/(Dashboard!I5/Data!C4)</f>
         <v>5.3403864615541012</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="133">
         <f>C15+C16+C17+C18</f>
         <v>48234112.581060007</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="82">
         <f>Asset_Model!E58</f>
         <v>12100299.5754</v>
       </c>
-      <c r="D16" s="213">
+      <c r="D16" s="211">
         <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>1.4807241014511157</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="194">
+      <c r="G16" s="192">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>5.902449981989065</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="82">
         <f>-Asset_Model!D52</f>
         <v>-6739518.3509999998</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D17" s="211">
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="453" t="str">
+      <c r="E17" s="466" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="85" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="82">
         <f>-Asset_Model!E50</f>
         <v>-767665.61899998784</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="211">
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="453"/>
-      <c r="F18" s="145">
+      <c r="E18" s="466"/>
+      <c r="F18" s="144">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
       </c>
-      <c r="G18" s="144">
+      <c r="G18" s="143">
         <f>SUM(D16:D18)</f>
         <v>0.56206352043496455</v>
       </c>
@@ -12739,238 +13244,238 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="191" t="str">
+      <c r="C20" s="189" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="454" t="s">
+      <c r="E20" s="467" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="454"/>
-      <c r="G20" s="94"/>
+      <c r="F20" s="467"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B21" s="125" t="str">
+      <c r="B21" s="124" t="str">
         <f>"TV after Year "&amp;G4</f>
         <v>TV after Year 2</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="199" t="s">
+      <c r="D21" s="197" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="282" t="s">
+      <c r="E21" s="280" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="249" t="str">
+      <c r="F21" s="247" t="str">
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="G21" s="344" t="str">
+      <c r="G21" s="342" t="str">
         <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>279</v>
       </c>
       <c r="C22" s="14">
         <f>1/D22</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D22" s="277">
+      <c r="D22" s="275">
         <v>6</v>
       </c>
-      <c r="E22" s="202">
+      <c r="E22" s="200">
         <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
         <v>1.9864021785550496</v>
       </c>
-      <c r="F22" s="342">
+      <c r="F22" s="340">
         <f ca="1">E22+$G$16</f>
         <v>7.8888521605441149</v>
       </c>
-      <c r="G22" s="345">
+      <c r="G22" s="343">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
         <v>7.89</v>
       </c>
-      <c r="I22" s="73"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="339" t="s">
+      <c r="B23" s="337" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="340">
+      <c r="C23" s="338">
         <f>1/D23</f>
         <v>0.1</v>
       </c>
-      <c r="D23" s="290">
+      <c r="D23" s="288">
         <v>10</v>
       </c>
-      <c r="E23" s="341">
+      <c r="E23" s="339">
         <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
         <v>3.3106702975917495</v>
       </c>
-      <c r="F23" s="343">
+      <c r="F23" s="341">
         <f ca="1">E23+$G$16</f>
         <v>9.2131202795808136</v>
       </c>
-      <c r="G23" s="348">
+      <c r="G23" s="346">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
         <v>9.2100000000000009</v>
       </c>
-      <c r="I23" s="73" t="s">
-        <v>330</v>
+      <c r="I23" s="72" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" thickTop="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="346" t="s">
-        <v>332</v>
-      </c>
-      <c r="G24" s="347">
+      <c r="F24" s="344" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" s="345">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
         <v>8.5325795918367344</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
       <c r="B25" s="6"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="87"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="C26" s="451" t="s">
+      <c r="B26" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="464" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="452"/>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="465"/>
+      <c r="E26" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="240" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="238">
+      <c r="B27" s="238" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="236">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
         <v>10.735099766534228</v>
       </c>
-      <c r="D27" s="117" t="str">
+      <c r="D27" s="116" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E27" s="118">
+      <c r="E27" s="117">
         <f ca="1">(C27-G16)/C9</f>
         <v>9.5814436115910357</v>
       </c>
-      <c r="F27" s="155">
+      <c r="F27" s="154">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.5544256444111817</v>
       </c>
-      <c r="G27" s="86"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="73"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="351" t="s">
+      <c r="B29" s="349" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="333" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="335">
+      <c r="B30" s="331" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="333">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.61</f>
         <v>11.892885374148257</v>
       </c>
-      <c r="D30" s="334" t="str">
+      <c r="D30" s="332" t="str">
         <f>D27</f>
         <v>HKD</v>
       </c>
-      <c r="E30" s="118">
+      <c r="E30" s="117">
         <f>(C30-G16)/C9</f>
         <v>11.876924974453656</v>
       </c>
-      <c r="F30" s="155">
+      <c r="F30" s="154">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.61</v>
       </c>
-      <c r="I30" s="73" t="s">
-        <v>337</v>
+      <c r="I30" s="72" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="352" t="s">
+      <c r="B31" s="350" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="350">
+      <c r="C31" s="348">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="D31" s="334" t="str">
+      <c r="D31" s="332" t="str">
         <f>D30</f>
         <v>HKD</v>
       </c>
-      <c r="E31" s="118">
+      <c r="E31" s="117">
         <f ca="1">(C31-G16)/C9</f>
         <v>10.698890185240348</v>
       </c>
-      <c r="F31" s="155">
+      <c r="F31" s="154">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.57952420149814499</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="333" t="s">
-        <v>333</v>
-      </c>
-      <c r="C32" s="350">
+      <c r="B32" s="331" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="348">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="D32" s="334" t="str">
+      <c r="D32" s="332" t="str">
         <f>D30</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="118">
+      <c r="E32" s="117">
         <f ca="1">(C32-G16)/C9</f>
         <v>7.8544040481579875</v>
       </c>
-      <c r="F32" s="155">
+      <c r="F32" s="154">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.50593725215776753</v>
       </c>
@@ -13909,10 +14414,10 @@
       <c r="B2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="70" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13920,15 +14425,15 @@
       <c r="B3" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="92">
+      <c r="C3" s="93"/>
+      <c r="D3" s="91">
         <f>IF(E3="Strongly disagree",0,IF(E3="disagree",1,IF(E3="unclear",2,IF(E3="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>287</v>
       </c>
     </row>
@@ -13936,81 +14441,81 @@
       <c r="B4" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="92">
+      <c r="C4" s="93"/>
+      <c r="D4" s="91">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="92">
+      <c r="C5" s="93"/>
+      <c r="D5" s="91">
         <f>AVERAGE(D12:D16)</f>
         <v>1.4</v>
       </c>
-      <c r="E5" s="100" t="str">
+      <c r="E5" s="99" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>disagree</v>
       </c>
-      <c r="G5" s="76"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="92">
+      <c r="C6" s="93"/>
+      <c r="D6" s="91">
         <f>AVERAGE(D24:D28)</f>
         <v>3.2</v>
       </c>
-      <c r="E6" s="100" t="str">
+      <c r="E6" s="99" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="98">
+      <c r="C7" s="93"/>
+      <c r="D7" s="97">
         <f>IF(E7="Strongly disagree",0,IF(E7="disagree",1,IF(E7="unclear",2,IF(E7="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="99" t="str">
+      <c r="E7" s="98" t="str">
         <f>IF(D64&gt;=3.5,"Strongly agree",IF(D64&gt;=2.5,"agree",IF(D64&gt;=1.5,"unclear",IF(D64&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="92">
+      <c r="C8" s="93"/>
+      <c r="D8" s="91">
         <f>AVERAGE(D3:D7)</f>
         <v>2.3200000000000003</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <f>D8/4</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="G8" s="76"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="14">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="76"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="4"/>
@@ -14020,919 +14525,919 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="274"/>
+      <c r="G10" s="272"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="90"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="274"/>
+      <c r="G11" s="272"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="274"/>
+      <c r="G12" s="272"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="97">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="274"/>
+      <c r="G13" s="272"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="274" t="s">
-        <v>341</v>
+      <c r="G14" s="272" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="97">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="274" t="s">
-        <v>342</v>
+      <c r="G15" s="272" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="97">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="274"/>
+      <c r="G16" s="272"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="274"/>
+      <c r="G17" s="272"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="97">
         <f>Asset_Model!J26</f>
         <v>4</v>
       </c>
-      <c r="E18" s="49" t="str">
+      <c r="E18" s="48" t="str">
         <f>IF(D18&gt;=3.5,"Strongly agree",IF(D18&gt;=2.5,"agree",IF(D18&gt;=1.5,"unclear",IF(D18&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="274"/>
+      <c r="G18" s="272"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="97">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="274"/>
+      <c r="G19" s="272"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="274"/>
+      <c r="G20" s="272"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="274"/>
+      <c r="G21" s="272"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="274"/>
+      <c r="G22" s="272"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="274"/>
+      <c r="G23" s="272"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="97">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="274"/>
+      <c r="G24" s="272"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="97">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>148</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="274"/>
+      <c r="G25" s="272"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="97">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="274"/>
+      <c r="G26" s="272"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="97">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>148</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="274"/>
+      <c r="G27" s="272"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="97">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>148</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="274"/>
+      <c r="G28" s="272"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="274"/>
+      <c r="G29" s="272"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="100">
         <f>SUM(D31:D35)/(5*4)</f>
         <v>0.6</v>
       </c>
-      <c r="E30" s="49" t="str">
+      <c r="E30" s="48" t="str">
         <f>IF(D30&gt;80%,"Very High",IF(D30&lt;=20%,"Very Low",IF(D30&lt;=40%,"Low",IF(D30&lt;=60%,"Medium","High"))))</f>
         <v>Medium</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="274"/>
+      <c r="G30" s="272"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="97">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="274"/>
+      <c r="G31" s="272"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="97">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="274"/>
+      <c r="G32" s="272"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="274"/>
+      <c r="G33" s="272"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="97">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="274"/>
+      <c r="G34" s="272"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="97">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="274"/>
+      <c r="G35" s="272"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="100">
         <f>SUM(D37:D41)/(5*4)</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="49" t="str">
+      <c r="E36" s="48" t="str">
         <f>IF(D36&gt;80%,"Very High",IF(D36&lt;=20%,"Very Low",IF(D36&lt;=40%,"Low",IF(D36&lt;=60%,"Medium","High"))))</f>
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="274"/>
+      <c r="G36" s="272"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="97">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>1</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>155</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="274"/>
+      <c r="G37" s="272"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="D38" s="98">
+      <c r="D38" s="97">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>155</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="274"/>
+      <c r="G38" s="272"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="D39" s="98">
+      <c r="D39" s="97">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="30" t="s">
         <v>155</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="274"/>
+      <c r="G39" s="272"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="274"/>
+      <c r="G40" s="272"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="D41" s="98">
+      <c r="D41" s="97">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="274"/>
+      <c r="G41" s="272"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="101">
+      <c r="D42" s="100">
         <f>SUM(D43:D48)/(6*4)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="E42" s="49" t="str">
+      <c r="E42" s="48" t="str">
         <f>IF(D42&gt;80%,"Very High",IF(D42&lt;=20%,"Very Low",IF(D42&lt;=40%,"Low",IF(D42&lt;=60%,"Medium","High"))))</f>
         <v>Medium</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="274"/>
+      <c r="G42" s="272"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="98">
+      <c r="D43" s="97">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="274"/>
+      <c r="G43" s="272"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="98">
+      <c r="D44" s="97">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="274"/>
+      <c r="G44" s="272"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="98">
+      <c r="D45" s="97">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="274"/>
+      <c r="G45" s="272"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="98">
+      <c r="D46" s="97">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="274"/>
+      <c r="G46" s="272"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="98">
+      <c r="D47" s="97">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="274"/>
+      <c r="G47" s="272"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="98">
+      <c r="D48" s="97">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="274"/>
+      <c r="G48" s="272"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="B49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="101">
+      <c r="D49" s="100">
         <f>SUM(D50:D54)/(5*4)</f>
         <v>0.29727891156462583</v>
       </c>
-      <c r="E49" s="49" t="str">
+      <c r="E49" s="48" t="str">
         <f>IF(D49&gt;80%,"Very High",IF(D49&lt;=20%,"Very Low",IF(D49&lt;=40%,"Low",IF(D49&lt;=60%,"Medium","High"))))</f>
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="274"/>
+      <c r="G49" s="272"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="98">
+      <c r="D50" s="97">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="G50" s="274"/>
+      <c r="G50" s="272"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="274"/>
+      <c r="G51" s="272"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="274"/>
+      <c r="G52" s="272"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="97">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="274"/>
-      <c r="H53" s="53"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="272"/>
+      <c r="H53" s="52"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="102">
+      <c r="D54" s="101">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="274"/>
-      <c r="H54" s="53"/>
+      <c r="E54" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54" s="272"/>
+      <c r="H54" s="52"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="103">
+      <c r="D55" s="102">
         <f>SUM(D56:D61)/(6*4)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E55" s="49" t="str">
+      <c r="E55" s="48" t="str">
         <f>IF(D55&gt;80%,"Very High",IF(D55&lt;=20%,"Very Low",IF(D55&lt;=40%,"Low",IF(D55&lt;=60%,"Medium","High"))))</f>
         <v>Very High</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="274"/>
-      <c r="H55" s="53"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="272"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="98">
+      <c r="D56" s="97">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
         <v>3</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="274"/>
-      <c r="H56" s="53"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="98">
+      <c r="D57" s="97">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="274"/>
-      <c r="H57" s="53"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="52"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="97">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="274"/>
-      <c r="H58" s="53"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D59" s="97">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="274"/>
-      <c r="H59" s="53"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="272"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="98">
+      <c r="D60" s="97">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="274"/>
-      <c r="H60" s="53"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D61" s="97">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>1</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="274"/>
-      <c r="H61" s="53"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="272"/>
+      <c r="H61" s="52"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="124">
+      <c r="D62" s="123">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
         <v>0.4972108843537415</v>
       </c>
-      <c r="E62" s="49" t="str">
+      <c r="E62" s="48" t="str">
         <f>IF(D62&gt;80%,"Very Low",IF(D62&lt;=20%,"Very High",IF(D62&lt;=40%,"High",IF(D62&lt;=60%,"Medium","Low"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="274"/>
-      <c r="H62" s="53"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="272"/>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="D63" s="6"/>
-      <c r="G63" s="274"/>
+      <c r="G63" s="272"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
-      <c r="B64" s="95" t="s">
+      <c r="B64" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="92">
+      <c r="D64" s="91">
         <f>E64*4</f>
         <v>1.9472108843537415</v>
       </c>
-      <c r="E64" s="123">
+      <c r="E64" s="122">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.48680272108843536</v>
       </c>
-      <c r="G64" s="274"/>
+      <c r="G64" s="272"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1">
-      <c r="G65" s="275"/>
+      <c r="G65" s="273"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="55"/>
+      <c r="E66" s="54"/>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1">
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="106"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="105"/>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1">
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105">
+      <c r="C68" s="104"/>
+      <c r="D68" s="104">
         <v>1</v>
       </c>
-      <c r="E68" s="108">
+      <c r="E68" s="107">
         <f t="shared" ref="E68:E76" si="8">D68/MAX($D$68:$D$77)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1">
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="106" t="str">
         <f t="shared" ref="B69:B77" si="9">C69&amp;", "&amp;D69&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C69" s="105" t="s">
+      <c r="C69" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="105">
+      <c r="D69" s="104">
         <v>6.6</v>
       </c>
-      <c r="E69" s="108">
+      <c r="E69" s="107">
         <f t="shared" si="8"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1">
-      <c r="B70" s="107" t="str">
+      <c r="B70" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D70" s="104">
         <v>11.4</v>
       </c>
-      <c r="E70" s="108">
+      <c r="E70" s="107">
         <f t="shared" si="8"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15" customHeight="1">
-      <c r="B71" s="107" t="str">
+      <c r="B71" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C71" s="105" t="s">
+      <c r="C71" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D71" s="105">
+      <c r="D71" s="104">
         <v>12.4</v>
       </c>
-      <c r="E71" s="108">
+      <c r="E71" s="107">
         <f t="shared" si="8"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15" customHeight="1">
-      <c r="B72" s="107" t="str">
+      <c r="B72" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C72" s="105" t="s">
+      <c r="C72" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="105">
+      <c r="D72" s="104">
         <v>15.1</v>
       </c>
-      <c r="E72" s="108">
+      <c r="E72" s="107">
         <f t="shared" si="8"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1">
-      <c r="B73" s="107" t="str">
+      <c r="B73" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C73" s="105" t="s">
+      <c r="C73" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="105">
+      <c r="D73" s="104">
         <v>15.4</v>
       </c>
-      <c r="E73" s="108">
+      <c r="E73" s="107">
         <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1">
-      <c r="B74" s="107" t="str">
+      <c r="B74" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="104">
         <v>16.100000000000001</v>
       </c>
-      <c r="E74" s="108">
+      <c r="E74" s="107">
         <f t="shared" si="8"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" customHeight="1">
-      <c r="B75" s="107" t="str">
+      <c r="B75" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="105">
+      <c r="D75" s="104">
         <v>17.600000000000001</v>
       </c>
-      <c r="E75" s="108">
+      <c r="E75" s="107">
         <f t="shared" si="8"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1">
-      <c r="B76" s="107" t="str">
+      <c r="B76" s="106" t="str">
         <f t="shared" si="9"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C76" s="105" t="s">
+      <c r="C76" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="104">
         <v>18.600000000000001</v>
       </c>
-      <c r="E76" s="108">
+      <c r="E76" s="107">
         <f t="shared" si="8"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="109" t="str">
+      <c r="B77" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C77" s="110" t="s">
+      <c r="C77" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="109">
         <v>29.4</v>
       </c>
-      <c r="E77" s="111">
+      <c r="E77" s="110">
         <f>D77/MAX($D$69:$D$77)</f>
         <v>1</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32C5B5-052A-4DB0-A8EB-1603D0A6504D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DB069D-D5CD-4B49-BCBB-EDC9D6E5FF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4092,6 +4092,173 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4140,174 +4307,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4344,9 +4347,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4784,33 +4784,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="394" t="s">
+      <c r="C3" s="408" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="395"/>
+      <c r="D3" s="409"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="406" t="s">
+      <c r="I3" s="418" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="407"/>
+      <c r="J3" s="419"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="396" t="s">
+      <c r="C4" s="410" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="397"/>
+      <c r="D4" s="411"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="31">
-        <v>9.26</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>6</v>
@@ -4821,10 +4821,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="398">
+      <c r="C5" s="412">
         <v>44956</v>
       </c>
-      <c r="D5" s="397"/>
+      <c r="D5" s="411"/>
       <c r="E5" s="119" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4832,10 +4832,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="408">
+      <c r="I5" s="383">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="409"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="147"/>
       <c r="L5" s="83"/>
     </row>
@@ -4858,11 +4858,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="129"/>
-      <c r="I6" s="410">
+      <c r="I6" s="420">
         <f>I4*I5/1000000</f>
-        <v>75671.608207359997</v>
-      </c>
-      <c r="J6" s="411"/>
+        <v>79267.235379199992</v>
+      </c>
+      <c r="J6" s="421"/>
       <c r="K6" s="147"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C7" s="141">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.0354461499378984E-2</v>
+        <v>3.8523949843737054E-2</v>
       </c>
       <c r="D7" s="141">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4902,11 +4902,11 @@
       </c>
       <c r="I9" s="118">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.193789619297428</v>
+        <v>13.820708348508106</v>
       </c>
       <c r="J9" s="47">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.5793235215558197E-2</v>
+        <v>7.2355191556295759E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4925,41 +4925,41 @@
       </c>
       <c r="I10" s="134">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.47824254817382311</v>
+        <v>0.50096681612160732</v>
       </c>
       <c r="J10" s="126">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>2.6045295017915251</v>
+        <v>3.2413560514589741</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="286" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="430" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="431"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="287" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="421">
+      <c r="C12" s="428">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="422"/>
+      <c r="D12" s="429"/>
       <c r="G12" s="130" t="s">
         <v>16</v>
       </c>
@@ -5021,35 +5021,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="127">
         <f>I4</f>
-        <v>9.26</v>
-      </c>
-      <c r="C16" s="442">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="155">
         <f ca="1">I37/B16-(1+J27)</f>
-        <v>2.0163385610989737E-2</v>
-      </c>
-      <c r="E16" s="415" t="s">
+        <v>-3.5184231880642791E-2</v>
+      </c>
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="412">
+      <c r="F16" s="422">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="415" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="353">
         <f>B16-$F$16</f>
-        <v>3.3575500180109348</v>
-      </c>
-      <c r="I16" s="433">
+        <v>3.7975500180109343</v>
+      </c>
+      <c r="I16" s="390">
         <v>0.42</v>
       </c>
       <c r="J16" s="157">
         <f>I16/B16</f>
-        <v>4.5356371490280774E-2</v>
+        <v>4.3298969072164947E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -5057,19 +5057,19 @@
         <f ca="1">(I37+I38)/2</f>
         <v>10.581367742939435</v>
       </c>
-      <c r="C17" s="443"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="266">
         <f ca="1">I37/B17-(1+J27)</f>
         <v>-0.13220675953758554</v>
       </c>
-      <c r="E17" s="416"/>
-      <c r="F17" s="413"/>
-      <c r="G17" s="416"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="423"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="354">
         <f ca="1">B17-$F$16</f>
         <v>4.6789177609503696</v>
       </c>
-      <c r="I17" s="434"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="158">
         <f ca="1">I16/B17</f>
         <v>3.9692411246197434E-2</v>
@@ -5080,19 +5080,19 @@
         <f>C37</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="C18" s="444"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="156">
         <f ca="1">I37/B18-(1+J27)</f>
         <v>2.8120972908452835E-2</v>
       </c>
-      <c r="E18" s="417"/>
-      <c r="F18" s="414"/>
-      <c r="G18" s="417"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="424"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="355">
         <f>B18-$F$16</f>
         <v>3.2975500180109343</v>
       </c>
-      <c r="I18" s="435"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="159">
         <f>I16/B18</f>
         <v>4.5652173913043478E-2</v>
@@ -5125,84 +5125,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="401" t="s">
+      <c r="C21" s="415" t="s">
         <v>318</v>
       </c>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="402"/>
-      <c r="H21" s="402"/>
-      <c r="I21" s="402"/>
-      <c r="J21" s="403"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="416"/>
+      <c r="F21" s="416"/>
+      <c r="G21" s="416"/>
+      <c r="H21" s="416"/>
+      <c r="I21" s="416"/>
+      <c r="J21" s="417"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="419" t="s">
+      <c r="C22" s="426" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="420"/>
-      <c r="E22" s="420"/>
-      <c r="F22" s="420"/>
-      <c r="G22" s="419" t="s">
+      <c r="D22" s="427"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="427"/>
+      <c r="G22" s="426" t="s">
         <v>351</v>
       </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="420"/>
-      <c r="J22" s="420"/>
+      <c r="H22" s="426"/>
+      <c r="I22" s="427"/>
+      <c r="J22" s="427"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="404" t="s">
+      <c r="C23" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="405"/>
-      <c r="E23" s="405"/>
-      <c r="F23" s="405"/>
-      <c r="G23" s="404" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="404"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="405"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="432" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="370"/>
-      <c r="E24" s="370"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="370"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="370"/>
-      <c r="J24" s="371"/>
+      <c r="D24" s="433"/>
+      <c r="E24" s="433"/>
+      <c r="F24" s="433"/>
+      <c r="G24" s="433"/>
+      <c r="H24" s="433"/>
+      <c r="I24" s="433"/>
+      <c r="J24" s="434"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="361" t="s">
         <v>352</v>
       </c>
-      <c r="C25" s="372" t="s">
+      <c r="C25" s="435" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="373"/>
-      <c r="H25" s="373"/>
-      <c r="I25" s="373"/>
-      <c r="J25" s="374"/>
+      <c r="D25" s="436"/>
+      <c r="E25" s="436"/>
+      <c r="F25" s="436"/>
+      <c r="G25" s="436"/>
+      <c r="H25" s="436"/>
+      <c r="I25" s="436"/>
+      <c r="J25" s="437"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5241,209 +5241,209 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="399">
+      <c r="C28" s="413">
         <v>44970</v>
       </c>
-      <c r="D28" s="400"/>
-      <c r="E28" s="439" t="str">
+      <c r="D28" s="414"/>
+      <c r="E28" s="401" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="440"/>
-      <c r="G28" s="440"/>
-      <c r="H28" s="441"/>
-      <c r="I28" s="418" t="s">
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="418"/>
+      <c r="J28" s="425"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="432">
+      <c r="C29" s="389">
         <f>C33/D27</f>
         <v>0.14975757575757576</v>
       </c>
-      <c r="D29" s="431"/>
-      <c r="E29" s="430">
+      <c r="D29" s="380"/>
+      <c r="E29" s="388">
         <f>E33/D27</f>
         <v>0.1393939393939394</v>
       </c>
-      <c r="F29" s="431"/>
-      <c r="G29" s="437">
+      <c r="F29" s="380"/>
+      <c r="G29" s="399">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="438"/>
-      <c r="I29" s="436">
+      <c r="H29" s="400"/>
+      <c r="I29" s="398">
         <f>C29+E29+G29</f>
         <v>0.28915151515151516</v>
       </c>
-      <c r="J29" s="436"/>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="446">
+      <c r="C30" s="370">
         <v>10000</v>
       </c>
-      <c r="D30" s="447"/>
-      <c r="E30" s="446">
+      <c r="D30" s="371"/>
+      <c r="E30" s="370">
         <v>10000</v>
       </c>
-      <c r="F30" s="447"/>
-      <c r="G30" s="408"/>
-      <c r="H30" s="409"/>
-      <c r="I30" s="445">
+      <c r="F30" s="371"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="407">
         <f>C30+E30+G30</f>
         <v>20000</v>
       </c>
-      <c r="J30" s="445"/>
+      <c r="J30" s="407"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="448">
+      <c r="C31" s="372">
         <v>9.8840000000000003</v>
       </c>
-      <c r="D31" s="447"/>
-      <c r="E31" s="448">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F31" s="447"/>
-      <c r="G31" s="428">
+      <c r="F31" s="371"/>
+      <c r="G31" s="386">
         <v>8.6</v>
       </c>
-      <c r="H31" s="429"/>
-      <c r="I31" s="427"/>
-      <c r="J31" s="427"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="387">
+      <c r="C32" s="373">
         <f>C31*$I$5/1000000</f>
         <v>80770.861287423992</v>
       </c>
-      <c r="D32" s="449"/>
-      <c r="E32" s="387">
+      <c r="D32" s="374"/>
+      <c r="E32" s="373">
         <f>E31*$I$5/1000000</f>
         <v>75181.295411200001</v>
       </c>
-      <c r="F32" s="449"/>
-      <c r="G32" s="382">
+      <c r="F32" s="374"/>
+      <c r="G32" s="445">
         <f>G31*$I$5/1000000</f>
         <v>70278.167449599991</v>
       </c>
-      <c r="H32" s="383"/>
-      <c r="I32" s="386"/>
-      <c r="J32" s="386"/>
+      <c r="H32" s="446"/>
+      <c r="I32" s="449"/>
+      <c r="J32" s="449"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="450">
+      <c r="C33" s="375">
         <f>C30*C31</f>
         <v>98840</v>
       </c>
-      <c r="D33" s="451"/>
-      <c r="E33" s="388">
+      <c r="D33" s="376"/>
+      <c r="E33" s="377">
         <f>E30*E31</f>
         <v>92000</v>
       </c>
-      <c r="F33" s="452"/>
-      <c r="G33" s="384">
+      <c r="F33" s="378"/>
+      <c r="G33" s="447">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="385"/>
-      <c r="I33" s="388">
+      <c r="H33" s="448"/>
+      <c r="I33" s="377">
         <f>C33+E33+G33</f>
         <v>190840</v>
       </c>
-      <c r="J33" s="388"/>
+      <c r="J33" s="377"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="390"/>
-      <c r="D34" s="391"/>
-      <c r="E34" s="389">
+      <c r="C34" s="450"/>
+      <c r="D34" s="451"/>
+      <c r="E34" s="379">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="F34" s="431"/>
+      <c r="F34" s="380"/>
       <c r="G34" s="114"/>
       <c r="H34" s="114"/>
-      <c r="I34" s="389">
+      <c r="I34" s="379">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="J34" s="389"/>
+      <c r="J34" s="379"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="392"/>
-      <c r="D35" s="393"/>
-      <c r="E35" s="387">
+      <c r="C35" s="452"/>
+      <c r="D35" s="453"/>
+      <c r="E35" s="373">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="F35" s="449"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="115"/>
       <c r="H35" s="115"/>
-      <c r="I35" s="387">
+      <c r="I35" s="373">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="J35" s="387"/>
+      <c r="J35" s="373"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="142" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="378">
+      <c r="C37" s="441">
         <f>E31</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="D37" s="379"/>
-      <c r="G37" s="375" t="s">
+      <c r="D37" s="442"/>
+      <c r="G37" s="438" t="s">
         <v>334</v>
       </c>
-      <c r="H37" s="375"/>
-      <c r="I37" s="376">
+      <c r="H37" s="438"/>
+      <c r="I37" s="439">
         <f ca="1">'FCFF Model'!C31</f>
         <v>11.298712950757764</v>
       </c>
-      <c r="J37" s="377"/>
+      <c r="J37" s="440"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="142" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="378">
+      <c r="C38" s="441">
         <f>E34</f>
         <v>9.5419999999999998</v>
       </c>
-      <c r="D38" s="379"/>
-      <c r="G38" s="380" t="s">
+      <c r="D38" s="442"/>
+      <c r="G38" s="443" t="s">
         <v>332</v>
       </c>
-      <c r="H38" s="381"/>
-      <c r="I38" s="376">
+      <c r="H38" s="444"/>
+      <c r="I38" s="439">
         <f ca="1">'FCFF Model'!C32</f>
         <v>9.8640225351211033</v>
       </c>
-      <c r="J38" s="377"/>
+      <c r="J38" s="440"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -6566,14 +6566,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -6590,38 +6614,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8401,7 +8401,7 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="468" t="s">
+      <c r="B47" s="369" t="s">
         <v>354</v>
       </c>
       <c r="C47" s="362"/>
@@ -11173,11 +11173,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="453">
+      <c r="D52" s="454">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="454"/>
+      <c r="E52" s="455"/>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
     </row>
@@ -11186,11 +11186,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="456">
+      <c r="D53" s="457">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="451"/>
+      <c r="E53" s="376"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11206,10 +11206,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="463">
+      <c r="D54" s="464">
         <v>0</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="371"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11220,10 +11220,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="463">
+      <c r="D55" s="464">
         <v>0</v>
       </c>
-      <c r="E55" s="447"/>
+      <c r="E55" s="371"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11238,8 +11238,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="455"/>
-      <c r="E57" s="455"/>
+      <c r="D57" s="456"/>
+      <c r="E57" s="456"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11285,11 +11285,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="461">
+      <c r="D60" s="462">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>14705600.844359986</v>
-      </c>
-      <c r="E60" s="462"/>
+        <v>18301228.016199984</v>
+      </c>
+      <c r="E60" s="463"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11306,20 +11306,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="459">
+      <c r="D63" s="460">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="460"/>
+      <c r="E63" s="461"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="457">
+      <c r="D64" s="458">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="458"/>
+      <c r="E64" s="459"/>
       <c r="F64" s="248" t="s">
         <v>236</v>
       </c>
@@ -11328,10 +11328,10 @@
       <c r="B65" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="457">
+      <c r="D65" s="458">
         <v>0.15</v>
       </c>
-      <c r="E65" s="458"/>
+      <c r="E65" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13206,7 +13206,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="466" t="str">
+      <c r="E17" s="467" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13229,7 +13229,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="466"/>
+      <c r="E18" s="467"/>
       <c r="F18" s="144">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
@@ -13251,10 +13251,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="467" t="s">
+      <c r="E20" s="468" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="467"/>
+      <c r="F20" s="468"/>
       <c r="G20" s="93"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13361,10 +13361,10 @@
       <c r="B26" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="464" t="s">
+      <c r="C26" s="465" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="465"/>
+      <c r="D26" s="466"/>
       <c r="E26" s="29" t="s">
         <v>210</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DB069D-D5CD-4B49-BCBB-EDC9D6E5FF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CA0E5-C677-45E2-8D58-0947A50C16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Asset_Model" sheetId="3" r:id="rId3"/>
     <sheet name="Operation" sheetId="7" r:id="rId4"/>
-    <sheet name="FCFF Model" sheetId="4" r:id="rId5"/>
+    <sheet name="Val Models" sheetId="4" r:id="rId5"/>
     <sheet name="Qualitative Analysis" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="383">
   <si>
     <t>Company Info:</t>
   </si>
@@ -280,12 +280,6 @@
   </si>
   <si>
     <t>Discount</t>
-  </si>
-  <si>
-    <t>Quickly Realizable Values =</t>
-  </si>
-  <si>
-    <t>Realizable Value per Shares (VPS) =</t>
   </si>
   <si>
     <t>Assets</t>
@@ -736,12 +730,6 @@
     <t>- Total outstanding debt</t>
   </si>
   <si>
-    <t>Terminal Value Analysis</t>
-  </si>
-  <si>
-    <t>P/FCFF Model</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non-common Interest = </t>
   </si>
   <si>
@@ -791,9 +779,6 @@
   </si>
   <si>
     <t>Operating Income Projections</t>
-  </si>
-  <si>
-    <t>MOS</t>
   </si>
   <si>
     <t>%</t>
@@ -861,9 +846,6 @@
       </rPr>
       <t>WC/Sales for the model</t>
     </r>
-  </si>
-  <si>
-    <t>current demand for export will likely not recover until the 2nd half of next year</t>
   </si>
   <si>
     <t>Reinvestment Estimate</t>
@@ -987,9 +969,6 @@
     <t>Reasonable Case</t>
   </si>
   <si>
-    <t>PV of Value Inflow</t>
-  </si>
-  <si>
     <t>PP&amp;E &amp; related assets</t>
   </si>
   <si>
@@ -1110,6 +1089,214 @@
     <t>2. Growth Trap</t>
   </si>
   <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Expected Equity Value =</t>
+  </si>
+  <si>
+    <t>Worst Case Exit Price</t>
+  </si>
+  <si>
+    <t>Valuation Ouput</t>
+  </si>
+  <si>
+    <t>Ex-post Cost per share =</t>
+  </si>
+  <si>
+    <t>Ex-ante</t>
+  </si>
+  <si>
+    <t>Ex-post</t>
+  </si>
+  <si>
+    <t>Asset heavy business</t>
+  </si>
+  <si>
+    <t>4. The probability of an ex-post recession affecting the company</t>
+  </si>
+  <si>
+    <t>Kelly's Formula: [W – (1 – W)/R] / K, Where K =</t>
+  </si>
+  <si>
+    <t>% Allocation</t>
+  </si>
+  <si>
+    <t>Performance Target =</t>
+  </si>
+  <si>
+    <t>b) It's far better to buy a wonderful company at a fair price than a fair company at a wonderful price, but it takes more efforts on research</t>
+  </si>
+  <si>
+    <t>a) Don't buy a mediocre value stock with low trading volume and mediocre dividend</t>
+  </si>
+  <si>
+    <t>a) Don't buy a High growth company with unproven products or products you don't trust</t>
+  </si>
+  <si>
+    <t>b) Don't buy into unsustainable PE ratios</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
+  </si>
+  <si>
+    <t>b = Reinvestment/NOPAT</t>
+  </si>
+  <si>
+    <t>FCFF Model</t>
+  </si>
+  <si>
+    <t>RI Model</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Owner's Earnings</t>
+  </si>
+  <si>
+    <t>Owner's Earnings per share</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>PV FCFF per share</t>
+  </si>
+  <si>
+    <t>EVA =  Owner's earnings - Cost of Capital Invested</t>
+  </si>
+  <si>
+    <t>Owner's earnings = FCFE + net borrowing = FCFF - after tax Interest expense</t>
+  </si>
+  <si>
+    <t>Cost of CI per share</t>
+  </si>
+  <si>
+    <t>Cost of Capital Invested</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Equity Value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using FCFF Model</t>
+    </r>
+  </si>
+  <si>
+    <t>Equity Value Ouput</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Equity Value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using RI Model</t>
+    </r>
+  </si>
+  <si>
+    <t>Interest Bearing Debt</t>
+  </si>
+  <si>
+    <t>Average Past Interest Bearing debt</t>
+  </si>
+  <si>
+    <t>1.8% + 3 Month Hibor</t>
+  </si>
+  <si>
+    <t>Frd. DPS</t>
+  </si>
+  <si>
+    <t>PV of EVA</t>
+  </si>
+  <si>
+    <t>Int(1 - tax rate)</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Achievable Market Exit Price</t>
+  </si>
+  <si>
+    <t>Conservative Exit Price</t>
+  </si>
+  <si>
+    <t>Conservative Exit Price =</t>
+  </si>
+  <si>
+    <t>2% growth at Terminal year</t>
+  </si>
+  <si>
+    <t>Orderly Liquidation Values =</t>
+  </si>
+  <si>
+    <t>Orderly Liquidation Value per Shares =</t>
+  </si>
+  <si>
+    <t>Augmenting the asset mdoel because RI Model can better value asset-light stocks</t>
+  </si>
+  <si>
+    <t>+ Orderly Liquidation Value</t>
+  </si>
+  <si>
+    <t>Target Return</t>
+  </si>
+  <si>
+    <t>MOS =</t>
+  </si>
+  <si>
     <t>0083.HK</t>
   </si>
   <si>
@@ -1134,142 +1321,52 @@
 2. Organic growth rate will be low</t>
   </si>
   <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Frd. 6M DPS</t>
-  </si>
-  <si>
-    <t>物業銷售</t>
-  </si>
-  <si>
-    <t>物業管理及其他服務</t>
-  </si>
-  <si>
-    <t>酒店經營</t>
-  </si>
-  <si>
-    <t>經營租賃之租金收益</t>
-  </si>
-  <si>
-    <t>Use the average of HK and mainland corporate tax rate</t>
-  </si>
-  <si>
-    <t>6-10% growth rate on HK properties</t>
-  </si>
-  <si>
-    <t>Expected Equity Value =</t>
-  </si>
-  <si>
-    <t>Expected Equity Value</t>
-  </si>
-  <si>
-    <t>Worst Case Exit Price</t>
-  </si>
-  <si>
-    <t>Valuation Ouput</t>
-  </si>
-  <si>
-    <t>Expected Exit Price =</t>
-  </si>
-  <si>
-    <t>Ex-post Cost per share =</t>
-  </si>
-  <si>
-    <t>PB 0.523 at 20 percentile, and 0.610 at 50 percentile</t>
-  </si>
-  <si>
-    <t>Ex-ante</t>
-  </si>
-  <si>
-    <t>Ex-post</t>
-  </si>
-  <si>
-    <t>Best Guess Market Exit Price</t>
-  </si>
-  <si>
-    <t>A bottleneck in HK property market</t>
-  </si>
-  <si>
-    <t>Asset heavy business</t>
-  </si>
-  <si>
-    <t>Consumer Staples, 15.1y</t>
-  </si>
-  <si>
-    <t>4. The probability of an ex-post recession affecting the company</t>
-  </si>
-  <si>
-    <t>Kelly's Formula: [W – (1 – W)/R] / K, Where K =</t>
-  </si>
-  <si>
-    <t>% Allocation</t>
-  </si>
-  <si>
-    <t>Performance Target =</t>
-  </si>
-  <si>
-    <t>b) It's far better to buy a wonderful company at a fair price than a fair company at a wonderful price, but it takes more efforts on research</t>
-  </si>
-  <si>
-    <t>a) Don't buy a mediocre value stock with low trading volume and mediocre dividend</t>
-  </si>
-  <si>
-    <t>a) Don't buy a High growth company with unproven products or products you don't trust</t>
-  </si>
-  <si>
-    <t>b) Don't buy into unsustainable PE ratios</t>
-  </si>
-  <si>
     <t>1. 72%收入来自物业销售，22年楼市差，实质比例更高
 2. 物业销售(特别内地)业绩波动较大，难以预测</t>
   </si>
   <si>
-    <t>Can it be Fixed?</t>
-  </si>
-  <si>
-    <t>What Went Wrong?</t>
-  </si>
-  <si>
-    <t>DuPont Formula</t>
-  </si>
-  <si>
-    <t>EBIT / Sales</t>
-  </si>
-  <si>
-    <t>Sales / Total Assets</t>
-  </si>
-  <si>
-    <t>Total Assets / Common Equity</t>
-  </si>
-  <si>
-    <t>ROE = EBIT / Common Equity</t>
-  </si>
-  <si>
-    <t>SGR = b * ROE</t>
-  </si>
-  <si>
-    <t>b = Reinvestment/NOPAT</t>
+    <t>物業銷售</t>
+  </si>
+  <si>
+    <t>物業管理及其他服務</t>
+  </si>
+  <si>
+    <t>酒店經營</t>
+  </si>
+  <si>
+    <t>經營租賃之租金收益</t>
+  </si>
+  <si>
+    <t>current demand for export will likely not recover until the 2nd half of next year</t>
   </si>
   <si>
     <t>Expect the coming FY to be report terrible P&amp;L result</t>
+  </si>
+  <si>
+    <t>Use the average of HK and mainland corporate tax rate</t>
+  </si>
+  <si>
+    <t>PB 0.54 in the past 5 years, 0.6 in the past 10 years</t>
   </si>
   <si>
     <t>1. 香港大众住宅楼市场基本饱和、商业物业市场低迷、办公楼(特别九龙)供应量过大
 2. 内地市场低迷
-3. 上半年业绩很差，预计23年6月止年报的P&amp;L数字将很难看。</t>
+3. 因利息持续上涨。上半年业绩很差，预计23年6月止年报的P&amp;L数字将很难看。</t>
   </si>
   <si>
     <t>1. Yes. 关键是香港人口及GDP增长可持续性强，预计楼市经历调整及经济恢复后，将会有上涨空间
 2. Yes. 信和在国内物业相对(地理及品质)优质，相信中国经济会恢复。另外信和在这方面的敞口可控
-3. Yes. 我认为是短期影响，而且开关后正在恢复</t>
+3. Yes. 金管局认为高利率会持续一段时间，但香港楼市仍然坚挺</t>
+  </si>
+  <si>
+    <t>Consumer Staples, 15.1y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="27">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1284,17 +1381,19 @@
     <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
     <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Total &quot;0%"/>
-    <numFmt numFmtId="176" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="177" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="184" formatCode="0.0%"/>
-    <numFmt numFmtId="185" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1649,7 +1748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="120">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -2598,36 +2697,6 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2924,21 +2993,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3158,13 +3212,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3347,9 +3530,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3407,12 +3587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3428,7 +3602,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3474,11 +3648,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3574,9 +3748,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3652,16 +3823,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3677,13 +3845,10 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3704,7 +3869,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3716,7 +3881,7 @@
     <xf numFmtId="3" fontId="11" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3725,11 +3890,11 @@
     <xf numFmtId="3" fontId="1" fillId="13" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3764,13 +3929,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="15" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3786,22 +3951,22 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3810,7 +3975,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3829,7 +3994,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3866,7 +4031,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3884,10 +4049,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3924,13 +4089,13 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3940,16 +4105,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3959,14 +4124,14 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3987,21 +4152,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4014,38 +4173,32 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4061,9 +4214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4074,27 +4224,125 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="13" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="13" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="13" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="10" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4118,10 +4366,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4149,13 +4397,13 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4165,7 +4413,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4177,7 +4425,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4206,17 +4454,17 @@
     <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4247,10 +4495,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4258,6 +4506,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4266,15 +4523,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4348,13 +4596,32 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="124" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4369,6 +4636,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4506,6 +4787,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -4518,8 +4809,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -4739,8 +5030,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4768,7 +5059,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="282" t="str">
+      <c r="C2" s="276" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0083.HK : SINO LAND</v>
       </c>
@@ -4784,109 +5075,109 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="408" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="409"/>
+      <c r="C3" s="431" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="432"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="418" t="s">
+      <c r="I3" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="419"/>
+      <c r="J3" s="442"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="410" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="411"/>
+      <c r="C4" s="433" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="434"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="31">
-        <v>9.6999999999999993</v>
+        <v>9.18</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="148"/>
+      <c r="K4" s="145"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="412">
+      <c r="C5" s="435">
         <v>44956</v>
       </c>
-      <c r="D5" s="411"/>
-      <c r="E5" s="119" t="str">
+      <c r="D5" s="434"/>
+      <c r="E5" s="118" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="406">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="384"/>
-      <c r="K5" s="147"/>
+      <c r="J5" s="407"/>
+      <c r="K5" s="144"/>
       <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="251">
+        <v>235</v>
+      </c>
+      <c r="C6" s="245">
         <v>8</v>
       </c>
-      <c r="D6" s="252">
+      <c r="D6" s="246">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="320">
+      <c r="E6" s="314">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44742</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="420">
+      <c r="H6" s="126"/>
+      <c r="I6" s="443">
         <f>I4*I5/1000000</f>
-        <v>79267.235379199992</v>
-      </c>
-      <c r="J6" s="421"/>
-      <c r="K6" s="147"/>
+        <v>75017.857812479997</v>
+      </c>
+      <c r="J6" s="444"/>
+      <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="138">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.8523949843737054E-2</v>
-      </c>
-      <c r="D7" s="141">
+        <v>4.0706134366475973E-2</v>
+      </c>
+      <c r="D7" s="138">
         <f>(Data!C40*Exchange_Rate)/I4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="149"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="93"/>
+      <c r="C8" s="92"/>
       <c r="E8" s="6"/>
       <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="128"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4894,80 +5185,80 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="278"/>
-      <c r="D9" s="276"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="270"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I9" s="117">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.820708348508106</v>
+        <v>13.079804395804578</v>
       </c>
       <c r="J9" s="47">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.2355191556295759E-2</v>
+        <v>7.6453742711990083E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="277" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="277">
+        <v>250</v>
+      </c>
+      <c r="C10" s="271" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="271">
         <v>3.6810000000000002E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="131">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.50096681612160732</v>
-      </c>
-      <c r="J10" s="126">
-        <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>3.2413560514589741</v>
+        <v>0.4741108630924078</v>
+      </c>
+      <c r="J10" s="123">
+        <f>IF(Asset_Model!D60/'Val Models'!C4&lt;0,"Negative EV",Asset_Model!D60/'Val Models'!C4)</f>
+        <v>2.4887428563974439</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="286" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="381">
+      <c r="B11" s="280" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="404">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="405"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="430" t="s">
+      <c r="I11" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="431"/>
+      <c r="J11" s="454"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B12" s="287" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="428">
+      <c r="B12" s="281" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="451">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="429"/>
-      <c r="G12" s="130" t="s">
+      <c r="D12" s="452"/>
+      <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="131">
+      <c r="H12" s="126"/>
+      <c r="I12" s="128">
         <v>1</v>
       </c>
-      <c r="J12" s="132" t="str">
+      <c r="J12" s="129" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4978,124 +5269,128 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="347" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="237"/>
-      <c r="E14" s="188">
-        <f ca="1">'FCFF Model'!C27</f>
-        <v>10.735099766534228</v>
-      </c>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
+      <c r="C14" s="337" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="231"/>
+      <c r="E14" s="184">
+        <f ca="1">'Val Models'!C44</f>
+        <v>10.554332113765554</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="337" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="390">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="223" t="str">
+      <c r="B15" s="217" t="str">
         <f>"(in "&amp;J4&amp;")"</f>
         <v>(in HKD)</v>
       </c>
-      <c r="C15" s="224" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="87" t="s">
+      <c r="C15" s="218" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="352" t="s">
+      <c r="H15" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="J15" s="87" t="s">
+      <c r="I15" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="86" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B16" s="127">
+      <c r="B16" s="124">
         <f>I4</f>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C16" s="404">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="155">
-        <f ca="1">I37/B16-(1+J27)</f>
-        <v>-3.5184231880642791E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>9.18</v>
+      </c>
+      <c r="C16" s="427">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="152">
+        <f ca="1">I37/B16-(1+C16)</f>
+        <v>1.0352268859624481E-2</v>
+      </c>
+      <c r="E16" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="422">
-        <f>('FCFF Model'!G16)*Exchange_Rate</f>
+      <c r="F16" s="445">
+        <f>('Val Models'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="395" t="s">
+      <c r="G16" s="418" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="353">
+      <c r="H16" s="343">
         <f>B16-$F$16</f>
-        <v>3.7975500180109343</v>
-      </c>
-      <c r="I16" s="390">
+        <v>3.2775500180109347</v>
+      </c>
+      <c r="I16" s="413">
         <v>0.42</v>
       </c>
-      <c r="J16" s="157">
+      <c r="J16" s="154">
         <f>I16/B16</f>
-        <v>4.3298969072164947E-2</v>
+        <v>4.5751633986928102E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B17" s="267">
-        <f ca="1">(I37+I38)/2</f>
-        <v>10.581367742939435</v>
-      </c>
-      <c r="C17" s="405"/>
-      <c r="D17" s="266">
-        <f ca="1">I37/B17-(1+J27)</f>
-        <v>-0.13220675953758554</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="423"/>
-      <c r="G17" s="396"/>
-      <c r="H17" s="354">
+      <c r="B17" s="261">
+        <f ca="1">MIN((I37+I38)/2,E14,I37/(1+C16))</f>
+        <v>9.2591948567761264</v>
+      </c>
+      <c r="C17" s="428"/>
+      <c r="D17" s="260">
+        <f ca="1">I37/B17-(1+C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="419"/>
+      <c r="F17" s="446"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="344">
         <f ca="1">B17-$F$16</f>
-        <v>4.6789177609503696</v>
-      </c>
-      <c r="I17" s="391"/>
-      <c r="J17" s="158">
+        <v>3.3567448747870614</v>
+      </c>
+      <c r="I17" s="414"/>
+      <c r="J17" s="155">
         <f ca="1">I16/B17</f>
-        <v>3.9692411246197434E-2</v>
+        <v>4.5360315502231033E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B18" s="321">
+      <c r="B18" s="315">
         <f>C37</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C18" s="406"/>
-      <c r="D18" s="156">
-        <f ca="1">I37/B18-(1+J27)</f>
-        <v>2.8120972908452835E-2</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="424"/>
-      <c r="G18" s="397"/>
-      <c r="H18" s="355">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C18" s="429"/>
+      <c r="D18" s="153">
+        <f ca="1">I37/B18-(1+C16)</f>
+        <v>0.13867877447365662</v>
+      </c>
+      <c r="E18" s="420"/>
+      <c r="F18" s="447"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="345">
         <f>B18-$F$16</f>
-        <v>3.2975500180109343</v>
-      </c>
-      <c r="I18" s="392"/>
-      <c r="J18" s="159">
+        <v>2.3975500180109357</v>
+      </c>
+      <c r="I18" s="415"/>
+      <c r="J18" s="156">
         <f>I16/B18</f>
-        <v>4.5652173913043478E-2</v>
+        <v>5.060240963855421E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -5108,101 +5403,101 @@
         <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="268" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="248" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="D20" s="262" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="242" t="s">
+        <v>242</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="323"/>
+      <c r="I20" s="317"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="415" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="416"/>
-      <c r="E21" s="416"/>
-      <c r="F21" s="416"/>
-      <c r="G21" s="416"/>
-      <c r="H21" s="416"/>
-      <c r="I21" s="416"/>
-      <c r="J21" s="417"/>
+      <c r="C21" s="438" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="439"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="439"/>
+      <c r="I21" s="439"/>
+      <c r="J21" s="440"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="426" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="427"/>
-      <c r="E22" s="427"/>
-      <c r="F22" s="427"/>
-      <c r="G22" s="426" t="s">
-        <v>351</v>
-      </c>
-      <c r="H22" s="426"/>
-      <c r="I22" s="427"/>
-      <c r="J22" s="427"/>
+      <c r="C22" s="449" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="450"/>
+      <c r="E22" s="450"/>
+      <c r="F22" s="450"/>
+      <c r="G22" s="449" t="s">
+        <v>371</v>
+      </c>
+      <c r="H22" s="449"/>
+      <c r="I22" s="450"/>
+      <c r="J22" s="450"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
-        <v>321</v>
-      </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="C23" s="416" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="416" t="s">
+        <v>370</v>
+      </c>
+      <c r="H23" s="416"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="432" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="433"/>
-      <c r="E24" s="433"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="433"/>
-      <c r="H24" s="433"/>
-      <c r="I24" s="433"/>
-      <c r="J24" s="434"/>
+        <v>325</v>
+      </c>
+      <c r="C24" s="455" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
+      <c r="G24" s="456"/>
+      <c r="H24" s="456"/>
+      <c r="I24" s="456"/>
+      <c r="J24" s="457"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="361" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="435" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="436"/>
-      <c r="E25" s="436"/>
-      <c r="F25" s="436"/>
-      <c r="G25" s="436"/>
-      <c r="H25" s="436"/>
-      <c r="I25" s="436"/>
-      <c r="J25" s="437"/>
+      <c r="B25" s="350" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="458" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="459"/>
+      <c r="E25" s="459"/>
+      <c r="F25" s="459"/>
+      <c r="G25" s="459"/>
+      <c r="H25" s="459"/>
+      <c r="I25" s="459"/>
+      <c r="J25" s="460"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5229,11 +5524,12 @@
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="357" t="s">
-        <v>346</v>
+      <c r="H27" s="347" t="s">
+        <v>319</v>
       </c>
       <c r="I27" s="29"/>
-      <c r="J27" s="358">
+      <c r="J27" s="391">
+        <f>C16</f>
         <v>0.2</v>
       </c>
     </row>
@@ -5241,241 +5537,243 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="413">
-        <v>44970</v>
-      </c>
-      <c r="D28" s="414"/>
-      <c r="E28" s="401" t="str">
+      <c r="C28" s="436">
+        <v>44988</v>
+      </c>
+      <c r="D28" s="437"/>
+      <c r="E28" s="424" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="425" t="s">
+      <c r="F28" s="425"/>
+      <c r="G28" s="425"/>
+      <c r="H28" s="426"/>
+      <c r="I28" s="448" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="425"/>
+      <c r="J28" s="448"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="389">
+      <c r="C29" s="412">
         <f>C33/D27</f>
-        <v>0.14975757575757576</v>
-      </c>
-      <c r="D29" s="380"/>
-      <c r="E29" s="388">
+        <v>0.28915151515151516</v>
+      </c>
+      <c r="D29" s="403"/>
+      <c r="E29" s="411">
         <f>E33/D27</f>
-        <v>0.1393939393939394</v>
-      </c>
-      <c r="F29" s="380"/>
-      <c r="G29" s="399">
+        <v>0.12575757575757576</v>
+      </c>
+      <c r="F29" s="403"/>
+      <c r="G29" s="422">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="400"/>
-      <c r="I29" s="398">
+      <c r="H29" s="423"/>
+      <c r="I29" s="421">
         <f>C29+E29+G29</f>
-        <v>0.28915151515151516</v>
-      </c>
-      <c r="J29" s="398"/>
+        <v>0.41490909090909089</v>
+      </c>
+      <c r="J29" s="421"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="370">
+      <c r="C30" s="393">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="394"/>
+      <c r="E30" s="393">
         <v>10000</v>
       </c>
-      <c r="D30" s="371"/>
-      <c r="E30" s="370">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="371"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="407">
+      <c r="F30" s="394"/>
+      <c r="G30" s="406"/>
+      <c r="H30" s="407"/>
+      <c r="I30" s="430">
         <f>C30+E30+G30</f>
-        <v>20000</v>
-      </c>
-      <c r="J30" s="407"/>
+        <v>30000</v>
+      </c>
+      <c r="J30" s="430"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="372">
-        <v>9.8840000000000003</v>
-      </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F31" s="371"/>
-      <c r="G31" s="386">
-        <v>8.6</v>
-      </c>
-      <c r="H31" s="387"/>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="C31" s="395">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="D31" s="394"/>
+      <c r="E31" s="395">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F31" s="394"/>
+      <c r="G31" s="409"/>
+      <c r="H31" s="410"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="408"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="373">
+      <c r="C32" s="396">
         <f>C31*$I$5/1000000</f>
-        <v>80770.861287423992</v>
-      </c>
-      <c r="D32" s="374"/>
-      <c r="E32" s="373">
+        <v>77976.078349311996</v>
+      </c>
+      <c r="D32" s="397"/>
+      <c r="E32" s="396">
         <f>E31*$I$5/1000000</f>
-        <v>75181.295411200001</v>
-      </c>
-      <c r="F32" s="374"/>
-      <c r="G32" s="445">
+        <v>67826.603468800007</v>
+      </c>
+      <c r="F32" s="397"/>
+      <c r="G32" s="468">
         <f>G31*$I$5/1000000</f>
-        <v>70278.167449599991</v>
-      </c>
-      <c r="H32" s="446"/>
-      <c r="I32" s="449"/>
-      <c r="J32" s="449"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="469"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="472"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="375">
+      <c r="C33" s="398">
         <f>C30*C31</f>
-        <v>98840</v>
-      </c>
-      <c r="D33" s="376"/>
-      <c r="E33" s="377">
+        <v>190840</v>
+      </c>
+      <c r="D33" s="399"/>
+      <c r="E33" s="400">
         <f>E30*E31</f>
-        <v>92000</v>
-      </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="447">
+        <v>83000</v>
+      </c>
+      <c r="F33" s="401"/>
+      <c r="G33" s="470">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="448"/>
-      <c r="I33" s="377">
+      <c r="H33" s="471"/>
+      <c r="I33" s="400">
         <f>C33+E33+G33</f>
-        <v>190840</v>
-      </c>
-      <c r="J33" s="377"/>
+        <v>273840</v>
+      </c>
+      <c r="J33" s="400"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="450"/>
-      <c r="D34" s="451"/>
-      <c r="E34" s="379">
+      <c r="C34" s="473"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="402">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>9.5419999999999998</v>
-      </c>
-      <c r="F34" s="380"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="379">
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="F34" s="403"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="402">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>9.5419999999999998</v>
-      </c>
-      <c r="J34" s="379"/>
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="J34" s="402"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="452"/>
-      <c r="D35" s="453"/>
-      <c r="E35" s="373">
+      <c r="C35" s="475"/>
+      <c r="D35" s="476"/>
+      <c r="E35" s="396">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>77976.078349311996</v>
-      </c>
-      <c r="F35" s="374"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="373">
+        <v>74592.920055808005</v>
+      </c>
+      <c r="F35" s="397"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="396">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>77976.078349311996</v>
-      </c>
-      <c r="J35" s="373"/>
+        <v>74592.920055808005</v>
+      </c>
+      <c r="J35" s="396"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="142" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="441">
+      <c r="B37" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="464">
         <f>E31</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D37" s="442"/>
-      <c r="G37" s="438" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" s="438"/>
-      <c r="I37" s="439">
-        <f ca="1">'FCFF Model'!C31</f>
-        <v>11.298712950757764</v>
-      </c>
-      <c r="J37" s="440"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D37" s="465"/>
+      <c r="E37" s="149" t="str">
+        <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
+        <v/>
+      </c>
+      <c r="G37" s="461" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" s="461"/>
+      <c r="I37" s="462">
+        <f ca="1">'Val Models'!C48</f>
+        <v>11.111033828131351</v>
+      </c>
+      <c r="J37" s="463"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="142" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="441">
+      <c r="B38" s="139" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="464">
         <f>E34</f>
-        <v>9.5419999999999998</v>
-      </c>
-      <c r="D38" s="442"/>
-      <c r="G38" s="443" t="s">
-        <v>332</v>
-      </c>
-      <c r="H38" s="444"/>
-      <c r="I38" s="439">
-        <f ca="1">'FCFF Model'!C32</f>
-        <v>9.8640225351211033</v>
-      </c>
-      <c r="J38" s="440"/>
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="D38" s="465"/>
+      <c r="G38" s="466" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="467"/>
+      <c r="I38" s="462">
+        <f ca="1">'Val Models'!C49</f>
+        <v>9.6146878416470685</v>
+      </c>
+      <c r="J38" s="463"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G40" s="317" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="322"/>
+        <v>291</v>
+      </c>
+      <c r="G40" s="311" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="316"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F41" s="206">
+        <v>294</v>
+      </c>
+      <c r="F41" s="202">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="G41" s="329"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
+      <c r="G41" s="323"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" s="206">
+        <v>293</v>
+      </c>
+      <c r="F42" s="202">
         <f>80%-(5%*IF(LEFT(D20,2)="St",2,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
         <v>0.8</v>
       </c>
@@ -5486,100 +5784,100 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F43" s="327">
+        <v>300</v>
+      </c>
+      <c r="F43" s="321">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.48680272108843536</v>
       </c>
-      <c r="G43" s="329" t="s">
-        <v>299</v>
-      </c>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
+      <c r="G43" s="323" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F44" s="330">
+        <v>316</v>
+      </c>
+      <c r="F44" s="324">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H44" s="72"/>
       <c r="I44" s="72"/>
       <c r="J44" s="72"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E46" s="256" t="s">
-        <v>337</v>
-      </c>
-      <c r="F46" s="256" t="s">
-        <v>338</v>
+      <c r="E46" s="250" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" s="250" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="327">
+        <v>296</v>
+      </c>
+      <c r="E47" s="321">
         <f ca="1">I37/C31-1</f>
-        <v>0.14313162188969697</v>
-      </c>
-      <c r="F47" s="330">
+        <v>0.16443448209299416</v>
+      </c>
+      <c r="F47" s="321">
         <f ca="1">I37/C38-1</f>
-        <v>0.18410322267425738</v>
-      </c>
-      <c r="J47" s="359"/>
+        <v>0.21724735189870192</v>
+      </c>
+      <c r="J47" s="348"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E48" s="327">
-        <f ca="1">'FCFF Model'!C32/C31-1</f>
-        <v>-2.0211923187876124E-3</v>
-      </c>
-      <c r="F48" s="330">
-        <f ca="1">'FCFF Model'!C32/C38-1</f>
-        <v>3.3747907684039458E-2</v>
+        <v>297</v>
+      </c>
+      <c r="E48" s="321">
+        <f ca="1">'Val Models'!C49/C31-1</f>
+        <v>7.617673616334919E-3</v>
+      </c>
+      <c r="F48" s="321">
+        <f ca="1">'Val Models'!C49/C38-1</f>
+        <v>5.3318124632676156E-2</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E50" s="351">
-        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
-        <v>0.61649216610738411</v>
-      </c>
-      <c r="F50" s="327">
-        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
-        <v>0.65746376689194452</v>
+        <v>299</v>
+      </c>
+      <c r="E50" s="341">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/C16))</f>
+        <v>0.6377950263106813</v>
+      </c>
+      <c r="F50" s="321">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/C16))</f>
+        <v>0.69060789611638906</v>
       </c>
       <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51" s="324"/>
-      <c r="E51" s="326">
+        <v>298</v>
+      </c>
+      <c r="D51" s="318"/>
+      <c r="E51" s="320">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>70.815439262876637</v>
-      </c>
-      <c r="F51" s="326">
+        <v>100</v>
+      </c>
+      <c r="F51" s="320">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
         <v>100</v>
       </c>
@@ -5587,34 +5885,34 @@
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="356">
-        <f ca="1">MAX(J27*2/E47,1)</f>
-        <v>2.7946305276150385</v>
-      </c>
-      <c r="F52" s="356">
-        <f ca="1">MAX(J27*2/F47,1)</f>
-        <v>2.1726941776991002</v>
-      </c>
-      <c r="G52" s="328"/>
+        <v>317</v>
+      </c>
+      <c r="E52" s="346">
+        <f ca="1">MAX(C16*2/E47,1)</f>
+        <v>2.4325798026583274</v>
+      </c>
+      <c r="F52" s="346">
+        <f ca="1">MAX(C16*2/F47,1)</f>
+        <v>1.8412192208746092</v>
+      </c>
+      <c r="G52" s="322"/>
       <c r="H52" s="83"/>
       <c r="I52" s="83"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E53" s="325">
-        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.21866095132295929</v>
-      </c>
-      <c r="F53" s="325">
-        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.30102644508096194</v>
-      </c>
-      <c r="G53" s="328" t="s">
-        <v>308</v>
+        <v>318</v>
+      </c>
+      <c r="E53" s="319">
+        <f ca="1">IF(E47&lt;C16,0,MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="319">
+        <f ca="1">IF(D18&lt;0,0,MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53))</f>
+        <v>0.3734014761973713</v>
+      </c>
+      <c r="G53" s="322" t="s">
+        <v>301</v>
       </c>
       <c r="H53" s="76">
         <v>0.4</v>
@@ -5623,38 +5921,38 @@
     <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="360" t="s">
-        <v>313</v>
+      <c r="B56" s="349" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="360" t="s">
-        <v>314</v>
+      <c r="B60" s="349" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6625,62 +6923,67 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+      <formula>$B$17</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C37:D38">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
-    <cfRule type="containsBlanks" priority="27">
+    <cfRule type="containsBlanks" priority="29">
       <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:F52">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="13" priority="11">
+    <cfRule type="containsBlanks" dxfId="16" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J38">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="7">
       <formula>LEN(TRIM(I37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsBlanks" priority="12">
+    <cfRule type="containsBlanks" priority="14">
       <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6717,7 +7020,7 @@
   </sheetPr>
   <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6759,21 +7062,21 @@
       <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="142">
         <v>44742</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="175">
+      <c r="E3" s="172">
         <v>1</v>
       </c>
-      <c r="F3" s="173">
+      <c r="F3" s="170">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>5735396</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="170"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6791,7 +7094,7 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="174">
+      <c r="F4" s="171">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>7384827</v>
       </c>
@@ -6809,47 +7112,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="41"/>
-      <c r="C6" s="260">
+      <c r="C6" s="254">
         <f>C3</f>
         <v>44742</v>
       </c>
-      <c r="D6" s="261">
+      <c r="D6" s="255">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44377</v>
       </c>
-      <c r="E6" s="261">
+      <c r="E6" s="255">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44012</v>
       </c>
-      <c r="F6" s="261">
+      <c r="F6" s="255">
         <f t="shared" si="0"/>
         <v>43646</v>
       </c>
-      <c r="G6" s="261">
+      <c r="G6" s="255">
         <f t="shared" si="0"/>
         <v>43281</v>
       </c>
-      <c r="H6" s="261">
+      <c r="H6" s="255">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-      <c r="I6" s="261">
+      <c r="I6" s="255">
         <f t="shared" si="0"/>
         <v>42551</v>
       </c>
-      <c r="J6" s="261">
+      <c r="J6" s="255">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="K6" s="261">
+      <c r="K6" s="255">
         <f t="shared" si="0"/>
         <v>41820</v>
       </c>
-      <c r="L6" s="261">
+      <c r="L6" s="255">
         <f t="shared" si="0"/>
         <v>41455</v>
       </c>
-      <c r="M6" s="261">
+      <c r="M6" s="255">
         <f t="shared" si="0"/>
         <v>41090</v>
       </c>
@@ -6869,7 +7172,7 @@
         <v>5886888</v>
       </c>
       <c r="F7" s="34">
-        <v>8009912</v>
+        <v>3061704</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -6877,7 +7180,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="227"/>
+      <c r="M7" s="221"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
@@ -6895,7 +7198,7 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="1"/>
-        <v>-0.26504960354121243</v>
+        <v>0.92274890061220805</v>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6925,7 +7228,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="202"/>
+      <c r="M8" s="198"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
@@ -6943,7 +7246,7 @@
         <v>2437232</v>
       </c>
       <c r="F9" s="34">
-        <v>3519324</v>
+        <v>1897780</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -6951,7 +7254,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="227"/>
+      <c r="M9" s="221"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
@@ -6973,7 +7276,7 @@
       </c>
       <c r="F10" s="14">
         <f t="shared" si="2"/>
-        <v>0.56062888081666817</v>
+        <v>0.38015562575611489</v>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -6999,7 +7302,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="202" t="str">
+      <c r="M10" s="198" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7020,7 +7323,7 @@
         <v>843993</v>
       </c>
       <c r="F11" s="34">
-        <v>932270</v>
+        <v>0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -7028,7 +7331,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="227"/>
+      <c r="M11" s="221"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
@@ -7050,7 +7353,7 @@
       </c>
       <c r="F12" s="14">
         <f t="shared" si="3"/>
-        <v>0.11638954335578222</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
@@ -7076,7 +7379,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="202" t="str">
+      <c r="M12" s="198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7101,7 +7404,7 @@
       </c>
       <c r="F13" s="14">
         <f t="shared" si="4"/>
-        <v>0.44423933746088595</v>
+        <v>0.38015562575611489</v>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="4"/>
@@ -7127,7 +7430,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="202" t="str">
+      <c r="M13" s="198" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7152,7 +7455,7 @@
       </c>
       <c r="F14" s="26">
         <f t="shared" si="5"/>
-        <v>3558318</v>
+        <v>1163924</v>
       </c>
       <c r="G14" s="26" t="str">
         <f t="shared" si="5"/>
@@ -7178,7 +7481,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="228" t="str">
+      <c r="M14" s="222" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7199,7 +7502,7 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" si="6"/>
-        <v>-0.26772621221599646</v>
+        <v>1.2386882648695277</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="6"/>
@@ -7229,7 +7532,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="202" t="str">
+      <c r="M15" s="198" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7240,47 +7543,47 @@
       <c r="B16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="136">
         <f>IF(C14="","",C14*(1-Operation!$D$18))</f>
         <v>7384827</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="136">
         <f>IF(D14="","",D14*(1-Operation!$D$18))</f>
         <v>12711315</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="136">
         <f>IF(E14="","",E14*(1-Operation!$D$18))</f>
         <v>2605663</v>
       </c>
-      <c r="F16" s="139">
+      <c r="F16" s="136">
         <f>IF(F14="","",F14*(1-Operation!$D$18))</f>
-        <v>3558318</v>
-      </c>
-      <c r="G16" s="139" t="str">
+        <v>1163924</v>
+      </c>
+      <c r="G16" s="136" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="H16" s="139" t="str">
+      <c r="H16" s="136" t="str">
         <f>IF(H14="","",H14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="I16" s="139" t="str">
+      <c r="I16" s="136" t="str">
         <f>IF(I14="","",I14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="J16" s="139" t="str">
+      <c r="J16" s="136" t="str">
         <f>IF(J14="","",J14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="K16" s="139" t="str">
+      <c r="K16" s="136" t="str">
         <f>IF(K14="","",K14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="L16" s="139" t="str">
+      <c r="L16" s="136" t="str">
         <f>IF(L14="","",L14*(1-Operation!$D$18))</f>
         <v/>
       </c>
-      <c r="M16" s="229" t="str">
+      <c r="M16" s="223" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$18))</f>
         <v/>
       </c>
@@ -7288,50 +7591,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="122">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>0.47478104591089182</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="122">
         <f t="shared" si="7"/>
         <v>0.51787070012664316</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="122">
         <f t="shared" si="7"/>
         <v>0.44262146655414542</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="122">
         <f t="shared" si="7"/>
-        <v>0.44423933746088595</v>
-      </c>
-      <c r="G17" s="125" t="str">
+        <v>0.38015562575611489</v>
+      </c>
+      <c r="G17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="125" t="str">
+      <c r="H17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="125" t="str">
+      <c r="I17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="125" t="str">
+      <c r="J17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="125" t="str">
+      <c r="K17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="125" t="str">
+      <c r="L17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="230" t="str">
+      <c r="M17" s="224" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7340,27 +7643,27 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="140">
+        <v>236</v>
+      </c>
+      <c r="C18" s="137">
         <v>27282</v>
       </c>
-      <c r="D18" s="140">
+      <c r="D18" s="137">
         <v>39885</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="137">
         <v>31747</v>
       </c>
-      <c r="F18" s="140">
-        <v>60128</v>
-      </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="231"/>
+      <c r="F18" s="137">
+        <v>3931</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="225"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
@@ -7378,7 +7681,7 @@
         <v>1688050</v>
       </c>
       <c r="F19" s="34">
-        <v>6914903</v>
+        <v>1288227</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
@@ -7386,13 +7689,13 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="227"/>
+      <c r="M19" s="221"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -7404,7 +7707,7 @@
       </c>
       <c r="E20" s="14">
         <f t="shared" si="8"/>
-        <v>-0.75588233124889825</v>
+        <v>0.3103668840972903</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="8"/>
@@ -7434,7 +7737,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="202" t="str">
+      <c r="M20" s="198" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7445,7 +7748,7 @@
       <c r="B21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="169">
         <v>71424985</v>
       </c>
       <c r="D21" s="34">
@@ -7455,7 +7758,7 @@
         <v>80391448</v>
       </c>
       <c r="F21" s="34">
-        <v>74544144</v>
+        <v>5654990</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -7463,7 +7766,7 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="227"/>
+      <c r="M21" s="221"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
@@ -7471,7 +7774,7 @@
       <c r="B22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="169">
         <v>15104618</v>
       </c>
       <c r="D22" s="34">
@@ -7481,7 +7784,7 @@
         <v>32319376</v>
       </c>
       <c r="F22" s="34">
-        <v>25385564</v>
+        <v>892243</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -7489,7 +7792,7 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="227"/>
+      <c r="M22" s="221"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1">
@@ -7497,7 +7800,7 @@
       <c r="B23" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="169">
         <v>2284708</v>
       </c>
       <c r="D23" s="34">
@@ -7507,7 +7810,7 @@
         <v>864027</v>
       </c>
       <c r="F23" s="34">
-        <v>0</v>
+        <v>64264</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
@@ -7515,33 +7818,33 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="227"/>
+      <c r="M23" s="221"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="254">
+      <c r="C24" s="248">
         <v>31180</v>
       </c>
-      <c r="D24" s="136">
+      <c r="D24" s="133">
         <v>49241</v>
       </c>
-      <c r="E24" s="136">
+      <c r="E24" s="133">
         <v>32031</v>
       </c>
-      <c r="F24" s="136">
-        <v>0</v>
-      </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="232"/>
+      <c r="F24" s="133">
+        <v>61537</v>
+      </c>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="226"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
@@ -7549,7 +7852,7 @@
       <c r="B25" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="169">
         <v>2814396</v>
       </c>
       <c r="D25" s="34">
@@ -7559,7 +7862,7 @@
         <v>6139127</v>
       </c>
       <c r="F25" s="34">
-        <v>6755357</v>
+        <v>88172</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -7567,33 +7870,33 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="227"/>
+      <c r="M25" s="221"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="168">
         <v>13550</v>
       </c>
-      <c r="D26" s="136">
+      <c r="D26" s="133">
         <v>19736</v>
       </c>
-      <c r="E26" s="136">
+      <c r="E26" s="133">
         <v>7537</v>
       </c>
-      <c r="F26" s="136">
-        <v>0</v>
-      </c>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="232"/>
+      <c r="F26" s="133">
+        <v>88172</v>
+      </c>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="226"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
@@ -7615,7 +7918,7 @@
       </c>
       <c r="F27" s="26">
         <f t="shared" si="9"/>
-        <v>6755357</v>
+        <v>152436</v>
       </c>
       <c r="G27" s="26" t="str">
         <f t="shared" si="9"/>
@@ -7641,7 +7944,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="228" t="str">
+      <c r="M27" s="222" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7652,7 +7955,7 @@
       <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="169">
         <v>158228515</v>
       </c>
       <c r="D28" s="34">
@@ -7662,7 +7965,7 @@
         <v>145759189</v>
       </c>
       <c r="F28" s="34">
-        <v>146162104</v>
+        <v>20045506</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -7670,33 +7973,33 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="227"/>
+      <c r="M28" s="221"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="171">
+      <c r="B29" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="168">
         <v>157397300</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="133">
         <v>155159697</v>
       </c>
-      <c r="E29" s="136">
+      <c r="E29" s="133">
         <v>144915881</v>
       </c>
-      <c r="F29" s="136">
-        <v>145294012</v>
-      </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="232"/>
+      <c r="F29" s="133">
+        <v>19881530</v>
+      </c>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="226"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
@@ -7704,7 +8007,7 @@
       <c r="B30" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="169">
         <v>1285288</v>
       </c>
       <c r="D30" s="34">
@@ -7714,7 +8017,7 @@
         <v>1367290</v>
       </c>
       <c r="F30" s="34">
-        <v>219236</v>
+        <v>359739</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -7722,15 +8025,15 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="227"/>
+      <c r="M30" s="221"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="172">
+        <v>217</v>
+      </c>
+      <c r="C31" s="169">
         <v>17617776</v>
       </c>
       <c r="D31" s="34">
@@ -7740,7 +8043,7 @@
         <v>23080979</v>
       </c>
       <c r="F31" s="34">
-        <v>16439823</v>
+        <v>4917465</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -7748,7 +8051,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="227"/>
+      <c r="M31" s="221"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
@@ -7766,7 +8069,7 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" si="10"/>
-        <v>0.83965654689202729</v>
+        <v>0.73689634239992974</v>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="10"/>
@@ -7796,7 +8099,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="202" t="str">
+      <c r="M32" s="198" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7807,47 +8110,47 @@
       <c r="B33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="234">
+      <c r="C33" s="228">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
         <v>-1348675.65</v>
       </c>
-      <c r="D33" s="234">
+      <c r="D33" s="228">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>2798768.55</v>
       </c>
-      <c r="E33" s="234">
+      <c r="E33" s="228">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
-        <v>-318453.59999999998</v>
-      </c>
-      <c r="F33" s="234" t="str">
+        <v>423777.6</v>
+      </c>
+      <c r="F33" s="228" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="234" t="str">
+      <c r="G33" s="228" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="234" t="str">
+      <c r="H33" s="228" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="234" t="str">
+      <c r="I33" s="228" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="234" t="str">
+      <c r="J33" s="228" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="234" t="str">
+      <c r="K33" s="228" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="234" t="str">
+      <c r="L33" s="228" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="235" t="str">
+      <c r="M33" s="229" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7858,47 +8161,47 @@
       <c r="B34" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="139">
+      <c r="C34" s="136">
         <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>-1439670.65</v>
       </c>
-      <c r="D34" s="139">
+      <c r="D34" s="136">
         <f t="shared" si="11"/>
         <v>2807761.55</v>
       </c>
-      <c r="E34" s="139">
+      <c r="E34" s="136">
         <f t="shared" si="11"/>
-        <v>829600.4</v>
-      </c>
-      <c r="F34" s="139" t="str">
+        <v>1431328.6</v>
+      </c>
+      <c r="F34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="139" t="str">
+      <c r="G34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H34" s="139" t="str">
+      <c r="H34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I34" s="139" t="str">
+      <c r="I34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J34" s="139" t="str">
+      <c r="J34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K34" s="139" t="str">
+      <c r="K34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L34" s="139" t="str">
+      <c r="L34" s="136" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M34" s="316" t="str">
+      <c r="M34" s="310" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7906,50 +8209,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="233" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="225">
+      <c r="B35" s="227" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="219">
         <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
         <v>-0.19494981399022615</v>
       </c>
-      <c r="D35" s="225">
+      <c r="D35" s="219">
         <f t="shared" si="12"/>
         <v>0.22088678866033923</v>
       </c>
-      <c r="E35" s="225">
+      <c r="E35" s="219">
         <f t="shared" si="12"/>
-        <v>0.31838361292308331</v>
-      </c>
-      <c r="F35" s="225" t="str">
+        <v>0.54931455065371082</v>
+      </c>
+      <c r="F35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G35" s="225" t="str">
+      <c r="G35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H35" s="225" t="str">
+      <c r="H35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="I35" s="225" t="str">
+      <c r="I35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J35" s="225" t="str">
+      <c r="J35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K35" s="225" t="str">
+      <c r="K35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L35" s="225" t="str">
+      <c r="L35" s="219" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M35" s="226" t="str">
+      <c r="M35" s="220" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -7975,102 +8278,102 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="164" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="161">
+      <c r="B37" s="161" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="158">
         <v>3053687</v>
       </c>
-      <c r="D37" s="161">
+      <c r="D37" s="158">
         <v>508443</v>
       </c>
-      <c r="E37" s="161">
+      <c r="E37" s="158">
         <v>1287845</v>
       </c>
-      <c r="F37" s="161">
-        <v>822878</v>
-      </c>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="162"/>
+      <c r="F37" s="158">
+        <v>0</v>
+      </c>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="159"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="160">
+      <c r="C38" s="157">
         <v>0</v>
       </c>
-      <c r="D38" s="160">
+      <c r="D38" s="157">
         <v>0</v>
       </c>
-      <c r="E38" s="160">
+      <c r="E38" s="157">
         <v>0</v>
       </c>
-      <c r="F38" s="160">
+      <c r="F38" s="157">
         <v>0</v>
       </c>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="163"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="160"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="138" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="166">
+      <c r="B39" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="163">
         <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>0.37368231348424941</v>
       </c>
-      <c r="D39" s="166">
+      <c r="D39" s="163">
         <f t="shared" si="13"/>
         <v>6.2218608690043288E-2</v>
       </c>
-      <c r="E39" s="166">
+      <c r="E39" s="163">
         <f t="shared" si="13"/>
         <v>0.15759470404436446</v>
       </c>
-      <c r="F39" s="166">
+      <c r="F39" s="163">
         <f t="shared" si="13"/>
-        <v>0.1006962909935734</v>
-      </c>
-      <c r="G39" s="166" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H39" s="166" t="str">
+      <c r="H39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I39" s="166" t="str">
+      <c r="I39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="J39" s="166" t="str">
+      <c r="J39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K39" s="166" t="str">
+      <c r="K39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="L39" s="166" t="str">
+      <c r="L39" s="163" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M39" s="167" t="str">
+      <c r="M39" s="164" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8078,50 +8381,50 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="165" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="168">
+      <c r="B40" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="165">
         <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="168">
+      <c r="D40" s="165">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E40" s="168">
+      <c r="E40" s="165">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F40" s="168">
+      <c r="F40" s="165">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G40" s="168" t="str">
+      <c r="G40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H40" s="168" t="str">
+      <c r="H40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I40" s="168" t="str">
+      <c r="I40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J40" s="168" t="str">
+      <c r="J40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="K40" s="168" t="str">
+      <c r="K40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="L40" s="168" t="str">
+      <c r="L40" s="165" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="M40" s="169" t="str">
+      <c r="M40" s="166" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -8129,7 +8432,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="86" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="6"/>
@@ -8163,7 +8466,7 @@
       </c>
       <c r="F42" s="47">
         <f t="shared" si="15"/>
-        <v>4.6494393726287907E-2</v>
+        <v>4.4348699521616292E-3</v>
       </c>
       <c r="G42" s="47" t="str">
         <f t="shared" si="15"/>
@@ -8189,7 +8492,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M42" s="201" t="str">
+      <c r="M42" s="197" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
@@ -8198,7 +8501,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="43" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
@@ -8214,7 +8517,7 @@
       </c>
       <c r="F43" s="14">
         <f t="shared" si="16"/>
-        <v>4.6494393726287907E-2</v>
+        <v>7.6672167584687896E-3</v>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="16"/>
@@ -8240,7 +8543,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="M43" s="202" t="str">
+      <c r="M43" s="198" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -8265,7 +8568,7 @@
       </c>
       <c r="F44" s="49">
         <f t="shared" si="17"/>
-        <v>0.52674018560381042</v>
+        <v>7.635492928179695</v>
       </c>
       <c r="G44" s="49" t="str">
         <f t="shared" si="17"/>
@@ -8291,7 +8594,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M44" s="203" t="str">
+      <c r="M44" s="199" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -8316,7 +8619,7 @@
       </c>
       <c r="F45" s="14">
         <f t="shared" si="18"/>
-        <v>1.6897871410031368E-2</v>
+        <v>3.377368281777848E-3</v>
       </c>
       <c r="G45" s="14" t="str">
         <f t="shared" si="18"/>
@@ -8342,7 +8645,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M45" s="202" t="str">
+      <c r="M45" s="198" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -8367,7 +8670,7 @@
       </c>
       <c r="F46" s="50">
         <f t="shared" si="19"/>
-        <v>2.9364777556252051</v>
+        <v>6.3379482943547893</v>
       </c>
       <c r="G46" s="50" t="str">
         <f t="shared" si="19"/>
@@ -8393,7 +8696,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M46" s="204" t="str">
+      <c r="M46" s="200" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -8401,68 +8704,68 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="369" t="s">
-        <v>354</v>
-      </c>
-      <c r="C47" s="362"/>
-      <c r="D47" s="362"/>
-      <c r="E47" s="362"/>
-      <c r="F47" s="362"/>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="362"/>
-      <c r="K47" s="362"/>
-      <c r="L47" s="362"/>
-      <c r="M47" s="362"/>
+      <c r="B47" s="357" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="351"/>
+      <c r="D47" s="351"/>
+      <c r="E47" s="351"/>
+      <c r="F47" s="351"/>
+      <c r="G47" s="351"/>
+      <c r="H47" s="351"/>
+      <c r="I47" s="351"/>
+      <c r="J47" s="351"/>
+      <c r="K47" s="351"/>
+      <c r="L47" s="351"/>
+      <c r="M47" s="351"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="164" t="s">
-        <v>355</v>
-      </c>
-      <c r="C48" s="365">
+      <c r="B48" s="161" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="354">
         <f>C13</f>
         <v>0.47478104591089182</v>
       </c>
-      <c r="D48" s="365">
+      <c r="D48" s="354">
         <f>D13</f>
         <v>0.51787070012664316</v>
       </c>
-      <c r="E48" s="365">
+      <c r="E48" s="354">
         <f t="shared" ref="E48:M48" si="20">E13</f>
         <v>0.44262146655414542</v>
       </c>
-      <c r="F48" s="365">
+      <c r="F48" s="354">
         <f t="shared" si="20"/>
-        <v>0.44423933746088595</v>
-      </c>
-      <c r="G48" s="365" t="str">
+        <v>0.38015562575611489</v>
+      </c>
+      <c r="G48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H48" s="365" t="str">
+      <c r="H48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I48" s="365" t="str">
+      <c r="I48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J48" s="365" t="str">
+      <c r="J48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K48" s="365" t="str">
+      <c r="K48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L48" s="365" t="str">
+      <c r="L48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M48" s="365" t="str">
+      <c r="M48" s="354" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8470,50 +8773,50 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="9"/>
-      <c r="B49" s="138" t="s">
-        <v>356</v>
-      </c>
-      <c r="C49" s="363">
+      <c r="B49" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="352">
         <f>C7/(C29+C21+C22)</f>
         <v>6.3765717551868398E-2</v>
       </c>
-      <c r="D49" s="363">
+      <c r="D49" s="352">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>9.8999593423721874E-2</v>
       </c>
-      <c r="E49" s="363">
+      <c r="E49" s="352">
         <f t="shared" ref="E49:M49" si="21">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>2.2850457214829496E-2</v>
       </c>
-      <c r="F49" s="363">
+      <c r="F49" s="352">
         <f t="shared" si="21"/>
-        <v>3.2663691750537023E-2</v>
-      </c>
-      <c r="G49" s="363" t="str">
+        <v>0.11584741972221704</v>
+      </c>
+      <c r="G49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H49" s="363" t="str">
+      <c r="H49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I49" s="363" t="str">
+      <c r="I49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J49" s="363" t="str">
+      <c r="J49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K49" s="363" t="str">
+      <c r="K49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L49" s="363" t="str">
+      <c r="L49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M49" s="363" t="str">
+      <c r="M49" s="352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -8521,50 +8824,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="138" t="s">
-        <v>357</v>
-      </c>
-      <c r="C50" s="364">
+      <c r="B50" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="353">
         <f>(C29+C21+C22)/C29</f>
         <v>1.5497527784784111</v>
       </c>
-      <c r="D50" s="364">
+      <c r="D50" s="353">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>1.5979265285623754</v>
       </c>
-      <c r="E50" s="364">
+      <c r="E50" s="353">
         <f t="shared" ref="E50:M50" si="22">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>1.7777672344965421</v>
       </c>
-      <c r="F50" s="364">
+      <c r="F50" s="353">
         <f t="shared" si="22"/>
-        <v>1.6877758183179634</v>
-      </c>
-      <c r="G50" s="364" t="str">
+        <v>1.3293123315962101</v>
+      </c>
+      <c r="G50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H50" s="364" t="str">
+      <c r="H50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I50" s="364" t="str">
+      <c r="I50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J50" s="364" t="str">
+      <c r="J50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="K50" s="364" t="str">
+      <c r="K50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L50" s="364" t="str">
+      <c r="L50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M50" s="364" t="str">
+      <c r="M50" s="353" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -8572,50 +8875,50 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="138" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="368">
+      <c r="B51" s="135" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="356">
         <f>C48*C49*C50</f>
         <v>4.6918384241661074E-2</v>
       </c>
-      <c r="D51" s="368">
+      <c r="D51" s="356">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>8.1924077229926534E-2</v>
       </c>
-      <c r="E51" s="368">
+      <c r="E51" s="356">
         <f t="shared" ref="E51:M51" si="23">IF(E48="","",E48*E49*E50)</f>
         <v>1.7980520713254334E-2</v>
       </c>
-      <c r="F51" s="368">
+      <c r="F51" s="356">
         <f t="shared" si="23"/>
-        <v>2.4490465580921533E-2</v>
-      </c>
-      <c r="G51" s="368" t="str">
+        <v>5.8542979338109286E-2</v>
+      </c>
+      <c r="G51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H51" s="368" t="str">
+      <c r="H51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I51" s="368" t="str">
+      <c r="I51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="J51" s="368" t="str">
+      <c r="J51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K51" s="368" t="str">
+      <c r="K51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L51" s="368" t="str">
+      <c r="L51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M51" s="368" t="str">
+      <c r="M51" s="356" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8623,50 +8926,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="366" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="367">
+      <c r="B52" s="358" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="355">
         <f>C35*C51</f>
         <v>-9.1467302806337841E-3</v>
       </c>
-      <c r="D52" s="367">
+      <c r="D52" s="355">
         <f>IF(D35="","",D35*D51)</f>
         <v>1.8095946333280093E-2</v>
       </c>
-      <c r="E52" s="367">
+      <c r="E52" s="355">
         <f t="shared" ref="E52:M52" si="24">IF(E35="","",E35*E51)</f>
-        <v>5.7247031469242499E-3</v>
-      </c>
-      <c r="F52" s="367" t="str">
+        <v>9.8769616561210447E-3</v>
+      </c>
+      <c r="F52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="G52" s="367" t="str">
+      <c r="G52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H52" s="367" t="str">
+      <c r="H52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I52" s="367" t="str">
+      <c r="I52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J52" s="367" t="str">
+      <c r="J52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K52" s="367" t="str">
+      <c r="K52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="L52" s="367" t="str">
+      <c r="L52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M52" s="367" t="str">
+      <c r="M52" s="355" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -8701,7 +9004,7 @@
       <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="315" t="s">
+      <c r="C55" s="309" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="6"/>
@@ -8717,9 +9020,9 @@
     <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="312"/>
+      <c r="C56" s="306"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="312"/>
+      <c r="E56" s="306"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -8731,67 +9034,67 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
-      <c r="B57" s="313" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="162"/>
+      <c r="B57" s="307" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="158"/>
+      <c r="K57" s="158"/>
+      <c r="L57" s="158"/>
+      <c r="M57" s="159"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
-      <c r="B58" s="314" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="318" t="str">
+      <c r="B58" s="308" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="312" t="str">
         <f t="shared" ref="C58:M58" si="25">IF(C57="","",C57/C7)</f>
         <v/>
       </c>
-      <c r="D58" s="318" t="str">
+      <c r="D58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E58" s="318" t="str">
+      <c r="E58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="F58" s="318" t="str">
+      <c r="F58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="G58" s="318" t="str">
+      <c r="G58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="H58" s="318" t="str">
+      <c r="H58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="I58" s="318" t="str">
+      <c r="I58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="J58" s="318" t="str">
+      <c r="J58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K58" s="318" t="str">
+      <c r="K58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="L58" s="318" t="str">
+      <c r="L58" s="312" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M58" s="319" t="str">
+      <c r="M58" s="313" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -10118,22 +10421,22 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B57:M58">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46 D48:M52">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10162,8 +10465,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10182,58 +10485,58 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="249"/>
+      <c r="C2" s="243"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="317" t="s">
-        <v>134</v>
+      <c r="K2" s="311" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="255">
+      <c r="D3" s="249">
         <v>160090995.734</v>
       </c>
-      <c r="E3" s="152" t="str">
+      <c r="E3" s="149" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="256" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="257">
+      <c r="H3" s="250" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="251">
         <v>159323330.11500001</v>
       </c>
       <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="258">
+      <c r="D4" s="252">
         <f>D3-I3</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="E4" s="146"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="87">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
         <v>19.496533400243045</v>
       </c>
@@ -10249,11 +10552,11 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="B6" s="57" t="s">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="58">
-        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
+        <f>E46-I46-E50</f>
         <v>100759509.80375999</v>
       </c>
       <c r="E6" s="14">
@@ -10263,7 +10566,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I6" s="68">
         <f>C26/I26</f>
@@ -10274,10 +10577,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="52" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="D7" s="60">
-        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>12.330028168901379</v>
       </c>
       <c r="E7" s="48" t="str">
@@ -10285,19 +10588,19 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I7" s="68">
         <f>C25/I26</f>
         <v>3.7089690853896293</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="113"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I8" s="68">
         <f>C24/I26</f>
@@ -10307,50 +10610,50 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="250" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="253">
+      <c r="B9" s="244" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="231"/>
+      <c r="D9" s="247">
         <v>44926</v>
       </c>
-      <c r="E9" s="268" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
+      <c r="E9" s="262" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
       <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="F10" s="29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="72"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="63">
         <v>3379024.0260000001</v>
@@ -10365,7 +10668,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" s="63">
         <v>2230528</v>
@@ -10375,7 +10678,7 @@
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="63">
         <v>41083645.866999999</v>
@@ -10390,7 +10693,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="63">
         <v>40711.811999999998</v>
@@ -10400,7 +10703,7 @@
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="63">
         <v>0</v>
@@ -10415,7 +10718,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="63">
         <v>1695386.811</v>
@@ -10425,7 +10728,7 @@
     </row>
     <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="63">
         <v>9150.4850000000006</v>
@@ -10440,7 +10743,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="63">
         <v>0</v>
@@ -10450,7 +10753,7 @@
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="63">
         <v>0</v>
@@ -10464,9 +10767,9 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="151">
+        <v>96</v>
+      </c>
+      <c r="I15" s="148">
         <f>I26-SUM(I11:I14)</f>
         <v>9867916.8460000008</v>
       </c>
@@ -10474,7 +10777,7 @@
     </row>
     <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="63">
         <v>0</v>
@@ -10486,20 +10789,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="91">
+      <c r="F16" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="90">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="150"/>
+      <c r="I16" s="147"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="63">
         <v>6840073.6589999991</v>
@@ -10514,12 +10817,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="150"/>
+      <c r="I17" s="147"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="63">
         <v>13046.883</v>
@@ -10535,7 +10838,7 @@
     </row>
     <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="63">
         <v>8609555.8550000004</v>
@@ -10547,19 +10850,19 @@
         <f t="shared" si="0"/>
         <v>5596211.3057500003</v>
       </c>
-      <c r="F19" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="91">
+      <c r="F19" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="90">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="150"/>
+      <c r="I19" s="147"/>
     </row>
     <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="63">
         <v>7527029.5259999996</v>
@@ -10571,19 +10874,19 @@
         <f t="shared" si="0"/>
         <v>3387163.2867000001</v>
       </c>
-      <c r="F20" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="91">
+      <c r="F20" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="90">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="150"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="63">
         <v>75546.323999999993</v>
@@ -10598,11 +10901,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="150"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="63">
         <v>0</v>
@@ -10624,7 +10927,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="69">
         <f>SUM(C11:C14)</f>
@@ -10641,7 +10944,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="65" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I24" s="68">
         <f>E24/($I$26-I15)</f>
@@ -10654,7 +10957,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="69">
         <f>C24+SUM(C15:C17)</f>
@@ -10671,7 +10974,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="65" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I25" s="68">
         <f>E25/$I$26</f>
@@ -10684,7 +10987,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="69">
         <f>SUM(C11:C22)</f>
@@ -10704,7 +11007,7 @@
       <c r="I26" s="63">
         <v>13834543.469000001</v>
       </c>
-      <c r="J26" s="104">
+      <c r="J26" s="103">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
         <v>4</v>
       </c>
@@ -10714,7 +11017,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -10722,7 +11025,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="63">
         <v>0</v>
@@ -10736,7 +11039,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I28" s="63">
         <v>997248.75199999998</v>
@@ -10745,7 +11048,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="63">
         <v>941238.06900000002</v>
@@ -10760,7 +11063,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" s="63">
         <v>35896.328000000001</v>
@@ -10769,7 +11072,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="63">
         <v>0</v>
@@ -10784,7 +11087,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I30" s="63">
         <v>1739746.648</v>
@@ -10793,7 +11096,7 @@
     </row>
     <row r="31" spans="2:10" ht="14">
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="63">
         <v>0</v>
@@ -10805,15 +11108,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="91">
+      <c r="F31" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="90">
         <f>IF(F31="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I31" s="63">
         <v>0</v>
@@ -10822,7 +11125,7 @@
     </row>
     <row r="32" spans="2:10" ht="14">
       <c r="B32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="63">
         <v>19909711.574000001</v>
@@ -10836,9 +11139,9 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="151">
+        <v>114</v>
+      </c>
+      <c r="I32" s="148">
         <f>I42-SUM(I28:I31)</f>
         <v>2692468.8590000002</v>
       </c>
@@ -10846,7 +11149,7 @@
     </row>
     <row r="33" spans="2:10" ht="14">
       <c r="B33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="63">
         <v>23060132.886</v>
@@ -10854,14 +11157,14 @@
       <c r="D33" s="64">
         <v>0.5</v>
       </c>
-      <c r="E33" s="212">
+      <c r="E33" s="208">
         <f t="shared" si="3"/>
         <v>11530066.443</v>
       </c>
-      <c r="F33" s="199" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="91">
+      <c r="F33" s="195" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="90">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10869,7 +11172,7 @@
     </row>
     <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="63">
         <v>66597606.537</v>
@@ -10877,21 +11180,21 @@
       <c r="D34" s="64">
         <v>0.65</v>
       </c>
-      <c r="E34" s="212">
+      <c r="E34" s="208">
         <f t="shared" si="3"/>
         <v>43288444.249049999</v>
       </c>
-      <c r="F34" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="91">
+      <c r="F34" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="90">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="14">
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="63">
         <v>0</v>
@@ -10903,17 +11206,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="91">
+      <c r="F35" s="195" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="90">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C36" s="63">
         <v>114740.003</v>
@@ -10930,7 +11233,7 @@
     </row>
     <row r="37" spans="2:10" ht="14">
       <c r="B37" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C37" s="63">
         <v>1217891.264</v>
@@ -10947,7 +11250,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1">
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="63">
         <v>0</v>
@@ -10964,7 +11267,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="63">
         <v>12206.832</v>
@@ -10981,7 +11284,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1">
       <c r="B40" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="63">
         <v>300</v>
@@ -11004,7 +11307,7 @@
     </row>
     <row r="42" spans="2:10" ht="14">
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="66">
         <f>SUM(C28:C40)</f>
@@ -11021,7 +11324,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I42" s="63">
         <v>5465360.5870000003</v>
@@ -11036,7 +11339,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="69">
         <f>C24+SUM(C28:C29)</f>
@@ -11053,7 +11356,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="65" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I44" s="68">
         <f>E44/(I46-I15-I32)</f>
@@ -11066,7 +11369,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C45" s="69">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -11083,7 +11386,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="65" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I45" s="68">
         <f>E45/$I$46</f>
@@ -11096,7 +11399,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" s="69">
         <f>C26+C42</f>
@@ -11113,9 +11416,9 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" s="151">
+        <v>287</v>
+      </c>
+      <c r="I46" s="148">
         <f>I26+I42</f>
         <v>19299904.056000002</v>
       </c>
@@ -11129,17 +11432,17 @@
     </row>
     <row r="48" spans="2:10" ht="14">
       <c r="B48" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="51"/>
     </row>
     <row r="49" spans="2:9" ht="14">
-      <c r="B49" s="208" t="s">
-        <v>202</v>
+      <c r="B49" s="204" t="s">
+        <v>200</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="209" t="str">
+      <c r="D49" s="205" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -11147,21 +11450,21 @@
     </row>
     <row r="50" spans="2:9" ht="14">
       <c r="B50" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="210">
+        <v>199</v>
+      </c>
+      <c r="C50" s="206">
         <f>D4</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="D50" s="206">
+      <c r="D50" s="202">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="210">
+      <c r="E50" s="206">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="I50" s="153"/>
+      <c r="I50" s="150"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1">
       <c r="C51" s="6"/>
@@ -11170,31 +11473,31 @@
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1">
       <c r="B52" s="73" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="454">
+      <c r="D52" s="477">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="455"/>
+      <c r="E52" s="478"/>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1">
       <c r="B53" s="57" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="457">
+      <c r="D53" s="480">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="376"/>
+      <c r="E53" s="399"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -11203,29 +11506,29 @@
     </row>
     <row r="54" spans="2:9" ht="14">
       <c r="B54" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="464">
+      <c r="D54" s="487">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="394"/>
       <c r="F54" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1">
       <c r="B55" s="57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="464">
+      <c r="D55" s="487">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="394"/>
       <c r="F55" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -11235,27 +11538,27 @@
     </row>
     <row r="57" spans="2:9" ht="14">
       <c r="B57" s="73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="456"/>
-      <c r="E57" s="456"/>
+      <c r="D57" s="479"/>
+      <c r="E57" s="479"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1">
       <c r="B58" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="205">
+        <v>219</v>
+      </c>
+      <c r="C58" s="201">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>24010521.440000001</v>
       </c>
-      <c r="D58" s="125">
+      <c r="D58" s="122">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.50395821705236565</v>
       </c>
-      <c r="E58" s="213">
+      <c r="E58" s="209">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>12100299.5754</v>
       </c>
@@ -11263,17 +11566,17 @@
     </row>
     <row r="59" spans="2:9" ht="14">
       <c r="B59" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="205">
+        <v>87</v>
+      </c>
+      <c r="C59" s="201">
         <f>C11+C12+C28</f>
         <v>44462669.892999999</v>
       </c>
-      <c r="D59" s="206">
+      <c r="D59" s="202">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>0.98151993752697786</v>
       </c>
-      <c r="E59" s="207">
+      <c r="E59" s="203">
         <f>E11+E12+E28</f>
         <v>43640996.975659996</v>
       </c>
@@ -11282,14 +11585,14 @@
     </row>
     <row r="60" spans="2:9" ht="14">
       <c r="B60" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="462">
+      <c r="D60" s="485">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>18301228.016199984</v>
-      </c>
-      <c r="E60" s="463"/>
+        <v>14051850.44947999</v>
+      </c>
+      <c r="E60" s="486"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11298,40 +11601,40 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1">
-      <c r="B62" s="269" t="s">
-        <v>248</v>
+      <c r="B62" s="263" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="460">
+        <v>246</v>
+      </c>
+      <c r="D63" s="483">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.5934554144758829</v>
       </c>
-      <c r="E63" s="461"/>
+      <c r="E63" s="484"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="458">
+        <v>245</v>
+      </c>
+      <c r="D64" s="481">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="459"/>
-      <c r="F64" s="248" t="s">
-        <v>236</v>
+      <c r="E64" s="482"/>
+      <c r="F64" s="242" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1">
-      <c r="B65" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" s="458">
+      <c r="B65" s="263" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="481">
         <v>0.15</v>
       </c>
-      <c r="E65" s="459"/>
+      <c r="E65" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11370,8 +11673,8 @@
   </sheetPr>
   <dimension ref="A1:M903"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -11401,294 +11704,298 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="263" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263">
+      <c r="B2" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="257" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257">
         <v>1</v>
       </c>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="263">
+      <c r="I2" s="257">
         <v>3</v>
       </c>
-      <c r="J2" s="263"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="B3" s="28" t="str">
-        <f>'FCFF Model'!B3</f>
+        <f>'Val Models'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="259">
+      <c r="C3" s="253">
         <f>Dashboard!E6</f>
         <v>44742</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="259">
+        <v>230</v>
+      </c>
+      <c r="E3" s="253">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="259">
+        <v>230</v>
+      </c>
+      <c r="G3" s="253">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45473</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="259" t="str">
+      <c r="I3" s="253" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="274"/>
+      <c r="J3" s="268"/>
       <c r="L3" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B4" s="270" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="271">
+      <c r="B4" s="264" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="265">
         <v>11129690.461999999</v>
       </c>
-      <c r="D4" s="242">
+      <c r="D4" s="236">
         <f>C4/C8</f>
         <v>0.71954007930541752</v>
       </c>
-      <c r="E4" s="271">
+      <c r="E4" s="265">
         <f>3947351.849/0.7</f>
         <v>5639074.0700000003</v>
       </c>
-      <c r="F4" s="242">
+      <c r="F4" s="236">
         <f>E4/E8</f>
         <v>0.53990943728418095</v>
       </c>
-      <c r="G4" s="214">
+      <c r="G4" s="392">
         <f>E4*1.52</f>
         <v>8571392.5864000004</v>
       </c>
-      <c r="H4" s="242">
+      <c r="H4" s="236">
         <f>G4/G8</f>
         <v>0.63096006033519247</v>
       </c>
-      <c r="I4" s="214"/>
-      <c r="J4" s="264"/>
+      <c r="I4" s="388"/>
+      <c r="J4" s="258"/>
       <c r="K4" s="6"/>
       <c r="L4" s="72"/>
       <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="270" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="271">
+      <c r="B5" s="264" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="265">
         <v>1147617.763</v>
       </c>
-      <c r="D5" s="242">
+      <c r="D5" s="236">
         <f>C5/C8</f>
         <v>7.4194064877248861E-2</v>
       </c>
-      <c r="E5" s="271">
+      <c r="E5" s="265">
         <f>591321.795*2</f>
         <v>1182643.5900000001</v>
       </c>
-      <c r="F5" s="242">
+      <c r="F5" s="236">
         <f>E5/E8</f>
         <v>0.11323143254698259</v>
       </c>
-      <c r="G5" s="214">
+      <c r="G5" s="392">
         <f>E5*1.03</f>
         <v>1218122.8977000001</v>
       </c>
-      <c r="H5" s="242">
+      <c r="H5" s="236">
         <f>G5/G8</f>
         <v>8.9668847772527399E-2</v>
       </c>
-      <c r="I5" s="214"/>
-      <c r="J5" s="264"/>
+      <c r="I5" s="388"/>
+      <c r="J5" s="258"/>
       <c r="K5" s="6"/>
       <c r="L5" s="72"/>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="270" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="271">
+      <c r="B6" s="264" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="265">
         <v>451993.272</v>
       </c>
-      <c r="D6" s="242">
+      <c r="D6" s="236">
         <f>C6/C8</f>
         <v>2.9221592091066291E-2</v>
       </c>
-      <c r="E6" s="271">
+      <c r="E6" s="265">
         <f>455151.15*2</f>
         <v>910302.3</v>
       </c>
-      <c r="F6" s="242">
+      <c r="F6" s="236">
         <f>E6/E8</f>
         <v>8.7156294890004107E-2</v>
       </c>
-      <c r="G6" s="214">
+      <c r="G6" s="392">
         <f>E6*1.1</f>
         <v>1001332.5300000001</v>
       </c>
-      <c r="H6" s="242">
+      <c r="H6" s="236">
         <f>G6/G8</f>
         <v>7.3710406701806244E-2</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="264"/>
+      <c r="I6" s="388"/>
+      <c r="J6" s="258"/>
       <c r="K6" s="6"/>
       <c r="L6" s="72"/>
       <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B7" s="270" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="271">
+      <c r="B7" s="264" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="265">
         <v>2738482.4139999999</v>
       </c>
-      <c r="D7" s="242">
+      <c r="D7" s="236">
         <f>C7/C8</f>
         <v>0.17704426372626741</v>
       </c>
-      <c r="E7" s="271">
+      <c r="E7" s="265">
         <f>1356230.715*2</f>
         <v>2712461.43</v>
       </c>
-      <c r="F7" s="242">
+      <c r="F7" s="236">
         <f>E7/E8</f>
         <v>0.25970283527883237</v>
       </c>
-      <c r="G7" s="214">
+      <c r="G7" s="392">
         <f>E7*1.03</f>
         <v>2793835.2729000002</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="236">
         <f>G7/G8</f>
         <v>0.20566068519047398</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="264"/>
+      <c r="I7" s="388"/>
+      <c r="J7" s="258"/>
       <c r="K7" s="6"/>
       <c r="L7" s="72"/>
       <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="176">
+        <v>134</v>
+      </c>
+      <c r="C8" s="173">
         <f>SUM(C4:C7)</f>
         <v>15467783.910999998</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="311">
+      <c r="D8" s="235"/>
+      <c r="E8" s="305">
         <f>SUM(E4:E7)</f>
         <v>10444481.390000001</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="311">
+      <c r="F8" s="235"/>
+      <c r="G8" s="305">
         <f>SUM(G4:G7)</f>
         <v>13584683.287</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="259"/>
       <c r="K8" s="6"/>
       <c r="L8" s="72" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="243"/>
+        <v>133</v>
+      </c>
+      <c r="C9" s="237">
+        <f>Data!C8</f>
+        <v>-0.36630860148838817</v>
+      </c>
+      <c r="D9" s="237"/>
       <c r="E9" s="18">
         <f>E8/C8-1</f>
         <v>-0.32475903141028817</v>
       </c>
-      <c r="F9" s="243"/>
-      <c r="G9" s="71">
+      <c r="F9" s="237"/>
+      <c r="G9" s="18">
+        <f>G8/E8-1</f>
         <v>0.30065656491154891</v>
       </c>
-      <c r="H9" s="243"/>
+      <c r="H9" s="237"/>
       <c r="I9" s="71"/>
-      <c r="J9" s="301"/>
+      <c r="J9" s="295"/>
       <c r="K9" s="6"/>
       <c r="L9" s="72"/>
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="177">
+        <v>135</v>
+      </c>
+      <c r="C10" s="174">
         <f>Data!C9</f>
         <v>7301864</v>
       </c>
-      <c r="D10" s="244"/>
-      <c r="E10" s="219">
+      <c r="D10" s="238"/>
+      <c r="E10" s="214">
         <f>E8*(1-E11)</f>
         <v>6266688.8339999998</v>
       </c>
-      <c r="F10" s="244"/>
-      <c r="G10" s="262">
+      <c r="F10" s="238"/>
+      <c r="G10" s="256">
         <f>IF(G8="","",G8*(1-G11))</f>
         <v>6792341.6435000002</v>
       </c>
-      <c r="H10" s="244"/>
-      <c r="I10" s="262" t="str">
+      <c r="H10" s="238"/>
+      <c r="I10" s="256" t="str">
         <f>IF(I8="","",I8*(1-I11))</f>
         <v/>
       </c>
-      <c r="J10" s="302"/>
+      <c r="J10" s="296"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="113"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="182">
+      <c r="C11" s="179">
         <f>(C8-C10)/C8</f>
         <v>0.52793082434987726</v>
       </c>
-      <c r="D11" s="182"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="71">
         <v>0.4</v>
       </c>
-      <c r="F11" s="182"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="71">
         <v>0.5</v>
       </c>
-      <c r="H11" s="182"/>
+      <c r="H11" s="179"/>
       <c r="I11" s="71"/>
-      <c r="J11" s="303"/>
+      <c r="J11" s="297"/>
       <c r="K11" s="6"/>
       <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="26">
         <f>C8-C10</f>
@@ -11709,7 +12016,7 @@
         <f>IF(I9="","",I8-I10)</f>
         <v/>
       </c>
-      <c r="J12" s="228"/>
+      <c r="J12" s="222"/>
       <c r="K12" s="6"/>
       <c r="L12" s="72"/>
     </row>
@@ -11717,46 +12024,46 @@
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="184">
+      <c r="C13" s="180">
         <f>C14/C8</f>
         <v>6.7328499738051453E-2</v>
       </c>
-      <c r="D13" s="184"/>
-      <c r="E13" s="218">
+      <c r="D13" s="180"/>
+      <c r="E13" s="213">
         <f>E14/E8</f>
         <v>0.10369874309288227</v>
       </c>
-      <c r="F13" s="184"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="64">
         <v>0.09</v>
       </c>
-      <c r="H13" s="184"/>
+      <c r="H13" s="180"/>
       <c r="I13" s="64"/>
-      <c r="J13" s="304"/>
+      <c r="J13" s="298"/>
       <c r="K13" s="6"/>
       <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="179">
+        <v>137</v>
+      </c>
+      <c r="C14" s="176">
         <f>867483.279+173939.406</f>
         <v>1041422.6849999999</v>
       </c>
-      <c r="D14" s="245"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="74">
         <f>C14*1.04</f>
         <v>1083079.5924</v>
       </c>
-      <c r="F14" s="245"/>
+      <c r="F14" s="239"/>
       <c r="G14" s="74">
         <f>G8*G13</f>
         <v>1222621.4958299999</v>
       </c>
-      <c r="H14" s="245"/>
+      <c r="H14" s="239"/>
       <c r="I14" s="74"/>
-      <c r="J14" s="305"/>
+      <c r="J14" s="299"/>
       <c r="K14" s="6"/>
       <c r="L14" s="72"/>
     </row>
@@ -11783,146 +12090,146 @@
         <f>IF(I9="","",I17/I8)</f>
         <v/>
       </c>
-      <c r="J15" s="221"/>
+      <c r="J15" s="216"/>
       <c r="K15" s="6"/>
       <c r="L15" s="72"/>
       <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="B16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="246">
+        <v>138</v>
+      </c>
+      <c r="C16" s="240">
         <f>Data!C15</f>
         <v>-0.41903516669990476</v>
       </c>
-      <c r="D16" s="246"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="14">
         <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
         <v>-0.56562366923153307</v>
       </c>
-      <c r="F16" s="246"/>
+      <c r="F16" s="240"/>
       <c r="G16" s="14">
         <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
         <v>0.7997533901143733</v>
       </c>
-      <c r="H16" s="246"/>
+      <c r="H16" s="240"/>
       <c r="I16" s="14" t="str">
         <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
         <v/>
       </c>
-      <c r="J16" s="306"/>
+      <c r="J16" s="300"/>
       <c r="K16" s="6"/>
       <c r="L16" s="75" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="293">
+      <c r="B17" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="287">
         <f>C12-C14</f>
         <v>7124497.2259999989</v>
       </c>
-      <c r="D17" s="294"/>
-      <c r="E17" s="293">
+      <c r="D17" s="288"/>
+      <c r="E17" s="287">
         <f>E12-E14</f>
         <v>3094712.9636000008</v>
       </c>
-      <c r="F17" s="294"/>
-      <c r="G17" s="293">
+      <c r="F17" s="288"/>
+      <c r="G17" s="287">
         <f>IF(G9="","",G12-G14)</f>
         <v>5569720.1476700008</v>
       </c>
-      <c r="H17" s="294"/>
-      <c r="I17" s="293" t="str">
+      <c r="H17" s="288"/>
+      <c r="I17" s="287" t="str">
         <f>IF(I9="","",I12-I14)</f>
         <v/>
       </c>
-      <c r="J17" s="307"/>
+      <c r="J17" s="301"/>
       <c r="K17" s="6"/>
       <c r="L17" s="77"/>
       <c r="M17" s="55"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="289" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="290">
+      <c r="B18" s="283" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="284">
         <f>(16.5%+25%)/2</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="D18" s="291"/>
-      <c r="E18" s="292">
+      <c r="D18" s="285"/>
+      <c r="E18" s="286">
         <f>IF(E17="","",C18)</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292">
+      <c r="F18" s="286"/>
+      <c r="G18" s="286">
         <f>IF(G17="","",E18)</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292" t="str">
+      <c r="H18" s="286"/>
+      <c r="I18" s="286" t="str">
         <f>IF(I17="","",G18)</f>
         <v/>
       </c>
-      <c r="J18" s="308"/>
+      <c r="J18" s="302"/>
       <c r="L18" s="72" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="298" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="246">
+      <c r="B19" s="292" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="240">
         <f>C20/C10</f>
         <v>0.77324968687515949</v>
       </c>
-      <c r="D19" s="300"/>
-      <c r="E19" s="299">
+      <c r="D19" s="294"/>
+      <c r="E19" s="293">
         <f>E20/E10</f>
         <v>0.39136457683148479</v>
       </c>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299">
+      <c r="F19" s="293"/>
+      <c r="G19" s="293">
         <f>IF(G10="","",G20/G10)</f>
         <v>0.64985000000000004</v>
       </c>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299" t="str">
+      <c r="H19" s="293"/>
+      <c r="I19" s="293" t="str">
         <f>IF(I10="","",I20/I10)</f>
         <v/>
       </c>
-      <c r="J19" s="309"/>
+      <c r="J19" s="303"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="295" t="s">
+      <c r="B20" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="296">
+      <c r="C20" s="290">
         <f>IF(C17&lt;=0,C17,C17*(1-C18))</f>
         <v>5646164.0516049992</v>
       </c>
-      <c r="D20" s="296"/>
-      <c r="E20" s="297">
+      <c r="D20" s="290"/>
+      <c r="E20" s="291">
         <f>IF(E17="","",IF(E17&lt;=0,E17,E17*(1-E18)))</f>
         <v>2452560.0236530006</v>
       </c>
-      <c r="F20" s="296"/>
-      <c r="G20" s="297">
+      <c r="F20" s="290"/>
+      <c r="G20" s="291">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
         <v>4414003.2170284754</v>
       </c>
-      <c r="H20" s="296"/>
-      <c r="I20" s="297" t="str">
+      <c r="H20" s="290"/>
+      <c r="I20" s="291" t="str">
         <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
         <v/>
       </c>
-      <c r="J20" s="310"/>
+      <c r="J20" s="304"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:13" ht="15.75" customHeight="1"/>
@@ -12810,33 +13117,45 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(G13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G20 I20">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="7">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H13 H14 G15:H17">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
-      <formula>LEN(TRIM(G9))=0</formula>
+  <conditionalFormatting sqref="G15:H17">
+    <cfRule type="containsBlanks" dxfId="7" priority="13">
+      <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="11">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:J20">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(G10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G10:H12 H13:H14 G15:H17">
+    <cfRule type="containsBlanks" priority="14">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:J20">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(G9))=0</formula>
+  <conditionalFormatting sqref="H9:J9">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
+      <formula>LEN(TRIM(H9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J17">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="9">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="10">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12851,10 +13170,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J916"/>
+  <dimension ref="A1:J919"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12863,7 +13182,7 @@
     <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
     <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="49.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
@@ -12874,22 +13193,22 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="263" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="263">
+      <c r="B2" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="257" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="257">
         <v>1</v>
       </c>
-      <c r="E2" s="263">
+      <c r="E2" s="257">
         <v>2</v>
       </c>
-      <c r="F2" s="263">
+      <c r="F2" s="257">
         <v>3</v>
       </c>
-      <c r="G2" s="263" t="str">
+      <c r="G2" s="257" t="str">
         <f>B21</f>
         <v>TV after Year 2</v>
       </c>
@@ -12901,34 +13220,34 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="259">
+      <c r="C3" s="253">
         <f>Operation!C3</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="259">
+      <c r="D3" s="253">
         <f>Operation!E3</f>
         <v>45107</v>
       </c>
-      <c r="E3" s="259">
+      <c r="E3" s="253">
         <f>Operation!G3</f>
         <v>45473</v>
       </c>
-      <c r="F3" s="259" t="str">
+      <c r="F3" s="253" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
       <c r="G3" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I3" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="175">
         <f>Operation!C20</f>
         <v>5646164.0516049992</v>
       </c>
@@ -12940,11 +13259,11 @@
         <f>Operation!G20</f>
         <v>4414003.2170284754</v>
       </c>
-      <c r="F4" s="196" t="str">
+      <c r="F4" s="192" t="str">
         <f>Operation!I20</f>
         <v/>
       </c>
-      <c r="G4" s="279">
+      <c r="G4" s="273">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12954,22 +13273,22 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="240">
+        <v>252</v>
+      </c>
+      <c r="C5" s="233"/>
+      <c r="D5" s="234">
         <f>D4/C4-1</f>
         <v>-0.56562366923153307</v>
       </c>
-      <c r="E5" s="240">
+      <c r="E5" s="234">
         <f>IF(E4="","",E4/D4-1)</f>
         <v>0.79975339011437319</v>
       </c>
-      <c r="F5" s="240" t="str">
+      <c r="F5" s="234" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
         <v/>
       </c>
-      <c r="G5" s="193"/>
+      <c r="G5" s="189"/>
       <c r="H5" s="6"/>
       <c r="I5" s="77"/>
       <c r="J5" s="55"/>
@@ -12981,84 +13300,85 @@
       <c r="C6" s="64">
         <v>0.27</v>
       </c>
-      <c r="D6" s="218">
+      <c r="D6" s="213">
         <v>0.27</v>
       </c>
       <c r="E6" s="64">
         <v>0.27</v>
       </c>
-      <c r="F6" s="283"/>
-      <c r="G6" s="194"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="190"/>
       <c r="H6" s="6"/>
       <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="284">
+        <v>248</v>
+      </c>
+      <c r="C7" s="278">
         <f>C4*C6</f>
         <v>1524464.2939333499</v>
       </c>
-      <c r="D7" s="284">
+      <c r="D7" s="278">
         <f>D4*D6</f>
         <v>662191.20638631016</v>
       </c>
-      <c r="E7" s="285">
+      <c r="E7" s="279">
         <f>E4*E6</f>
         <v>1191780.8685976884</v>
       </c>
-      <c r="F7" s="285"/>
-      <c r="G7" s="195"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="191"/>
       <c r="H7" s="80"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="187">
+        <v>140</v>
+      </c>
+      <c r="C8" s="183">
         <f>IF(C4="","",C4-C7)</f>
         <v>4121699.7576716496</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D8" s="182">
         <f>D4-D7</f>
         <v>1790368.8172666905</v>
       </c>
-      <c r="E8" s="186">
+      <c r="E8" s="182">
         <f>IF(E4="","",E4-E7)</f>
         <v>3222222.3484307872</v>
       </c>
-      <c r="F8" s="186" t="str">
+      <c r="F8" s="182" t="str">
         <f>IF(F4="","",F4-F7)</f>
         <v/>
       </c>
+      <c r="G8" s="362"/>
       <c r="H8" s="80"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="198" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="188">
+      <c r="B9" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="184">
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.50437595632237753</v>
       </c>
-      <c r="D9" s="281">
+      <c r="D9" s="275">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.21908897723515092</v>
       </c>
-      <c r="E9" s="281">
+      <c r="E9" s="275">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.39430612951565364</v>
       </c>
-      <c r="F9" s="281" t="str">
+      <c r="F9" s="275" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="335">
+      <c r="G9" s="381">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
         <v>0.39430612951565358</v>
       </c>
@@ -13068,10 +13388,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="215">
+        <v>141</v>
+      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="210">
         <f ca="1">Dashboard!C12</f>
         <v>0.06</v>
       </c>
@@ -13083,7 +13403,7 @@
         <f>IF(F4="","",D10)</f>
         <v/>
       </c>
-      <c r="G10" s="221">
+      <c r="G10" s="379">
         <f ca="1">Dashboard!C12</f>
         <v>0.06</v>
       </c>
@@ -13093,22 +13413,22 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="216">
+        <v>142</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="211">
         <f ca="1">IF(D4="","",1+D10)</f>
         <v>1.06</v>
       </c>
-      <c r="E11" s="217">
+      <c r="E11" s="212">
         <f ca="1">IF(E4="","",(1+D10)*(1+E10))</f>
         <v>1.1236000000000002</v>
       </c>
-      <c r="F11" s="217" t="str">
+      <c r="F11" s="212" t="str">
         <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
         <v/>
       </c>
-      <c r="G11" s="222">
+      <c r="G11" s="382">
         <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
         <v>1.1910160000000003</v>
       </c>
@@ -13118,400 +13438,750 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="334"/>
-      <c r="D12" s="190">
+        <v>339</v>
+      </c>
+      <c r="C12" s="328"/>
+      <c r="D12" s="186">
         <f ca="1">IF(D9="","",D9/D11)</f>
         <v>0.20668771437278388</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="187">
         <f ca="1">IF(E9="","",E9/E11)</f>
         <v>0.35093105154472554</v>
       </c>
-      <c r="F12" s="191" t="str">
+      <c r="F12" s="187" t="str">
         <f>IF(F9="","",F9/F11)</f>
         <v/>
       </c>
-      <c r="G12" s="336"/>
+      <c r="G12" s="383"/>
       <c r="H12" s="78"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="F13" s="6"/>
-      <c r="G13" s="112"/>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="349" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="189" t="str">
+      <c r="B14" s="339" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="185" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="57" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C15" s="82">
         <f>Asset_Model!E59</f>
         <v>43640996.975659996</v>
       </c>
-      <c r="D15" s="211">
+      <c r="D15" s="207">
         <f>C15/(Dashboard!I5/Data!C4)</f>
         <v>5.3403864615541012</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" s="133">
+        <v>220</v>
+      </c>
+      <c r="G15" s="130">
         <f>C15+C16+C17+C18</f>
         <v>48234112.581060007</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C16" s="82">
         <f>Asset_Model!E58</f>
         <v>12100299.5754</v>
       </c>
-      <c r="D16" s="211">
+      <c r="D16" s="207">
         <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>1.4807241014511157</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="192">
+        <v>303</v>
+      </c>
+      <c r="G16" s="188">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>5.902449981989065</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="B17" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="82">
         <f>-Asset_Model!D52</f>
         <v>-6739518.3509999998</v>
       </c>
-      <c r="D17" s="211">
+      <c r="D17" s="207">
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="467" t="str">
+      <c r="E17" s="490" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F17" s="142" t="s">
-        <v>231</v>
+      <c r="F17" s="139" t="s">
+        <v>227</v>
       </c>
       <c r="G17" s="85" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="B18" s="83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C18" s="82">
         <f>-Asset_Model!E50</f>
         <v>-767665.61899998784</v>
       </c>
-      <c r="D18" s="211">
+      <c r="D18" s="207">
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="467"/>
-      <c r="F18" s="144">
+      <c r="E18" s="490"/>
+      <c r="F18" s="141">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3403864615541012</v>
       </c>
-      <c r="G18" s="143">
+      <c r="G18" s="140">
         <f>SUM(D16:D18)</f>
         <v>0.56206352043496455</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="189" t="str">
+        <v>345</v>
+      </c>
+      <c r="C20" s="185" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="468" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="468"/>
-      <c r="G20" s="93"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B21" s="124" t="str">
+      <c r="E20" s="491" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="491"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B21" s="121" t="str">
         <f>"TV after Year "&amp;G4</f>
         <v>TV after Year 2</v>
       </c>
-      <c r="C21" s="124" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="197" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="280" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="247" t="str">
+      <c r="C21" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="193" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="274" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="241" t="str">
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="G21" s="342" t="str">
+      <c r="G21" s="334" t="str">
         <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="I21" s="84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="I21" s="84"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="B22" s="29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C22" s="14">
         <f>1/D22</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D22" s="275">
+      <c r="D22" s="269">
         <v>6</v>
       </c>
-      <c r="E22" s="200">
+      <c r="E22" s="196">
         <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
         <v>1.9864021785550496</v>
       </c>
-      <c r="F22" s="340">
+      <c r="F22" s="332">
         <f ca="1">E22+$G$16</f>
         <v>7.8888521605441149</v>
       </c>
-      <c r="G22" s="343">
+      <c r="G22" s="335">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
         <v>7.89</v>
       </c>
       <c r="I22" s="72"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="337" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="338">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B23" s="329" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="330">
         <f>1/D23</f>
         <v>0.1</v>
       </c>
-      <c r="D23" s="288">
+      <c r="D23" s="282">
         <v>10</v>
       </c>
-      <c r="E23" s="339">
+      <c r="E23" s="331">
         <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
         <v>3.3106702975917495</v>
       </c>
-      <c r="F23" s="341">
+      <c r="F23" s="333">
         <f ca="1">E23+$G$16</f>
         <v>9.2131202795808136</v>
       </c>
-      <c r="G23" s="346">
+      <c r="G23" s="336">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
         <v>9.2100000000000009</v>
       </c>
-      <c r="I23" s="72" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" customHeight="1" thickTop="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="344" t="s">
-        <v>331</v>
-      </c>
-      <c r="G24" s="345">
+      <c r="E24" s="492" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="493"/>
+      <c r="G24" s="363">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
         <v>8.5325795918367344</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="86"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" s="465" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="466"/>
-      <c r="E26" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="29" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="257" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="257">
+        <v>1</v>
+      </c>
+      <c r="E26" s="257">
+        <v>2</v>
+      </c>
+      <c r="F26" s="257">
+        <v>3</v>
+      </c>
+      <c r="G26" s="257" t="str">
+        <f>G2</f>
+        <v>TV after Year 2</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B27" s="28" t="str">
+        <f>B3</f>
+        <v>(Numbers in 1000HKD)</v>
+      </c>
+      <c r="C27" s="253">
+        <f>C3</f>
+        <v>44742</v>
+      </c>
+      <c r="D27" s="253">
+        <f>D3</f>
+        <v>45107</v>
+      </c>
+      <c r="E27" s="253">
+        <f>E3</f>
+        <v>45473</v>
+      </c>
+      <c r="F27" s="253" t="str">
+        <f>F3</f>
+        <v/>
+      </c>
+      <c r="G27" s="27" t="str">
+        <f>G3</f>
+        <v>Terminal Value</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="26">
+        <f>C4</f>
+        <v>5646164.0516049992</v>
+      </c>
+      <c r="D28" s="26">
+        <f>D4</f>
+        <v>2452560.0236530006</v>
+      </c>
+      <c r="E28" s="26">
+        <f>E4</f>
+        <v>4414003.2170284754</v>
+      </c>
+      <c r="F28" s="359" t="str">
+        <f>F4</f>
+        <v/>
+      </c>
+      <c r="G28" s="384">
+        <f>E28*1.02</f>
+        <v>4502283.2813690454</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B29" s="360" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="64">
+        <f>5.31095%+1.8%</f>
+        <v>7.1109500000000006E-2</v>
+      </c>
+      <c r="D29" s="213">
+        <v>0.08</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0.08</v>
+      </c>
+      <c r="F29" s="277"/>
+      <c r="G29" s="277">
+        <v>0.06</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B30" s="360" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="385">
+        <f>C17</f>
+        <v>-6739518.3509999998</v>
+      </c>
+      <c r="D30" s="367">
+        <v>107000</v>
+      </c>
+      <c r="E30" s="366">
+        <f>D30*1.05</f>
+        <v>112350</v>
+      </c>
+      <c r="F30" s="366"/>
+      <c r="G30" s="366">
+        <f>IF(F30&lt;&gt;"",F30,IF(E30&lt;&gt;"",E30,D30))*1.4</f>
+        <v>157290</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B31" s="360" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="386">
+        <f>Operation!C18</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="D31" s="386">
+        <f>Operation!E18</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="E31" s="386">
+        <f>Operation!G18</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="F31" s="386" t="str">
+        <f>Operation!I18</f>
+        <v/>
+      </c>
+      <c r="G31" s="386">
+        <f>IF(F31&lt;&gt;"",F31,IF(E31&lt;&gt;"",E31,D31))</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="I31" s="72"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="361" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="364">
+        <f>C30*(C29*(1-Operation!C18))</f>
+        <v>-379800.69579299435</v>
+      </c>
+      <c r="D32" s="364">
+        <f>(D30*D29)*(1-D31)</f>
+        <v>6783.8</v>
+      </c>
+      <c r="E32" s="365">
+        <f>IF(E28="","",(E30*E29)*(1-E31))</f>
+        <v>7122.99</v>
+      </c>
+      <c r="F32" s="365" t="str">
+        <f>IF(F28="","",(F30*F29)*(1-F31))</f>
+        <v/>
+      </c>
+      <c r="G32" s="364">
+        <f>(G30*G29)*(1-Operation!E18)</f>
+        <v>7479.1394999999993</v>
+      </c>
+      <c r="I32" s="72"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B33" s="360" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="183">
+        <f>C28-C32</f>
+        <v>6025964.7473979937</v>
+      </c>
+      <c r="D33" s="182">
+        <f>D28-D32</f>
+        <v>2445776.2236530008</v>
+      </c>
+      <c r="E33" s="182">
+        <f>IF(E28="","",E28-E32)</f>
+        <v>4406880.2270284751</v>
+      </c>
+      <c r="F33" s="182" t="str">
+        <f>IF(F28="","",F28-F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="369">
+        <f>G28-G32</f>
+        <v>4494804.1418690458</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B34" s="267" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="184">
+        <f>C33/(Common_Shares/Data!$C$4)</f>
+        <v>0.73740250647240957</v>
+      </c>
+      <c r="D34" s="275">
+        <f>D33/(Common_Shares/Data!$C$4)</f>
+        <v>0.29929174716315859</v>
+      </c>
+      <c r="E34" s="275">
+        <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
+        <v>0.53927373646480303</v>
+      </c>
+      <c r="F34" s="275" t="str">
+        <f>IF(F33="","",F33/(Common_Shares/Data!$C$4))</f>
+        <v/>
+      </c>
+      <c r="G34" s="184">
+        <f>G33/(Common_Shares/Data!$C$4)</f>
+        <v>0.55003306180109868</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="72"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B35" s="360" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="368">
+        <f>Dashboard!C31</f>
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="D35" s="210">
+        <f ca="1">D10</f>
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="18">
+        <f ca="1">IF(E10="","",E10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="F35" s="18" t="str">
+        <f>IF(F10="","",F10)</f>
+        <v/>
+      </c>
+      <c r="G35" s="379">
+        <f ca="1">G10</f>
+        <v>0.06</v>
+      </c>
+      <c r="I35" s="72"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B36" s="361" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="373"/>
+      <c r="D36" s="374">
+        <f ca="1">C35*D35</f>
+        <v>0.57251999999999992</v>
+      </c>
+      <c r="E36" s="375">
+        <f ca="1">IF(E35="","", $D$36)</f>
+        <v>0.57251999999999992</v>
+      </c>
+      <c r="F36" s="375" t="str">
+        <f>IF(F35="","", $D$36)</f>
+        <v/>
+      </c>
+      <c r="G36" s="380">
+        <f ca="1">D36</f>
+        <v>0.57251999999999992</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B37" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="389">
+        <f>'Qualitative Analysis'!E64^2</f>
+        <v>0.23697688925910498</v>
+      </c>
+      <c r="D37" s="371">
+        <f ca="1">D34-D36</f>
+        <v>-0.27322825283684132</v>
+      </c>
+      <c r="E37" s="371">
+        <f ca="1">IF(E34="","",E34-E36)</f>
+        <v>-3.3246263535196885E-2</v>
+      </c>
+      <c r="F37" s="371" t="str">
+        <f>IF(F34="","",F34-F36)</f>
+        <v/>
+      </c>
+      <c r="G37" s="372">
+        <f ca="1">G34-G36</f>
+        <v>-2.2486938198901241E-2</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="370"/>
+      <c r="D38" s="376">
+        <f ca="1">D11</f>
+        <v>1.06</v>
+      </c>
+      <c r="E38" s="376">
+        <f ca="1">E11</f>
+        <v>1.1236000000000002</v>
+      </c>
+      <c r="F38" s="376" t="str">
+        <f>F11</f>
+        <v/>
+      </c>
+      <c r="G38" s="376">
+        <f ca="1">IF(F30="",IF(E30="",D38,E38),F38)*(1+G35-C37)</f>
+        <v>0.92474876722846988</v>
+      </c>
+      <c r="I38" s="72"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B39" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="377"/>
+      <c r="D39" s="378">
+        <f ca="1">D37/D38</f>
+        <v>-0.25776250267626538</v>
+      </c>
+      <c r="E39" s="378">
+        <f ca="1">IF(E37="","",E37/E38)</f>
+        <v>-2.9589056190100462E-2</v>
+      </c>
+      <c r="F39" s="378" t="str">
+        <f>IF(F37="","",F37/F38)</f>
+        <v/>
+      </c>
+      <c r="G39" s="378">
+        <f ca="1">G37/G38</f>
+        <v>-2.4316807976177149E-2</v>
+      </c>
+      <c r="I39" s="72"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="494" t="s">
+        <v>361</v>
+      </c>
+      <c r="F40" s="495"/>
+      <c r="G40" s="387">
+        <f>Asset_Model!D7</f>
+        <v>12.330028168901379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="E41" s="492" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="493"/>
+      <c r="G41" s="363">
+        <f ca="1">(G40+SUM(D39:G39))*Exchange_Rate</f>
+        <v>12.018359802058836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" customHeight="1"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B43" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="488" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="489"/>
+      <c r="E43" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="238" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" s="236">
-        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>10.735099766534228</v>
-      </c>
-      <c r="D27" s="116" t="str">
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B44" s="232" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="230">
+        <f ca="1">MIN(G24,G41)+ABS(G24-G41)*'Qualitative Analysis'!$E$8</f>
+        <v>10.554332113765554</v>
+      </c>
+      <c r="D44" s="115" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E27" s="117">
-        <f ca="1">(C27-G16)/C9</f>
-        <v>9.5814436115910357</v>
-      </c>
-      <c r="F27" s="154">
-        <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.5544256444111817</v>
-      </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="72"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="349" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="E44" s="116">
+        <f ca="1">(C44-G16)/C9</f>
+        <v>9.2230449795731069</v>
+      </c>
+      <c r="F44" s="151">
+        <f ca="1">C44/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.54508970673434676</v>
+      </c>
+      <c r="G44" s="85"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="331" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="333">
-        <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.61</f>
-        <v>11.892885374148257</v>
-      </c>
-      <c r="D30" s="332" t="str">
-        <f>D27</f>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="194"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B47" s="325" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="327">
+        <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.6</f>
+        <v>11.697920040145826</v>
+      </c>
+      <c r="D47" s="326" t="str">
+        <f>D44</f>
         <v>HKD</v>
       </c>
-      <c r="E30" s="117">
-        <f>(C30-G16)/C9</f>
-        <v>11.876924974453656</v>
-      </c>
-      <c r="F30" s="154">
-        <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.61</v>
-      </c>
-      <c r="I30" s="72" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="350" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="348">
-        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>11.298712950757764</v>
-      </c>
-      <c r="D31" s="332" t="str">
-        <f>D30</f>
+      <c r="E47" s="116">
+        <f>(C47-G16)/C9</f>
+        <v>11.490377337599577</v>
+      </c>
+      <c r="F47" s="151">
+        <f>C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B48" s="340" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="338">
+        <f ca="1">MIN(C47,C44)+ABS(C47-C44)*'Qualitative Analysis'!E64</f>
+        <v>11.111033828131351</v>
+      </c>
+      <c r="D48" s="326" t="str">
+        <f>D47</f>
         <v>HKD</v>
       </c>
-      <c r="E31" s="117">
-        <f ca="1">(C31-G16)/C9</f>
-        <v>10.698890185240348</v>
-      </c>
-      <c r="F31" s="154">
-        <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.57952420149814499</v>
-      </c>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="331" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="348">
-        <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>9.8640225351211033</v>
-      </c>
-      <c r="D32" s="332" t="str">
-        <f>D30</f>
+      <c r="E48" s="116">
+        <f ca="1">(C48-G16)/C9</f>
+        <v>10.326788541072251</v>
+      </c>
+      <c r="F48" s="151">
+        <f ca="1">C48/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.56989791980110882</v>
+      </c>
+      <c r="I48" s="72"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="325" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="338">
+        <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
+        <v>9.6146878416470685</v>
+      </c>
+      <c r="D49" s="326" t="str">
+        <f>D47</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="117">
-        <f ca="1">(C32-G16)/C9</f>
-        <v>7.8544040481579875</v>
-      </c>
-      <c r="F32" s="154">
-        <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.50593725215776753</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="E49" s="116">
+        <f ca="1">(C49-G16)/C9</f>
+        <v>7.3600611074436015</v>
+      </c>
+      <c r="F49" s="151">
+        <f ca="1">C49/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.49314858412353507</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -14364,21 +15034,37 @@
     <row r="914" ht="15.75" customHeight="1"/>
     <row r="915" ht="15.75" customHeight="1"/>
     <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C26:D26"/>
+  <mergeCells count="6">
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F39">
+    <cfRule type="containsBlanks" dxfId="2" priority="15">
+      <formula>LEN(TRIM(E28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G32">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14393,8 +15079,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -14412,55 +15098,55 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="92"/>
+        <v>144</v>
+      </c>
+      <c r="C2" s="91"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="G2" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="91">
+        <v>256</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="90">
         <f>IF(E3="Strongly disagree",0,IF(E3="disagree",1,IF(E3="unclear",2,IF(E3="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="91">
+        <v>258</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="90">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="91">
+        <v>253</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="90">
         <f>AVERAGE(D12:D16)</f>
         <v>1.4</v>
       </c>
-      <c r="E5" s="99" t="str">
+      <c r="E5" s="98" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>disagree</v>
       </c>
@@ -14468,14 +15154,14 @@
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="91">
+        <v>254</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="90">
         <f>AVERAGE(D24:D28)</f>
         <v>3.2</v>
       </c>
-      <c r="E6" s="99" t="str">
+      <c r="E6" s="98" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
@@ -14483,145 +15169,143 @@
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="97">
+        <v>255</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="96">
         <f>IF(E7="Strongly disagree",0,IF(E7="disagree",1,IF(E7="unclear",2,IF(E7="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="98" t="str">
+      <c r="E7" s="97" t="str">
         <f>IF(D64&gt;=3.5,"Strongly agree",IF(D64&gt;=2.5,"agree",IF(D64&gt;=1.5,"unclear",IF(D64&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14">
-      <c r="B8" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="91">
+      <c r="B8" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="90">
         <f>AVERAGE(D3:D7)</f>
         <v>2.3200000000000003</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="94">
         <f>D8/4</f>
         <v>0.58000000000000007</v>
       </c>
       <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="14">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="E9" s="6"/>
       <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="272"/>
+      <c r="G10" s="266"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="B11" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="90"/>
+      <c r="B11" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="89"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="272"/>
+      <c r="G11" s="266"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="97">
+        <v>257</v>
+      </c>
+      <c r="D12" s="96">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="272"/>
+      <c r="G12" s="266"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="97">
+        <v>150</v>
+      </c>
+      <c r="D13" s="96">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="272"/>
+      <c r="G13" s="266"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="B14" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="97">
+        <v>151</v>
+      </c>
+      <c r="D14" s="96">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="272" t="s">
-        <v>340</v>
-      </c>
+      <c r="G14" s="266"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="B15" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="97">
+        <v>152</v>
+      </c>
+      <c r="D15" s="96">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="272" t="s">
-        <v>341</v>
+      <c r="G15" s="266" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="B16" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="97">
+        <v>154</v>
+      </c>
+      <c r="D16" s="96">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="272"/>
+      <c r="G16" s="266"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="96" t="s">
-        <v>158</v>
+      <c r="B17" s="95" t="s">
+        <v>156</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="272"/>
+      <c r="G17" s="266"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="97">
+        <v>277</v>
+      </c>
+      <c r="D18" s="96">
         <f>Asset_Model!J26</f>
         <v>4</v>
       </c>
@@ -14630,155 +15314,155 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="272"/>
+      <c r="G18" s="266"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="97">
+        <v>157</v>
+      </c>
+      <c r="D19" s="96">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="272"/>
+      <c r="G19" s="266"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="97">
+        <v>158</v>
+      </c>
+      <c r="D20" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="272"/>
+      <c r="G20" s="266"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="97">
+        <v>159</v>
+      </c>
+      <c r="D21" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="272"/>
+      <c r="G21" s="266"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="97">
+        <v>160</v>
+      </c>
+      <c r="D22" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="272"/>
+      <c r="G22" s="266"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
-      <c r="B23" s="96" t="s">
-        <v>163</v>
+      <c r="B23" s="95" t="s">
+        <v>161</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="272"/>
+      <c r="G23" s="266"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
       <c r="B24" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="97">
+        <v>162</v>
+      </c>
+      <c r="D24" s="96">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="272"/>
+      <c r="G24" s="266"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
       <c r="B25" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="97">
+        <v>163</v>
+      </c>
+      <c r="D25" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="272"/>
+      <c r="G25" s="266"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
       <c r="B26" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="97">
+        <v>259</v>
+      </c>
+      <c r="D26" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="272"/>
+      <c r="G26" s="266"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1">
       <c r="B27" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="97">
+        <v>260</v>
+      </c>
+      <c r="D27" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="272"/>
+      <c r="G27" s="266"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1">
       <c r="B28" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="97">
+        <v>164</v>
+      </c>
+      <c r="D28" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="272"/>
+      <c r="G28" s="266"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1">
-      <c r="B29" s="96" t="s">
-        <v>167</v>
+      <c r="B29" s="95" t="s">
+        <v>165</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="272"/>
+      <c r="G29" s="266"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="100">
+        <v>166</v>
+      </c>
+      <c r="D30" s="99">
         <f>SUM(D31:D35)/(5*4)</f>
         <v>0.6</v>
       </c>
@@ -14787,82 +15471,82 @@
         <v>Medium</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="272"/>
+      <c r="G30" s="266"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1">
       <c r="B31" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="97">
+        <v>167</v>
+      </c>
+      <c r="D31" s="96">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="272"/>
+      <c r="G31" s="266"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
       <c r="B32" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="D32" s="97">
+        <v>261</v>
+      </c>
+      <c r="D32" s="96">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="272"/>
+      <c r="G32" s="266"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
       <c r="B33" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="97">
+        <v>262</v>
+      </c>
+      <c r="D33" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="272"/>
+      <c r="G33" s="266"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="97">
+        <v>263</v>
+      </c>
+      <c r="D34" s="96">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="272"/>
+      <c r="G34" s="266"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
       <c r="B35" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="97">
+        <v>279</v>
+      </c>
+      <c r="D35" s="96">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="272"/>
+        <v>155</v>
+      </c>
+      <c r="G35" s="266"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="100">
+        <v>169</v>
+      </c>
+      <c r="D36" s="99">
         <f>SUM(D37:D41)/(5*4)</f>
         <v>0.2</v>
       </c>
@@ -14871,82 +15555,82 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="272"/>
+      <c r="G36" s="266"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1">
       <c r="B37" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="97">
+        <v>170</v>
+      </c>
+      <c r="D37" s="96">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="272"/>
+      <c r="G37" s="266"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
       <c r="B38" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="97">
+        <v>264</v>
+      </c>
+      <c r="D38" s="96">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="272"/>
+      <c r="G38" s="266"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="B39" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="97">
+        <v>265</v>
+      </c>
+      <c r="D39" s="96">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="272"/>
+      <c r="G39" s="266"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="B40" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" s="97">
+        <v>266</v>
+      </c>
+      <c r="D40" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="272"/>
+      <c r="G40" s="266"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D41" s="97">
+        <v>267</v>
+      </c>
+      <c r="D41" s="96">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="272"/>
+        <v>153</v>
+      </c>
+      <c r="G41" s="266"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="100">
+        <v>171</v>
+      </c>
+      <c r="D42" s="99">
         <f>SUM(D43:D48)/(6*4)</f>
         <v>0.58333333333333337</v>
       </c>
@@ -14955,97 +15639,97 @@
         <v>Medium</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="272"/>
+      <c r="G42" s="266"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1">
       <c r="B43" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="97">
+        <v>172</v>
+      </c>
+      <c r="D43" s="96">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="272"/>
+      <c r="G43" s="266"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1">
       <c r="B44" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="97">
+        <v>173</v>
+      </c>
+      <c r="D44" s="96">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="272"/>
+      <c r="G44" s="266"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1">
       <c r="B45" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="97">
+        <v>174</v>
+      </c>
+      <c r="D45" s="96">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="272"/>
+      <c r="G45" s="266"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1">
       <c r="B46" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="97">
+        <v>175</v>
+      </c>
+      <c r="D46" s="96">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="272"/>
+      <c r="G46" s="266"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1">
       <c r="B47" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="97">
+        <v>176</v>
+      </c>
+      <c r="D47" s="96">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="272"/>
+      <c r="G47" s="266"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1">
       <c r="B48" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="97">
+        <v>202</v>
+      </c>
+      <c r="D48" s="96">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="272"/>
+      <c r="G48" s="266"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="100">
+        <v>177</v>
+      </c>
+      <c r="D49" s="99">
         <f>SUM(D50:D54)/(5*4)</f>
         <v>0.29727891156462583</v>
       </c>
@@ -15054,83 +15738,83 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="272"/>
+      <c r="G49" s="266"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="97">
+        <v>178</v>
+      </c>
+      <c r="D50" s="96">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="272"/>
+        <v>168</v>
+      </c>
+      <c r="G50" s="266"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="97">
+        <v>179</v>
+      </c>
+      <c r="D51" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="272"/>
+      <c r="G51" s="266"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" s="97">
+        <v>268</v>
+      </c>
+      <c r="D52" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="272"/>
+        <v>168</v>
+      </c>
+      <c r="G52" s="266"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53" s="97">
+        <v>269</v>
+      </c>
+      <c r="D53" s="96">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" s="52"/>
-      <c r="G53" s="272"/>
+      <c r="G53" s="266"/>
       <c r="H53" s="52"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" s="101">
+        <v>270</v>
+      </c>
+      <c r="D54" s="100">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="272"/>
+      <c r="G54" s="266"/>
       <c r="H54" s="52"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="102">
+        <v>180</v>
+      </c>
+      <c r="D55" s="101">
         <f>SUM(D56:D61)/(6*4)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -15139,104 +15823,104 @@
         <v>Very High</v>
       </c>
       <c r="F55" s="52"/>
-      <c r="G55" s="272"/>
+      <c r="G55" s="266"/>
       <c r="H55" s="52"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="97">
+        <v>181</v>
+      </c>
+      <c r="D56" s="96">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F56" s="52"/>
-      <c r="G56" s="272"/>
+      <c r="G56" s="266"/>
       <c r="H56" s="52"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="97">
+        <v>182</v>
+      </c>
+      <c r="D57" s="96">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="52"/>
-      <c r="G57" s="272"/>
+      <c r="G57" s="266"/>
       <c r="H57" s="52"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="97">
+        <v>203</v>
+      </c>
+      <c r="D58" s="96">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F58" s="52"/>
-      <c r="G58" s="272"/>
+      <c r="G58" s="266"/>
       <c r="H58" s="52"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="97">
+        <v>204</v>
+      </c>
+      <c r="D59" s="96">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" s="52"/>
-      <c r="G59" s="272"/>
+      <c r="G59" s="266"/>
       <c r="H59" s="52"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
       <c r="B60" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="97">
+        <v>205</v>
+      </c>
+      <c r="D60" s="96">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F60" s="52"/>
-      <c r="G60" s="272"/>
+      <c r="G60" s="266"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
       <c r="B61" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="97">
+        <v>206</v>
+      </c>
+      <c r="D61" s="96">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" s="52"/>
-      <c r="G61" s="272"/>
+      <c r="G61" s="266"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
-      <c r="B62" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="123">
+      <c r="B62" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="120">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
         <v>0.4972108843537415</v>
       </c>
@@ -15245,199 +15929,199 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="52"/>
-      <c r="G62" s="272"/>
+      <c r="G62" s="266"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="D63" s="6"/>
-      <c r="G63" s="272"/>
+      <c r="G63" s="266"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
-      <c r="B64" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="91">
+      <c r="B64" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="90">
         <f>E64*4</f>
         <v>1.9472108843537415</v>
       </c>
-      <c r="E64" s="122">
+      <c r="E64" s="119">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.48680272108843536</v>
       </c>
-      <c r="G64" s="272"/>
+      <c r="G64" s="266"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1">
-      <c r="G65" s="273"/>
+      <c r="G65" s="267"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
       <c r="B66" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="54"/>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1">
-      <c r="B67" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="105"/>
+      <c r="B67" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="104"/>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1">
-      <c r="B68" s="106" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104">
+      <c r="B68" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103">
         <v>1</v>
       </c>
-      <c r="E68" s="107">
+      <c r="E68" s="106">
         <f t="shared" ref="E68:E76" si="8">D68/MAX($D$68:$D$77)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1">
-      <c r="B69" s="106" t="str">
+      <c r="B69" s="105" t="str">
         <f t="shared" ref="B69:B77" si="9">C69&amp;", "&amp;D69&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C69" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="104">
+      <c r="C69" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="103">
         <v>6.6</v>
       </c>
-      <c r="E69" s="107">
+      <c r="E69" s="106">
         <f t="shared" si="8"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1">
-      <c r="B70" s="106" t="str">
+      <c r="B70" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C70" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="104">
+      <c r="C70" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="103">
         <v>11.4</v>
       </c>
-      <c r="E70" s="107">
+      <c r="E70" s="106">
         <f t="shared" si="8"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15" customHeight="1">
-      <c r="B71" s="106" t="str">
+      <c r="B71" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C71" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="104">
+      <c r="C71" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="103">
         <v>12.4</v>
       </c>
-      <c r="E71" s="107">
+      <c r="E71" s="106">
         <f t="shared" si="8"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15" customHeight="1">
-      <c r="B72" s="106" t="str">
+      <c r="B72" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C72" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="104">
+      <c r="C72" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="103">
         <v>15.1</v>
       </c>
-      <c r="E72" s="107">
+      <c r="E72" s="106">
         <f t="shared" si="8"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1">
-      <c r="B73" s="106" t="str">
+      <c r="B73" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C73" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="104">
+      <c r="C73" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="103">
         <v>15.4</v>
       </c>
-      <c r="E73" s="107">
+      <c r="E73" s="106">
         <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1">
-      <c r="B74" s="106" t="str">
+      <c r="B74" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C74" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="104">
+      <c r="C74" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="103">
         <v>16.100000000000001</v>
       </c>
-      <c r="E74" s="107">
+      <c r="E74" s="106">
         <f t="shared" si="8"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" customHeight="1">
-      <c r="B75" s="106" t="str">
+      <c r="B75" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C75" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="104">
+      <c r="C75" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="103">
         <v>17.600000000000001</v>
       </c>
-      <c r="E75" s="107">
+      <c r="E75" s="106">
         <f t="shared" si="8"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1">
-      <c r="B76" s="106" t="str">
+      <c r="B76" s="105" t="str">
         <f t="shared" si="9"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C76" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="104">
+      <c r="C76" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="103">
         <v>18.600000000000001</v>
       </c>
-      <c r="E76" s="107">
+      <c r="E76" s="106">
         <f t="shared" si="8"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="108" t="str">
+      <c r="B77" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C77" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="109">
+      <c r="C77" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="108">
         <v>29.4</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="109">
         <f>D77/MAX($D$69:$D$77)</f>
         <v>1</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CA0E5-C677-45E2-8D58-0947A50C16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB97DBD-EF9B-4368-95B5-A92FA75D9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4343,170 +4343,6 @@
     <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4555,10 +4391,174 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5030,8 +5030,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5075,27 +5075,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="431" t="s">
+      <c r="C3" s="418" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="432"/>
+      <c r="D3" s="419"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="441" t="s">
+      <c r="I3" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="442"/>
+      <c r="J3" s="431"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="433" t="s">
+      <c r="C4" s="420" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="434"/>
+      <c r="D4" s="421"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -5112,10 +5112,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="435">
+      <c r="C5" s="422">
         <v>44956</v>
       </c>
-      <c r="D5" s="434"/>
+      <c r="D5" s="421"/>
       <c r="E5" s="118" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -5123,10 +5123,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="406">
+      <c r="I5" s="432">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="407"/>
+      <c r="J5" s="433"/>
       <c r="K5" s="144"/>
       <c r="L5" s="83"/>
     </row>
@@ -5149,11 +5149,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="126"/>
-      <c r="I6" s="443">
+      <c r="I6" s="434">
         <f>I4*I5/1000000</f>
         <v>75017.857812479997</v>
       </c>
-      <c r="J6" s="444"/>
+      <c r="J6" s="435"/>
       <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -5227,30 +5227,30 @@
       <c r="B11" s="280" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="404">
+      <c r="C11" s="449">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="405"/>
+      <c r="D11" s="450"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="453" t="s">
+      <c r="I11" s="447" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="454"/>
+      <c r="J11" s="448"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="451">
+      <c r="C12" s="445">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="452"/>
+      <c r="D12" s="446"/>
       <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
@@ -5318,28 +5318,28 @@
         <f>I4</f>
         <v>9.18</v>
       </c>
-      <c r="C16" s="427">
+      <c r="C16" s="466">
         <v>0.2</v>
       </c>
       <c r="D16" s="152">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>1.0352268859624481E-2</v>
       </c>
-      <c r="E16" s="418" t="s">
+      <c r="E16" s="439" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="445">
+      <c r="F16" s="436">
         <f>('Val Models'!G16)*Exchange_Rate</f>
         <v>5.902449981989065</v>
       </c>
-      <c r="G16" s="418" t="s">
+      <c r="G16" s="439" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="343">
         <f>B16-$F$16</f>
         <v>3.2775500180109347</v>
       </c>
-      <c r="I16" s="413">
+      <c r="I16" s="457">
         <v>0.42</v>
       </c>
       <c r="J16" s="154">
@@ -5352,19 +5352,19 @@
         <f ca="1">MIN((I37+I38)/2,E14,I37/(1+C16))</f>
         <v>9.2591948567761264</v>
       </c>
-      <c r="C17" s="428"/>
+      <c r="C17" s="467"/>
       <c r="D17" s="260">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="419"/>
-      <c r="F17" s="446"/>
-      <c r="G17" s="419"/>
+      <c r="E17" s="440"/>
+      <c r="F17" s="437"/>
+      <c r="G17" s="440"/>
       <c r="H17" s="344">
         <f ca="1">B17-$F$16</f>
         <v>3.3567448747870614</v>
       </c>
-      <c r="I17" s="414"/>
+      <c r="I17" s="458"/>
       <c r="J17" s="155">
         <f ca="1">I16/B17</f>
         <v>4.5360315502231033E-2</v>
@@ -5375,19 +5375,19 @@
         <f>C37</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="C18" s="429"/>
+      <c r="C18" s="468"/>
       <c r="D18" s="153">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.13867877447365662</v>
       </c>
-      <c r="E18" s="420"/>
-      <c r="F18" s="447"/>
-      <c r="G18" s="420"/>
+      <c r="E18" s="441"/>
+      <c r="F18" s="438"/>
+      <c r="G18" s="441"/>
       <c r="H18" s="345">
         <f>B18-$F$16</f>
         <v>2.3975500180109357</v>
       </c>
-      <c r="I18" s="415"/>
+      <c r="I18" s="459"/>
       <c r="J18" s="156">
         <f>I16/B18</f>
         <v>5.060240963855421E-2</v>
@@ -5420,84 +5420,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="438" t="s">
+      <c r="C21" s="425" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="439"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="439"/>
-      <c r="G21" s="439"/>
-      <c r="H21" s="439"/>
-      <c r="I21" s="439"/>
-      <c r="J21" s="440"/>
+      <c r="D21" s="426"/>
+      <c r="E21" s="426"/>
+      <c r="F21" s="426"/>
+      <c r="G21" s="426"/>
+      <c r="H21" s="426"/>
+      <c r="I21" s="426"/>
+      <c r="J21" s="427"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="449" t="s">
+      <c r="C22" s="443" t="s">
         <v>368</v>
       </c>
-      <c r="D22" s="450"/>
-      <c r="E22" s="450"/>
-      <c r="F22" s="450"/>
-      <c r="G22" s="449" t="s">
+      <c r="D22" s="444"/>
+      <c r="E22" s="444"/>
+      <c r="F22" s="444"/>
+      <c r="G22" s="443" t="s">
         <v>371</v>
       </c>
-      <c r="H22" s="449"/>
-      <c r="I22" s="450"/>
-      <c r="J22" s="450"/>
+      <c r="H22" s="443"/>
+      <c r="I22" s="444"/>
+      <c r="J22" s="444"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="416" t="s">
+      <c r="C23" s="428" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="416" t="s">
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
+      <c r="G23" s="428" t="s">
         <v>370</v>
       </c>
-      <c r="H23" s="416"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
+      <c r="H23" s="428"/>
+      <c r="I23" s="429"/>
+      <c r="J23" s="429"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="455" t="s">
+      <c r="C24" s="393" t="s">
         <v>380</v>
       </c>
-      <c r="D24" s="456"/>
-      <c r="E24" s="456"/>
-      <c r="F24" s="456"/>
-      <c r="G24" s="456"/>
-      <c r="H24" s="456"/>
-      <c r="I24" s="456"/>
-      <c r="J24" s="457"/>
+      <c r="D24" s="394"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="394"/>
+      <c r="G24" s="394"/>
+      <c r="H24" s="394"/>
+      <c r="I24" s="394"/>
+      <c r="J24" s="395"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="350" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="458" t="s">
+      <c r="C25" s="396" t="s">
         <v>381</v>
       </c>
-      <c r="D25" s="459"/>
-      <c r="E25" s="459"/>
-      <c r="F25" s="459"/>
-      <c r="G25" s="459"/>
-      <c r="H25" s="459"/>
-      <c r="I25" s="459"/>
-      <c r="J25" s="460"/>
+      <c r="D25" s="397"/>
+      <c r="E25" s="397"/>
+      <c r="F25" s="397"/>
+      <c r="G25" s="397"/>
+      <c r="H25" s="397"/>
+      <c r="I25" s="397"/>
+      <c r="J25" s="398"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5537,211 +5537,211 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="423">
         <v>44988</v>
       </c>
-      <c r="D28" s="437"/>
-      <c r="E28" s="424" t="str">
+      <c r="D28" s="424"/>
+      <c r="E28" s="463" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="425"/>
-      <c r="G28" s="425"/>
-      <c r="H28" s="426"/>
-      <c r="I28" s="448" t="s">
+      <c r="F28" s="464"/>
+      <c r="G28" s="464"/>
+      <c r="H28" s="465"/>
+      <c r="I28" s="442" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="448"/>
+      <c r="J28" s="442"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="412">
+      <c r="C29" s="456">
         <f>C33/D27</f>
         <v>0.28915151515151516</v>
       </c>
-      <c r="D29" s="403"/>
-      <c r="E29" s="411">
+      <c r="D29" s="455"/>
+      <c r="E29" s="454">
         <f>E33/D27</f>
-        <v>0.12575757575757576</v>
-      </c>
-      <c r="F29" s="403"/>
-      <c r="G29" s="422">
+        <v>0.18863636363636366</v>
+      </c>
+      <c r="F29" s="455"/>
+      <c r="G29" s="461">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="423"/>
-      <c r="I29" s="421">
+      <c r="H29" s="462"/>
+      <c r="I29" s="460">
         <f>C29+E29+G29</f>
-        <v>0.41490909090909089</v>
-      </c>
-      <c r="J29" s="421"/>
+        <v>0.47778787878787882</v>
+      </c>
+      <c r="J29" s="460"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="393">
+      <c r="C30" s="470">
         <v>20000</v>
       </c>
-      <c r="D30" s="394"/>
-      <c r="E30" s="393">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="394"/>
-      <c r="G30" s="406"/>
-      <c r="H30" s="407"/>
-      <c r="I30" s="430">
+      <c r="D30" s="471"/>
+      <c r="E30" s="470">
+        <v>15000</v>
+      </c>
+      <c r="F30" s="471"/>
+      <c r="G30" s="432"/>
+      <c r="H30" s="433"/>
+      <c r="I30" s="469">
         <f>C30+E30+G30</f>
-        <v>30000</v>
-      </c>
-      <c r="J30" s="430"/>
+        <v>35000</v>
+      </c>
+      <c r="J30" s="469"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="395">
+      <c r="C31" s="472">
         <v>9.5419999999999998</v>
       </c>
-      <c r="D31" s="394"/>
-      <c r="E31" s="395">
+      <c r="D31" s="471"/>
+      <c r="E31" s="472">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F31" s="394"/>
-      <c r="G31" s="409"/>
-      <c r="H31" s="410"/>
-      <c r="I31" s="408"/>
-      <c r="J31" s="408"/>
+      <c r="F31" s="471"/>
+      <c r="G31" s="452"/>
+      <c r="H31" s="453"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="451"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="396">
+      <c r="C32" s="411">
         <f>C31*$I$5/1000000</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="D32" s="397"/>
-      <c r="E32" s="396">
+      <c r="D32" s="473"/>
+      <c r="E32" s="411">
         <f>E31*$I$5/1000000</f>
         <v>67826.603468800007</v>
       </c>
-      <c r="F32" s="397"/>
-      <c r="G32" s="468">
+      <c r="F32" s="473"/>
+      <c r="G32" s="406">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="469"/>
-      <c r="I32" s="472"/>
-      <c r="J32" s="472"/>
+      <c r="H32" s="407"/>
+      <c r="I32" s="410"/>
+      <c r="J32" s="410"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="398">
+      <c r="C33" s="474">
         <f>C30*C31</f>
         <v>190840</v>
       </c>
-      <c r="D33" s="399"/>
-      <c r="E33" s="400">
+      <c r="D33" s="475"/>
+      <c r="E33" s="412">
         <f>E30*E31</f>
-        <v>83000</v>
-      </c>
-      <c r="F33" s="401"/>
-      <c r="G33" s="470">
+        <v>124500.00000000001</v>
+      </c>
+      <c r="F33" s="476"/>
+      <c r="G33" s="408">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="471"/>
-      <c r="I33" s="400">
+      <c r="H33" s="409"/>
+      <c r="I33" s="412">
         <f>C33+E33+G33</f>
-        <v>273840</v>
-      </c>
-      <c r="J33" s="400"/>
+        <v>315340</v>
+      </c>
+      <c r="J33" s="412"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="473"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="402">
+      <c r="C34" s="414"/>
+      <c r="D34" s="415"/>
+      <c r="E34" s="413">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>9.1280000000000001</v>
-      </c>
-      <c r="F34" s="403"/>
+        <v>9.0097142857142849</v>
+      </c>
+      <c r="F34" s="455"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="402">
+      <c r="I34" s="413">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>9.1280000000000001</v>
-      </c>
-      <c r="J34" s="402"/>
+        <v>9.0097142857142849</v>
+      </c>
+      <c r="J34" s="413"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="475"/>
-      <c r="D35" s="476"/>
-      <c r="E35" s="396">
+      <c r="C35" s="416"/>
+      <c r="D35" s="417"/>
+      <c r="E35" s="411">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>74592.920055808005</v>
-      </c>
-      <c r="F35" s="397"/>
+        <v>73626.303400521138</v>
+      </c>
+      <c r="F35" s="473"/>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
-      <c r="I35" s="396">
+      <c r="I35" s="411">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>74592.920055808005</v>
-      </c>
-      <c r="J35" s="396"/>
+        <v>73626.303400521138</v>
+      </c>
+      <c r="J35" s="411"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="464">
+      <c r="C37" s="402">
         <f>E31</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D37" s="465"/>
+      <c r="D37" s="403"/>
       <c r="E37" s="149" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
-      <c r="G37" s="461" t="s">
+      <c r="G37" s="399" t="s">
         <v>356</v>
       </c>
-      <c r="H37" s="461"/>
-      <c r="I37" s="462">
+      <c r="H37" s="399"/>
+      <c r="I37" s="400">
         <f ca="1">'Val Models'!C48</f>
         <v>11.111033828131351</v>
       </c>
-      <c r="J37" s="463"/>
+      <c r="J37" s="401"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="C38" s="464">
+      <c r="C38" s="402">
         <f>E34</f>
-        <v>9.1280000000000001</v>
-      </c>
-      <c r="D38" s="465"/>
-      <c r="G38" s="466" t="s">
+        <v>9.0097142857142849</v>
+      </c>
+      <c r="D38" s="403"/>
+      <c r="G38" s="404" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="467"/>
-      <c r="I38" s="462">
+      <c r="H38" s="405"/>
+      <c r="I38" s="400">
         <f ca="1">'Val Models'!C49</f>
         <v>9.6146878416470685</v>
       </c>
-      <c r="J38" s="463"/>
+      <c r="J38" s="401"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="F47" s="321">
         <f ca="1">I37/C38-1</f>
-        <v>0.21724735189870192</v>
+        <v>0.23322821077122247</v>
       </c>
       <c r="J47" s="348"/>
     </row>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="F48" s="321">
         <f ca="1">'Val Models'!C49/C38-1</f>
-        <v>5.3318124632676156E-2</v>
+        <v>6.7146808072706898E-2</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="F50" s="321">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/C16))</f>
-        <v>0.69060789611638906</v>
+        <v>0.70658875498890961</v>
       </c>
       <c r="G50" s="72"/>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="F52" s="346">
         <f ca="1">MAX(C16*2/F47,1)</f>
-        <v>1.8412192208746092</v>
+        <v>1.7150583914240412</v>
       </c>
       <c r="G52" s="322"/>
       <c r="H52" s="83"/>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F53" s="319">
         <f ca="1">IF(D18&lt;0,0,MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53))</f>
-        <v>0.3734014761973713</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="322" t="s">
         <v>301</v>
@@ -6864,6 +6864,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -6880,46 +6920,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -11493,7 +11493,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="399"/>
+      <c r="E53" s="475"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11512,7 +11512,7 @@
       <c r="D54" s="487">
         <v>0</v>
       </c>
-      <c r="E54" s="394"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="6" t="s">
         <v>128</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="D55" s="487">
         <v>0</v>
       </c>
-      <c r="E55" s="394"/>
+      <c r="E55" s="471"/>
       <c r="F55" s="5" t="s">
         <v>129</v>
       </c>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB97DBD-EF9B-4368-95B5-A92FA75D9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84179C-CF26-47D5-A4D4-988873991ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4343,6 +4343,170 @@
     <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4391,174 +4555,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5030,8 +5030,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5075,27 +5075,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="418" t="s">
+      <c r="C3" s="431" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="419"/>
+      <c r="D3" s="432"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="430" t="s">
+      <c r="I3" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="431"/>
+      <c r="J3" s="442"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="420" t="s">
+      <c r="C4" s="433" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="421"/>
+      <c r="D4" s="434"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -5112,10 +5112,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="422">
+      <c r="C5" s="435">
         <v>44956</v>
       </c>
-      <c r="D5" s="421"/>
+      <c r="D5" s="434"/>
       <c r="E5" s="118" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -5123,10 +5123,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="432">
+      <c r="I5" s="406">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="433"/>
+      <c r="J5" s="407"/>
       <c r="K5" s="144"/>
       <c r="L5" s="83"/>
     </row>
@@ -5149,11 +5149,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="126"/>
-      <c r="I6" s="434">
+      <c r="I6" s="443">
         <f>I4*I5/1000000</f>
         <v>75017.857812479997</v>
       </c>
-      <c r="J6" s="435"/>
+      <c r="J6" s="444"/>
       <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -5227,30 +5227,30 @@
       <c r="B11" s="280" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="449">
+      <c r="C11" s="404">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="450"/>
+      <c r="D11" s="405"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="447" t="s">
+      <c r="I11" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="448"/>
+      <c r="J11" s="454"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="445">
+      <c r="C12" s="451">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="446"/>
+      <c r="D12" s="452"/>
       <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="D14" s="231"/>
       <c r="E14" s="184">
         <f ca="1">'Val Models'!C44</f>
-        <v>10.554332113765554</v>
+        <v>10.006170793198937</v>
       </c>
       <c r="F14" s="177"/>
       <c r="G14" s="178"/>
@@ -5318,28 +5318,28 @@
         <f>I4</f>
         <v>9.18</v>
       </c>
-      <c r="C16" s="466">
+      <c r="C16" s="427">
         <v>0.2</v>
       </c>
       <c r="D16" s="152">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>1.0352268859624481E-2</v>
-      </c>
-      <c r="E16" s="439" t="s">
+        <v>-2.0292055554248956E-2</v>
+      </c>
+      <c r="E16" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="436">
+      <c r="F16" s="445">
         <f>('Val Models'!G16)*Exchange_Rate</f>
-        <v>5.902449981989065</v>
-      </c>
-      <c r="G16" s="439" t="s">
+        <v>5.6202611458020337</v>
+      </c>
+      <c r="G16" s="418" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="343">
         <f>B16-$F$16</f>
-        <v>3.2775500180109347</v>
-      </c>
-      <c r="I16" s="457">
+        <v>3.559738854197966</v>
+      </c>
+      <c r="I16" s="413">
         <v>0.42</v>
       </c>
       <c r="J16" s="154">
@@ -5350,47 +5350,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="261">
         <f ca="1">MIN((I37+I38)/2,E14,I37/(1+C16))</f>
-        <v>9.2591948567761264</v>
-      </c>
-      <c r="C17" s="467"/>
+        <v>9.0247657750099961</v>
+      </c>
+      <c r="C17" s="428"/>
       <c r="D17" s="260">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="440"/>
-      <c r="F17" s="437"/>
-      <c r="G17" s="440"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="446"/>
+      <c r="G17" s="419"/>
       <c r="H17" s="344">
         <f ca="1">B17-$F$16</f>
-        <v>3.3567448747870614</v>
-      </c>
-      <c r="I17" s="458"/>
+        <v>3.4045046292079624</v>
+      </c>
+      <c r="I17" s="414"/>
       <c r="J17" s="155">
         <f ca="1">I16/B17</f>
-        <v>4.5360315502231033E-2</v>
+        <v>4.6538603933965784E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="315">
         <f>C37</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C18" s="468"/>
+        <v>8.25</v>
+      </c>
+      <c r="C18" s="429"/>
       <c r="D18" s="153">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.13867877447365662</v>
-      </c>
-      <c r="E18" s="441"/>
-      <c r="F18" s="438"/>
-      <c r="G18" s="441"/>
+        <v>0.11269320363781743</v>
+      </c>
+      <c r="E18" s="420"/>
+      <c r="F18" s="447"/>
+      <c r="G18" s="420"/>
       <c r="H18" s="345">
         <f>B18-$F$16</f>
-        <v>2.3975500180109357</v>
-      </c>
-      <c r="I18" s="459"/>
+        <v>2.6297388541979663</v>
+      </c>
+      <c r="I18" s="415"/>
       <c r="J18" s="156">
         <f>I16/B18</f>
-        <v>5.060240963855421E-2</v>
+        <v>5.0909090909090904E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -5420,84 +5420,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="425" t="s">
+      <c r="C21" s="438" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="426"/>
-      <c r="E21" s="426"/>
-      <c r="F21" s="426"/>
-      <c r="G21" s="426"/>
-      <c r="H21" s="426"/>
-      <c r="I21" s="426"/>
-      <c r="J21" s="427"/>
+      <c r="D21" s="439"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="439"/>
+      <c r="I21" s="439"/>
+      <c r="J21" s="440"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="443" t="s">
+      <c r="C22" s="449" t="s">
         <v>368</v>
       </c>
-      <c r="D22" s="444"/>
-      <c r="E22" s="444"/>
-      <c r="F22" s="444"/>
-      <c r="G22" s="443" t="s">
+      <c r="D22" s="450"/>
+      <c r="E22" s="450"/>
+      <c r="F22" s="450"/>
+      <c r="G22" s="449" t="s">
         <v>371</v>
       </c>
-      <c r="H22" s="443"/>
-      <c r="I22" s="444"/>
-      <c r="J22" s="444"/>
+      <c r="H22" s="449"/>
+      <c r="I22" s="450"/>
+      <c r="J22" s="450"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="428" t="s">
+      <c r="C23" s="416" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="429"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="429"/>
-      <c r="G23" s="428" t="s">
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="416" t="s">
         <v>370</v>
       </c>
-      <c r="H23" s="428"/>
-      <c r="I23" s="429"/>
-      <c r="J23" s="429"/>
+      <c r="H23" s="416"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="393" t="s">
+      <c r="C24" s="455" t="s">
         <v>380</v>
       </c>
-      <c r="D24" s="394"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="394"/>
-      <c r="G24" s="394"/>
-      <c r="H24" s="394"/>
-      <c r="I24" s="394"/>
-      <c r="J24" s="395"/>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
+      <c r="G24" s="456"/>
+      <c r="H24" s="456"/>
+      <c r="I24" s="456"/>
+      <c r="J24" s="457"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="350" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="396" t="s">
+      <c r="C25" s="458" t="s">
         <v>381</v>
       </c>
-      <c r="D25" s="397"/>
-      <c r="E25" s="397"/>
-      <c r="F25" s="397"/>
-      <c r="G25" s="397"/>
-      <c r="H25" s="397"/>
-      <c r="I25" s="397"/>
-      <c r="J25" s="398"/>
+      <c r="D25" s="459"/>
+      <c r="E25" s="459"/>
+      <c r="F25" s="459"/>
+      <c r="G25" s="459"/>
+      <c r="H25" s="459"/>
+      <c r="I25" s="459"/>
+      <c r="J25" s="460"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5537,211 +5537,211 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="423">
+      <c r="C28" s="436">
         <v>44988</v>
       </c>
-      <c r="D28" s="424"/>
-      <c r="E28" s="463" t="str">
+      <c r="D28" s="437"/>
+      <c r="E28" s="424" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="464"/>
-      <c r="G28" s="464"/>
-      <c r="H28" s="465"/>
-      <c r="I28" s="442" t="s">
+      <c r="F28" s="425"/>
+      <c r="G28" s="425"/>
+      <c r="H28" s="426"/>
+      <c r="I28" s="448" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="442"/>
+      <c r="J28" s="448"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="456">
+      <c r="C29" s="412">
         <f>C33/D27</f>
         <v>0.28915151515151516</v>
       </c>
-      <c r="D29" s="455"/>
-      <c r="E29" s="454">
+      <c r="D29" s="403"/>
+      <c r="E29" s="411">
         <f>E33/D27</f>
-        <v>0.18863636363636366</v>
-      </c>
-      <c r="F29" s="455"/>
-      <c r="G29" s="461">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="403"/>
+      <c r="G29" s="422">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="462"/>
-      <c r="I29" s="460">
+      <c r="H29" s="423"/>
+      <c r="I29" s="421">
         <f>C29+E29+G29</f>
-        <v>0.47778787878787882</v>
-      </c>
-      <c r="J29" s="460"/>
+        <v>0.53915151515151516</v>
+      </c>
+      <c r="J29" s="421"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="470">
+      <c r="C30" s="393">
         <v>20000</v>
       </c>
-      <c r="D30" s="471"/>
-      <c r="E30" s="470">
-        <v>15000</v>
-      </c>
-      <c r="F30" s="471"/>
-      <c r="G30" s="432"/>
-      <c r="H30" s="433"/>
-      <c r="I30" s="469">
+      <c r="D30" s="394"/>
+      <c r="E30" s="393">
+        <v>20000</v>
+      </c>
+      <c r="F30" s="394"/>
+      <c r="G30" s="406"/>
+      <c r="H30" s="407"/>
+      <c r="I30" s="430">
         <f>C30+E30+G30</f>
-        <v>35000</v>
-      </c>
-      <c r="J30" s="469"/>
+        <v>40000</v>
+      </c>
+      <c r="J30" s="430"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="472">
+      <c r="C31" s="395">
         <v>9.5419999999999998</v>
       </c>
-      <c r="D31" s="471"/>
-      <c r="E31" s="472">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F31" s="471"/>
-      <c r="G31" s="452"/>
-      <c r="H31" s="453"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="451"/>
+      <c r="D31" s="394"/>
+      <c r="E31" s="395">
+        <v>8.25</v>
+      </c>
+      <c r="F31" s="394"/>
+      <c r="G31" s="409"/>
+      <c r="H31" s="410"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="408"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="411">
+      <c r="C32" s="396">
         <f>C31*$I$5/1000000</f>
         <v>77976.078349311996</v>
       </c>
-      <c r="D32" s="473"/>
-      <c r="E32" s="411">
+      <c r="D32" s="397"/>
+      <c r="E32" s="396">
         <f>E31*$I$5/1000000</f>
-        <v>67826.603468800007</v>
-      </c>
-      <c r="F32" s="473"/>
-      <c r="G32" s="406">
+        <v>67418.009472000005</v>
+      </c>
+      <c r="F32" s="397"/>
+      <c r="G32" s="468">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="407"/>
-      <c r="I32" s="410"/>
-      <c r="J32" s="410"/>
+      <c r="H32" s="469"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="472"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="474">
+      <c r="C33" s="398">
         <f>C30*C31</f>
         <v>190840</v>
       </c>
-      <c r="D33" s="475"/>
-      <c r="E33" s="412">
+      <c r="D33" s="399"/>
+      <c r="E33" s="400">
         <f>E30*E31</f>
-        <v>124500.00000000001</v>
-      </c>
-      <c r="F33" s="476"/>
-      <c r="G33" s="408">
+        <v>165000</v>
+      </c>
+      <c r="F33" s="401"/>
+      <c r="G33" s="470">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="409"/>
-      <c r="I33" s="412">
+      <c r="H33" s="471"/>
+      <c r="I33" s="400">
         <f>C33+E33+G33</f>
-        <v>315340</v>
-      </c>
-      <c r="J33" s="412"/>
+        <v>355840</v>
+      </c>
+      <c r="J33" s="400"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="414"/>
-      <c r="D34" s="415"/>
-      <c r="E34" s="413">
+      <c r="C34" s="473"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="402">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>9.0097142857142849</v>
-      </c>
-      <c r="F34" s="455"/>
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="F34" s="403"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="413">
+      <c r="I34" s="402">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>9.0097142857142849</v>
-      </c>
-      <c r="J34" s="413"/>
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="J34" s="402"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="416"/>
-      <c r="D35" s="417"/>
-      <c r="E35" s="411">
+      <c r="C35" s="475"/>
+      <c r="D35" s="476"/>
+      <c r="E35" s="396">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>73626.303400521138</v>
-      </c>
-      <c r="F35" s="473"/>
+        <v>72697.043910656008</v>
+      </c>
+      <c r="F35" s="397"/>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
-      <c r="I35" s="411">
+      <c r="I35" s="396">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>73626.303400521138</v>
-      </c>
-      <c r="J35" s="411"/>
+        <v>72697.043910656008</v>
+      </c>
+      <c r="J35" s="396"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="402">
+      <c r="C37" s="464">
         <f>E31</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D37" s="403"/>
+        <v>8.25</v>
+      </c>
+      <c r="D37" s="465"/>
       <c r="E37" s="149" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
-      <c r="G37" s="399" t="s">
+      <c r="G37" s="461" t="s">
         <v>356</v>
       </c>
-      <c r="H37" s="399"/>
-      <c r="I37" s="400">
+      <c r="H37" s="461"/>
+      <c r="I37" s="462">
         <f ca="1">'Val Models'!C48</f>
-        <v>11.111033828131351</v>
-      </c>
-      <c r="J37" s="401"/>
+        <v>10.829718930011994</v>
+      </c>
+      <c r="J37" s="463"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="C38" s="402">
+      <c r="C38" s="464">
         <f>E34</f>
-        <v>9.0097142857142849</v>
-      </c>
-      <c r="D38" s="403"/>
-      <c r="G38" s="404" t="s">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="D38" s="465"/>
+      <c r="G38" s="466" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="405"/>
-      <c r="I38" s="400">
+      <c r="H38" s="467"/>
+      <c r="I38" s="462">
         <f ca="1">'Val Models'!C49</f>
-        <v>9.6146878416470685</v>
-      </c>
-      <c r="J38" s="401"/>
+        <v>9.020810158106908</v>
+      </c>
+      <c r="J38" s="463"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -5832,11 +5832,11 @@
       </c>
       <c r="E47" s="321">
         <f ca="1">I37/C31-1</f>
-        <v>0.16443448209299416</v>
+        <v>0.13495272794089241</v>
       </c>
       <c r="F47" s="321">
         <f ca="1">I37/C38-1</f>
-        <v>0.23322821077122247</v>
+        <v>0.21736948403911804</v>
       </c>
       <c r="J47" s="348"/>
     </row>
@@ -5846,11 +5846,11 @@
       </c>
       <c r="E48" s="321">
         <f ca="1">'Val Models'!C49/C31-1</f>
-        <v>7.617673616334919E-3</v>
+        <v>-5.4620608037423191E-2</v>
       </c>
       <c r="F48" s="321">
         <f ca="1">'Val Models'!C49/C38-1</f>
-        <v>6.7146808072706898E-2</v>
+        <v>1.4029918851945489E-2</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="E50" s="341">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/C16))</f>
-        <v>0.6377950263106813</v>
+        <v>0.60831327215857944</v>
       </c>
       <c r="F50" s="321">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/C16))</f>
-        <v>0.70658875498890961</v>
+        <v>0.69073002825680518</v>
       </c>
       <c r="G50" s="72"/>
     </row>
@@ -5875,7 +5875,7 @@
       <c r="D51" s="318"/>
       <c r="E51" s="320">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>100</v>
+        <v>2.4707291403352714</v>
       </c>
       <c r="F51" s="320">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -5889,11 +5889,11 @@
       </c>
       <c r="E52" s="346">
         <f ca="1">MAX(C16*2/E47,1)</f>
-        <v>2.4325798026583274</v>
+        <v>2.9640008475797166</v>
       </c>
       <c r="F52" s="346">
         <f ca="1">MAX(C16*2/F47,1)</f>
-        <v>1.7150583914240412</v>
+        <v>1.840184705632441</v>
       </c>
       <c r="G52" s="322"/>
       <c r="H52" s="83"/>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F53" s="319">
         <f ca="1">IF(D18&lt;0,0,MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53))</f>
-        <v>0.4</v>
+        <v>0.37367842827660264</v>
       </c>
       <c r="G53" s="322" t="s">
         <v>301</v>
@@ -6864,14 +6864,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -6888,38 +6912,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10465,8 +10465,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10557,11 +10557,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="58">
         <f>E46-I46-E50</f>
-        <v>100759509.80375999</v>
+        <v>94693138.395559996</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.37061101193237955</v>
+        <v>0.40850428244635406</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="D7" s="60">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>12.330028168901379</v>
+        <v>11.587681064476177</v>
       </c>
       <c r="E7" s="48" t="str">
         <f>Dashboard!J4</f>
@@ -10844,11 +10844,11 @@
         <v>8609555.8550000004</v>
       </c>
       <c r="D19" s="64">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="0"/>
-        <v>5596211.3057500003</v>
+        <v>5165733.5130000003</v>
       </c>
       <c r="F19" s="195" t="s">
         <v>224</v>
@@ -10995,11 +10995,11 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.84121951076510693</v>
+        <v>0.83484556270934451</v>
       </c>
       <c r="E26" s="26">
         <f>SUM(E11:E22)</f>
-        <v>56813503.192109995</v>
+        <v>56383025.399359994</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>56</v>
@@ -11155,11 +11155,11 @@
         <v>23060132.886</v>
       </c>
       <c r="D33" s="64">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E33" s="208">
         <f t="shared" si="3"/>
-        <v>11530066.443</v>
+        <v>9224053.1544000003</v>
       </c>
       <c r="F33" s="195" t="s">
         <v>225</v>
@@ -11178,11 +11178,11 @@
         <v>66597606.537</v>
       </c>
       <c r="D34" s="64">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E34" s="208">
         <f t="shared" si="3"/>
-        <v>43288444.249049999</v>
+        <v>39958563.922200002</v>
       </c>
       <c r="F34" s="195" t="s">
         <v>224</v>
@@ -11315,11 +11315,11 @@
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.57229670105271435</v>
+        <v>0.52191046252789164</v>
       </c>
       <c r="E42" s="26">
         <f>SUM(E28:E40)</f>
-        <v>64013576.286649995</v>
+        <v>58377682.6712</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11377,11 +11377,11 @@
       </c>
       <c r="D45" s="67">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.71210991108916599</v>
+        <v>0.68789292720816242</v>
       </c>
       <c r="E45" s="26">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>67809225.376059994</v>
+        <v>65503212.087459996</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="I45" s="68">
         <f>E45/$I$46</f>
-        <v>3.5134488326629425</v>
+        <v>3.3939656848758375</v>
       </c>
       <c r="J45" s="13" t="str">
         <f>IF(OR(I45&lt;0.5,C46&lt;I46),"Liquidity Problem!","")</f>
@@ -11407,11 +11407,11 @@
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.67354074047347734</v>
+        <v>0.63972424579453069</v>
       </c>
       <c r="E46" s="26">
         <f>E26+E42</f>
-        <v>120827079.47875999</v>
+        <v>114760708.07055999</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -11493,7 +11493,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="475"/>
+      <c r="E53" s="399"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11512,7 +11512,7 @@
       <c r="D54" s="487">
         <v>0</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="394"/>
       <c r="F54" s="6" t="s">
         <v>128</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="D55" s="487">
         <v>0</v>
       </c>
-      <c r="E55" s="471"/>
+      <c r="E55" s="394"/>
       <c r="F55" s="5" t="s">
         <v>129</v>
       </c>
@@ -11556,11 +11556,11 @@
       </c>
       <c r="D58" s="122">
         <f>IF(E58=0,0,E58/C58)</f>
-        <v>0.50395821705236565</v>
+        <v>0.40791643410473138</v>
       </c>
       <c r="E58" s="209">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>12100299.5754</v>
+        <v>9794286.2868000008</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="G15" s="130">
         <f>C15+C16+C17+C18</f>
-        <v>48234112.581060007</v>
+        <v>45928099.292460009</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -13500,18 +13500,18 @@
       </c>
       <c r="C16" s="82">
         <f>Asset_Model!E58</f>
-        <v>12100299.5754</v>
+        <v>9794286.2868000008</v>
       </c>
       <c r="D16" s="207">
         <f>C16/(Dashboard!I5/Data!C4)</f>
-        <v>1.4807241014511157</v>
+        <v>1.1985352652640835</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>303</v>
       </c>
       <c r="G16" s="188">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>5.902449981989065</v>
+        <v>5.6202611458020337</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="G18" s="140">
         <f>SUM(D16:D18)</f>
-        <v>0.56206352043496455</v>
+        <v>0.27987468424793233</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -13618,11 +13618,11 @@
       </c>
       <c r="F22" s="332">
         <f ca="1">E22+$G$16</f>
-        <v>7.8888521605441149</v>
+        <v>7.6066633243570836</v>
       </c>
       <c r="G22" s="335">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
-        <v>7.89</v>
+        <v>7.61</v>
       </c>
       <c r="I22" s="72"/>
     </row>
@@ -13643,11 +13643,11 @@
       </c>
       <c r="F23" s="333">
         <f ca="1">E23+$G$16</f>
-        <v>9.2131202795808136</v>
+        <v>8.9309314433937832</v>
       </c>
       <c r="G23" s="336">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
-        <v>9.2100000000000009</v>
+        <v>8.93</v>
       </c>
       <c r="I23" s="72"/>
     </row>
@@ -13660,7 +13660,7 @@
       <c r="F24" s="493"/>
       <c r="G24" s="363">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>8.5325795918367344</v>
+        <v>8.2525795918367351</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -14032,7 +14032,7 @@
       <c r="F40" s="495"/>
       <c r="G40" s="387">
         <f>Asset_Model!D7</f>
-        <v>12.330028168901379</v>
+        <v>11.587681064476177</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
@@ -14042,7 +14042,7 @@
       <c r="F41" s="493"/>
       <c r="G41" s="363">
         <f ca="1">(G40+SUM(D39:G39))*Exchange_Rate</f>
-        <v>12.018359802058836</v>
+        <v>11.276012697633634</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.5" customHeight="1"/>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="C44" s="230">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*'Qualitative Analysis'!$E$8</f>
-        <v>10.554332113765554</v>
+        <v>10.006170793198937</v>
       </c>
       <c r="D44" s="115" t="str">
         <f>Dashboard!J4</f>
@@ -14076,11 +14076,11 @@
       </c>
       <c r="E44" s="116">
         <f ca="1">(C44-G16)/C9</f>
-        <v>9.2230449795731069</v>
+        <v>8.6957151553703316</v>
       </c>
       <c r="F44" s="151">
         <f ca="1">C44/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.54508970673434676</v>
+        <v>0.51677933235442164</v>
       </c>
       <c r="G44" s="85"/>
     </row>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="E47" s="116">
         <f>(C47-G16)/C9</f>
-        <v>11.490377337599577</v>
+        <v>12.049858479889927</v>
       </c>
       <c r="F47" s="151">
         <f>C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="C48" s="338">
         <f ca="1">MIN(C47,C44)+ABS(C47-C44)*'Qualitative Analysis'!E64</f>
-        <v>11.111033828131351</v>
+        <v>10.829718930011994</v>
       </c>
       <c r="D48" s="326" t="str">
         <f>D47</f>
@@ -14138,11 +14138,11 @@
       </c>
       <c r="E48" s="116">
         <f ca="1">(C48-G16)/C9</f>
-        <v>10.326788541072251</v>
+        <v>10.328521252667082</v>
       </c>
       <c r="F48" s="151">
         <f ca="1">C48/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.56989791980110882</v>
+        <v>0.55546894966861082</v>
       </c>
       <c r="I48" s="72"/>
     </row>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="C49" s="338">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>9.6146878416470685</v>
+        <v>9.020810158106908</v>
       </c>
       <c r="D49" s="326" t="str">
         <f>D47</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="E49" s="116">
         <f ca="1">(C49-G16)/C9</f>
-        <v>7.3600611074436015</v>
+        <v>6.7420918259064981</v>
       </c>
       <c r="F49" s="151">
         <f ca="1">C49/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.49314858412353507</v>
+        <v>0.46268790317331254</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26918835-832C-4D7B-A5BF-8A431E892914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{204B3A00-AA47-4DBC-BFC7-115680A7679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1464,34 +1475,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2311,7 +2322,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="391">
@@ -2359,7 +2370,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2459,7 +2470,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2476,8 +2487,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2486,7 +2497,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2511,7 +2522,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2530,16 +2541,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2569,14 +2580,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2670,7 +2681,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2703,7 +2714,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,7 +2734,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2731,7 +2742,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2741,7 +2752,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,7 +2773,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,7 +2782,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,10 +2827,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,13 +2839,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,7 +2854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,7 +2911,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2942,7 +2953,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2954,13 +2965,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2972,10 +2983,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,7 +3063,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3071,7 +3082,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3083,41 +3094,122 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3127,23 +3219,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3161,76 +3240,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10280,10 +10291,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -10492,13 +10499,13 @@
       <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10533,33 +10540,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
+      <c r="C3" s="333" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="349"/>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="335" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>8.8699999999999992</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10570,10 +10577,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>44956</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10581,10 +10588,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10607,11 +10614,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
-        <v>72484.57503231999</v>
-      </c>
-      <c r="J6" s="358"/>
+        <v>73301.763025919994</v>
+      </c>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10620,7 +10627,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.212878393283534E-2</v>
+        <v>4.1659120789771388E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10651,11 +10658,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>12.638111654769782</v>
+        <v>12.780593184135848</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.9125744993919833E-2</v>
+        <v>7.8243629665113584E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10666,7 +10673,7 @@
         <v>408</v>
       </c>
       <c r="D10" s="122">
-        <v>3.6799999999999999E-2</v>
+        <v>3.814E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="85" t="s">
@@ -10675,41 +10682,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.45810058340192339</v>
+        <v>0.46326518975369263</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.6601365673497028</v>
+        <v>4.71267474736492</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="D11" s="329"/>
+        <v>2.1859999999999997E-2</v>
+      </c>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10776,35 +10783,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="C16" s="344">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-3.5180259602634045E-3</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>-1.6856732471297597E-2</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="338" t="s">
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>3.2802207765892444</v>
-      </c>
-      <c r="I16" s="333">
+        <v>3.3802207765892458</v>
+      </c>
+      <c r="I16" s="364">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.7350620067643748E-2</v>
+        <v>4.6822742474916385E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10812,19 +10819,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.843995924777051</v>
       </c>
-      <c r="C17" s="345"/>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.2542167013662961</v>
       </c>
-      <c r="I17" s="334"/>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.7489845492052034E-2</v>
@@ -10835,19 +10842,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>9.4243306064934584E-2</v>
       </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="335"/>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10885,84 +10892,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
+      <c r="C21" s="340" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="355" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
+      <c r="C23" s="343" t="s">
         <v>403</v>
       </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="366" t="s">
+      <c r="C24" s="318" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="319" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11002,214 +11009,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="338">
         <v>44988</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>20000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346">
         <v>20000</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="336"/>
+      <c r="E31" s="360">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
         <v>10.612795109732462</v>
       </c>
-      <c r="J37" s="370"/>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
         <v>8.4269096351545389</v>
       </c>
-      <c r="J38" s="370"/>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12411,6 +12418,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12427,46 +12474,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12571,12 +12578,12 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16116,18 +16123,18 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16327,7 +16334,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16352,7 +16359,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16377,7 +16384,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16402,7 +16409,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16427,7 +16434,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16452,7 +16459,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>348</v>
       </c>
@@ -16472,7 +16479,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16491,7 +16498,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16515,7 +16522,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16539,7 +16546,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16824,7 +16831,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16853,7 +16860,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16878,7 +16885,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16903,7 +16910,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16927,7 +16934,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16970,7 +16977,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17219,14 +17226,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17241,7 +17248,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17271,7 +17278,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17286,12 +17293,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17306,7 +17313,7 @@
         <v>4.2300888050327577E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17314,7 +17321,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17330,7 +17337,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17347,7 +17354,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17382,7 +17389,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17403,16 +17410,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>11518567.66931998</v>
-      </c>
-      <c r="E63" s="347"/>
+        <v>12335755.662919976</v>
+      </c>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17524,14 +17531,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19112,12 +19119,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19171,7 +19178,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>392</v>
       </c>
@@ -19195,7 +19202,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>393</v>
       </c>
@@ -19219,7 +19226,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>394</v>
       </c>
@@ -19243,7 +19250,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>395</v>
       </c>
@@ -19267,7 +19274,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>352</v>
       </c>
@@ -19332,7 +19339,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>355</v>
       </c>
@@ -19425,7 +19432,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>365</v>
       </c>
@@ -19534,7 +19541,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>364</v>
       </c>
@@ -19866,14 +19873,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20221,7 +20228,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="339" t="str">
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20244,7 +20251,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="339"/>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20702,7 +20709,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>
@@ -21779,16 +21786,16 @@
       <selection activeCell="E56" sqref="E56:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21803,7 +21810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21819,7 +21826,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21833,7 +21840,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21848,7 +21855,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21863,7 +21870,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21878,7 +21885,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21893,7 +21900,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{204B3A00-AA47-4DBC-BFC7-115680A7679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF7044-5FC4-48B9-8720-F82D48B19612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1222,9 +1222,6 @@
     <t>4. The Company's Liquidity and leverage rating</t>
   </si>
   <si>
-    <t>Cyclicals</t>
-  </si>
-  <si>
     <t>Despite a cylical one</t>
   </si>
   <si>
@@ -1468,6 +1465,9 @@
   </si>
   <si>
     <t>Consumer Staples, 15.1y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
   </si>
 </sst>
 </file>
@@ -3094,6 +3094,134 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3111,137 +3239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10495,8 +10495,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -10540,27 +10540,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="334"/>
+      <c r="C3" s="348" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="349"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="336"/>
+      <c r="C4" s="350" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="319"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10577,10 +10577,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="351">
         <v>44956</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="319"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10588,10 +10588,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="318">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10614,11 +10614,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="358">
         <f>I4*I5/1000000</f>
         <v>73301.763025919994</v>
       </c>
-      <c r="J6" s="347"/>
+      <c r="J6" s="358"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10670,7 +10670,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="122">
         <v>3.814E-2</v>
@@ -10693,30 +10693,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="328">
         <f ca="1">C12-D10</f>
         <v>2.1859999999999997E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="329"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="345"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10785,28 +10785,28 @@
         <f>I4</f>
         <v>8.9700000000000006</v>
       </c>
-      <c r="C16" s="370">
+      <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>-1.6856732471297597E-2</v>
       </c>
-      <c r="E16" s="351" t="s">
+      <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="351" t="s">
+      <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>3.3802207765892458</v>
       </c>
-      <c r="I16" s="364">
+      <c r="I16" s="333">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
@@ -10819,19 +10819,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.843995924777051</v>
       </c>
-      <c r="C17" s="371"/>
+      <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.2542167013662961</v>
       </c>
-      <c r="I17" s="365"/>
+      <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.7489845492052034E-2</v>
@@ -10842,19 +10842,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="372"/>
+      <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>9.4243306064934584E-2</v>
       </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="366"/>
+      <c r="I18" s="335"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10873,7 +10873,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10884,7 +10884,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="131">
         <f>IF(OR(D20="Cyclicals",D20="Cyclicals",D20="Cyclicals"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -10892,84 +10892,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
-        <v>401</v>
-      </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="C21" s="354" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="355"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="356"/>
+      <c r="J21" s="356"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
-        <v>402</v>
-      </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="C22" s="363" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="363" t="s">
+        <v>403</v>
+      </c>
+      <c r="H22" s="363"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
-        <v>403</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
-        <v>405</v>
-      </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="C23" s="336" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="337"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="336" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" s="336"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="318" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="C24" s="366" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="319" t="s">
-        <v>407</v>
-      </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="C25" s="367" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,214 +11009,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338">
+      <c r="C28" s="352">
         <v>44988</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="D28" s="353"/>
+      <c r="E28" s="343" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="343"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="362"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="332">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+      <c r="D29" s="326"/>
+      <c r="E29" s="331">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+      <c r="F29" s="326"/>
+      <c r="G29" s="342">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="342"/>
+      <c r="I29" s="341">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="367"/>
+      <c r="J29" s="341"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="318">
         <v>20000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346">
+      <c r="D30" s="319"/>
+      <c r="E30" s="318">
         <v>20000</v>
       </c>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="F30" s="319"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="347">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="373"/>
+      <c r="J30" s="347"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
+      <c r="C31" s="320">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360">
+      <c r="D31" s="319"/>
+      <c r="E31" s="320">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="327">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+      <c r="D32" s="326"/>
+      <c r="E32" s="327">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+      <c r="F32" s="326"/>
+      <c r="G32" s="327">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="323">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="375"/>
-      <c r="E33" s="326">
+      <c r="D33" s="324"/>
+      <c r="E33" s="323">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="375"/>
-      <c r="G33" s="326">
+      <c r="F33" s="324"/>
+      <c r="G33" s="323">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="323"/>
+      <c r="I33" s="323">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="323"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="330"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="325">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="362"/>
+      <c r="F34" s="326"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="325">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="329"/>
+      <c r="J34" s="325"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="321">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="374"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="321">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="328"/>
+      <c r="J35" s="321"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="371">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="324"/>
+      <c r="D37" s="372"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="368" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="368"/>
+      <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
         <v>10.612795109732462</v>
       </c>
-      <c r="J37" s="322"/>
+      <c r="J37" s="370"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="371">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="324"/>
+      <c r="D38" s="372"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="368" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="368"/>
+      <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
         <v>8.4269096351545389</v>
       </c>
-      <c r="J38" s="322"/>
+      <c r="J38" s="370"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11269,7 +11269,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="54">
         <f>80%-(5%*IF(LEFT(D20,2)="St",3,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",6,IF(LEFT(D20,2)="Tu",7,IF(LEFT(D20,2)="Fa",8,0))))))</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
@@ -11388,11 +11388,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.58870807328358721</v>
+        <v>0.64870807328358726</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.60378327102581097</v>
+        <v>0.66378327102581114</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11426,11 +11426,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>106.95959849458193</v>
+        <v>104.44632899304469</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>104.65774792185944</v>
+        <v>102.54476270631768</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11445,11 +11445,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>1.5142877643108863E-3</v>
+        <v>2.7212183894257816E-3</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>4.8066068131281774E-3</v>
+        <v>5.6395188061061216E-3</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11500,17 +11500,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12418,14 +12418,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12442,38 +12466,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13301,7 +13301,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="150">
         <v>178983875</v>
@@ -13586,7 +13586,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" s="150">
         <v>1285288</v>
@@ -13638,7 +13638,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -13685,7 +13685,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13813,7 +13813,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13864,7 +13864,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14104,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14155,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14479,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14530,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14646,7 +14646,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
@@ -16276,7 +16276,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16401,7 +16401,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C17" s="179">
         <v>6840073.6589999991</v>
@@ -16589,7 +16589,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16597,7 +16597,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16617,7 +16617,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17081,7 +17081,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17090,7 +17090,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17139,7 +17139,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17195,7 +17195,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17298,7 +17298,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="347">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17337,7 +17337,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17415,11 +17415,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>12335755.662919976</v>
       </c>
-      <c r="E63" s="373"/>
+      <c r="E63" s="347"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17527,7 +17527,7 @@
   </sheetPr>
   <dimension ref="A1:L878"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17728,7 +17728,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17824,7 +17824,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -18098,7 +18098,7 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="287"/>
       <c r="D21" s="287"/>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19204,7 +19204,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19228,7 +19228,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19434,7 +19434,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19486,7 +19486,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19502,7 +19502,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19518,7 +19518,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19594,7 +19594,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19603,7 +19603,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19612,7 +19612,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19656,7 +19656,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19738,7 +19738,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19793,7 +19793,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -20228,7 +20228,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="339" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20251,7 +20251,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20709,7 +20709,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="368"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>
@@ -20798,7 +20798,7 @@
         <v>6.1458742887278994</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -22034,7 +22034,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
@@ -22513,7 +22513,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF7044-5FC4-48B9-8720-F82D48B19612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667510CA-65D6-40AC-AE71-F3613D6A5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1237,9 +1237,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>FCInv</t>
-  </si>
-  <si>
     <t>FCInv / Sales</t>
   </si>
   <si>
@@ -1468,6 +1465,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>FCInv  - D&amp;A</t>
   </si>
 </sst>
 </file>
@@ -3094,84 +3094,39 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,6 +3134,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3195,9 +3151,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3210,6 +3173,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3222,26 +3194,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10495,7 +10495,7 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -10540,27 +10540,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="349"/>
+      <c r="C3" s="333" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="319"/>
+      <c r="C4" s="335" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10577,10 +10577,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>44956</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10588,10 +10588,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10614,11 +10614,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
         <v>73301.763025919994</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10670,7 +10670,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" s="122">
         <v>3.814E-2</v>
@@ -10693,30 +10693,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
         <v>2.1859999999999997E-2</v>
       </c>
-      <c r="D11" s="329"/>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>9.5834798920710025</v>
+        <v>9.6040982296734718</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10785,28 +10785,28 @@
         <f>I4</f>
         <v>8.9700000000000006</v>
       </c>
-      <c r="C16" s="344">
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-1.6856732471297597E-2</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>-1.5677103178848739E-2</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="338" t="s">
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>3.3802207765892458</v>
       </c>
-      <c r="I16" s="333">
+      <c r="I16" s="364">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
@@ -10817,24 +10817,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.843995924777051</v>
-      </c>
-      <c r="C17" s="345"/>
+        <v>8.8528136537381066</v>
+      </c>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>3.2542167013662961</v>
-      </c>
-      <c r="I17" s="334"/>
+        <v>3.2630344303273517</v>
+      </c>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>4.7489845492052034E-2</v>
+        <v>4.7442543854140054E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10842,19 +10842,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>9.4243306064934584E-2</v>
-      </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+        <v>9.5533705425088877E-2</v>
+      </c>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="335"/>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10873,7 +10873,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10892,84 +10892,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="C21" s="340" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
-        <v>403</v>
-      </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="C22" s="355" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
-        <v>402</v>
-      </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
-        <v>404</v>
-      </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="C23" s="343" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="C24" s="318" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="367" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="C25" s="319" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,214 +11009,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="338">
         <v>44988</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>20000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346">
         <v>20000</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="336"/>
+      <c r="E31" s="360">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
-        <v>10.612795109732462</v>
-      </c>
-      <c r="J37" s="370"/>
+        <v>10.623376384485727</v>
+      </c>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
-        <v>8.4269096351545389</v>
-      </c>
-      <c r="J38" s="370"/>
+        <v>8.4553487215027712</v>
+      </c>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11340,11 +11340,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.11245231758201912</v>
+        <v>0.11356146587900717</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.19648197403973655</v>
+        <v>0.19767490242229169</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11359,11 +11359,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.11667613887268979</v>
+        <v>-0.11369510256784365</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-4.9953817908169107E-2</v>
+        <v>-4.6747607496869015E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11388,11 +11388,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.64870807328358726</v>
+        <v>0.64911709174377064</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.66378327102581114</v>
+        <v>0.66422318490519661</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11407,11 +11407,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>0.96379875669969284</v>
+        <v>0.99882460470312051</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>3.9332724157527355</v>
+        <v>4.2285565616493042</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11426,11 +11426,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>104.44632899304469</v>
+        <v>104.40290195384338</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>102.54476270631768</v>
+        <v>102.52940557386417</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11445,11 +11445,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>2.7212183894257816E-3</v>
+        <v>2.8526148838746565E-3</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>5.6395188061061216E-3</v>
+        <v>5.7038878086289871E-3</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11500,17 +11500,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12418,6 +12418,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12434,46 +12474,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13301,7 +13301,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C21" s="150">
         <v>178983875</v>
@@ -13586,7 +13586,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="150">
         <v>1285288</v>
@@ -13638,7 +13638,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -13685,7 +13685,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13813,7 +13813,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13864,7 +13864,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14104,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14155,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14479,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14530,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -16276,7 +16276,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16401,7 +16401,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17" s="179">
         <v>6840073.6589999991</v>
@@ -16589,7 +16589,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16597,7 +16597,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16617,7 +16617,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17081,7 +17081,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17090,7 +17090,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17139,7 +17139,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17195,7 +17195,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17298,7 +17298,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17337,7 +17337,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17415,11 +17415,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>12335755.662919976</v>
       </c>
-      <c r="E63" s="347"/>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17527,8 +17527,8 @@
   </sheetPr>
   <dimension ref="A1:L878"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17728,7 +17728,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17824,7 +17824,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19204,7 +19204,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19228,7 +19228,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19434,7 +19434,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19486,7 +19486,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19502,7 +19502,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19518,7 +19518,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19594,7 +19594,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19603,7 +19603,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19612,7 +19612,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19656,7 +19656,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19738,7 +19738,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19793,7 +19793,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19869,8 +19869,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -20127,7 +20127,7 @@
         <v/>
       </c>
       <c r="G11" s="250">
-        <f ca="1">IF(F10="",IF(E10="",1,D11),E11)*(1+G10)*(1+G10)</f>
+        <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
         <v>1.1236000000000002</v>
       </c>
       <c r="H11" s="39"/>
@@ -20228,7 +20228,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="339" t="str">
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20251,7 +20251,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="339"/>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20672,8 +20672,8 @@
         <v/>
       </c>
       <c r="G38" s="149">
-        <f ca="1">IF(F36="",IF(E36="",1,D38),E38)*(1+G35-C37)</f>
-        <v>0.82302311074089507</v>
+        <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
+        <v>0.92474876722846988</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.32316097715286851</v>
+        <v>-0.28761211921757607</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20709,7 +20709,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>
@@ -20724,7 +20724,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>10.533637043943173</v>
+        <v>10.569185901878464</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>9.5834798920710025</v>
+        <v>9.6040982296734718</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20761,15 +20761,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>7.4808350244590871</v>
+        <v>7.5194564422566357</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.4949490112264181</v>
+        <v>0.49601386719986446</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>5.0349859174183385</v>
+        <v>5.0458184167440692</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20798,7 +20798,7 @@
         <v>6.1458742887278994</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.612795109732462</v>
+        <v>10.623376384485727</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20815,15 +20815,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>9.4089057464127457</v>
+        <v>9.4287261529341517</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.54434267322621377</v>
+        <v>0.54488539918349255</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>5.5757693993973332</v>
+        <v>5.5813286085751086</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>8.4269096351545389</v>
+        <v>8.4553487215027712</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20840,15 +20840,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>5.3143954226922334</v>
+        <v>5.3676663437922976</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.43222605076292631</v>
+        <v>0.43368472476226805</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>4.4273449538371148</v>
+        <v>4.4422863322174324</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22034,7 +22034,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
@@ -22513,7 +22513,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667510CA-65D6-40AC-AE71-F3613D6A5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2257579-1CA4-4A13-B1EE-C7F5C0529A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1240,9 +1229,6 @@
     <t>FCInv / Sales</t>
   </si>
   <si>
-    <t>FCInv = Δ PP&amp;E + R&amp;D</t>
-  </si>
-  <si>
     <t>Reinvestment =</t>
   </si>
   <si>
@@ -1468,6 +1454,9 @@
   </si>
   <si>
     <t>FCInv  - D&amp;A</t>
+  </si>
+  <si>
+    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
   </si>
 </sst>
 </file>
@@ -1475,34 +1464,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2322,7 +2311,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="391">
@@ -2370,7 +2359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2470,7 +2459,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2487,8 +2476,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2497,7 +2486,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2522,7 +2511,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2541,16 +2530,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2580,14 +2569,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2681,7 +2670,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2714,7 +2703,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,7 +2723,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2742,7 +2731,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,7 +2741,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2773,7 +2762,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,7 +2771,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,10 +2816,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,13 +2828,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2854,7 +2843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2911,7 +2900,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2953,7 +2942,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,13 +2954,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2983,10 +2972,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3063,7 +3052,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3082,7 +3071,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3092,6 +3081,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,137 +3228,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10499,13 +10488,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10540,27 +10529,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="334"/>
+      <c r="C3" s="348" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="349"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="336"/>
+      <c r="C4" s="350" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="319"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10577,10 +10566,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="351">
         <v>44956</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="319"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10588,10 +10577,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="318">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10614,11 +10603,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="358">
         <f>I4*I5/1000000</f>
         <v>73301.763025919994</v>
       </c>
-      <c r="J6" s="347"/>
+      <c r="J6" s="358"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10670,7 +10659,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="122">
         <v>3.814E-2</v>
@@ -10693,30 +10682,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="328">
         <f ca="1">C12-D10</f>
         <v>2.1859999999999997E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="329"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="345"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10785,28 +10774,28 @@
         <f>I4</f>
         <v>8.9700000000000006</v>
       </c>
-      <c r="C16" s="370">
+      <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>-1.5677103178848739E-2</v>
       </c>
-      <c r="E16" s="351" t="s">
+      <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="351" t="s">
+      <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>3.3802207765892458</v>
       </c>
-      <c r="I16" s="364">
+      <c r="I16" s="333">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
@@ -10819,19 +10808,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.8528136537381066</v>
       </c>
-      <c r="C17" s="371"/>
+      <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.2630344303273517</v>
       </c>
-      <c r="I17" s="365"/>
+      <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.7442543854140054E-2</v>
@@ -10842,19 +10831,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="372"/>
+      <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>9.5533705425088877E-2</v>
       </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="366"/>
+      <c r="I18" s="335"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10873,7 +10862,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10892,84 +10881,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
-        <v>399</v>
-      </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="C21" s="354" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="355"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="356"/>
+      <c r="J21" s="356"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
-        <v>400</v>
-      </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
-        <v>402</v>
-      </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="C22" s="363" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="363" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="363"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
-        <v>401</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
-        <v>403</v>
-      </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="C23" s="336" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="337"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="336" t="s">
+        <v>402</v>
+      </c>
+      <c r="H23" s="336"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="318" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="C24" s="366" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="319" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="C25" s="367" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,214 +10998,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338">
+      <c r="C28" s="352">
         <v>44988</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="D28" s="353"/>
+      <c r="E28" s="343" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="343"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="362"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="332">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+      <c r="D29" s="326"/>
+      <c r="E29" s="331">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+      <c r="F29" s="326"/>
+      <c r="G29" s="342">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="342"/>
+      <c r="I29" s="341">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="367"/>
+      <c r="J29" s="341"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="318">
         <v>20000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346">
+      <c r="D30" s="319"/>
+      <c r="E30" s="318">
         <v>20000</v>
       </c>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="F30" s="319"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="347">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="373"/>
+      <c r="J30" s="347"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
+      <c r="C31" s="320">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360">
+      <c r="D31" s="319"/>
+      <c r="E31" s="320">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="327">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+      <c r="D32" s="326"/>
+      <c r="E32" s="327">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+      <c r="F32" s="326"/>
+      <c r="G32" s="327">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="323">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="375"/>
-      <c r="E33" s="326">
+      <c r="D33" s="324"/>
+      <c r="E33" s="323">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="375"/>
-      <c r="G33" s="326">
+      <c r="F33" s="324"/>
+      <c r="G33" s="323">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="323"/>
+      <c r="I33" s="323">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="323"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="330"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="325">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="362"/>
+      <c r="F34" s="326"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="325">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="329"/>
+      <c r="J34" s="325"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="321">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="374"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="321">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="328"/>
+      <c r="J35" s="321"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="371">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="324"/>
+      <c r="D37" s="372"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="368" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="368"/>
+      <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
         <v>10.623376384485727</v>
       </c>
-      <c r="J37" s="322"/>
+      <c r="J37" s="370"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="371">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="324"/>
+      <c r="D38" s="372"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="368" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="368"/>
+      <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
         <v>8.4553487215027712</v>
       </c>
-      <c r="J38" s="322"/>
+      <c r="J38" s="370"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11500,17 +11489,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12418,14 +12407,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12442,38 +12455,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12574,16 +12563,16 @@
   </sheetPr>
   <dimension ref="A1:N949"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -13301,7 +13290,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" s="150">
         <v>178983875</v>
@@ -13586,7 +13575,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="150">
         <v>1285288</v>
@@ -13638,7 +13627,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -13685,7 +13674,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13864,7 +13853,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14093,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14144,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14468,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14519,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -16123,18 +16112,18 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16276,7 +16265,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16334,7 +16323,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16359,7 +16348,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16384,7 +16373,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16401,7 +16390,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16409,7 +16398,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16434,7 +16423,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16459,9 +16448,9 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="179">
         <v>6840073.6589999991</v>
@@ -16479,7 +16468,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16498,7 +16487,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16522,7 +16511,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16546,7 +16535,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16589,7 +16578,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16597,7 +16586,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16617,7 +16606,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16626,7 +16615,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16646,7 +16635,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16655,7 +16644,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16688,7 +16677,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16831,7 +16820,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16853,14 +16842,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16885,7 +16874,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16910,7 +16899,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16934,7 +16923,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16977,7 +16966,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17064,7 +17053,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17081,7 +17070,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17090,7 +17079,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17109,7 +17098,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17139,7 +17128,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17195,7 +17184,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17226,14 +17215,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17248,7 +17237,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17278,7 +17267,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17293,12 +17282,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="347">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17313,7 +17302,7 @@
         <v>4.2300888050327577E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17321,7 +17310,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17337,7 +17326,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17354,13 +17343,13 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17389,7 +17378,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17410,16 +17399,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>12335755.662919976</v>
       </c>
-      <c r="E63" s="373"/>
+      <c r="E63" s="347"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17527,18 +17516,18 @@
   </sheetPr>
   <dimension ref="A1:L878"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -17611,7 +17600,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17632,7 +17621,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17653,7 +17642,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17674,7 +17663,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17728,7 +17717,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17824,7 +17813,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -18122,7 +18111,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18144,7 +18133,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -19119,12 +19108,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19178,9 +19167,9 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19202,9 +19191,9 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19226,9 +19215,9 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19250,9 +19239,9 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19274,9 +19263,9 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19339,9 +19328,9 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19432,9 +19421,9 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19486,7 +19475,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19502,7 +19491,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19518,7 +19507,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19534,16 +19523,16 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19594,7 +19583,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19603,7 +19592,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19612,7 +19601,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19656,7 +19645,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19677,7 +19666,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19698,7 +19687,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19719,7 +19708,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19738,7 +19727,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19759,7 +19748,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19776,7 +19765,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19793,7 +19782,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19873,14 +19862,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20228,7 +20217,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="339" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20251,7 +20240,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20709,7 +20698,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="368"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>
@@ -20798,7 +20787,7 @@
         <v>6.1458742887278994</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -21786,16 +21775,16 @@
       <selection activeCell="E56" sqref="E56:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21810,7 +21799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21826,7 +21815,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21840,7 +21829,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21855,7 +21844,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21870,7 +21859,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21885,7 +21874,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21900,7 +21889,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>
@@ -22034,7 +22023,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
@@ -22513,7 +22502,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2257579-1CA4-4A13-B1EE-C7F5C0529A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E622C1-67CC-4344-BD28-A180A1E2CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3083,84 +3083,39 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3168,6 +3123,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,9 +3140,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3199,6 +3162,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3211,26 +3183,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10529,33 +10529,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
+      <c r="C3" s="333" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="349"/>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="335" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>8.9700000000000006</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10566,10 +10566,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>44956</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10577,10 +10577,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10603,11 +10603,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
-        <v>73301.763025919994</v>
-      </c>
-      <c r="J6" s="358"/>
+        <v>75181.295411200001</v>
+      </c>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.1659120789771388E-2</v>
+        <v>4.0617642770027114E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10647,11 +10647,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>12.780593184135848</v>
+        <v>13.108300701677789</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.8243629665113584E-2</v>
+        <v>7.6287538923485748E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10662,7 +10662,7 @@
         <v>405</v>
       </c>
       <c r="D10" s="122">
-        <v>3.814E-2</v>
+        <v>3.8149999999999996E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="85" t="s">
@@ -10671,41 +10671,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.46326518975369263</v>
+        <v>0.47514378436276161</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.71267474736492</v>
+        <v>4.8335125613999166</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
-        <v>2.1859999999999997E-2</v>
-      </c>
-      <c r="D11" s="329"/>
+        <v>2.1850000000000001E-2</v>
+      </c>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10772,35 +10772,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="C16" s="344">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-1.5677103178848739E-2</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>-4.5285175599377281E-2</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="338" t="s">
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>3.3802207765892458</v>
-      </c>
-      <c r="I16" s="333">
+        <v>3.6102207765892445</v>
+      </c>
+      <c r="I16" s="364">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.6822742474916385E-2</v>
+        <v>4.5652173913043478E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10808,19 +10808,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.8528136537381066</v>
       </c>
-      <c r="C17" s="345"/>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.2630344303273517</v>
       </c>
-      <c r="I17" s="334"/>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.7442543854140054E-2</v>
@@ -10831,19 +10831,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>9.5533705425088877E-2</v>
       </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="335"/>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10881,84 +10881,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
+      <c r="C21" s="340" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="355" t="s">
         <v>399</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
         <v>401</v>
       </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
+      <c r="C23" s="343" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
         <v>402</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="366" t="s">
+      <c r="C24" s="318" t="s">
         <v>403</v>
       </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="319" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10998,214 +10998,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="338">
         <v>44988</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>20000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346">
         <v>20000</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="336"/>
+      <c r="E31" s="360">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
         <v>10.623376384485727</v>
       </c>
-      <c r="J37" s="370"/>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
         <v>8.4553487215027712</v>
       </c>
-      <c r="J38" s="370"/>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12407,6 +12407,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12423,46 +12463,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17287,7 +17287,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17310,7 +17310,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17326,7 +17326,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17404,11 +17404,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>12335755.662919976</v>
-      </c>
-      <c r="E63" s="347"/>
+        <v>14215288.048199989</v>
+      </c>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20217,7 +20217,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="339" t="str">
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20240,7 +20240,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="339"/>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20698,7 +20698,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E622C1-67CC-4344-BD28-A180A1E2CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE9F4F6-73EF-4297-9C60-4715DD0A91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3083,6 +3083,134 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3100,137 +3228,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10529,33 +10529,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="348" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="334"/>
+      <c r="D3" s="349"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="350" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="336"/>
+      <c r="D4" s="319"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>9.1999999999999993</v>
+        <v>9.02</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10566,10 +10566,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="351">
         <v>44956</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="319"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10577,10 +10577,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="318">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10603,11 +10603,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="358">
         <f>I4*I5/1000000</f>
-        <v>75181.295411200001</v>
-      </c>
-      <c r="J6" s="347"/>
+        <v>73710.357022719996</v>
+      </c>
+      <c r="J6" s="358"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.0617642770027114E-2</v>
+        <v>4.1428194399584194E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10647,11 +10647,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>13.108300701677789</v>
+        <v>12.851833948818877</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.6287538923485748E-2</v>
+        <v>7.7809906662535358E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10671,41 +10671,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.47514378436276161</v>
+        <v>0.46584749292957717</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.8335125613999166</v>
+        <v>4.7389438373725277</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="328">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="329"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="345"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10772,35 +10772,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C16" s="370">
+        <v>9.02</v>
+      </c>
+      <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-4.5285175599377281E-2</v>
-      </c>
-      <c r="E16" s="351" t="s">
+        <v>-2.2242085977191905E-2</v>
+      </c>
+      <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.5897792234107548</v>
       </c>
-      <c r="G16" s="351" t="s">
+      <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>3.6102207765892445</v>
-      </c>
-      <c r="I16" s="364">
+        <v>3.4302207765892447</v>
+      </c>
+      <c r="I16" s="333">
         <v>0.42</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.5652173913043478E-2</v>
+        <v>4.6563192904656318E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10808,19 +10808,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.8528136537381066</v>
       </c>
-      <c r="C17" s="371"/>
+      <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.2630344303273517</v>
       </c>
-      <c r="I17" s="365"/>
+      <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.7442543854140054E-2</v>
@@ -10831,19 +10831,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="372"/>
+      <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>9.5533705425088877E-2</v>
       </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.6102207765892445</v>
       </c>
-      <c r="I18" s="366"/>
+      <c r="I18" s="335"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.1219512195121955E-2</v>
@@ -10881,84 +10881,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
+      <c r="C21" s="354" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="D21" s="355"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="356"/>
+      <c r="J21" s="356"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
+      <c r="C22" s="363" t="s">
         <v>399</v>
       </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="363" t="s">
         <v>401</v>
       </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="H22" s="363"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
+      <c r="C23" s="336" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
+      <c r="D23" s="337"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="336" t="s">
         <v>402</v>
       </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="H23" s="336"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="318" t="s">
+      <c r="C24" s="366" t="s">
         <v>403</v>
       </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="319" t="s">
+      <c r="C25" s="367" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10998,214 +10998,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338">
+      <c r="C28" s="352">
         <v>44988</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="D28" s="353"/>
+      <c r="E28" s="343" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="343"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="362"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="332">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+      <c r="D29" s="326"/>
+      <c r="E29" s="331">
         <f>E33/D27</f>
         <v>0.24848484848484848</v>
       </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+      <c r="F29" s="326"/>
+      <c r="G29" s="342">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="342"/>
+      <c r="I29" s="341">
         <f>C29+E29+G29</f>
         <v>0.5375757575757576</v>
       </c>
-      <c r="J29" s="367"/>
+      <c r="J29" s="341"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="318">
         <v>20000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346">
+      <c r="D30" s="319"/>
+      <c r="E30" s="318">
         <v>20000</v>
       </c>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="F30" s="319"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="347">
         <f>C30+E30+G30</f>
         <v>40000</v>
       </c>
-      <c r="J30" s="373"/>
+      <c r="J30" s="347"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
+      <c r="C31" s="320">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360">
+      <c r="D31" s="319"/>
+      <c r="E31" s="320">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="327">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+      <c r="D32" s="326"/>
+      <c r="E32" s="327">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+      <c r="F32" s="326"/>
+      <c r="G32" s="327">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="323">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="375"/>
-      <c r="E33" s="326">
+      <c r="D33" s="324"/>
+      <c r="E33" s="323">
         <f>E30*E31</f>
         <v>164000</v>
       </c>
-      <c r="F33" s="375"/>
-      <c r="G33" s="326">
+      <c r="F33" s="324"/>
+      <c r="G33" s="323">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="323"/>
+      <c r="I33" s="323">
         <f>C33+E33+G33</f>
         <v>354800</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="323"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="330"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="325">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="F34" s="362"/>
+      <c r="F34" s="326"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="325">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="J34" s="329"/>
+      <c r="J34" s="325"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="321">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="F35" s="374"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="321">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>72484.57503231999</v>
       </c>
-      <c r="J35" s="328"/>
+      <c r="J35" s="321"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="371">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="324"/>
+      <c r="D37" s="372"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="368" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="368"/>
+      <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
         <v>10.623376384485727</v>
       </c>
-      <c r="J37" s="322"/>
+      <c r="J37" s="370"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="371">
         <f>E34</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="D38" s="324"/>
+      <c r="D38" s="372"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="368" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="368"/>
+      <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
         <v>8.4553487215027712</v>
       </c>
-      <c r="J38" s="322"/>
+      <c r="J38" s="370"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12407,14 +12407,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12431,38 +12455,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17287,7 +17287,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="347">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6739518.3509999998</v>
       </c>
@@ -17310,7 +17310,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17326,7 +17326,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17404,11 +17404,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>14215288.048199989</v>
-      </c>
-      <c r="E63" s="373"/>
+        <v>12744349.659719981</v>
+      </c>
+      <c r="E63" s="347"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17516,7 +17516,7 @@
   </sheetPr>
   <dimension ref="A1:L878"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -19858,8 +19858,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -20174,7 +20174,7 @@
         <v>43640996.975659996</v>
       </c>
       <c r="D15" s="106">
-        <f>C15/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C15/(Dashboard!I5/Data!C4)</f>
         <v>5.3403864615541012</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -20194,14 +20194,14 @@
         <v>9794286.2868000008</v>
       </c>
       <c r="D16" s="106">
-        <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>1.1985352652640835</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
       <c r="G16" s="264">
-        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
+        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>5.5897792234107548</v>
       </c>
     </row>
@@ -20214,10 +20214,10 @@
         <v>-6739518.3509999998</v>
       </c>
       <c r="D17" s="106">
-        <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.82472067673315363</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="339" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20237,10 +20237,10 @@
         <v>-767665.61899998784</v>
       </c>
       <c r="D18" s="106">
-        <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.3939904282997519E-2</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.3099045391628223</v>
@@ -20698,7 +20698,7 @@
       <c r="E40" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="368"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>11.587681064476177</v>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE9F4F6-73EF-4297-9C60-4715DD0A91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F5C5EE-0E7D-4807-A78B-8B99476F6464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="416">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1334,9 +1334,6 @@
     <t>Total Assets / Total Equity</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>ST Core-Monetary Asset</t>
   </si>
   <si>
@@ -1453,10 +1450,16 @@
     <t xml:space="preserve">Asset Plays </t>
   </si>
   <si>
-    <t>FCInv  - D&amp;A</t>
-  </si>
-  <si>
     <t>FCInv = Δ PP&amp;E + D&amp;A</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>- D&amp;A</t>
+  </si>
+  <si>
+    <t>FCInv</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2317,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3083,6 +3086,15 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3274,7 +3286,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3350,6 +3362,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
@@ -3359,6 +3378,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3483,8 +3509,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -5765,16 +5791,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>69000</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="#,##0">
-                  <c:v>56000</c:v>
+                  <c:v>247000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>247000</c:v>
+                  <c:v>1176000</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>1176000</c:v>
+                  <c:v>231234.52100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5851,16 +5877,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>7352</c:v>
+                  <c:v>1287845</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="#,##0">
-                  <c:v>1287845</c:v>
+                  <c:v>508443</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>508443</c:v>
+                  <c:v>3053687</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>3053687</c:v>
+                  <c:v>3513908.3724799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,16 +6067,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>25020</c:v>
+                  <c:v>1688050</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="#,##0">
-                  <c:v>1688050</c:v>
+                  <c:v>9646036</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>9646036</c:v>
+                  <c:v>5735396</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>5735396</c:v>
+                  <c:v>5849379.3020000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10484,8 +10510,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10529,27 +10555,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="349"/>
+      <c r="C3" s="351" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="319"/>
+      <c r="C4" s="353" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10566,10 +10592,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="354">
         <v>44956</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10577,10 +10603,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="321">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10593,21 +10619,21 @@
       </c>
       <c r="D6" s="220">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>45169</v>
+        <v>45351</v>
       </c>
       <c r="E6" s="128">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="G6" s="85" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>73710.357022719996</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10616,7 +10642,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.1428194399584194E-2</v>
+        <v>4.7671840354767188E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10647,11 +10673,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>12.851833948818877</v>
+        <v>12.60139806586268</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.7809906662535358E-2</v>
+        <v>7.9356274182704412E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10659,7 +10685,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="122">
         <v>3.8149999999999996E-2</v>
@@ -10671,41 +10697,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.46584749292957717</v>
+        <v>0.45192009900780122</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.7389438373725277</v>
+        <v>6.2039043244138288</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="329"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10730,7 +10756,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>9.6040982296734718</v>
+        <v>10.488633138016668</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10774,56 +10800,56 @@
         <f>I4</f>
         <v>9.02</v>
       </c>
-      <c r="C16" s="344">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-2.2242085977191905E-2</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>4.0072607503345514E-2</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>5.5897792234107548</v>
-      </c>
-      <c r="G16" s="338" t="s">
+        <v>5.6750819333659113</v>
+      </c>
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>3.4302207765892447</v>
-      </c>
-      <c r="I16" s="333">
-        <v>0.42</v>
+        <v>3.3449180666340883</v>
+      </c>
+      <c r="I16" s="336">
+        <v>0.43</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.6563192904656318E-2</v>
+        <v>4.7671840354767188E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.8528136537381066</v>
-      </c>
-      <c r="C17" s="345"/>
+        <v>9.3212124330668136</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>3.2630344303273517</v>
-      </c>
-      <c r="I17" s="334"/>
+        <v>3.6461304997009023</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>4.7442543854140054E-2</v>
+        <v>4.613133785842962E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10831,22 +10857,22 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>9.5533705425088877E-2</v>
-      </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+        <v>0.16407986825368015</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>2.6102207765892445</v>
-      </c>
-      <c r="I18" s="335"/>
+        <v>2.524918066634088</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>5.1219512195121955E-2</v>
+        <v>5.2439024390243907E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10862,7 +10888,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10881,84 +10907,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
-        <v>398</v>
-      </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="C21" s="357" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
-        <v>399</v>
-      </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="C22" s="366" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
-        <v>402</v>
-      </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="C23" s="339" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="366" t="s">
-        <v>403</v>
-      </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="C24" s="369" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="367" t="s">
-        <v>404</v>
-      </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="C25" s="370" t="s">
+        <v>403</v>
+      </c>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10998,214 +11024,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="355">
         <v>44988</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
-        <v>0.24848484848484848</v>
-      </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+        <v>0.12424242424242424</v>
+      </c>
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.5375757575757576</v>
-      </c>
-      <c r="J29" s="341"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="321">
         <v>20000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
-        <v>40000</v>
-      </c>
-      <c r="J30" s="347"/>
+        <v>30000</v>
+      </c>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="323">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
-        <v>164000</v>
-      </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+        <v>82000</v>
+      </c>
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>354800</v>
-      </c>
-      <c r="J33" s="323"/>
+        <v>272800</v>
+      </c>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="F34" s="326"/>
+        <v>9.0933333333333337</v>
+      </c>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="J34" s="325"/>
+        <v>9.0933333333333337</v>
+      </c>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>72484.57503231999</v>
-      </c>
-      <c r="F35" s="322"/>
+        <v>74309.628218026672</v>
+      </c>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>72484.57503231999</v>
-      </c>
-      <c r="J35" s="321"/>
+        <v>74309.628218026672</v>
+      </c>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="374">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="371" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>10.623376384485727</v>
-      </c>
-      <c r="J37" s="370"/>
+        <v>11.185454919680176</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="374">
         <f>E34</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="D38" s="372"/>
+        <v>9.0933333333333337</v>
+      </c>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="371" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>8.4553487215027712</v>
-      </c>
-      <c r="J38" s="370"/>
+        <v>9.8592855205472993</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11290,7 +11316,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="171">
         <f>AVERAGE(Asset_Model!J28/4,1-Asset_Model!I56)</f>
-        <v>0.97884955597483625</v>
+        <v>0.98115205808791306</v>
       </c>
       <c r="G44" s="77"/>
       <c r="H44" s="77"/>
@@ -11329,11 +11355,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.11356146587900717</v>
+        <v>0.17247955132915904</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.19767490242229169</v>
+        <v>0.23007202195896359</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11348,11 +11374,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.11369510256784365</v>
+        <v>3.3468083914811375E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-4.6747607496869015E-2</v>
+        <v>8.423227865256222E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11377,11 +11403,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.64911709174377064</v>
+        <v>0.67018571935966675</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.66422318490519661</v>
+        <v>0.68102138589642225</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11396,11 +11422,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>0.99882460470312051</v>
+        <v>100</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.2285565616493042</v>
+        <v>100</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11415,11 +11441,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>104.40290195384338</v>
+        <v>102.89889436832892</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>102.52940557386417</v>
+        <v>2.1732325197245479</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11434,11 +11460,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>2.8526148838746565E-3</v>
+        <v>6.4809984659905508E-3</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>5.7038878086289871E-3</v>
+        <v>0.31190017340680137</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11489,17 +11515,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12466,12 +12492,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12486,17 +12512,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12506,17 +12532,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="18" priority="13">
+    <cfRule type="containsBlanks" dxfId="20" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="16" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12530,7 +12556,7 @@
       <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -12564,7 +12590,7 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12606,7 +12632,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="176">
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="97">
@@ -12614,7 +12640,7 @@
       </c>
       <c r="F3" s="178">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>5735396</v>
+        <v>5849379.3020000001</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -12639,7 +12665,7 @@
       </c>
       <c r="F4" s="177">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>5538620.25</v>
+        <v>3195608.9760000003</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -12657,47 +12683,47 @@
       <c r="B6" s="29"/>
       <c r="C6" s="113">
         <f>C3</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="D6" s="114">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="E6" s="114">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="F6" s="114">
         <f t="shared" si="0"/>
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="G6" s="114">
         <f t="shared" si="0"/>
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="H6" s="114">
         <f t="shared" si="0"/>
-        <v>42916</v>
+        <v>43281</v>
       </c>
       <c r="I6" s="114">
         <f t="shared" si="0"/>
-        <v>42551</v>
+        <v>42916</v>
       </c>
       <c r="J6" s="114">
         <f t="shared" si="0"/>
-        <v>42185</v>
+        <v>42551</v>
       </c>
       <c r="K6" s="114">
         <f t="shared" si="0"/>
-        <v>41820</v>
+        <v>42185</v>
       </c>
       <c r="L6" s="114">
         <f t="shared" si="0"/>
-        <v>41455</v>
+        <v>41820</v>
       </c>
       <c r="M6" s="114">
         <f t="shared" si="0"/>
-        <v>41090</v>
+        <v>41455</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
@@ -12706,18 +12732,20 @@
         <v>41</v>
       </c>
       <c r="C7" s="160">
+        <v>11881285.263</v>
+      </c>
+      <c r="D7" s="160">
         <v>15554174</v>
       </c>
-      <c r="D7" s="160">
+      <c r="E7" s="160">
         <v>24545345</v>
       </c>
-      <c r="E7" s="160">
+      <c r="F7" s="160">
         <v>5886888</v>
       </c>
-      <c r="F7" s="160">
-        <v>3573978</v>
-      </c>
-      <c r="G7" s="160"/>
+      <c r="G7" s="160">
+        <v>8009912.5779999997</v>
+      </c>
       <c r="H7" s="160"/>
       <c r="I7" s="160"/>
       <c r="J7" s="160"/>
@@ -12732,27 +12760,27 @@
         <v>42</v>
       </c>
       <c r="C8" s="149">
-        <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
+        <f>IF(D7="","",C7/D7-1)</f>
+        <v>-0.23613524813339493</v>
+      </c>
+      <c r="D8" s="149">
+        <f>IF(E7="","",D7/E7-1)</f>
         <v>-0.36630860148838817</v>
       </c>
-      <c r="D8" s="149">
-        <f t="shared" si="1"/>
+      <c r="E8" s="149">
+        <f>IF(F7="","",E7/F7-1)</f>
         <v>3.1694941368002922</v>
       </c>
-      <c r="E8" s="149">
-        <f t="shared" si="1"/>
-        <v>0.64715283641925048</v>
-      </c>
-      <c r="F8" s="149" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F8" s="149">
+        <f>IF(G7="","",F7/G7-1)</f>
+        <v>-0.26504965657566504</v>
       </c>
       <c r="G8" s="149" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H7="","",G7/H7-1)</f>
         <v/>
       </c>
       <c r="H8" s="149" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H8:L8" si="1">IF(I7="","",H7/I7-1)</f>
         <v/>
       </c>
       <c r="I8" s="149" t="str">
@@ -12780,19 +12808,22 @@
         <v>43</v>
       </c>
       <c r="C9" s="148">
+        <f>4180678.874+2311849.983</f>
+        <v>6492528.8569999998</v>
+      </c>
+      <c r="D9" s="148">
         <v>7301864</v>
       </c>
-      <c r="D9" s="148">
+      <c r="E9" s="148">
         <v>11010749</v>
       </c>
-      <c r="E9" s="148">
+      <c r="F9" s="148">
         <v>2437232</v>
       </c>
-      <c r="F9" s="148">
-        <f>2652315+425936+136707</f>
-        <v>3214958</v>
-      </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="148">
+        <f>1319224.798+2200099.945</f>
+        <v>3519324.7429999998</v>
+      </c>
       <c r="H9" s="148"/>
       <c r="I9" s="148"/>
       <c r="J9" s="148"/>
@@ -12807,27 +12838,27 @@
         <v>44</v>
       </c>
       <c r="C10" s="149">
-        <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
+        <f>IF(C7="","",(C7-C9)/C7)</f>
+        <v>0.4535499558100291</v>
+      </c>
+      <c r="D10" s="149">
+        <f>IF(D7="","",(D7-D9)/D7)</f>
         <v>0.53055276352186875</v>
       </c>
-      <c r="D10" s="149">
-        <f t="shared" si="2"/>
+      <c r="E10" s="149">
+        <f>IF(E7="","",(E7-E9)/E7)</f>
         <v>0.55141192759767688</v>
       </c>
-      <c r="E10" s="149">
-        <f t="shared" si="2"/>
+      <c r="F10" s="149">
+        <f>IF(F7="","",(F7-F9)/F7)</f>
         <v>0.58598974534592807</v>
       </c>
-      <c r="F10" s="149">
-        <f t="shared" si="2"/>
-        <v>0.10045389199373919</v>
-      </c>
-      <c r="G10" s="149" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="G10" s="149">
+        <f>IF(G7="","",(G7-G9)/G7)</f>
+        <v>0.56062881976188284</v>
       </c>
       <c r="H10" s="149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H10:M10" si="2">IF(H7="","",(H7-H9)/H7)</f>
         <v/>
       </c>
       <c r="I10" s="149" t="str">
@@ -12858,18 +12889,25 @@
         <v>45</v>
       </c>
       <c r="C11" s="148">
-        <v>867483</v>
+        <f>900468.409+227476.029</f>
+        <v>1127944.4380000001</v>
       </c>
       <c r="D11" s="148">
-        <v>823281</v>
+        <f>867483.279+173939.406</f>
+        <v>1041422.6849999999</v>
       </c>
       <c r="E11" s="148">
-        <v>843993</v>
+        <f>823281.283+213825.234</f>
+        <v>1037106.517</v>
       </c>
       <c r="F11" s="148">
-        <v>271638</v>
-      </c>
-      <c r="G11" s="148"/>
+        <f>843993.687+198412.222</f>
+        <v>1042405.909</v>
+      </c>
+      <c r="G11" s="148">
+        <f>932270.707+204854.508</f>
+        <v>1137125.2150000001</v>
+      </c>
       <c r="H11" s="148"/>
       <c r="I11" s="148"/>
       <c r="J11" s="148"/>
@@ -12884,27 +12922,27 @@
         <v>46</v>
       </c>
       <c r="C12" s="149">
-        <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>5.5771717610976934E-2</v>
+        <f>IF(C7="","",C10-C13)</f>
+        <v>9.493454731809009E-2</v>
       </c>
       <c r="D12" s="149">
-        <f t="shared" si="3"/>
-        <v>3.3541227471033719E-2</v>
+        <f>IF(D7="","",D10-D13)</f>
+        <v>6.6954547698900579E-2</v>
       </c>
       <c r="E12" s="149">
-        <f t="shared" si="3"/>
-        <v>0.14336827879178266</v>
+        <f>IF(E7="","",E10-E13)</f>
+        <v>4.2252676301759107E-2</v>
       </c>
       <c r="F12" s="149">
-        <f t="shared" si="3"/>
-        <v>7.6004385029790344E-2</v>
-      </c>
-      <c r="G12" s="149" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(F7="","",F10-F13)</f>
+        <v>0.17707248872409326</v>
+      </c>
+      <c r="G12" s="149">
+        <f>IF(G7="","",G10-G13)</f>
+        <v>0.14196474729614711</v>
       </c>
       <c r="H12" s="149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H12:M12" si="3">IF(H7="","",H10-H13)</f>
         <v/>
       </c>
       <c r="I12" s="149" t="str">
@@ -12935,27 +12973,27 @@
         <v>47</v>
       </c>
       <c r="C13" s="149">
-        <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>0.47478104591089182</v>
+        <f>IF(C14="","",C14/C7)</f>
+        <v>0.35861540849193901</v>
       </c>
       <c r="D13" s="149">
-        <f t="shared" si="4"/>
-        <v>0.51787070012664316</v>
+        <f>IF(D14="","",D14/D7)</f>
+        <v>0.46359821582296817</v>
       </c>
       <c r="E13" s="149">
-        <f t="shared" si="4"/>
-        <v>0.44262146655414542</v>
+        <f>IF(E14="","",E14/E7)</f>
+        <v>0.50915925129591777</v>
       </c>
       <c r="F13" s="149">
-        <f t="shared" si="4"/>
-        <v>2.4449506963948854E-2</v>
-      </c>
-      <c r="G13" s="149" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>IF(F14="","",F14/F7)</f>
+        <v>0.40891725662183481</v>
+      </c>
+      <c r="G13" s="149">
+        <f>IF(G14="","",G14/G7)</f>
+        <v>0.41866407246573573</v>
       </c>
       <c r="H13" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H13:M13" si="4">IF(H14="","",H14/H7)</f>
         <v/>
       </c>
       <c r="I13" s="149" t="str">
@@ -12986,27 +13024,27 @@
         <v>48</v>
       </c>
       <c r="C14" s="51">
-        <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>7384827</v>
+        <f>IF(C7="","",C7-C9-C11)</f>
+        <v>4260811.9680000003</v>
       </c>
       <c r="D14" s="51">
-        <f t="shared" si="5"/>
-        <v>12711315</v>
+        <f>IF(D7="","",D7-D9-D11)</f>
+        <v>7210887.3150000004</v>
       </c>
       <c r="E14" s="51">
-        <f t="shared" si="5"/>
-        <v>2605663</v>
+        <f>IF(E7="","",E7-E9-E11)</f>
+        <v>12497489.482999999</v>
       </c>
       <c r="F14" s="51">
-        <f t="shared" si="5"/>
-        <v>87382</v>
-      </c>
-      <c r="G14" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(F7="","",F7-F9-F11)</f>
+        <v>2407250.091</v>
+      </c>
+      <c r="G14" s="51">
+        <f>IF(G7="","",G7-G9-G11)</f>
+        <v>3353462.62</v>
       </c>
       <c r="H14" s="51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H14:M14" si="5">IF(H7="","",H7-H9-H11)</f>
         <v/>
       </c>
       <c r="I14" s="51" t="str">
@@ -13038,19 +13076,19 @@
       </c>
       <c r="C15" s="149">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-0.41903516669990476</v>
+        <v>-0.40911405464113815</v>
       </c>
       <c r="D15" s="149">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>3.8783419037688298</v>
+        <v>-0.42301313197272317</v>
       </c>
       <c r="E15" s="149">
         <f t="shared" si="6"/>
-        <v>28.819219061133872</v>
-      </c>
-      <c r="F15" s="149" t="str">
+        <v>4.1916041169650118</v>
+      </c>
+      <c r="F15" s="149">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-0.28215985571355501</v>
       </c>
       <c r="G15" s="149" t="str">
         <f t="shared" si="6"/>
@@ -13089,23 +13127,23 @@
       </c>
       <c r="C16" s="51">
         <f>IF(C14="","",C14*(1-Projections!$F$18))</f>
-        <v>5538620.25</v>
+        <v>3195608.9760000003</v>
       </c>
       <c r="D16" s="51">
         <f>IF(D14="","",D14*(1-Projections!$F$18))</f>
-        <v>9533486.25</v>
+        <v>5408165.4862500001</v>
       </c>
       <c r="E16" s="51">
         <f>IF(E14="","",E14*(1-Projections!$F$18))</f>
-        <v>1954247.25</v>
+        <v>9373117.1122500002</v>
       </c>
       <c r="F16" s="51">
         <f>IF(F14="","",F14*(1-Projections!$F$18))</f>
-        <v>65536.5</v>
-      </c>
-      <c r="G16" s="51" t="str">
+        <v>1805437.56825</v>
+      </c>
+      <c r="G16" s="51">
         <f>IF(G14="","",G14*(1-Projections!$F$18))</f>
-        <v/>
+        <v>2515096.9649999999</v>
       </c>
       <c r="H16" s="51" t="str">
         <f>IF(H14="","",H14*(1-Projections!$F$18))</f>
@@ -13139,27 +13177,27 @@
         <v>51</v>
       </c>
       <c r="C17" s="149">
-        <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>0.35608578443316885</v>
+        <f>IF(C7="","",C16/C7)</f>
+        <v>0.26896155636895425</v>
       </c>
       <c r="D17" s="149">
-        <f t="shared" si="7"/>
-        <v>0.38840302509498237</v>
+        <f>IF(D7="","",D16/D7)</f>
+        <v>0.34769866186722614</v>
       </c>
       <c r="E17" s="149">
-        <f t="shared" si="7"/>
-        <v>0.33196609991560905</v>
+        <f>IF(E7="","",E16/E7)</f>
+        <v>0.38186943847193838</v>
       </c>
       <c r="F17" s="149">
-        <f t="shared" si="7"/>
-        <v>1.8337130222961642E-2</v>
-      </c>
-      <c r="G17" s="149" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(F7="","",F16/F7)</f>
+        <v>0.30668794246637615</v>
+      </c>
+      <c r="G17" s="149">
+        <f>IF(G7="","",G16/G7)</f>
+        <v>0.31399805434930178</v>
       </c>
       <c r="H17" s="149" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H17:M17" si="7">IF(H7="","",H16/H7)</f>
         <v/>
       </c>
       <c r="I17" s="149" t="str">
@@ -13190,18 +13228,20 @@
         <v>213</v>
       </c>
       <c r="C18" s="148">
-        <v>27282</v>
+        <v>95775.368000000002</v>
       </c>
       <c r="D18" s="148">
+        <v>49197.794000000002</v>
+      </c>
+      <c r="E18" s="148">
         <v>39885</v>
       </c>
-      <c r="E18" s="148">
-        <v>31747</v>
-      </c>
       <c r="F18" s="148">
-        <v>538</v>
-      </c>
-      <c r="G18" s="148"/>
+        <v>137622.508</v>
+      </c>
+      <c r="G18" s="148">
+        <v>134600.527</v>
+      </c>
       <c r="H18" s="148"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
@@ -13216,18 +13256,20 @@
         <v>52</v>
       </c>
       <c r="C19" s="148">
+        <v>5849379.3020000001</v>
+      </c>
+      <c r="D19" s="148">
         <v>5735396</v>
       </c>
-      <c r="D19" s="148">
+      <c r="E19" s="148">
         <v>9646036</v>
       </c>
-      <c r="E19" s="148">
+      <c r="F19" s="148">
         <v>1688050</v>
       </c>
-      <c r="F19" s="148">
-        <v>25020</v>
-      </c>
-      <c r="G19" s="148"/>
+      <c r="G19" s="148">
+        <v>6914903.9340000004</v>
+      </c>
       <c r="H19" s="148"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
@@ -13243,19 +13285,19 @@
       </c>
       <c r="C20" s="149">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>-0.40541420330589684</v>
+        <v>1.9873658593059684E-2</v>
       </c>
       <c r="D20" s="149">
         <f t="shared" ref="D20:M20" si="8">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
-        <v>4.7143070406682268</v>
+        <v>-0.40541420330589684</v>
       </c>
       <c r="E20" s="149">
         <f t="shared" si="8"/>
-        <v>66.468025579536373</v>
-      </c>
-      <c r="F20" s="149" t="str">
+        <v>4.7143070406682268</v>
+      </c>
+      <c r="F20" s="149">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-0.75588236422201038</v>
       </c>
       <c r="G20" s="149" t="str">
         <f t="shared" si="8"/>
@@ -13293,18 +13335,22 @@
         <v>373</v>
       </c>
       <c r="C21" s="150">
+        <f>Asset_Model!C49</f>
+        <v>179271273.183</v>
+      </c>
+      <c r="D21" s="148">
         <v>178983875</v>
       </c>
-      <c r="D21" s="148">
+      <c r="E21" s="148">
         <v>181715197</v>
       </c>
-      <c r="E21" s="148">
+      <c r="F21" s="148">
         <v>186723801</v>
       </c>
-      <c r="F21" s="148">
-        <v>3533169</v>
-      </c>
-      <c r="G21" s="148"/>
+      <c r="G21" s="148">
+        <f>G22+106204235.953</f>
+        <v>180748380.384</v>
+      </c>
       <c r="H21" s="148"/>
       <c r="I21" s="148"/>
       <c r="J21" s="148"/>
@@ -13319,18 +13365,21 @@
         <v>93</v>
       </c>
       <c r="C22" s="150">
+        <f>Asset_Model!C28</f>
+        <v>67642638.682000011</v>
+      </c>
+      <c r="D22" s="148">
         <v>71424985</v>
       </c>
-      <c r="D22" s="148">
+      <c r="E22" s="148">
         <v>74808371</v>
       </c>
-      <c r="E22" s="148">
+      <c r="F22" s="148">
         <v>80391448</v>
       </c>
-      <c r="F22" s="148">
-        <v>2973622</v>
-      </c>
-      <c r="G22" s="148"/>
+      <c r="G22" s="148">
+        <v>74544144.430999994</v>
+      </c>
       <c r="H22" s="148"/>
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
@@ -13345,18 +13394,21 @@
         <v>53</v>
       </c>
       <c r="C23" s="150">
+        <f>Asset_Model!I28</f>
+        <v>10902268.852</v>
+      </c>
+      <c r="D23" s="148">
         <v>15104618</v>
       </c>
-      <c r="D23" s="148">
+      <c r="E23" s="148">
         <v>17965728</v>
       </c>
-      <c r="E23" s="148">
+      <c r="F23" s="148">
         <v>32319376</v>
       </c>
-      <c r="F23" s="148">
-        <v>761502</v>
-      </c>
-      <c r="G23" s="148"/>
+      <c r="G23" s="148">
+        <v>25385564.491</v>
+      </c>
       <c r="H23" s="148"/>
       <c r="I23" s="148"/>
       <c r="J23" s="148"/>
@@ -13371,18 +13423,21 @@
         <v>54</v>
       </c>
       <c r="C24" s="150">
+        <f>Asset_Model!I24</f>
+        <v>3672538.0279999999</v>
+      </c>
+      <c r="D24" s="148">
         <v>2284708</v>
       </c>
-      <c r="D24" s="148">
+      <c r="E24" s="148">
         <v>2894189</v>
       </c>
-      <c r="E24" s="148">
+      <c r="F24" s="148">
         <v>864027</v>
       </c>
-      <c r="F24" s="148">
-        <v>6740</v>
-      </c>
-      <c r="G24" s="148"/>
+      <c r="G24" s="148">
+        <v>0</v>
+      </c>
       <c r="H24" s="148"/>
       <c r="I24" s="148"/>
       <c r="J24" s="148"/>
@@ -13397,18 +13452,21 @@
         <v>55</v>
       </c>
       <c r="C25" s="151">
+        <f>Asset_Model!I12</f>
+        <v>41018.313999999998</v>
+      </c>
+      <c r="D25" s="152">
         <v>31180</v>
       </c>
-      <c r="D25" s="152">
+      <c r="E25" s="152">
         <v>49241</v>
       </c>
-      <c r="E25" s="152">
+      <c r="F25" s="152">
         <v>32031</v>
       </c>
-      <c r="F25" s="152">
-        <v>6740</v>
-      </c>
-      <c r="G25" s="152"/>
+      <c r="G25" s="152">
+        <v>0</v>
+      </c>
       <c r="H25" s="152"/>
       <c r="I25" s="152"/>
       <c r="J25" s="152"/>
@@ -13423,18 +13481,22 @@
         <v>56</v>
       </c>
       <c r="C26" s="150">
+        <f>Asset_Model!I44</f>
+        <v>2447343.9303310001</v>
+      </c>
+      <c r="D26" s="148">
         <v>2814396</v>
       </c>
-      <c r="D26" s="148">
+      <c r="E26" s="148">
         <v>4131550</v>
       </c>
-      <c r="E26" s="148">
+      <c r="F26" s="148">
         <v>6139127</v>
       </c>
-      <c r="F26" s="148">
-        <v>3143</v>
-      </c>
-      <c r="G26" s="148"/>
+      <c r="G26" s="148">
+        <f>5026688.387+1622090.423+106579.069</f>
+        <v>6755357.8790000007</v>
+      </c>
       <c r="H26" s="148"/>
       <c r="I26" s="148"/>
       <c r="J26" s="148"/>
@@ -13449,18 +13511,21 @@
         <v>57</v>
       </c>
       <c r="C27" s="153">
+        <f>Asset_Model!I31</f>
+        <v>15377.8</v>
+      </c>
+      <c r="D27" s="152">
         <v>13550</v>
       </c>
-      <c r="D27" s="152">
+      <c r="E27" s="152">
         <v>19736</v>
       </c>
-      <c r="E27" s="152">
+      <c r="F27" s="152">
         <v>7537</v>
       </c>
-      <c r="F27" s="152">
-        <v>3143</v>
-      </c>
-      <c r="G27" s="152"/>
+      <c r="G27" s="152">
+        <v>0</v>
+      </c>
       <c r="H27" s="152"/>
       <c r="I27" s="152"/>
       <c r="J27" s="152"/>
@@ -13475,27 +13540,27 @@
         <v>58</v>
       </c>
       <c r="C28" s="51">
-        <f t="shared" ref="C28:M28" si="9">IF(C7="","",C24+C26)</f>
+        <f>IF(C7="","",C24+C26)</f>
+        <v>6119881.9583310001</v>
+      </c>
+      <c r="D28" s="51">
+        <f>IF(D7="","",D24+D26)</f>
         <v>5099104</v>
       </c>
-      <c r="D28" s="51">
-        <f t="shared" si="9"/>
+      <c r="E28" s="51">
+        <f>IF(E7="","",E24+E26)</f>
         <v>7025739</v>
       </c>
-      <c r="E28" s="51">
-        <f t="shared" si="9"/>
+      <c r="F28" s="51">
+        <f>IF(F7="","",F24+F26)</f>
         <v>7003154</v>
       </c>
-      <c r="F28" s="51">
-        <f t="shared" si="9"/>
-        <v>9883</v>
-      </c>
-      <c r="G28" s="51" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="G28" s="51">
+        <f>IF(G7="","",G24+G26)</f>
+        <v>6755357.8790000007</v>
       </c>
       <c r="H28" s="51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H28:M28" si="9">IF(H7="","",H24+H26)</f>
         <v/>
       </c>
       <c r="I28" s="51" t="str">
@@ -13526,18 +13591,21 @@
         <v>59</v>
       </c>
       <c r="C29" s="150">
+        <f>Asset_Model!D3</f>
+        <v>163104843.49900001</v>
+      </c>
+      <c r="D29" s="148">
         <v>158228515</v>
       </c>
-      <c r="D29" s="148">
+      <c r="E29" s="148">
         <v>156808599</v>
       </c>
-      <c r="E29" s="148">
+      <c r="F29" s="148">
         <v>145759189</v>
       </c>
-      <c r="F29" s="148">
-        <v>2751435</v>
-      </c>
-      <c r="G29" s="148"/>
+      <c r="G29" s="148">
+        <v>146162104.36500001</v>
+      </c>
       <c r="H29" s="148"/>
       <c r="I29" s="148"/>
       <c r="J29" s="148"/>
@@ -13552,18 +13620,21 @@
         <v>183</v>
       </c>
       <c r="C30" s="153">
+        <f>Asset_Model!I3</f>
+        <v>162348812.058</v>
+      </c>
+      <c r="D30" s="152">
         <v>157397300</v>
       </c>
-      <c r="D30" s="152">
+      <c r="E30" s="152">
         <v>155159697</v>
       </c>
-      <c r="E30" s="152">
+      <c r="F30" s="152">
         <v>144915881</v>
       </c>
-      <c r="F30" s="152">
-        <v>2751435</v>
-      </c>
-      <c r="G30" s="152"/>
+      <c r="G30" s="152">
+        <v>145294012.75299999</v>
+      </c>
       <c r="H30" s="152"/>
       <c r="I30" s="152"/>
       <c r="J30" s="152"/>
@@ -13578,18 +13649,21 @@
         <v>348</v>
       </c>
       <c r="C31" s="150">
+        <f>Asset_Model!C38</f>
+        <v>1318362.466</v>
+      </c>
+      <c r="D31" s="148">
         <v>1285288</v>
       </c>
-      <c r="D31" s="148">
+      <c r="E31" s="148">
         <v>1376283</v>
       </c>
-      <c r="E31" s="148">
+      <c r="F31" s="148">
         <v>1367290</v>
       </c>
-      <c r="F31" s="148">
-        <v>504215</v>
-      </c>
-      <c r="G31" s="148"/>
+      <c r="G31" s="148">
+        <v>219236.88800000001</v>
+      </c>
       <c r="H31" s="148"/>
       <c r="I31" s="148"/>
       <c r="J31" s="148"/>
@@ -13604,18 +13678,21 @@
         <v>196</v>
       </c>
       <c r="C32" s="150">
+        <f>Asset_Model!C62</f>
+        <v>43932273.972000003</v>
+      </c>
+      <c r="D32" s="148">
         <v>17617776</v>
       </c>
-      <c r="D32" s="148">
+      <c r="E32" s="148">
         <v>28578786</v>
       </c>
-      <c r="E32" s="148">
+      <c r="F32" s="148">
         <v>23080979</v>
       </c>
-      <c r="F32" s="148">
-        <v>1538328</v>
-      </c>
-      <c r="G32" s="148"/>
+      <c r="G32" s="148">
+        <v>16439823.293</v>
+      </c>
       <c r="H32" s="148"/>
       <c r="I32" s="148"/>
       <c r="J32" s="148"/>
@@ -13627,26 +13704,26 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C33" s="161">
+        <f>C31-D31+Projections!F22</f>
+        <v>231234.52100000001</v>
+      </c>
+      <c r="D33" s="161">
         <v>1176000</v>
       </c>
-      <c r="D33" s="161">
+      <c r="E33" s="161">
         <v>247000</v>
       </c>
-      <c r="E33" s="161">
+      <c r="F33" s="161">
         <v>56000</v>
       </c>
-      <c r="F33" s="161">
-        <v>69000</v>
-      </c>
-      <c r="G33" s="161" t="str">
-        <f t="shared" ref="G33:M33" si="10">IF(H7="","",G31-H31+IF($C$58="Yes",G60,0))</f>
-        <v/>
+      <c r="G33" s="161">
+        <v>122438.804</v>
       </c>
       <c r="H33" s="161" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H33:M33" si="10">IF(I7="","",H31-I31+IF($C$58="Yes",H60,0))</f>
         <v/>
       </c>
       <c r="I33" s="161" t="str">
@@ -13677,10 +13754,10 @@
         <v>367</v>
       </c>
       <c r="C34" s="161">
+        <v>0</v>
+      </c>
+      <c r="D34" s="161">
         <v>230000</v>
-      </c>
-      <c r="D34" s="161">
-        <v>0</v>
       </c>
       <c r="E34" s="161">
         <v>0</v>
@@ -13708,15 +13785,15 @@
       </c>
       <c r="D35" s="154">
         <f>IF(E7="","",IF(D8&lt;0,0,(D7-E7)*Asset_Model!$D$68))</f>
-        <v>2798768.55</v>
+        <v>0</v>
       </c>
       <c r="E35" s="154">
         <f>IF(F7="","",IF(E8&lt;0,0,(E7-F7)*Asset_Model!$D$68))</f>
-        <v>346936.5</v>
-      </c>
-      <c r="F35" s="154" t="str">
+        <v>2798768.55</v>
+      </c>
+      <c r="F35" s="154">
         <f>IF(G7="","",IF(F8&lt;0,0,(F7-G7)*Asset_Model!$D$68))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G35" s="154" t="str">
         <f>IF(H7="","",IF(G8&lt;0,0,(G7-H7)*Asset_Model!$D$68))</f>
@@ -13754,23 +13831,23 @@
         <v>68</v>
       </c>
       <c r="C36" s="51">
-        <f t="shared" ref="C36:M36" si="11">IF(D7="","",C33+C35)</f>
+        <f>IF(D7="","",C33+C35)</f>
+        <v>231234.52100000001</v>
+      </c>
+      <c r="D36" s="51">
+        <f>IF(E7="","",D33+D35)</f>
         <v>1176000</v>
       </c>
-      <c r="D36" s="51">
-        <f t="shared" si="11"/>
+      <c r="E36" s="51">
+        <f>IF(F7="","",E33+E35)</f>
         <v>3045768.55</v>
       </c>
-      <c r="E36" s="51">
-        <f t="shared" si="11"/>
-        <v>402936.5</v>
-      </c>
-      <c r="F36" s="51" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F36" s="51">
+        <f>IF(G7="","",F33+F35)</f>
+        <v>56000</v>
       </c>
       <c r="G36" s="51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G36:M36" si="11">IF(H7="","",G33+G35)</f>
         <v/>
       </c>
       <c r="H36" s="51" t="str">
@@ -13806,26 +13883,26 @@
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
+        <v>1.946207972298224E-2</v>
+      </c>
+      <c r="D37" s="149">
+        <f>IF(D36="","",D33/D7)</f>
         <v>7.5606714956384061E-2</v>
       </c>
-      <c r="D37" s="149">
-        <f t="shared" ref="D37:M37" si="12">IF(D36="","",D33/D7)</f>
+      <c r="E37" s="149">
+        <f>IF(E36="","",E33/E7)</f>
         <v>1.00630078737944E-2</v>
       </c>
-      <c r="E37" s="149">
-        <f t="shared" si="12"/>
+      <c r="F37" s="149">
+        <f>IF(F36="","",F33/F7)</f>
         <v>9.5126661149320321E-3</v>
       </c>
-      <c r="F37" s="149" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
       <c r="G37" s="149" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(G36="","",G33/G7)</f>
         <v/>
       </c>
       <c r="H37" s="149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H37:M37" si="12">IF(H36="","",H33/H7)</f>
         <v/>
       </c>
       <c r="I37" s="149" t="str">
@@ -13857,19 +13934,19 @@
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
-        <v>0.21232724883060902</v>
+        <v>7.2360079952410297E-2</v>
       </c>
       <c r="D38" s="158">
         <f t="shared" si="13"/>
-        <v>2.5908675328503255E-2</v>
+        <v>0.2174489673050729</v>
       </c>
       <c r="E38" s="158">
         <f t="shared" si="13"/>
-        <v>2.8655534758971774E-2</v>
-      </c>
-      <c r="F38" s="158" t="str">
+        <v>2.6351959229997082E-2</v>
+      </c>
+      <c r="F38" s="158">
         <f t="shared" si="13"/>
-        <v/>
+        <v>3.1017411504447905E-2</v>
       </c>
       <c r="G38" s="158" t="str">
         <f t="shared" si="13"/>
@@ -13925,18 +14002,21 @@
         <v>214</v>
       </c>
       <c r="C40" s="163">
+        <f>0.43*Common_Shares/C4</f>
+        <v>3513908.3724799999</v>
+      </c>
+      <c r="D40" s="163">
         <v>3053687</v>
       </c>
-      <c r="D40" s="163">
+      <c r="E40" s="163">
         <v>508443</v>
       </c>
-      <c r="E40" s="163">
+      <c r="F40" s="163">
         <v>1287845</v>
       </c>
-      <c r="F40" s="163">
-        <v>7352</v>
-      </c>
-      <c r="G40" s="163"/>
+      <c r="G40" s="163">
+        <v>822878.94</v>
+      </c>
       <c r="H40" s="163"/>
       <c r="I40" s="163"/>
       <c r="J40" s="163"/>
@@ -13962,7 +14042,9 @@
       <c r="F41" s="161">
         <v>0</v>
       </c>
-      <c r="G41" s="161"/>
+      <c r="G41" s="161">
+        <v>0</v>
+      </c>
       <c r="H41" s="161"/>
       <c r="I41" s="161"/>
       <c r="J41" s="161"/>
@@ -13978,23 +14060,23 @@
       </c>
       <c r="C42" s="162">
         <f t="shared" ref="C42:M42" si="14">IF(C40="","",C40*$C$4/Common_Shares)</f>
-        <v>0.37368231348424941</v>
+        <v>0.43</v>
       </c>
       <c r="D42" s="162">
         <f t="shared" si="14"/>
-        <v>6.2218608690043288E-2</v>
+        <v>0.37368231348424941</v>
       </c>
       <c r="E42" s="162">
         <f t="shared" si="14"/>
-        <v>0.15759470404436446</v>
+        <v>6.2218608690043288E-2</v>
       </c>
       <c r="F42" s="162">
         <f t="shared" si="14"/>
-        <v>8.9967058468539893E-4</v>
-      </c>
-      <c r="G42" s="162" t="str">
+        <v>0.15759470404436446</v>
+      </c>
+      <c r="G42" s="162">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0.10069640602218462</v>
       </c>
       <c r="H42" s="162" t="str">
         <f t="shared" si="14"/>
@@ -14043,9 +14125,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G43" s="164" t="str">
+      <c r="G43" s="164">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H43" s="164" t="str">
         <f t="shared" si="15"/>
@@ -14097,23 +14179,23 @@
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
-        <v>0.12060625573113778</v>
+        <v>9.4395832776429059E-2</v>
       </c>
       <c r="D45" s="166">
         <f>IF(D30="","",(D21-D30)/D21)</f>
-        <v>0.14613802498863096</v>
+        <v>0.12060625573113778</v>
       </c>
       <c r="E45" s="166">
         <f t="shared" ref="E45:M45" si="16">IF(E30="","",(E21-E30)/E21)</f>
-        <v>0.22390246865208147</v>
+        <v>0.14613802498863096</v>
       </c>
       <c r="F45" s="166">
         <f t="shared" si="16"/>
-        <v>0.22125576217837301</v>
-      </c>
-      <c r="G45" s="166" t="str">
+        <v>0.22390246865208147</v>
+      </c>
+      <c r="G45" s="166">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0.19615316914971628</v>
       </c>
       <c r="H45" s="166" t="str">
         <f t="shared" si="16"/>
@@ -14148,23 +14230,23 @@
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
-        <v>3.2396387993949068E-2</v>
+        <v>3.7695883824173833E-2</v>
       </c>
       <c r="D46" s="149">
         <f t="shared" si="17"/>
-        <v>4.5280695540414723E-2</v>
+        <v>3.2396387993949068E-2</v>
       </c>
       <c r="E46" s="149">
         <f t="shared" si="17"/>
-        <v>4.8325649001850941E-2</v>
+        <v>4.5280695540414723E-2</v>
       </c>
       <c r="F46" s="149">
         <f t="shared" si="17"/>
-        <v>3.5919438402142881E-3</v>
-      </c>
-      <c r="G46" s="149" t="str">
+        <v>4.8325649001850941E-2</v>
+      </c>
+      <c r="G46" s="149">
         <f t="shared" si="17"/>
-        <v/>
+        <v>4.6494399535128246E-2</v>
       </c>
       <c r="H46" s="149" t="str">
         <f t="shared" si="17"/>
@@ -14199,23 +14281,23 @@
       </c>
       <c r="C47" s="165">
         <f t="shared" ref="C47:M47" si="18">IF(C14="","",IF(C28&lt;=0,"-",C14/C28))</f>
-        <v>1.4482597334747438</v>
+        <v>0.69622453455981348</v>
       </c>
       <c r="D47" s="165">
         <f t="shared" si="18"/>
-        <v>1.8092495323267772</v>
+        <v>1.4141479199090665</v>
       </c>
       <c r="E47" s="165">
         <f t="shared" si="18"/>
-        <v>0.37206992734987693</v>
+        <v>1.778814937901906</v>
       </c>
       <c r="F47" s="165">
         <f t="shared" si="18"/>
-        <v>8.841647273095214</v>
-      </c>
-      <c r="G47" s="165" t="str">
+        <v>0.34373799162491642</v>
+      </c>
+      <c r="G47" s="165">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0.4964152425476554</v>
       </c>
       <c r="H47" s="165" t="str">
         <f t="shared" si="18"/>
@@ -14250,23 +14332,23 @@
       </c>
       <c r="C48" s="149">
         <f>IF(C14="","",IF(C18&lt;=0,"-",C18/C14))</f>
-        <v>3.6943316343091043E-3</v>
+        <v>2.2478196343631747E-2</v>
       </c>
       <c r="D48" s="149">
         <f>IF(D14="","",IF(D18&lt;=0,"-",D18/D14))</f>
-        <v>3.1377556137976285E-3</v>
+        <v>6.8227101396605306E-3</v>
       </c>
       <c r="E48" s="149">
         <f t="shared" ref="E48:M48" si="19">IF(E14="","",IF(E18&lt;=0,"-",E18/E14))</f>
-        <v>1.2183847258835851E-2</v>
+        <v>3.1914409733454466E-3</v>
       </c>
       <c r="F48" s="149">
         <f t="shared" si="19"/>
-        <v>6.1568744134947702E-3</v>
-      </c>
-      <c r="G48" s="149" t="str">
+        <v>5.7170008431832689E-2</v>
+      </c>
+      <c r="G48" s="149">
         <f t="shared" si="19"/>
-        <v/>
+        <v>4.0137774668262141E-2</v>
       </c>
       <c r="H48" s="149" t="str">
         <f t="shared" si="19"/>
@@ -14301,23 +14383,23 @@
       </c>
       <c r="C49" s="167">
         <f t="shared" ref="C49:M49" si="20">IF(C22="","",C22/C23)</f>
-        <v>4.7286852934645554</v>
+        <v>6.2044552010466241</v>
       </c>
       <c r="D49" s="167">
         <f t="shared" si="20"/>
-        <v>4.1639487695683695</v>
+        <v>4.7286852934645554</v>
       </c>
       <c r="E49" s="167">
         <f t="shared" si="20"/>
-        <v>2.4874071826139219</v>
+        <v>4.1639487695683695</v>
       </c>
       <c r="F49" s="167">
         <f t="shared" si="20"/>
-        <v>3.9049431255597491</v>
-      </c>
-      <c r="G49" s="167" t="str">
+        <v>2.4874071826139219</v>
+      </c>
+      <c r="G49" s="167">
         <f t="shared" si="20"/>
-        <v/>
+        <v>2.9364777158068827</v>
       </c>
       <c r="H49" s="167" t="str">
         <f t="shared" si="20"/>
@@ -14370,23 +14452,23 @@
       </c>
       <c r="C51" s="166">
         <f t="shared" ref="C51:M51" si="21">C13</f>
-        <v>0.47478104591089182</v>
+        <v>0.35861540849193901</v>
       </c>
       <c r="D51" s="166">
         <f t="shared" si="21"/>
-        <v>0.51787070012664316</v>
+        <v>0.46359821582296817</v>
       </c>
       <c r="E51" s="166">
         <f t="shared" si="21"/>
-        <v>0.44262146655414542</v>
+        <v>0.50915925129591777</v>
       </c>
       <c r="F51" s="166">
         <f t="shared" si="21"/>
-        <v>2.4449506963948854E-2</v>
-      </c>
-      <c r="G51" s="166" t="str">
+        <v>0.40891725662183481</v>
+      </c>
+      <c r="G51" s="166">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0.41866407246573573</v>
       </c>
       <c r="H51" s="166" t="str">
         <f t="shared" si="21"/>
@@ -14421,26 +14503,26 @@
       </c>
       <c r="C52" s="149">
         <f>C7/C21</f>
-        <v>8.6902655336968199E-2</v>
+        <v>6.6275455359050148E-2</v>
       </c>
       <c r="D52" s="149">
         <f>IF(D7="","",D7/D21)</f>
+        <v>8.6902655336968199E-2</v>
+      </c>
+      <c r="E52" s="149">
+        <f>IF(E7="","",E7/E21)</f>
         <v>0.13507590672231998</v>
       </c>
-      <c r="E52" s="149">
-        <f t="shared" ref="E52:M52" si="22">IF(E7="","",E7/E21)</f>
+      <c r="F52" s="149">
+        <f>IF(F7="","",F7/F21)</f>
         <v>3.1527250240583955E-2</v>
       </c>
-      <c r="F52" s="149">
-        <f t="shared" si="22"/>
-        <v>1.0115502541769159</v>
-      </c>
-      <c r="G52" s="149" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="G52" s="149">
+        <f>IF(G7="","",G7/G21)</f>
+        <v>4.4315266122899342E-2</v>
       </c>
       <c r="H52" s="149" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H52:M52" si="22">IF(H7="","",H7/H21)</f>
         <v/>
       </c>
       <c r="I52" s="149" t="str">
@@ -14472,23 +14554,23 @@
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
-        <v>1.131173322330681</v>
+        <v>1.0991167971299338</v>
       </c>
       <c r="D53" s="168">
         <f>IF(D29="","",D21/D29)</f>
-        <v>1.1588343889227657</v>
+        <v>1.131173322330681</v>
       </c>
       <c r="E53" s="168">
         <f t="shared" ref="E53:M53" si="23">IF(E29="","",E21/E29)</f>
-        <v>1.2810430840144151</v>
+        <v>1.1588343889227657</v>
       </c>
       <c r="F53" s="168">
         <f t="shared" si="23"/>
-        <v>1.284118650813121</v>
-      </c>
-      <c r="G53" s="168" t="str">
+        <v>1.2810430840144151</v>
+      </c>
+      <c r="G53" s="168">
         <f t="shared" si="23"/>
-        <v/>
+        <v>1.236629570771848</v>
       </c>
       <c r="H53" s="168" t="str">
         <f t="shared" si="23"/>
@@ -14523,23 +14605,23 @@
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
-        <v>4.667190992723403E-2</v>
+        <v>2.6123148010783154E-2</v>
       </c>
       <c r="D54" s="149">
         <f>IF(D51="","",D51*D52*D53)</f>
-        <v>8.1062614429709939E-2</v>
+        <v>4.5572615751339134E-2</v>
       </c>
       <c r="E54" s="149">
         <f t="shared" ref="E54:M54" si="24">IF(E51="","",E51*E52*E53)</f>
-        <v>1.7876492164072073E-2</v>
+        <v>7.9699006066625208E-2</v>
       </c>
       <c r="F54" s="149">
         <f t="shared" si="24"/>
-        <v>3.1758700459941808E-2</v>
-      </c>
-      <c r="G54" s="149" t="str">
+        <v>1.6515254424199634E-2</v>
+      </c>
+      <c r="G54" s="149">
         <f t="shared" si="24"/>
-        <v/>
+        <v>2.2943447855852166E-2</v>
       </c>
       <c r="H54" s="149" t="str">
         <f t="shared" si="24"/>
@@ -14574,19 +14656,19 @@
       </c>
       <c r="C55" s="158">
         <f>C38*C54</f>
-        <v>9.9097182325195918E-3</v>
+        <v>1.8902730786689171E-3</v>
       </c>
       <c r="D55" s="158">
         <f>IF(D38="","",D38*D54)</f>
-        <v>2.1002249585389977E-3</v>
+        <v>9.9097182325195935E-3</v>
       </c>
       <c r="E55" s="158">
         <f t="shared" ref="E55:M55" si="25">IF(E38="","",E38*E54)</f>
+        <v>2.1002249585389977E-3</v>
+      </c>
+      <c r="F55" s="158">
+        <f t="shared" si="25"/>
         <v>5.1226044257605388E-4</v>
-      </c>
-      <c r="F55" s="158" t="str">
-        <f t="shared" si="25"/>
-        <v/>
       </c>
       <c r="G55" s="158" t="str">
         <f t="shared" si="25"/>
@@ -14704,27 +14786,27 @@
         <v>247</v>
       </c>
       <c r="C61" s="173">
-        <f t="shared" ref="C61:M61" si="26">IF(C60="","",C60/C7)</f>
+        <f>IF(C60="","",C60/C7)</f>
         <v>0</v>
       </c>
       <c r="D61" s="173">
-        <f t="shared" si="26"/>
+        <f>IF(D60="","",D60/D7)</f>
         <v>0</v>
       </c>
       <c r="E61" s="173">
-        <f t="shared" si="26"/>
+        <f>IF(E60="","",E60/E7)</f>
         <v>0</v>
       </c>
       <c r="F61" s="173" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(F60="","",F60/F7)</f>
         <v/>
       </c>
       <c r="G61" s="173" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(G60="","",G60/G7)</f>
         <v/>
       </c>
       <c r="H61" s="173" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H61:M61" si="26">IF(H60="","",H60/H7)</f>
         <v/>
       </c>
       <c r="I61" s="173" t="str">
@@ -16064,26 +16146,26 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B60:M61">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$C$58="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M38 D45:M49 D51:M55">
-    <cfRule type="containsBlanks" dxfId="14" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M43">
-    <cfRule type="containsBlanks" dxfId="13" priority="7">
+    <cfRule type="containsBlanks" dxfId="15" priority="7">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="14" priority="6">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D60" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
@@ -16108,8 +16190,8 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -16148,7 +16230,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="190">
-        <v>160090995.734</v>
+        <v>163104843.49900001</v>
       </c>
       <c r="E3" s="191" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
@@ -16160,7 +16242,7 @@
         <v>216</v>
       </c>
       <c r="I3" s="163">
-        <v>159323330.11500001</v>
+        <v>162348812.058</v>
       </c>
       <c r="K3" s="43"/>
     </row>
@@ -16171,7 +16253,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="186">
         <f>D3-I3</f>
-        <v>767665.61899998784</v>
+        <v>756031.44100001454</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="6"/>
@@ -16181,7 +16263,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>19.496533400243045</v>
+        <v>19.86676423656159</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16201,11 +16283,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>94693138.395559996</v>
+        <v>103536417.87765998</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.40850428244635406</v>
+        <v>0.36521555303601538</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16214,7 +16296,7 @@
       </c>
       <c r="I6" s="184">
         <f>C28/I28</f>
-        <v>4.8817709652895234</v>
+        <v>6.2044552010466241</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="43"/>
@@ -16226,7 +16308,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>11.587681064476177</v>
+        <v>12.669840806341966</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16237,7 +16319,7 @@
       </c>
       <c r="I7" s="184">
         <f>C25/I28</f>
-        <v>0.49441990437393296</v>
+        <v>0.66510052636151962</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="77"/>
@@ -16251,7 +16333,7 @@
       </c>
       <c r="I8" s="184">
         <f>C24/I28</f>
-        <v>3.2145491810156961</v>
+        <v>4.0304207488828494</v>
       </c>
       <c r="K8" s="43"/>
     </row>
@@ -16262,10 +16344,10 @@
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="188">
-        <v>44926</v>
+        <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16303,14 +16385,14 @@
         <v>78</v>
       </c>
       <c r="C11" s="179">
-        <v>3379024.0260000001</v>
+        <v>2792975.93</v>
       </c>
       <c r="D11" s="180">
         <v>1</v>
       </c>
       <c r="E11" s="51">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>3379024.0260000001</v>
+        <v>2792975.93</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -16318,7 +16400,7 @@
         <v>79</v>
       </c>
       <c r="I11" s="179">
-        <v>2230528</v>
+        <v>1132532</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
@@ -16328,14 +16410,14 @@
         <v>80</v>
       </c>
       <c r="C12" s="179">
-        <v>41083645.866999999</v>
+        <v>41139298.042000003</v>
       </c>
       <c r="D12" s="180">
         <v>0.98</v>
       </c>
       <c r="E12" s="51">
         <f t="shared" si="0"/>
-        <v>40261972.949659996</v>
+        <v>40316512.081160001</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -16343,7 +16425,7 @@
         <v>81</v>
       </c>
       <c r="I12" s="179">
-        <v>40711.811999999998</v>
+        <v>41018.313999999998</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
@@ -16368,7 +16450,8 @@
         <v>83</v>
       </c>
       <c r="I13" s="179">
-        <v>1695386.811</v>
+        <f>827476.708+1671511.006</f>
+        <v>2498987.7140000002</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
@@ -16378,14 +16461,14 @@
         <v>84</v>
       </c>
       <c r="C14" s="179">
-        <v>9150.4850000000006</v>
+        <v>8456.6190000000006</v>
       </c>
       <c r="D14" s="180">
         <v>0.6</v>
       </c>
       <c r="E14" s="51">
         <f t="shared" si="0"/>
-        <v>5490.2910000000002</v>
+        <v>5073.9714000000004</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -16419,7 +16502,7 @@
       </c>
       <c r="I15" s="130">
         <f>I28-SUM(I11:I14)</f>
-        <v>9867916.8460000008</v>
+        <v>7229730.824</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -16453,14 +16536,15 @@
         <v>345</v>
       </c>
       <c r="C17" s="179">
-        <v>6840073.6589999991</v>
+        <f>109511.988+1757222.03+31752.493+3096175.528+2256442.713</f>
+        <v>7251104.7520000003</v>
       </c>
       <c r="D17" s="180">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="51">
         <f t="shared" si="0"/>
-        <v>4104044.1953999992</v>
+        <v>5075773.3263999997</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -16473,14 +16557,14 @@
         <v>88</v>
       </c>
       <c r="C18" s="179">
-        <v>13046.883</v>
+        <v>8995.232</v>
       </c>
       <c r="D18" s="180">
         <v>0.6</v>
       </c>
       <c r="E18" s="51">
         <f t="shared" si="0"/>
-        <v>7828.1297999999997</v>
+        <v>5397.1391999999996</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -16492,14 +16576,14 @@
         <v>89</v>
       </c>
       <c r="C19" s="179">
-        <v>8609555.8550000004</v>
+        <v>6947403.7850000001</v>
       </c>
       <c r="D19" s="180">
         <v>0.6</v>
       </c>
       <c r="E19" s="51">
         <f t="shared" si="0"/>
-        <v>5165733.5130000003</v>
+        <v>4168442.2709999997</v>
       </c>
       <c r="F19" s="181" t="s">
         <v>203</v>
@@ -16516,14 +16600,14 @@
         <v>90</v>
       </c>
       <c r="C20" s="179">
-        <v>7527029.5259999996</v>
+        <v>9433372.8080000002</v>
       </c>
       <c r="D20" s="180">
         <v>0.45</v>
       </c>
       <c r="E20" s="51">
         <f t="shared" si="0"/>
-        <v>3387163.2867000001</v>
+        <v>4245017.7636000002</v>
       </c>
       <c r="F20" s="181" t="s">
         <v>203</v>
@@ -16540,14 +16624,14 @@
         <v>91</v>
       </c>
       <c r="C21" s="179">
-        <v>75546.323999999993</v>
+        <v>61031.514000000003</v>
       </c>
       <c r="D21" s="180">
         <v>0.95</v>
       </c>
       <c r="E21" s="51">
         <f t="shared" si="0"/>
-        <v>71769.007799999992</v>
+        <v>57979.938300000002</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -16578,7 +16662,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16586,81 +16670,81 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
-        <v>44471820.377999999</v>
+        <v>43940730.591000006</v>
       </c>
       <c r="D24" s="183">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.98144143630000158</v>
+        <v>0.98119811397470891</v>
       </c>
       <c r="E24" s="51">
         <f>SUM(E11:E14)</f>
-        <v>43646487.266659997</v>
+        <v>43114561.982560001</v>
       </c>
       <c r="F24" s="233">
         <f>E24/$E$28</f>
-        <v>0.77410686917760585</v>
+        <v>0.76083842091504728</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
-        <v>3966626.6229999997</v>
+        <v>3672538.0279999999</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
-        <v>6840073.6589999991</v>
+        <v>7251104.7520000003</v>
       </c>
       <c r="D25" s="183">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="51">
         <f>SUM(E15:E17)</f>
-        <v>4104044.1953999992</v>
+        <v>5075773.3263999997</v>
       </c>
       <c r="F25" s="233">
         <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
-        <v>7.278864811405783E-2</v>
+        <v>8.957167103177395E-2</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
-        <v>4.0755248285352721</v>
+        <v>5.1977412399497478</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
-        <v>16149632.263999999</v>
+        <v>16389771.824999999</v>
       </c>
       <c r="D26" s="183">
         <f t="shared" ref="D26:D27" si="3">IF(E26=0,0,E26/C26)</f>
-        <v>0.53008791714614867</v>
+        <v>0.51366530685670475</v>
       </c>
       <c r="E26" s="51">
         <f>E18+E19+E20</f>
-        <v>8560724.9295000006</v>
+        <v>8418857.1737999991</v>
       </c>
       <c r="F26" s="233">
         <f t="shared" si="2"/>
-        <v>0.15183159947279407</v>
+        <v>0.14856674180325227</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="41" t="s">
@@ -16668,7 +16752,7 @@
       </c>
       <c r="I26" s="184">
         <f>E24/($I$28-I15)</f>
-        <v>11.003427197705268</v>
+        <v>11.73971832390785</v>
       </c>
       <c r="J26" s="13" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
@@ -16677,11 +16761,11 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
-        <v>75546.323999999993</v>
+        <v>61031.514000000003</v>
       </c>
       <c r="D27" s="183">
         <f t="shared" si="3"/>
@@ -16689,11 +16773,11 @@
       </c>
       <c r="E27" s="51">
         <f>E21+E22</f>
-        <v>71769.007799999992</v>
+        <v>57979.938300000002</v>
       </c>
       <c r="F27" s="233">
         <f t="shared" si="2"/>
-        <v>1.2728832355422817E-3</v>
+        <v>1.0231662499265999E-3</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="41" t="s">
@@ -16701,7 +16785,7 @@
       </c>
       <c r="I27" s="184">
         <f>(E25+E24)/$I$28</f>
-        <v>3.4515437078973985</v>
+        <v>4.4202116057814491</v>
       </c>
       <c r="J27" s="13" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Problem!","")</f>
@@ -16714,15 +16798,15 @@
       </c>
       <c r="C28" s="307">
         <f>SUM(C24:C27)</f>
-        <v>67537072.625</v>
+        <v>67642638.682000011</v>
       </c>
       <c r="D28" s="166">
         <f t="shared" ref="D28" si="4">E28/C28</f>
-        <v>0.83484556270934451</v>
+        <v>0.83774337496593498</v>
       </c>
       <c r="E28" s="212">
         <f>SUM(E24:E27)</f>
-        <v>56383025.399359994</v>
+        <v>56667172.421059996</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -16730,7 +16814,7 @@
         <v>53</v>
       </c>
       <c r="I28" s="190">
-        <v>13834543.469000001</v>
+        <v>10902268.852</v>
       </c>
       <c r="J28" s="68">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
@@ -16768,7 +16852,7 @@
         <v>95</v>
       </c>
       <c r="I30" s="179">
-        <v>997248.75199999998</v>
+        <v>831996</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -16777,14 +16861,14 @@
         <v>96</v>
       </c>
       <c r="C31" s="179">
-        <v>941238.06900000002</v>
+        <v>1192311.834</v>
       </c>
       <c r="D31" s="180">
         <v>0.6</v>
       </c>
       <c r="E31" s="51">
         <f t="shared" ref="E31:E42" si="5">C31*D31</f>
-        <v>564742.84140000003</v>
+        <v>715387.1004</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -16792,7 +16876,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="179">
-        <v>35896.328000000001</v>
+        <v>15377.8</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -16816,7 +16900,8 @@
         <v>100</v>
       </c>
       <c r="I32" s="179">
-        <v>1739746.648</v>
+        <f>1599837.513+132.617331</f>
+        <v>1599970.1303310001</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -16854,14 +16939,15 @@
         <v>101</v>
       </c>
       <c r="C34" s="179">
-        <v>19909711.574000001</v>
+        <f>3995171.299+10433170.434+3438924.798</f>
+        <v>17867266.530999999</v>
       </c>
       <c r="D34" s="180">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E34" s="51">
         <f t="shared" si="5"/>
-        <v>7963884.6296000006</v>
+        <v>12507086.571699999</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -16870,7 +16956,7 @@
       </c>
       <c r="I34" s="130">
         <f>I48-SUM(I30:I33)</f>
-        <v>2692468.8590000002</v>
+        <v>2816816.9016690003</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -16879,14 +16965,15 @@
         <v>103</v>
       </c>
       <c r="C35" s="179">
-        <v>23060132.886</v>
+        <f>17076647.976+6478483.281</f>
+        <v>23555131.256999999</v>
       </c>
       <c r="D35" s="180">
         <v>0.4</v>
       </c>
       <c r="E35" s="51">
         <f t="shared" si="5"/>
-        <v>9224053.1544000003</v>
+        <v>9422052.5028000008</v>
       </c>
       <c r="F35" s="181" t="s">
         <v>204</v>
@@ -16904,14 +16991,15 @@
         <v>104</v>
       </c>
       <c r="C36" s="179">
-        <v>66597606.537</v>
+        <f>66006682.723+1680928.34</f>
+        <v>67687611.062999994</v>
       </c>
       <c r="D36" s="180">
         <v>0.6</v>
       </c>
       <c r="E36" s="51">
         <f t="shared" si="5"/>
-        <v>39958563.922200002</v>
+        <v>40612566.637799993</v>
       </c>
       <c r="F36" s="181" t="s">
         <v>203</v>
@@ -16934,7 +17022,7 @@
         <v>0.45</v>
       </c>
       <c r="E37" s="51">
-        <f t="shared" si="5"/>
+        <f>C37*D37</f>
         <v>0</v>
       </c>
       <c r="F37" s="181" t="s">
@@ -16952,14 +17040,15 @@
         <v>250</v>
       </c>
       <c r="C38" s="179">
-        <v>114740.003</v>
+        <f>141849.478+1176512.988</f>
+        <v>1318362.466</v>
       </c>
       <c r="D38" s="180">
         <v>0.4</v>
       </c>
       <c r="E38" s="51">
         <f t="shared" si="5"/>
-        <v>45896.001199999999</v>
+        <v>527344.98640000005</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -16971,14 +17060,14 @@
         <v>251</v>
       </c>
       <c r="C39" s="179">
-        <v>1217891.264</v>
+        <v>0</v>
       </c>
       <c r="D39" s="180">
         <v>0.5</v>
       </c>
       <c r="E39" s="51">
         <f t="shared" si="5"/>
-        <v>608945.63199999998</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -17009,14 +17098,14 @@
         <v>106</v>
       </c>
       <c r="C41" s="179">
-        <v>12206.832</v>
+        <v>7651.35</v>
       </c>
       <c r="D41" s="180">
         <v>0.95</v>
       </c>
       <c r="E41" s="51">
         <f t="shared" si="5"/>
-        <v>11596.490400000001</v>
+        <v>7268.7825000000003</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -17053,11 +17142,11 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
-        <v>941238.06900000002</v>
+        <v>1192311.834</v>
       </c>
       <c r="D44" s="183">
         <f>IF(E44=0,0,E44/C44)</f>
@@ -17065,52 +17154,52 @@
       </c>
       <c r="E44" s="51">
         <f>SUM(E30:E31)</f>
-        <v>564742.84140000003</v>
+        <v>715387.1004</v>
       </c>
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
-        <v>2772891.7280000001</v>
+        <v>2447343.9303310001</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
-        <v>42969844.460000001</v>
+        <v>41422397.788000003</v>
       </c>
       <c r="D45" s="183">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.4</v>
+        <v>0.52940293767476776</v>
       </c>
       <c r="E45" s="51">
         <f>SUM(E32:E35)</f>
-        <v>17187937.784000002</v>
+        <v>21929139.074500002</v>
       </c>
       <c r="F45" s="233"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
-        <v>67930237.804000005</v>
+        <v>69005973.528999999</v>
       </c>
       <c r="D46" s="183">
         <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
-        <v>0.59786932694954464</v>
+        <v>0.59617899031466892</v>
       </c>
       <c r="E46" s="51">
         <f>E36+E37+E38+E39</f>
-        <v>40613405.555399999</v>
+        <v>41139911.624199994</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -17119,7 +17208,7 @@
       </c>
       <c r="I46" s="184">
         <f>(E44+E24)/D55</f>
-        <v>6.5599984754845275</v>
+        <v>7.1618945236834604</v>
       </c>
       <c r="J46" s="13" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
@@ -17128,19 +17217,19 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
-        <v>12506.832</v>
+        <v>7951.35</v>
       </c>
       <c r="D47" s="183">
         <f t="shared" si="6"/>
-        <v>0.927212454760726</v>
+        <v>0.91415702993831238</v>
       </c>
       <c r="E47" s="51">
         <f>E40+E41+E42</f>
-        <v>11596.490400000001</v>
+        <v>7268.7825000000003</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -17149,7 +17238,7 @@
       </c>
       <c r="I47" s="184">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>3.3939656848758375</v>
+        <v>4.3816020524287831</v>
       </c>
       <c r="J47" s="13" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Problem!","")</f>
@@ -17162,15 +17251,15 @@
       </c>
       <c r="C48" s="309">
         <f>SUM(C30:C42)</f>
-        <v>111853827.16500001</v>
+        <v>111628634.50099999</v>
       </c>
       <c r="D48" s="310">
         <f>E48/C48</f>
-        <v>0.52191046252789164</v>
+        <v>0.57146364700025543</v>
       </c>
       <c r="E48" s="304">
         <f>SUM(E30:E42)</f>
-        <v>58377682.6712</v>
+        <v>63791706.581599995</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -17178,7 +17267,7 @@
         <v>109</v>
       </c>
       <c r="I48" s="311">
-        <v>5465360.5870000003</v>
+        <v>5264160.8320000004</v>
       </c>
       <c r="J48" s="13"/>
     </row>
@@ -17188,15 +17277,15 @@
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
-        <v>179390899.79000002</v>
+        <v>179271273.183</v>
       </c>
       <c r="D49" s="149">
         <f>E49/C49</f>
-        <v>0.63972424579453069</v>
+        <v>0.67193631675553311</v>
       </c>
       <c r="E49" s="51">
         <f>E28+E48</f>
-        <v>114760708.07055999</v>
+        <v>120458879.00265999</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -17205,7 +17294,7 @@
       </c>
       <c r="I49" s="130">
         <f>I28+I48</f>
-        <v>19299904.056000002</v>
+        <v>16166429.684</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -17243,7 +17332,7 @@
       </c>
       <c r="C53" s="51">
         <f>D4</f>
-        <v>767665.61899998784</v>
+        <v>756031.44100001454</v>
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
@@ -17251,7 +17340,7 @@
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>767665.61899998784</v>
+        <v>756031.44100001454</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17272,11 +17361,11 @@
         <v>221</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="376">
+      <c r="D55" s="379">
         <f>D56+D57+D58</f>
-        <v>6739518.3509999998</v>
-      </c>
-      <c r="E55" s="377"/>
+        <v>6119881.9583310001</v>
+      </c>
+      <c r="E55" s="380"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
@@ -17287,11 +17376,11 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
-        <v>6739518.3509999998</v>
-      </c>
-      <c r="E56" s="378"/>
+        <v>6119881.9583310001</v>
+      </c>
+      <c r="E56" s="381"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
@@ -17299,7 +17388,7 @@
       </c>
       <c r="I56" s="149">
         <f>D56/I3</f>
-        <v>4.2300888050327577E-2</v>
+        <v>3.7695883824173833E-2</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="14">
@@ -17307,10 +17396,10 @@
         <v>112</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="383">
+      <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17323,10 +17412,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="383">
+      <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17363,15 +17452,15 @@
       </c>
       <c r="C61" s="192">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C33*G33)+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>24010521.440000001</v>
+        <v>24755899.710000001</v>
       </c>
       <c r="D61" s="149">
         <f>IF(E61=0,0,E61/C61)</f>
-        <v>0.40791643410473138</v>
+        <v>0.40970086700193697</v>
       </c>
       <c r="E61" s="130">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E33*G33)+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>9794286.2868000008</v>
+        <v>10142513.5746</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -17384,15 +17473,15 @@
       </c>
       <c r="C62" s="192">
         <f>C11+C12+C30</f>
-        <v>44462669.892999999</v>
+        <v>43932273.972000003</v>
       </c>
       <c r="D62" s="54">
         <f>IF(E62=0,0,E62/C62)</f>
-        <v>0.98151993752697786</v>
+        <v>0.98127149162903793</v>
       </c>
       <c r="E62" s="182">
         <f>E11+E12+E30</f>
-        <v>43640996.975659996</v>
+        <v>43109488.011160001</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -17404,11 +17493,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>12744349.659719981</v>
-      </c>
-      <c r="E63" s="347"/>
+        <v>11898096.740051009</v>
+      </c>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17440,11 +17529,11 @@
         <v>223</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="381">
+      <c r="D66" s="384">
         <f>((C28-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I28)/Data!C7</f>
-        <v>0.5934554144758829</v>
-      </c>
-      <c r="E66" s="382"/>
+        <v>1.077294160999559</v>
+      </c>
+      <c r="E66" s="385"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -17455,10 +17544,10 @@
         <v>222</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="379">
+      <c r="D67" s="382">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E67" s="380"/>
+      <c r="E67" s="383"/>
       <c r="F67" s="109" t="s">
         <v>209</v>
       </c>
@@ -17471,10 +17560,10 @@
         <v>224</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="379">
+      <c r="D68" s="382">
         <v>0.15</v>
       </c>
-      <c r="E68" s="380"/>
+      <c r="E68" s="383"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -17514,10 +17603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L878"/>
+  <dimension ref="A1:L879"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17544,7 +17633,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="315">
         <f>IF(I3="",IF(H3="",1,2),3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="115" t="s">
         <v>218</v>
@@ -17568,27 +17657,27 @@
       </c>
       <c r="C3" s="194">
         <f>EOMONTH(EDATE(D3,-12),0)</f>
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="D3" s="194">
         <f>EOMONTH(EDATE(E3,-12),0)</f>
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="E3" s="194">
         <f>EOMONTH(EDATE(F3,-12),0)</f>
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="F3" s="194">
         <f>Dashboard!E6</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="G3" s="194">
         <f>EOMONTH(EDATE(F3,12),0)</f>
-        <v>45107</v>
-      </c>
-      <c r="H3" s="194">
+        <v>45473</v>
+      </c>
+      <c r="H3" s="194" t="str">
         <f>IF(H9="","",EOMONTH(EDATE(G3,12),0))</f>
-        <v>45473</v>
+        <v/>
       </c>
       <c r="I3" s="194" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(H3,12),0))</f>
@@ -17600,20 +17689,25 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
+        <v>405</v>
+      </c>
+      <c r="C4" s="205">
+        <v>863945.24399999995</v>
+      </c>
+      <c r="D4" s="205">
+        <v>20223985.583999999</v>
+      </c>
+      <c r="E4" s="205">
+        <v>11129690.461999999</v>
+      </c>
       <c r="F4" s="205">
-        <v>11129690.461999999</v>
+        <v>6996333.7800000003</v>
       </c>
       <c r="G4" s="205">
-        <v>5639074.0700000003</v>
-      </c>
-      <c r="H4" s="206">
-        <v>8571392.5864000004</v>
-      </c>
+        <f>F4*0.8</f>
+        <v>5597067.0240000002</v>
+      </c>
+      <c r="H4" s="206"/>
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43"/>
@@ -17621,20 +17715,25 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
+        <v>406</v>
+      </c>
+      <c r="C5" s="196">
+        <v>1146927.916</v>
+      </c>
+      <c r="D5" s="196">
+        <v>1152340.1059999999</v>
+      </c>
+      <c r="E5" s="196">
+        <v>1147617.763</v>
+      </c>
       <c r="F5" s="196">
-        <v>1147617.763</v>
+        <v>1175707.9029999999</v>
       </c>
       <c r="G5" s="196">
-        <v>1182643.5900000001</v>
-      </c>
-      <c r="H5" s="197">
-        <v>1218122.8977000001</v>
-      </c>
+        <f>F5*1.02</f>
+        <v>1199222.06106</v>
+      </c>
+      <c r="H5" s="197"/>
       <c r="I5" s="197"/>
       <c r="J5" s="6"/>
       <c r="K5" s="43"/>
@@ -17642,20 +17741,25 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>407</v>
+      </c>
+      <c r="C6" s="196">
+        <v>611302.96900000004</v>
+      </c>
+      <c r="D6" s="196">
+        <v>262690.71899999998</v>
+      </c>
+      <c r="E6" s="196">
+        <v>451993.272</v>
+      </c>
       <c r="F6" s="196">
-        <v>451993.272</v>
+        <v>876597.36100000003</v>
       </c>
       <c r="G6" s="196">
-        <v>910302.3</v>
-      </c>
-      <c r="H6" s="197">
-        <v>1001332.5300000001</v>
-      </c>
+        <f>F6*1.05</f>
+        <v>920427.22905000008</v>
+      </c>
+      <c r="H6" s="197"/>
       <c r="I6" s="197"/>
       <c r="J6" s="6"/>
       <c r="K6" s="43"/>
@@ -17663,20 +17767,26 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>409</v>
-      </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
+        <v>408</v>
+      </c>
+      <c r="C7" s="196">
+        <v>3161890.2179999999</v>
+      </c>
+      <c r="D7" s="196">
+        <v>2818981.3330000001</v>
+      </c>
+      <c r="E7" s="196">
+        <v>2738482.4139999999</v>
+      </c>
       <c r="F7" s="196">
-        <v>2738482.4139999999</v>
+        <f>2746385.167</f>
+        <v>2746385.1669999999</v>
       </c>
       <c r="G7" s="196">
-        <v>2712461.43</v>
-      </c>
-      <c r="H7" s="197">
-        <v>2793835.2729000002</v>
-      </c>
+        <f>F7*0.95</f>
+        <v>2609065.9086499996</v>
+      </c>
+      <c r="H7" s="197"/>
       <c r="I7" s="197"/>
       <c r="J7" s="6"/>
       <c r="K7" s="43"/>
@@ -17687,29 +17797,26 @@
         <v>118</v>
       </c>
       <c r="C8" s="198">
-        <f>Data!F7</f>
-        <v>3573978</v>
+        <f>SUM(C4:C7)</f>
+        <v>5784066.3469999991</v>
       </c>
       <c r="D8" s="198">
-        <f>Data!E7</f>
-        <v>5886888</v>
+        <f>SUM(D4:D7)</f>
+        <v>24457997.741999999</v>
       </c>
       <c r="E8" s="198">
-        <f>Data!D7</f>
-        <v>24545345</v>
+        <f>SUM(E4:E7)</f>
+        <v>15467783.910999998</v>
       </c>
       <c r="F8" s="198">
-        <f>Data!C7</f>
-        <v>15554174</v>
+        <f>SUM(F4:F7)</f>
+        <v>11795024.210999999</v>
       </c>
       <c r="G8" s="200">
         <f>SUM(G4:G7)</f>
-        <v>10444481.390000001</v>
-      </c>
-      <c r="H8" s="200">
-        <f>SUM(H4:H7)</f>
-        <v>13584683.287</v>
-      </c>
+        <v>10325782.222759999</v>
+      </c>
+      <c r="H8" s="200"/>
       <c r="I8" s="201"/>
       <c r="J8" s="6"/>
       <c r="K8" s="43"/>
@@ -17722,24 +17829,21 @@
       <c r="C9" s="285"/>
       <c r="D9" s="171">
         <f>D8/C8-1</f>
-        <v>0.64715283641925048</v>
+        <v>3.2285126543691085</v>
       </c>
       <c r="E9" s="171">
         <f>E8/D8-1</f>
-        <v>3.1694941368002922</v>
+        <v>-0.36757767033242217</v>
       </c>
       <c r="F9" s="171">
         <f>Data!C8</f>
-        <v>-0.36630860148838817</v>
+        <v>-0.23613524813339493</v>
       </c>
       <c r="G9" s="149">
         <f>G8/F8-1</f>
-        <v>-0.32850941554337754</v>
-      </c>
-      <c r="H9" s="149">
-        <f>H8/G8-1</f>
-        <v>0.30065656491154891</v>
-      </c>
+        <v>-0.12456455891542717</v>
+      </c>
+      <c r="H9" s="149"/>
       <c r="I9" s="180"/>
       <c r="J9" s="6"/>
       <c r="K9" s="43"/>
@@ -17751,27 +17855,27 @@
       </c>
       <c r="C10" s="202">
         <f>Data!F9</f>
-        <v>3214958</v>
+        <v>2437232</v>
       </c>
       <c r="D10" s="202">
         <f>Data!E9</f>
-        <v>2437232</v>
+        <v>11010749</v>
       </c>
       <c r="E10" s="202">
         <f>Data!D9</f>
-        <v>11010749</v>
+        <v>7301864</v>
       </c>
       <c r="F10" s="202">
         <f>Data!C9</f>
-        <v>7301864</v>
+        <v>6492528.8569999998</v>
       </c>
       <c r="G10" s="203">
-        <f>(4650060+403099+85721)*2</f>
-        <v>10277760</v>
-      </c>
-      <c r="H10" s="204">
+        <f>G8*(1-G11)</f>
+        <v>6195469.333655999</v>
+      </c>
+      <c r="H10" s="204" t="str">
         <f>IF(H8="","",H8*(1-H11))</f>
-        <v>6792341.6435000002</v>
+        <v/>
       </c>
       <c r="I10" s="204" t="str">
         <f>IF(I8="","",I8*(1-I11))</f>
@@ -17787,26 +17891,24 @@
       </c>
       <c r="C11" s="96">
         <f t="shared" ref="C11:E11" si="0">(C8-C10)/C8</f>
-        <v>0.10045389199373919</v>
+        <v>0.57863000633384676</v>
       </c>
       <c r="D11" s="96">
         <f t="shared" si="0"/>
-        <v>0.58598974534592807</v>
+        <v>0.54980987748265198</v>
       </c>
       <c r="E11" s="96">
         <f t="shared" si="0"/>
-        <v>0.55141192759767688</v>
+        <v>0.52793082434987726</v>
       </c>
       <c r="F11" s="96">
         <f>(F8-F10)/F8</f>
-        <v>0.53055276352186875</v>
+        <v>0.44955357947081703</v>
       </c>
       <c r="G11" s="208">
         <v>0.4</v>
       </c>
-      <c r="H11" s="208">
-        <v>0.5</v>
-      </c>
+      <c r="H11" s="208"/>
       <c r="I11" s="208"/>
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
@@ -17817,27 +17919,27 @@
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
-        <v>359020</v>
+        <v>3346834.3469999991</v>
       </c>
       <c r="D12" s="51">
         <f t="shared" ref="D12:E12" si="1">D8-D10</f>
-        <v>3449656</v>
+        <v>13447248.741999999</v>
       </c>
       <c r="E12" s="51">
         <f t="shared" si="1"/>
-        <v>13534596</v>
+        <v>8165919.9109999985</v>
       </c>
       <c r="F12" s="51">
         <f>F8-F10</f>
-        <v>8252310</v>
+        <v>5302495.3539999994</v>
       </c>
       <c r="G12" s="51">
         <f>G8-G10</f>
-        <v>166721.3900000006</v>
-      </c>
-      <c r="H12" s="51">
+        <v>4130312.8891040003</v>
+      </c>
+      <c r="H12" s="51" t="str">
         <f>IF(H9="","",H8-H10)</f>
-        <v>6792341.6435000002</v>
+        <v/>
       </c>
       <c r="I12" s="51" t="str">
         <f>IF(I9="","",I8-I10)</f>
@@ -17852,26 +17954,24 @@
       </c>
       <c r="C13" s="54">
         <f>C14/C8</f>
-        <v>7.6004385029790331E-2</v>
+        <v>0.18022025448249931</v>
       </c>
       <c r="D13" s="54">
         <f t="shared" ref="D13:E13" si="2">D14/D8</f>
-        <v>0.14336827879178268</v>
+        <v>4.2403573994082511E-2</v>
       </c>
       <c r="E13" s="54">
         <f t="shared" si="2"/>
-        <v>3.3541227471033712E-2</v>
+        <v>6.7328499738051453E-2</v>
       </c>
       <c r="F13" s="54">
         <f>F14/F8</f>
-        <v>5.5771717610976962E-2</v>
+        <v>9.562883617891034E-2</v>
       </c>
       <c r="G13" s="207">
-        <v>0.1037</v>
-      </c>
-      <c r="H13" s="180">
-        <v>0.09</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="H13" s="180"/>
       <c r="I13" s="180"/>
       <c r="J13" s="6"/>
       <c r="K13" s="43"/>
@@ -17882,28 +17982,25 @@
       </c>
       <c r="C14" s="198">
         <f>Data!F11</f>
-        <v>271638</v>
+        <v>1042405.909</v>
       </c>
       <c r="D14" s="198">
         <f>Data!E11</f>
-        <v>843993</v>
+        <v>1037106.517</v>
       </c>
       <c r="E14" s="198">
         <f>Data!D11</f>
-        <v>823281</v>
+        <v>1041422.6849999999</v>
       </c>
       <c r="F14" s="198">
         <f>Data!C11</f>
-        <v>867483</v>
+        <v>1127944.4380000001</v>
       </c>
       <c r="G14" s="161">
-        <f>207908*2</f>
-        <v>415816</v>
-      </c>
-      <c r="H14" s="161">
-        <f>H8*H13</f>
-        <v>1222621.4958299999</v>
-      </c>
+        <f>G13*G8</f>
+        <v>1135836.0445035999</v>
+      </c>
+      <c r="H14" s="161"/>
       <c r="I14" s="161"/>
       <c r="J14" s="6"/>
       <c r="K14" s="43"/>
@@ -17914,27 +18011,27 @@
       </c>
       <c r="C15" s="166">
         <f t="shared" ref="C15:E15" si="3">C17/C8</f>
-        <v>2.4449506963948854E-2</v>
+        <v>0.39840975185134742</v>
       </c>
       <c r="D15" s="166">
         <f t="shared" si="3"/>
-        <v>0.44262146655414542</v>
+        <v>0.50740630348856941</v>
       </c>
       <c r="E15" s="166">
         <f t="shared" si="3"/>
-        <v>0.51787070012664316</v>
+        <v>0.46060232461182588</v>
       </c>
       <c r="F15" s="166">
         <f>F17/F8</f>
-        <v>0.47478104591089182</v>
+        <v>0.35392474329190671</v>
       </c>
       <c r="G15" s="166">
         <f>G17/G8</f>
-        <v>-2.384939957272492E-2</v>
-      </c>
-      <c r="H15" s="166">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="H15" s="166" t="str">
         <f>IF(H9="","",H17/H8)</f>
-        <v>0.41000000000000003</v>
+        <v/>
       </c>
       <c r="I15" s="166" t="str">
         <f>IF(I9="","",I17/I8)</f>
@@ -17951,23 +18048,23 @@
       <c r="C16" s="285"/>
       <c r="D16" s="171">
         <f t="shared" ref="D16:E16" si="4">D17/C17-1</f>
-        <v>28.819219061133872</v>
+        <v>4.3853450254114605</v>
       </c>
       <c r="E16" s="171">
         <f t="shared" si="4"/>
-        <v>3.8783419037688294</v>
+        <v>-0.42591332985307506</v>
       </c>
       <c r="F16" s="171">
         <f>F17/E17-1</f>
-        <v>-0.41903516669990482</v>
-      </c>
-      <c r="G16" s="149" t="str">
+        <v>-0.41405677010225006</v>
+      </c>
+      <c r="G16" s="149">
         <f>IF(ABS(F17+G17)=ABS(F17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-F17)/F17,"Turn")</f>
-        <v>Turn</v>
+        <v>-0.28268287898386218</v>
       </c>
       <c r="H16" s="149" t="str">
         <f>IF(H9="","",IF(ABS(G17+H17)=ABS(G17)+ABS(H17),IF(H17&lt;0,-1,1)*(H17-G17)/G17,"Turn"))</f>
-        <v>Turn</v>
+        <v/>
       </c>
       <c r="I16" s="149" t="str">
         <f>IF(I9="","",IF(ABS(H17+I17)=ABS(H17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-H17)/H17,"Turn"))</f>
@@ -17983,27 +18080,27 @@
       </c>
       <c r="C17" s="154">
         <f t="shared" ref="C17:D17" si="5">C12-C14</f>
-        <v>87382</v>
+        <v>2304428.4379999992</v>
       </c>
       <c r="D17" s="154">
         <f t="shared" si="5"/>
-        <v>2605663</v>
+        <v>12410142.224999998</v>
       </c>
       <c r="E17" s="154">
         <f>E12-E14</f>
-        <v>12711315</v>
+        <v>7124497.2259999989</v>
       </c>
       <c r="F17" s="154">
         <f>F12-F14</f>
-        <v>7384827</v>
+        <v>4174550.9159999993</v>
       </c>
       <c r="G17" s="154">
         <f>G12-G14</f>
-        <v>-249094.6099999994</v>
-      </c>
-      <c r="H17" s="154">
+        <v>2994476.8446004004</v>
+      </c>
+      <c r="H17" s="154" t="str">
         <f>IF(H9="","",H12-H14)</f>
-        <v>5569720.1476700008</v>
+        <v/>
       </c>
       <c r="I17" s="154" t="str">
         <f>IF(I9="","",I12-I14)</f>
@@ -18027,9 +18124,9 @@
         <f>IF(G17="","",F18)</f>
         <v>0.25</v>
       </c>
-      <c r="H18" s="166">
+      <c r="H18" s="166" t="str">
         <f>IF(H17="","",G18)</f>
-        <v>0.25</v>
+        <v/>
       </c>
       <c r="I18" s="166" t="str">
         <f>IF(I17="","",H18)</f>
@@ -18046,15 +18143,15 @@
       <c r="E19" s="285"/>
       <c r="F19" s="171">
         <f>F20/F8</f>
-        <v>0.35608578443316885</v>
+        <v>0.26544355746893006</v>
       </c>
       <c r="G19" s="149">
         <f>G20/G8</f>
-        <v>-2.384939957272492E-2</v>
-      </c>
-      <c r="H19" s="149">
+        <v>0.21750000000000005</v>
+      </c>
+      <c r="H19" s="149" t="str">
         <f>IF(H8="","",H20/H8)</f>
-        <v>0.30750000000000005</v>
+        <v/>
       </c>
       <c r="I19" s="149" t="str">
         <f>IF(I8="","",I20/I8)</f>
@@ -18070,15 +18167,15 @@
       <c r="E20" s="286"/>
       <c r="F20" s="51">
         <f>IF(F17&lt;=0,F17,F17*(1-F18))</f>
-        <v>5538620.25</v>
+        <v>3130913.1869999995</v>
       </c>
       <c r="G20" s="210">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
-        <v>-249094.6099999994</v>
-      </c>
-      <c r="H20" s="210">
+        <v>2245857.6334503004</v>
+      </c>
+      <c r="H20" s="210" t="str">
         <f>IF(H17="","",IF(H17&lt;=0,H17,H17*(1-H18)))</f>
-        <v>4177290.1107525006</v>
+        <v/>
       </c>
       <c r="I20" s="210" t="str">
         <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
@@ -18100,9 +18197,9 @@
         <f>IF(G9&lt;=0,0,(G8-F8)*Asset_Model!$D$67)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="213">
+      <c r="H21" s="213" t="str">
         <f>IF(H8="","",IF(H9&lt;=0,0,(H8-G8)*Asset_Model!$D$67))</f>
-        <v>268801.28238319996</v>
+        <v/>
       </c>
       <c r="I21" s="213" t="str">
         <f>IF(I8="","",IF(I9&lt;=0,0,(I8-H8)*Asset_Model!$D$67))</f>
@@ -18110,91 +18207,112 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="95">
+      <c r="B22" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="319">
+        <v>186146.902</v>
+      </c>
+      <c r="D22" s="319">
+        <v>181017.67300000001</v>
+      </c>
+      <c r="E22" s="319">
+        <v>181017.67300000001</v>
+      </c>
+      <c r="F22" s="320">
+        <v>198160.05499999999</v>
+      </c>
+      <c r="G22" s="319">
+        <f>F22</f>
+        <v>198160.05499999999</v>
+      </c>
+      <c r="H22" s="319"/>
+      <c r="I22" s="319"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="95">
         <f>Data!C33</f>
-        <v>1176000</v>
-      </c>
-      <c r="G22" s="161">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="161">
-        <v>1000000</v>
-      </c>
-      <c r="I22" s="161" t="str">
-        <f>IF(I15="","",IF(ABS(H23+I23)=ABS(H23)+ABS(I23),IF(I23&lt;0,-1,1)*(I23-H23)/H23,"Turn"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B23" s="85" t="s">
+        <v>231234.52100000001</v>
+      </c>
+      <c r="G23" s="161">
+        <f>F23</f>
+        <v>231234.52100000001</v>
+      </c>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161" t="str">
+        <f>IF(I15="","",IF(ABS(H24+I24)=ABS(H24)+ABS(I24),IF(I24&lt;0,-1,1)*(I24-H24)/H24,"Turn"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B24" s="85" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="289"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="214">
-        <f>F21+F22</f>
-        <v>1176000</v>
-      </c>
-      <c r="G23" s="214">
-        <f>IF(G15="","",G21+G22)</f>
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="214">
-        <f>IF(H15="","",H21+H22)</f>
-        <v>1268801.2823832</v>
-      </c>
-      <c r="I23" s="214" t="str">
-        <f>IF(I15="","",I21+I22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="214">
+        <f>F21-F22+F23</f>
+        <v>33074.466000000015</v>
+      </c>
+      <c r="G24" s="214">
+        <f>IF(G15="","",G21-G22+G23)</f>
+        <v>33074.466000000015</v>
+      </c>
+      <c r="H24" s="214" t="str">
+        <f>IF(H15="","",H21-H22+H23)</f>
+        <v/>
+      </c>
+      <c r="I24" s="214" t="str">
+        <f>IF(I15="","",I21-I22+I23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B25" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C24" s="285"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="171">
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="171">
         <f>AVERAGE(Data!C54:E54)</f>
-        <v>4.8537005507005349E-2</v>
-      </c>
-      <c r="G24" s="384"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="386"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B25" s="84" t="s">
+        <v>5.0464923276249164E-2</v>
+      </c>
+      <c r="G25" s="387"/>
+      <c r="H25" s="388"/>
+      <c r="I25" s="389"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B26" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="289"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="214">
-        <f>F20-F23</f>
-        <v>4362620.25</v>
-      </c>
-      <c r="G25" s="214">
-        <f>G20-G23</f>
-        <v>-1249094.6099999994</v>
-      </c>
-      <c r="H25" s="214">
-        <f>IF(H20="","",H20-H23)</f>
-        <v>2908488.8283693008</v>
-      </c>
-      <c r="I25" s="214" t="str">
-        <f>IF(I20="","",I20-I23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="214">
+        <f>F20-F24</f>
+        <v>3097838.7209999994</v>
+      </c>
+      <c r="G26" s="214">
+        <f>G20-G24</f>
+        <v>2212783.1674503004</v>
+      </c>
+      <c r="H26" s="214" t="str">
+        <f>IF(H20="","",H20-H24)</f>
+        <v/>
+      </c>
+      <c r="I26" s="214" t="str">
+        <f>IF(I20="","",I20-I24)</f>
+        <v/>
+      </c>
+    </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
@@ -19047,51 +19165,67 @@
     <row r="876" ht="15.75" customHeight="1"/>
     <row r="877" ht="15.75" customHeight="1"/>
     <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="C22:E22">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(C22))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="4">
+      <formula>LEN(TRIM(C22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G18:G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="18">
+    <cfRule type="containsBlanks" dxfId="12" priority="25">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
-      <formula>LEN(TRIM(G24))=0</formula>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsBlanks" dxfId="11" priority="14">
+      <formula>LEN(TRIM(G25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="containsBlanks" dxfId="10" priority="6">
+      <formula>LEN(TRIM(G22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13 H15:H17">
-    <cfRule type="containsBlanks" priority="27">
+    <cfRule type="containsBlanks" priority="34">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H23">
-    <cfRule type="containsBlanks" dxfId="9" priority="26">
+  <conditionalFormatting sqref="H10:H24">
+    <cfRule type="containsBlanks" dxfId="9" priority="33">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsBlanks" dxfId="8" priority="20">
+    <cfRule type="containsBlanks" dxfId="8" priority="27">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I23 H25:I25">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(H21))=0</formula>
+  <conditionalFormatting sqref="H21:I24 G22:H22 H26:I26">
+    <cfRule type="containsBlanks" priority="16">
+      <formula>LEN(TRIM(G21))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="9">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I24 H26:I26">
+    <cfRule type="containsBlanks" dxfId="7" priority="15">
       <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I17">
-    <cfRule type="containsBlanks" priority="23">
+    <cfRule type="containsBlanks" priority="30">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23">
-    <cfRule type="containsBlanks" dxfId="6" priority="22">
+  <conditionalFormatting sqref="I9:I24">
+    <cfRule type="containsBlanks" dxfId="6" priority="29">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19169,7 +19303,7 @@
     </row>
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19193,7 +19327,7 @@
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19217,7 +19351,7 @@
     </row>
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19241,7 +19375,7 @@
     </row>
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19649,19 +19783,19 @@
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
-        <v>25020</v>
+        <v>1688050</v>
       </c>
       <c r="K104" s="298">
         <f>Data!E19</f>
-        <v>1688050</v>
+        <v>9646036</v>
       </c>
       <c r="L104" s="298">
         <f>Data!D19</f>
-        <v>9646036</v>
+        <v>5735396</v>
       </c>
       <c r="M104" s="298">
         <f>Data!C19</f>
-        <v>5735396</v>
+        <v>5849379.3020000001</v>
       </c>
     </row>
     <row r="105" spans="2:13">
@@ -19670,19 +19804,19 @@
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
-        <v>69000</v>
+        <v>56000</v>
       </c>
       <c r="K105" s="298">
         <f>Data!E33</f>
-        <v>56000</v>
+        <v>247000</v>
       </c>
       <c r="L105" s="298">
         <f>Data!D33</f>
-        <v>247000</v>
+        <v>1176000</v>
       </c>
       <c r="M105" s="298">
         <f>Data!C33</f>
-        <v>1176000</v>
+        <v>231234.52100000001</v>
       </c>
     </row>
     <row r="106" spans="2:13">
@@ -19691,19 +19825,19 @@
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
-        <v>7352</v>
+        <v>1287845</v>
       </c>
       <c r="K106" s="298">
         <f>Data!E40</f>
-        <v>1287845</v>
+        <v>508443</v>
       </c>
       <c r="L106" s="298">
         <f>Data!D40</f>
-        <v>508443</v>
+        <v>3053687</v>
       </c>
       <c r="M106" s="298">
         <f>Data!C40</f>
-        <v>3053687</v>
+        <v>3513908.3724799999</v>
       </c>
     </row>
     <row r="107" spans="2:13">
@@ -19739,11 +19873,11 @@
       </c>
       <c r="L108" s="298">
         <f>Data!D34</f>
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="M108" s="298">
         <f>Data!C34</f>
-        <v>230000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:13">
@@ -19858,8 +19992,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -19896,7 +20030,7 @@
       </c>
       <c r="G2" s="115" t="str">
         <f>B21</f>
-        <v>TV after Year 2</v>
+        <v>TV after Year 1</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -19908,15 +20042,15 @@
       </c>
       <c r="C3" s="194">
         <f>Projections!F3</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="D3" s="194">
         <f>Projections!G3</f>
-        <v>45107</v>
-      </c>
-      <c r="E3" s="194">
+        <v>45473</v>
+      </c>
+      <c r="E3" s="194" t="str">
         <f>Projections!H3</f>
-        <v>45473</v>
+        <v/>
       </c>
       <c r="F3" s="194" t="str">
         <f>Projections!I3</f>
@@ -19935,15 +20069,15 @@
       </c>
       <c r="C4" s="242">
         <f>IF(B4="NOPAT",Projections!F20,Projections!F8)</f>
-        <v>5538620.25</v>
+        <v>3130913.1869999995</v>
       </c>
       <c r="D4" s="243">
         <f>IF(B4="NOPAT",Projections!G20,Projections!G8)</f>
-        <v>-249094.6099999994</v>
-      </c>
-      <c r="E4" s="243">
+        <v>2245857.6334503004</v>
+      </c>
+      <c r="E4" s="243" t="str">
         <f>IF(OR(Projections!H8="",E3=""),"",IF(B4="NOPAT",Projections!H20,Projections!H8))</f>
-        <v>4177290.1107525006</v>
+        <v/>
       </c>
       <c r="F4" s="243" t="str">
         <f>IF(Projections!I8="","",IF(B4="NOPAT",Projections!I20,Projections!I8))</f>
@@ -19962,11 +20096,11 @@
       <c r="C5" s="102"/>
       <c r="D5" s="241">
         <f>D4/C4-1</f>
-        <v>-1.0449741269046202</v>
-      </c>
-      <c r="E5" s="241">
+        <v>-0.28268287898386213</v>
+      </c>
+      <c r="E5" s="241" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v>-17.769893618944668</v>
+        <v/>
       </c>
       <c r="F5" s="241" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
@@ -19984,7 +20118,7 @@
       </c>
       <c r="C6" s="171">
         <f>C7/C4</f>
-        <v>0.21232724883060902</v>
+        <v>1.0563840012342066E-2</v>
       </c>
       <c r="D6" s="171">
         <f>IFD7/D4</f>
@@ -20001,16 +20135,16 @@
         <v>68</v>
       </c>
       <c r="C7" s="313">
-        <f>Projections!F23</f>
-        <v>1176000</v>
+        <f>Projections!F24</f>
+        <v>33074.466000000015</v>
       </c>
       <c r="D7" s="313">
-        <f>Projections!G23</f>
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="247">
-        <f>Projections!H23</f>
-        <v>1268801.2823832</v>
+        <f>Projections!G24</f>
+        <v>33074.466000000015</v>
+      </c>
+      <c r="E7" s="247" t="str">
+        <f>Projections!H24</f>
+        <v/>
       </c>
       <c r="F7" s="247"/>
       <c r="G7" s="103"/>
@@ -20025,15 +20159,15 @@
       </c>
       <c r="C8" s="51">
         <f>IF(C4="","",Projections!F20-C7)</f>
-        <v>4362620.25</v>
+        <v>3097838.7209999994</v>
       </c>
       <c r="D8" s="210">
         <f>Projections!G20-D7</f>
-        <v>-1249094.6099999994</v>
-      </c>
-      <c r="E8" s="210">
+        <v>2212783.1674503004</v>
+      </c>
+      <c r="E8" s="210" t="str">
         <f>IF(E4="","",Projections!H20-E7)</f>
-        <v>2908488.8283693008</v>
+        <v/>
       </c>
       <c r="F8" s="210" t="str">
         <f>IF(F4="","",Projections!I20-F7)</f>
@@ -20051,15 +20185,15 @@
       </c>
       <c r="C9" s="167">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>0.53385760488001377</v>
+        <v>0.37908519768541049</v>
       </c>
       <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.15285278537895536</v>
-      </c>
-      <c r="E9" s="248">
+        <v>0.2707801858054979</v>
+      </c>
+      <c r="E9" s="248" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v>0.35591428791756796</v>
+        <v/>
       </c>
       <c r="F9" s="248" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
@@ -20067,7 +20201,7 @@
       </c>
       <c r="G9" s="249">
         <f>INDEX(D9:F9,Projections!E2)</f>
-        <v>0.35591428791756796</v>
+        <v>0.2707801858054979</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -20078,9 +20212,9 @@
         <v>124</v>
       </c>
       <c r="C10" s="246"/>
-      <c r="D10" s="149">
-        <f ca="1">IF(Projections!$E2=1,"",Dashboard!C12)</f>
-        <v>0.06</v>
+      <c r="D10" s="149" t="str">
+        <f>IF(Projections!$E2=1,"",Dashboard!C12)</f>
+        <v/>
       </c>
       <c r="E10" s="149" t="str">
         <f>IF(Projections!$E2=2,"",IF(E4="","",D10))</f>
@@ -20103,9 +20237,9 @@
         <v>125</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="250">
-        <f ca="1">IF(D10="","",1+D10)</f>
-        <v>1.06</v>
+      <c r="D11" s="250" t="str">
+        <f>IF(D10="","",1+D10)</f>
+        <v/>
       </c>
       <c r="E11" s="250" t="str">
         <f>IF(E10="","",(1+D10)*(1+E10))</f>
@@ -20117,7 +20251,7 @@
       </c>
       <c r="G11" s="250">
         <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
-        <v>1.1236000000000002</v>
+        <v>1.06</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="36"/>
@@ -20129,9 +20263,9 @@
         <v>PV FCFF per share</v>
       </c>
       <c r="C12" s="251"/>
-      <c r="D12" s="252">
-        <f ca="1">IF(D11="","",D9/D11)</f>
-        <v>-0.14420074092354279</v>
+      <c r="D12" s="252" t="str">
+        <f>IF(D11="","",D9/D11)</f>
+        <v/>
       </c>
       <c r="E12" s="252" t="str">
         <f>IF(E11="","",E9/E11)</f>
@@ -20171,18 +20305,18 @@
       </c>
       <c r="C15" s="51">
         <f>Asset_Model!E62</f>
-        <v>43640996.975659996</v>
+        <v>43109488.011160001</v>
       </c>
       <c r="D15" s="106">
         <f>C15/(Dashboard!I5/Data!C4)</f>
-        <v>5.3403864615541012</v>
+        <v>5.2753452508825509</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>199</v>
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>45928099.292460009</v>
+        <v>46376088.186428979</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20191,18 +20325,18 @@
       </c>
       <c r="C16" s="51">
         <f>Asset_Model!E61</f>
-        <v>9794286.2868000008</v>
+        <v>10142513.5746</v>
       </c>
       <c r="D16" s="106">
         <f>C16/(Dashboard!I5/Data!C4)</f>
-        <v>1.1985352652640835</v>
+        <v>1.2411481389880274</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>5.5897792234107548</v>
+        <v>5.6750819333659113</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20211,13 +20345,13 @@
       </c>
       <c r="C17" s="51">
         <f>-Asset_Model!D55</f>
-        <v>-6739518.3509999998</v>
+        <v>-6119881.9583310001</v>
       </c>
       <c r="D17" s="106">
         <f>C17/(Dashboard!I5/Data!C4)</f>
-        <v>-0.82472067673315363</v>
-      </c>
-      <c r="E17" s="339" t="str">
+        <v>-0.74889523662367719</v>
+      </c>
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20234,20 +20368,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-767665.61899998784</v>
+        <v>-756031.44100001454</v>
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>-9.3939904282997519E-2</v>
-      </c>
-      <c r="E18" s="339"/>
+        <v>-9.2516219880988543E-2</v>
+      </c>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>5.3099045391628223</v>
+        <v>5.2753452508825509</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>0.27987468424793233</v>
+        <v>0.39973668248336169</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20262,16 +20396,16 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="387" t="s">
+      <c r="E20" s="390" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="387"/>
+      <c r="F20" s="390"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="81" t="str">
         <f>"TV after Year "&amp;Projections!E2</f>
-        <v>TV after Year 2</v>
+        <v>TV after Year 1</v>
       </c>
       <c r="C21" s="265" t="s">
         <v>189</v>
@@ -20302,15 +20436,15 @@
       <c r="D22" s="268"/>
       <c r="E22" s="239">
         <f ca="1">IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>1.9005746951810321</v>
+        <v>1.5327180328613088</v>
       </c>
       <c r="F22" s="239">
         <f ca="1">SUM(D12:F12)+E22+$G$16</f>
-        <v>7.3461531776682438</v>
+        <v>7.2077999662272205</v>
       </c>
       <c r="G22" s="271">
         <f ca="1">F22*Exchange_Rate</f>
-        <v>7.3461531776682438</v>
+        <v>7.2077999662272205</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20324,28 +20458,28 @@
       <c r="D23" s="270"/>
       <c r="E23" s="98">
         <f ca="1">IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>3.8011493903620641</v>
+        <v>3.0654360657226176</v>
       </c>
       <c r="F23" s="98">
         <f ca="1">SUM(D12:F12)+E23+$G$16</f>
-        <v>9.2467278728492772</v>
+        <v>8.740517999088528</v>
       </c>
       <c r="G23" s="272">
         <f ca="1">F23*Exchange_Rate</f>
-        <v>9.2467278728492772</v>
+        <v>8.740517999088528</v>
       </c>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="388" t="s">
+      <c r="E24" s="391" t="s">
         <v>332</v>
       </c>
-      <c r="F24" s="389"/>
+      <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>8.2713581109141945</v>
+        <v>7.9539312752854192</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20368,7 +20502,7 @@
       </c>
       <c r="G26" s="115" t="str">
         <f>G2</f>
-        <v>TV after Year 2</v>
+        <v>TV after Year 1</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -20380,15 +20514,15 @@
       </c>
       <c r="C27" s="194">
         <f>C3</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="D27" s="194">
         <f>D3</f>
-        <v>45107</v>
-      </c>
-      <c r="E27" s="194">
+        <v>45473</v>
+      </c>
+      <c r="E27" s="194" t="str">
         <f>E3</f>
-        <v>45473</v>
+        <v/>
       </c>
       <c r="F27" s="194" t="str">
         <f>F3</f>
@@ -20408,15 +20542,15 @@
       </c>
       <c r="C28" s="51">
         <f>C8</f>
-        <v>4362620.25</v>
+        <v>3097838.7209999994</v>
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-1249094.6099999994</v>
-      </c>
-      <c r="E28" s="51">
+        <v>2212783.1674503004</v>
+      </c>
+      <c r="E28" s="51" t="str">
         <f>E8</f>
-        <v>2908488.8283693008</v>
+        <v/>
       </c>
       <c r="F28" s="51" t="str">
         <f>F8</f>
@@ -20436,11 +20570,9 @@
         <v>7.1109500000000006E-2</v>
       </c>
       <c r="D29" s="207">
-        <v>0.08</v>
-      </c>
-      <c r="E29" s="180">
-        <v>0.08</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E29" s="180"/>
       <c r="F29" s="207"/>
       <c r="G29" s="207"/>
       <c r="I29" s="43"/>
@@ -20451,16 +20583,12 @@
       </c>
       <c r="C30" s="95">
         <f>MAX(Asset_Model!D55,0)</f>
-        <v>6739518.3509999998</v>
+        <v>6119881.9583310001</v>
       </c>
       <c r="D30" s="150">
-        <f>C30</f>
-        <v>6739518.3509999998</v>
-      </c>
-      <c r="E30" s="161">
-        <f>D30</f>
-        <v>6739518.3509999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E30" s="161"/>
       <c r="F30" s="161"/>
       <c r="G30" s="161"/>
       <c r="I30" s="43" t="s">
@@ -20479,9 +20607,9 @@
         <f>Projections!G18</f>
         <v>0.25</v>
       </c>
-      <c r="E31" s="171">
+      <c r="E31" s="171" t="str">
         <f>Projections!H18</f>
-        <v>0.25</v>
+        <v/>
       </c>
       <c r="F31" s="171" t="str">
         <f>Projections!I18</f>
@@ -20496,15 +20624,15 @@
       </c>
       <c r="C32" s="276">
         <f>C30*(C29*(1-Projections!F18))</f>
-        <v>359432.83513532591</v>
+        <v>326386.30958695372</v>
       </c>
       <c r="D32" s="276">
         <f>(D30*D29)*(1-D31)</f>
-        <v>404371.10106000002</v>
-      </c>
-      <c r="E32" s="277">
+        <v>0</v>
+      </c>
+      <c r="E32" s="277" t="str">
         <f>IF(E28="","",(E30*E29)*(1-E31))</f>
-        <v>404371.10106000002</v>
+        <v/>
       </c>
       <c r="F32" s="277" t="str">
         <f>IF(F28="","",(F30*F29)*(1-F31))</f>
@@ -20519,15 +20647,15 @@
       </c>
       <c r="C33" s="51">
         <f>C28-C32</f>
-        <v>4003187.4148646742</v>
+        <v>2771452.4114130456</v>
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-1653465.7110599994</v>
-      </c>
-      <c r="E33" s="210">
+        <v>2212783.1674503004</v>
+      </c>
+      <c r="E33" s="210" t="str">
         <f>IF(E28="","",E28-E32)</f>
-        <v>2504117.7273093006</v>
+        <v/>
       </c>
       <c r="F33" s="210" t="str">
         <f>IF(F28="","",F28-F32)</f>
@@ -20544,15 +20672,15 @@
       </c>
       <c r="C34" s="139">
         <f>C33/(Common_Shares/Data!$C$4)</f>
-        <v>0.48987349865839663</v>
+        <v>0.3391450233138919</v>
       </c>
       <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.20233602598294459</v>
-      </c>
-      <c r="E34" s="245">
+        <v>0.2707801858054979</v>
+      </c>
+      <c r="E34" s="245" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
-        <v>0.30643104731357873</v>
+        <v/>
       </c>
       <c r="F34" s="245" t="str">
         <f>IF(F33="","",F33/(Common_Shares/Data!$C$4))</f>
@@ -20560,7 +20688,7 @@
       </c>
       <c r="G34" s="139">
         <f>INDEX(D34:F34,Projections!E2)</f>
-        <v>0.30643104731357873</v>
+        <v>0.2707801858054979</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -20573,9 +20701,9 @@
         <f>Dashboard!C31</f>
         <v>9.5399999999999991</v>
       </c>
-      <c r="D35" s="149">
-        <f ca="1">D10</f>
-        <v>0.06</v>
+      <c r="D35" s="149" t="str">
+        <f>D10</f>
+        <v/>
       </c>
       <c r="E35" s="149" t="str">
         <f>IF(E10="","",E10)</f>
@@ -20596,9 +20724,9 @@
         <v>304</v>
       </c>
       <c r="C36" s="75"/>
-      <c r="D36" s="278">
-        <f ca="1">IF(D35="","",C35*D35)</f>
-        <v>0.57239999999999991</v>
+      <c r="D36" s="278" t="str">
+        <f>IF(D35="","",C35*D35)</f>
+        <v/>
       </c>
       <c r="E36" s="278" t="str">
         <f>IF(E35="","", $D$36)</f>
@@ -20623,9 +20751,9 @@
         <f>Qualitative_Analysis!E64^2</f>
         <v>0.23697688925910498</v>
       </c>
-      <c r="D37" s="245">
-        <f ca="1">IF(D36="","",D34-D36)</f>
-        <v>-0.77473602598294455</v>
+      <c r="D37" s="245" t="str">
+        <f>IF(D36="","",D34-D36)</f>
+        <v/>
       </c>
       <c r="E37" s="245" t="str">
         <f>IF(E36="","",E34-E36)</f>
@@ -20637,7 +20765,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.26596895268642118</v>
+        <v>-0.30161981419450201</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>302</v>
@@ -20648,9 +20776,9 @@
         <v>125</v>
       </c>
       <c r="C38" s="144"/>
-      <c r="D38" s="149">
-        <f ca="1">D11</f>
-        <v>1.06</v>
+      <c r="D38" s="149" t="str">
+        <f>D11</f>
+        <v/>
       </c>
       <c r="E38" s="149" t="str">
         <f>E11</f>
@@ -20662,7 +20790,7 @@
       </c>
       <c r="G38" s="149">
         <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
-        <v>0.92474876722846988</v>
+        <v>0.87240449738534886</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20671,9 +20799,9 @@
         <v>310</v>
       </c>
       <c r="C39" s="145"/>
-      <c r="D39" s="279">
-        <f ca="1">IF(D37="","",D37/D38)</f>
-        <v>-0.73088304338013632</v>
+      <c r="D39" s="279" t="str">
+        <f>IF(D37="","",D37/D38)</f>
+        <v/>
       </c>
       <c r="E39" s="279" t="str">
         <f>IF(E37="","",E37/E38)</f>
@@ -20685,7 +20813,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.28761211921757607</v>
+        <v>-0.34573390565784057</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20695,25 +20823,25 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="390" t="s">
+      <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>11.587681064476177</v>
+        <v>12.669840806341966</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="388" t="s">
+      <c r="E41" s="391" t="s">
         <v>306</v>
       </c>
-      <c r="F41" s="388"/>
+      <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>10.569185901878464</v>
+        <v>12.324106900684125</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20742,7 +20870,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>9.6040982296734718</v>
+        <v>10.488633138016668</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20750,15 +20878,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>7.5194564422566357</v>
+        <v>12.697808392522239</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.49601386719986446</v>
+        <v>0.52550156609634124</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>5.0458184167440692</v>
+        <v>7.2140217829414413</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20768,7 +20896,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.6</f>
-        <v>11.697920040145826</v>
+        <v>11.920058541936953</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20776,7 +20904,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>11.441516915560088</v>
+        <v>16.473807594443528</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20784,10 +20912,10 @@
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>6.1458742887278994</v>
+        <v>8.1985479751206949</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20796,7 +20924,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.623376384485727</v>
+        <v>11.185454919680176</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20804,15 +20932,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>9.4287261529341517</v>
+        <v>14.535975078845283</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.54488539918349255</v>
+        <v>0.56302348920490741</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>5.5813286085751086</v>
+        <v>7.6932918122771374</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20821,7 +20949,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>8.4553487215027712</v>
+        <v>9.8592855205472993</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20829,15 +20957,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>5.3676663437922976</v>
+        <v>11.037633789789155</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.43368472476226805</v>
+        <v>0.49627032380053454</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>4.4422863322174324</v>
+        <v>6.7811600971789403</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21748,7 +21876,7 @@
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{B6E9FFE5-BFA5-4858-88BE-381E3175A48C}">
       <formula1>"P/E, P/S, P/D, P/FCFF"</formula1>
     </dataValidation>
@@ -22502,7 +22630,7 @@
         <v>1.9455782312925169</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F5C5EE-0E7D-4807-A78B-8B99476F6464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD07B33-6E1C-4CCA-A77E-9B6B5515FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1467,34 +1478,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2314,7 +2325,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2362,7 +2373,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2462,7 +2473,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2479,8 +2490,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2489,7 +2500,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2514,7 +2525,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,16 +2544,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2572,14 +2583,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2673,7 +2684,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2706,7 +2717,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2726,7 +2737,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2734,7 +2745,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,7 +2755,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2765,7 +2776,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2774,7 +2785,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2819,10 +2830,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2831,13 +2842,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,7 +2857,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2903,7 +2914,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2945,7 +2956,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,13 +2968,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2975,10 +2986,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,7 +3066,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3074,7 +3085,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3095,41 +3106,122 @@
     <xf numFmtId="3" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3139,23 +3231,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3173,76 +3252,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10514,13 +10525,13 @@
       <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10555,27 +10566,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10592,10 +10603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44956</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10603,10 +10614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>8171879936</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10629,11 +10640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
         <v>73710.357022719996</v>
       </c>
-      <c r="J6" s="361"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10708,30 +10719,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10800,28 +10811,28 @@
         <f>I4</f>
         <v>9.02</v>
       </c>
-      <c r="C16" s="347">
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>4.0072607503345514E-2</v>
       </c>
-      <c r="E16" s="341" t="s">
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>5.6750819333659113</v>
       </c>
-      <c r="G16" s="341" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>3.3449180666340883</v>
       </c>
-      <c r="I16" s="336">
+      <c r="I16" s="367">
         <v>0.43</v>
       </c>
       <c r="J16" s="166">
@@ -10834,19 +10845,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>9.3212124330668136</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>3.6461304997009023</v>
       </c>
-      <c r="I17" s="337"/>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.613133785842962E-2</v>
@@ -10857,19 +10868,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.16407986825368015</v>
       </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>2.524918066634088</v>
       </c>
-      <c r="I18" s="338"/>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.2439024390243907E-2</v>
@@ -10907,84 +10918,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>400</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>401</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>402</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>403</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11024,214 +11035,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>44988</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.28909090909090907</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0.12424242424242424</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.41333333333333333</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>20000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>10000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>30000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>77959.734589439991</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>67009.415475200003</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>190799.99999999997</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>82000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>272800</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>9.0933333333333337</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>9.0933333333333337</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>74309.628218026672</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>74309.628218026672</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>E31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
         <v>11.185454919680176</v>
       </c>
-      <c r="J37" s="373"/>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>9.0933333333333337</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
         <v>9.8592855205472993</v>
       </c>
-      <c r="J38" s="373"/>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12433,6 +12444,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12449,46 +12500,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12593,12 +12604,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16194,18 +16205,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16405,7 +16416,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16430,7 +16441,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16456,7 +16467,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16481,7 +16492,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16506,7 +16517,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16531,7 +16542,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>345</v>
       </c>
@@ -16552,7 +16563,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16571,7 +16582,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16595,7 +16606,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16619,7 +16630,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16905,7 +16916,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16934,7 +16945,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16960,7 +16971,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16986,7 +16997,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -17011,7 +17022,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -17055,7 +17066,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17304,14 +17315,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17326,7 +17337,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17356,7 +17367,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17371,12 +17382,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>6119881.9583310001</v>
       </c>
@@ -17391,7 +17402,7 @@
         <v>3.7695883824173833E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17399,7 +17410,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17415,7 +17426,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17432,7 +17443,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17467,7 +17478,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17488,16 +17499,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>11898096.740051009</v>
       </c>
-      <c r="E63" s="350"/>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17609,14 +17620,14 @@
       <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19242,12 +19253,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19301,7 +19312,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>388</v>
       </c>
@@ -19325,7 +19336,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>389</v>
       </c>
@@ -19349,7 +19360,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>390</v>
       </c>
@@ -19373,7 +19384,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>391</v>
       </c>
@@ -19397,7 +19408,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>349</v>
       </c>
@@ -19462,7 +19473,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>352</v>
       </c>
@@ -19555,7 +19566,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>362</v>
       </c>
@@ -19664,7 +19675,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>361</v>
       </c>
@@ -19996,14 +20007,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20351,7 +20362,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-0.74889523662367719</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20374,7 +20385,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.2516219880988543E-2</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>5.2753452508825509</v>
@@ -20826,7 +20837,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>12.669840806341966</v>
@@ -21903,16 +21914,16 @@
       <selection activeCell="E56" sqref="E56:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21927,7 +21938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21943,7 +21954,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21957,7 +21968,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21972,7 +21983,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21987,7 +21998,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -22002,7 +22013,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -22017,7 +22028,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD07B33-6E1C-4CCA-A77E-9B6B5515FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A32C1DE-EF83-4F7D-9594-95370E1C6913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0083.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A32C1DE-EF83-4F7D-9594-95370E1C6913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAF1E38-DA2F-4954-A427-FF33CD46DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1478,34 +1467,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <